--- a/BBC_reading/panddas1.xlsx
+++ b/BBC_reading/panddas1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11742,6 +11742,2250 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: мільйони без грошей і їжі в Індії</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Через запровадження жорсткого карантину мільйони людей в Індії залишились без грошей та їжі.
+В Індії живе близько 1,3 млрд людей. Про карантин їх попередили менше, ніж за чотири години до його початку. Люди почали масово скуповувати їжу і ліки. Їм заборонили залишати оселі.
+Через такі заходи мільйони людей залишились без роботи і коштів для існування.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: кількість хворих подвоїлася за кілька днів
+"Ховати знайомих гірше". Як живе Європа на карантині
+Транспорт в країні зупинився.Тисячі людей, які працюють у великих містах, а живуть далеко у селах, не змогли дістатися додому.
+Один робітник помер, коли намагався пройти пішки відстань у 270 км до своєї домівки, повідомляє агенція Reuters.
+Копирайт изображения
+GETTY IMAGES
+Офіційно в Індії 900 інфікованих коронавірусом. Проте є припущення, що насправді кількість заражених набагато вища.
+Також є побоювання, що спалах в Індії, одній з найбільш густонаселених країн світу, може призвести до катастрофи. Поки повідомляється, що 20 людей загинули.
+Росія закрилась
+Тим часом свої кордони у зв'язку з коронавірусом повністю закрила Росія.
+Однак, ця заборона не стосуються людей, які проживають "на територіях окремих районів Донецької та Луганської областей України", і які мають паспорти РФ.
+У неділю, 29 березня, з Москви до Києва має повернутися потяг, який вивозить українців з РФ.
+Копирайт изображения
+REUTERS
+Місто Ухань, звідки почалась пандемія, почало навпаки поступово відкриватися після майже двомісячної ізоляції. Проте Китай тимчасово заборонив в'їзд іноземців до країни.
+Нові випадки зараження там траплялися саме через завезений з-за кордону вірус.
+Копирайт изображения
+AFP
+Image caption
+Ухань оживає
+У Південній Кореї вперше відзначили позитивний рекорд. Від коронавірусної хвороби одужало більше людей, ніж захворіли.
+За даними університету Джона Хопкінса, захворіли на коронавірусну хворобу у світі 622 тисяч людей, померли - 28 тисячі. Але є і хороші новини - 135 тисячі видужали.
+В Україні також видужують після коронавірусної хвороби.
+У Запорізькій області виписали першу пацієнтку, якій поставили діагноз Covid-19.
+А на Тернопільщині інфікувалися коронавірусом 21 медпрацівник. У Чернівецькій області троє інфікованих перебувають у важкому стані. Вони - на кисневій дотації.
+Копирайт изображения
+VLADIMIR GERDO GETTY IMAGES
+В Україні, станом на ранок 28 березня, було 311 підтверджених випадків коронавірусної хвороби. П'ятеро людей вже одужали.
+Найбільше хворих у регіонах:
+Київ - 74
+Київська область — 41;
+Тернопільська область — 43;
+Чернівецька область — 47;
+Івано-Франківська область — 28;
+В Україні від коронавірусу померли восьмеро людей.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+В'їзди і виїзди у Києві не закривають, але контролюють. Про це заявив радник мера Києва Володимир Бонадренко. Чиновник розповів, що на в'їздах у місто планують вибірково міряти температуру у пасажирів та водіїв. У разі погіршення ситуації, міряти температуру будуть всім.
+А ще у Києві через коронавірус перенесли кінофестиваль "Молодість" і "Книжковий Арсенал". Обидві події мали відбутися у травні, але пройдуть у серпні.
+Копирайт изображения
+ВВС
+В Італії знову рекорд
+Італія найбільше у Європі страждає від коронавірусу. Там 86 тисяч хворих, померли понад 9 тисяч людей. Майже все у країні закрито і людям наказано сидіти вдома. Видужали - 10 тисяч людей.
+Копирайт изображения
+ВВС
+Оновлюється...
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Поліція готова слідкувати за людьми на карантині. Якщо доведеться - Аваков</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+BARCROFT MEDIA GETTY IMAGES
+Правоохоронці можуть відстежувати переміщення людей під час карантину. Робити це вони будуть, якщо їм дозволять порушувати приватність у разі введення надзвичайного стану. Про це заявив міністр внутрішніх справ Арсен Аваков в інтерв'ю виданню Бабель.
+"Технічно ми до цього готові", - сказав пан Аваков.
+При цьому він зазначив, що надзвичайний стан в Україні можливий, але наразі "ми його не потребуємо". Вистачає інструментів надзвичайної ситуації.
+Нещодавно уряд оголосив режим надзвичайної ситуації по всій Україні.
+Надзвичайний стан Авакова: як зростає роль міністра внутрішніх справ
+Надзвичайний стан. Що це означає і які можуть бути обмеження
+Коронавірус: Кабмін продовжив карантин
+"Премʼєр-міністр теж не дурень"
+З початком спалаху коронавірусу в Україні керівник МВС став однією з ключових фігур не тільки в Кабміні, але й у державі загалом.
+Він керує найпотужнішою структурою в умовах карантину і радить Верховній Раді та всьому уряду, що треба зробити в економіці.
+На питання, чи влаштує він переворот, щоб усунути Зеленського, міністр відповів так: "Я один із найбільш досвідчених членів уряду, тому можу, хочу і буду висловлюватися на будь-яку тему. А президент у нас виконує свою функцію, і у нас хороший президент. І премʼєр-міністр теж не дурень, а працьовита, адекватна людина. Тому не бійтеся перевороту. Якщо переворот буде, ми його подолаємо на користь українського народу.
+Копирайт изображения
+ANADOLU AGENCY
+"Що важливіше — життя чи бізнес?"
+Останнім часом Арсен Аваков почав давати поради уряду та парламенту у сферах, які виходять за межі його компетенції як міністра внутрішніх справ — в економіці та фінансах.
+Також він з самого початку виступав за більш жорсткий карантин.
+"Я одразу говорив про карантин, і чим більше часу минає, тим більше людей погоджуються зі мною. Думаю, питання треба ставити інакше: що важливіше — життя чи бізнес? …Ну справді ж, абсурдно торгувати пончиками, відкривати кафе або щось у цьому дусі, коли на вулиці пандемія".
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Ольга Паламарюк</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>"Сусіди аплодують мені з балкона і пропонують борщ". Історія лікарки з Чернівців</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ОЛЬГА КОБЕВКО
+Ольга Кобевко працює лікарем-інфекціоністом у Чернівецькій обласній клінічній лікарні. Поговорити з нею вдалося не одразу. У лікарки настільки завантажений графік, що інтерв'ю пишемо о 22:00. Саме о цій порі Ольга зазвичай повертається з роботи.
+У Чернівецькій області кількість інфікованих коронавірусом росте надшвидкими темпами.
+Як працюється тамтешнім лікарям?
+"Коли тобі кажуть: у тебе - коронавірус". Розповідь першого українця, який одужав
+Коронавірус в Україні. Інтерактивна мапа
+"Захисні костюми поки що є"
+Ользі - 37 років. Лікарем-інфекціоністом працює із 2007-го. Однак із пандемією вона стикнулася вперше.
+Її робочий день починається удосвіта. До роботи і з роботи Ольга дістається на спецтранспорті: з моменту запровадження у Чернівцях карантину обласна лікарня виділила мікроавтобус.
+В інфекційному відділенні Чернівецької ОКЛ, розповідає вона, є кілька відокремлених частин: у приймальному відділенні приймають людей з підозрою на коронавірус, у стаціонарному перебувають пацієнти з підозрою, окремо - пацієнти з першим негативним аналізом, а у третьому крилі лежать люди з підтвердженим діагнозом.
+Відповіді на головні питання про коронавірус
+"На кожному крилі ми, звичайно, повинні переодягатися в інший захисний костюм із новими засобами індивідуального захисту. Поки що в нас вони є. Все доволі якісне. Сподіваюся, так і надалі буде. І нам всього вистачить", - каже Ольга Кобевко.
+"Коли приходимо на роботу, у нас за планом п'ятихвилинка. Ознайомлюємося, що сталося за ніч, які зміни в хворих. Потім ми починаємо працювати з пацієнтами. Під час чергування мусимо відлучатися на прийом. Туди приходять різні люди. Хтось - за консультацією. Дехто питає, чи є в нас тести і чи можна зробити тестування на вірус. Приходять просто порадитися, а хтось - вже на госпіталізацію. Різні пацієнти. І до кожного ми повинні підібрати різний підхід".
+Як коронавірус шириться планетою. Мапа
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Експрес-тести - не для всіх!
+З проханням пройти тест на коронавірус люди звертають дуже часто, каже Ольга. За її словами, це відбувається через паніку.
+Копирайт изображения
+ОЛЬГА КОБЕВКО
+Image caption
+Захисного одягу, розповідає Ольга Кобевко, поки що вистачає усім її колегам
+"Це неправильно! Ми краще знаємо, коли ці тести потрібні. На жаль, на нас люди ображаються. Буває, ображають нас нецензурними словами. Вони думають, що ми тести ховаємо. Та насправді у практикуючих лікарів їх ще немає. Вони перебувають у лабораторному центрі. І разом з епідеміологами ми вирішуємо - кому і яким методом призначати обстеження", - каже вона.
+Допомога від волонтерів
+Через напружений робочий графік лікарі часто забувають поїсти. Трапляється, що на першу каву чи бутерброд час знаходять пізно ввечері. Тоді на допомогу приходять волонтери.
+"У мене є чимало друзів-волонтерів. З деякими я познайомилася ще на Майдані. Хтось із них почав допомагати і військовим на фронті. Коли почалася війна, мені довелося на фронт їздити. Я там теж працювала інфекціоністом", - розповідає лікарка.
+"Вони розуміють, що в цій ситуації вони не можуть нічого зробити, бо не медики. Але хочуть. І от мої волонтери одного разу прийшли, не повідомивши. Замовили піцу, передали її через ворота і одразу втекли, бо розуміли, що я сваритиму. І просто на піці написали: "Оля, ми ж волонтери". Якби не та піца, в той день я б просто не змогла поїсти".
+"Довелося стати ще й психологами"
+Копирайт изображения
+ОЛЬГА КОБЕВКО
+Image caption
+Коли почався конфлікт на Сході України, Ользі довелося їздити на фронт. Вона там теж працювала інфекціоністом.
+Аби розвантажити медиків області та уникнути скупчення хворих, в районах створили госпітальні бази. Однак інфекціоністів залучають з обласної лікарні. Бо своїх не мають.
+Віднедавна Ольга працює на два медзаклади.
+"На жаль, з цією пандемією нам довелося стати ще й психологами. Люди бачили дуже багато негативної інформації в інтернеті та ЗМІ ще на початку епідемії, тому панікують".
+"Дуже багато буває депресивних настроїв, коли людина потрапляє до нас у стаціонар. Звичайно, додаються ще й умови стаціонару. Вони гнітючі: обдерті стіни, підлога, десь не працює світло".
+Але лікарі, каже Ольга, намагаються налаштувати пацієнтів на позитив:
+"Кожному своєму пацієнту я пояснюю: робота нашого імунітету залежить саме від гарного настрою. Чим позитивніше ми будемо налаштовані, тим легший буде перебіг самого захворювання. Навіть між колегами у нас вирує позитивний настрій. В нас навіть є своя група у Viber. Там ми пишемо один одному побажання або жарти - аби підняти настрій".
+Загалом в інфекційному відділенні Чернівецької обласної клінічної лікарні працює семеро інфекціоністів. Восьма - завідувачка відділення.
+"Я ізольована від своєї сім'ї"
+"Коли я вперше поїхала на фронт (знав про це, до речі, тільки тато), мене часто питали: чи не боюся я там загинути. Знаєте, є такі речі, які ти просто повинен робити. Це твій навіть не обов'язок…. А спосіб життя", - розповідає Ольга Кобевко.
+Однак каже, що почувається захищеною: "В мене є засоби індивідуального захисту. Я намагаюся дотримуватися всіх правил".
+Однак Ользі довелося ізолюватися від своєї сім'ї.
+"Я ізольована, на жаль, зараз від сім'ї. Мій 14-річний син живе зараз окремо - для того, щоб я не наражала його на небезпеку. Він навчається в Києві і приїздить лише на канікули. Зараз якраз він у Чернівцях - через вимушений карантин. Та, на жаль, я сина ще не бачила".
+Окрім колег та родичів, розповідає Ольга, її підтримують навіть сусіди:
+"Сусідка, що живе двері в двері, часто пише: "Олю, в мене є борщ. Може, ти хочеш поїсти?". Коли йде в магазин, питає, чи мені потрібно щось купити. Тому що я дійсно не встигаю ні приготувати їжу собі, ні сходити в магазин".
+"Сьогодні, приміром, коли я поверталася додому, магазин поблизу вже був закритий. І я - на тих запасах, що є. Мої сусіди все розуміють. Є навіть ті, хто щодня о 20:00 виходить на балкон і аплодує. Я теж виходжу на балкон і їм дякую".
+Які вона дає прогнози на майбутнє? Каже, що налаштована позитивно:
+"За 13 років роботи інфекціоністом я пережила різні епідемії: грип, кір… Переживемо і це".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>В Україні вісім смертей від коронавірусу</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+BARCROFT MEDIA GETTY IMAGES
+Від коронвірусу в Україні померли восьмеро людей, повідомляє МОЗ.
+За минулу добу зареєстрували три летальні випадки від коронавірусної хвороби: 1 - у Рівненській області, 1 - у Сумській області, 1 - в Івано-Франківській області.
+На Прикарпатті пацієнт помер раніше, проте вчора випадок підтвердили лабораторно.
+Раніше в Україні померло 5 осіб від коронавірусної хвороби.
+У МОЗ кажуть, що переважно це люди літнього віку або пацієнти, які тривалий час займалися самолікуванням і занадто пізно звернулися до лікарів.
+Копирайт изображения
+VLADIMIR GERDO
+В Україні, станом на ранок 28 березня, 311 підтверджених випадків коронавірусної хвороби. За добу виявили 93 нових хворих. П'ятеро людей вже одужали.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: кількість хворих подвоїлася за кілька днів
+"Ховати знайомих гірше". Як живе Європа на карантині
+Тим часом прикордонники у Луганській і Сумській областях затримали двох людей, які порушили зобов'язання по самоізоляції, повернувшись з-за кордону.
+З-за кордону до України повернулися понад 100 тисяч людей, але, як вони дотримуються карантину ніхто не контролює.
+Копирайт изображения
+ВВС
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Оксана Тороп</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Як оминути загрози від переведення годинника</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+295 березня о третій ночі українці переведуть стрілку на годину вперед. Так у неділю українцям доведеться спати менше. Які ж загрози виникнуть для здоров'я та що радять?
+BBC News Україна спитали про це лікарів та науковців.
+Терапевт рекомендує
+Терапевт-кардіолог вищої категорії Вікторія Форосенко наголошує, що якщо до цього готуватися і дотримуватися кількох порад, то наслідки переведення годинника будуть мінімальні.
+За її словами, після переведення годинника людина відчує всі ті проблеми, які є від недосипання.
+"Треба намагатися десь за тиждень до переведення годинника раніше на 15 хвилин лягати спати і раніше вставати", - каже медик в розмові з BBC News Україна.
+Так само, за її словами, варто поступово переносити прийом їжі.
+Як соцмережі впливають на наш настрій, сон, психічне здоров'я і стосунки
+Чому ми товстішаємо від стресу
+Пані Форосенко радить не планувати в перші дні після переведення годинника важливі справи та зустрічі.
+"Варто спробувати зробити ці дні на роботі більш легкими", - додає вона.
+Думка психіатра
+Психіатр Андрій Мухоморов каже, що переведення годинника дуже погано впливає на організм.
+"Людський організм - це ритмічна система, яка має стабільні денні та нічні ритми", - пояснює він.
+В коментарі BBC News Україна лікар каже, що кожні півроку примушувати його переадаптуватися з одного часу на інший - це серйозне навантаження.
+Універсальних порад, як краще мінімізувати ризики, немає. "Протягом місяця людина налаштовується на новий ритм і організм адаптовується", - пояснює пан Мухоморов.
+Якщо ж людина відчуває труднощі досить довгий період, то варто звернутися до лікаря.
+Він також вважає, що український парламент має скасувати переведення годинника, оскільки це "знущання з організму".
+"Єдине, що радує, що тим, хто приймає такі закони, теж годинник треба переводити і вони будуть страждати так само, як і всі люди", - додає психіатр.
+Поради науковця
+Здорові люди, особливо ранкові хронотипи та ритміки, які швидко адаптуються (або жайворонки та голуби, простою мовою) можуть майже не відчути переведення годинника, каже кандидат біологічних наук Ольга Маслова.
+Але для вечірніх хронотипів, а також для людей, у яких життя дуже жорстко розписано по годинах, можуть відчувати дискомфорт.
+"Є відомості про підвищені ризики для тих, хто страждає на серцево-судинні захворювання, обережними треба бути водіям", - звертає увагу науковець.
+Чи варто привчати себе прокидатися рано?
+Ви - жайворонок чи сова? У цьому винні пращури!
+За її словами, переведення годинника впливає на ритміку клітин організму, а також на багато функцій.
+"І хоча одна година - це не критично для здорових людей, і вони протягом кількох днів адаптуються, однак ризики ДТП у перші дні та деякі впливи на людей з серцево-судинними захворюваннями показані у багатьох дослідженнях", - каже пані Маслова BBC News Україна.
+Що стосується порад, то за словами науковця, готуватися варто за кілька днів. "Лягати і вставати на 15-30 хв раніше", - радить науковець.
+Також вона закликає бути більш уважними на дорозі та прислухатись до свого організму, не перевантажувати його.
+Стежте за нами в Telegram! Ми щодня надсилаємо добірку найкращих статей.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Діана Куришко</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Ємець і скандали. Як Україна п'ять тижнів нічого не купувала проти коронавірусу</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+19 лютого в Україні ще не було жодного хворого на коронавірус. Тоді ще не трапилися Нові Санжари і не закрили кордони.
+В цей день уряд вирішив, що до епідемії таки треба готуватися і виділив гроші на тести для коронавірусу і на захист для лікарів.
+Минуло п'ять тижнів. В Україні - 300 хворих, карантин і лікарі, які самі купують собі захисні костюми в інтернеті.
+І тільки зараз МОЗ починає купувати засоби для боротьби з пандемією.
+Допомагали волонтери і бізнесмени, щось купувала місцева влада, але впродовж всього цього часу централізованих закупівель засобів для боротьби з коронавірусом в Україні не було.
+Що не так у боротьбі з коронавірусом в Україні та як українці взагалі можуть залишитися без ліків, розповідає ВВС News Україна.
+"Ховати знайомих гірше". Як живе Європа на карантині
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+5 тижнів роздумів у часи пандемії
+Захисні окуляри і водонепроникні костюми, маски і рукавички, а ще тести на коронавірус - десятки найменувань і тисячі виробів.
+Все це могло бути в українських лікарнях вже зараз. Бо ще 19 лютого уряд видав постанову, у якій доручив МОЗ закупити ці медичні товари на суму 67 млн грн.
+Проте лише кілька днів тому, 26 березня, МОЗ врешті підписало угоду з міжнародною організацією Crown Agents Україна і дало старт цим закупівлям.
+Коли до України йде коронавірус, затягування на п'ять тижнів з медзакупівлями за бюджетні гроші виглядає досить дивно.
+Особливо на фоні інформації про те, що Рада планує урізати витрати на освіту і культуру, щоб перенаправити бюджет на фінансування боротьби з пандемією.
+Частково таку затримки можна списати на те, що в цей час змінився уряд. Лише 4 березня МОЗ отримало нового керівника - Іллю Ємця.
+"Договір на закупівлю медзасобів три тижні валяється на столі у міністра, який не поспішав підписувати угоду, бо не хотів, щоб препарати купувала міжнародна організація, а "не його смотрящій", - звинувачувала міністра "у спробі дерибану" бюджетних коштів депутатка від фракції "Голос" Олександра Устінова у своєму блозі.
+Депутатка порівнює потребу у захисті лікарів з бронежилетами, які колись з великими проблемами закуповували для армії.
+"Для медика костюм сьогодні - це як бронежилет для військового на фронті. І вони не просто браковані. Їх немає", - обурюється депутатка.
+У громадській організації "Пацієнти України" постійно відстежують закупівлі ліків і дивуються такому затягуванню рішень у ситуації з коронавірусом.
+"Державні закупівлі - це звісно процес не швидкий. Але п'ять тижнів - це занадто довго особливо у час епідемій. Доля цих закупівель залежала лише від волі міністра", - говорить Інна Іваненко, директорка "Пацієнти України".
+Вона звертає увагу на те, що Crown Agents почали переговори з постачальниками ще в лютому і були готові оперативно закупити та привезти до України медичні вироби. Проте у МОЗ угоду на закупівлі підписали лише 26 березня.
+Ускладнює ситуацію і те, що, навіть після підписання угоди про закупівлі, невідомо, коли Україна отримає захист для лікарів чи апарати штучної вентиляції легень.
+"Попит на ці товари зараз у світі божевільний. Це буде залежати від того, що ми знайдемо на ринку", - каже голова представництва Crown Agents в Україні Тетяна Коротченко.
+В агенції не можуть назвати точні дати, коли медвироби привезуть в Україну.
+Ляпи міністра
+Критикують міністра Іллю Ємця не тільки в опозиції. Ним незадоволені і у фракції "Слуга народу", голосами якої його обрали, і в Офісі президента.
+Image caption
+"Ви пiдрахуйте, скільки нам треба виділити фінансів. Але на ще живих людей, а не на трупів", - сказав нещодавно міністр Ілля Ємець про людей старших 65 років
+"Дивує формат комунікації з боку міністра - постійні ляпи у вигляді "помруть всі пенсіонери, що на людей старших 65 років не треба витрачати кошти. Його заяви провокують більше паніки, ніж роз'яснюють. Це викликає нерозуміння і роздратування з боку депутатів, які в цей час займаються тим, що мало би робити міністерство - забезпечують лікарів засобами захисту, шукають і ремонтують апарати ШВЛ", - розповіли ВВС News Україна у фракції "Слуга народу".
+Тиждень тому президент Володимир Зеленський у своєму відеозверненні розповідав, як український військовий літак привіз з Китаю тести на коронавірус та захист для лікарів.
+Гроші на засоби для боротьби з коронавірусом дає бізнес, розповіли ВВС News Україна в офісі президента.
+Image caption
+До України з Китаю минулого тижня привезли партію тестів, масок, костюмів захисту, апаратів ШВЛ. Але це купували за гроші бізнесу, розповіли в Офісі президента
+Про те, що засоби для боротьби з коронавірусом закуповували за кошти благодійників та бізнесу, ВВС News Україна розповіли і в парламентському комітеті з питань здоров'я нації.
+Заблоковані ліки і війна з міністром
+"Донорські закупівлі - це звісно чудово, але це як латка на якусь дірку, що утворилась ситуативно. Так не має бути постійно, має бути планування. Основою у забезпеченні країни обладнанням для боротьби з коронавірусом, мають бути центральні закупівлі", - говорить Арсен Жумаділов в інтерв'ю виданню "Дзеркало тижня".
+Image caption
+Арсен Жумаділов фактично оголосив війну міністру, звинувативши його у намаганні взяти під контроль агенцію з закупівлі ліків
+Він очолює створене за часів Уляни Супрун держпідприємство "Медичні закупівлі України" - агенцію, яка закуповує за бюджетні кошти ліки для українців, базуючись на принципах міжнародних організацій.
+І в цієї організації також нещодавно виникли проблеми з міністром Іллею Ємцем.
+Держчиновник Арсен Жумаділов відкрито виступив проти міністра, звинувативши його у блокуванні закупівель надважливих ліків.
+Йдеться про ліки для онкохворих дітей та дорослих, препарати для людей, що пережили інфаркт, для хворих на туберкульоз, для людей з ВІЛ і ще десятки позицій - загалом на 10 млрд гривень.
+Пан Жумаділов каже, що все це сталося, бо він відмовився робити міністру послугу. А саме - не захотів працевлаштовувати на держпідприємство, яке розподіляє десятки мільярдів гривень, "довірену людину міністра", у якої, за його словами, була ще і судимість.
+Ілля Ємець хотів поставити на держпідприємство "свого смотрящего", говорить про ситуацію з закупівлями депутатка Олександра Устінова.
+Пропустити Facebook допис , автор: Arsen
+Пане Міністре, Іллє Миколайовичу, Я хочу розповісти Вам про наше ДП. Вперше і востаннє коли ми зустрілись, наша розмова...
+Posted by Arsen Zhumadilov on Monday, 23 March 2020
+Кінець Facebook допису , автор: Arsen
+Що кажуть у профільному комітеті?
+Більш обережний у своїх оцінках історії з закупівлями голова парламентського комітету з питань здоров'я нації і друг президента Михайло Радуцький. Депутат каже, що чув про якісь суперечки між МОЗ і закупівельним органом, але у цей процес втручатися не хоче.
+"Офіційно запити до комітету, що є якісь проблеми з закупівлями, не надходили", - каже пан Радуцький.
+Він запевняє, що і його комітет, і Верховна Рада зробили все, щоб закупівлі ліків і виробів для боротьби з коронавірусом відбувалися швидко і вчасно. Далі, як він каже, справа за МОЗ.
+Коли дамбу прорве
+А от колишня очільниця МОЗ Уляна Супрун не стримується у висловлюваннях. Вона виступила на захист Арсена Жумаділова і вщент розкритикувала Іллю Ємця за "проштовхування свого протеже".
+Порівняла стан підготовку України до протидії коронавірусу з "дамбою, яку ось-ось прорве". Пані Супрун каже, що жорсткий карантин не має жодного сенсу, якщо в Україні незахищені лікарі і незабезпечені лікарні.
+Пропустити Facebook допис , автор: Уляна Супрун
+Закупівлі тестів, захисних засобів для медиків необхідні, щоби протистояти коронавірусу. Однак, міністр охорони здоров’я...
+Posted by Уляна Супрун on Wednesday, 25 March 2020
+Кінець Facebook допису , автор: Уляна Супрун
+Що каже міністр?
+ВВС News Україна намагалася отримати відповідь Іллі Ємця на всі ці закиди і неодноразово зверталася до МОЗ.
+Там сказали, що затримка закупівель препаратів може бути пов'язана з "якимись процедурними моментами" і порадили дочекатися відеозвернення міністра, у якому мали бути всі відповіді на наші запитання.
+Таке відеозвернення вийшло. Але знайти відповіді там було досить складно.
+У відео Ілля Ємець нагадав всім, що він - кардіохірург і запропонував створити новий штаб для протидії коронавірусу.
+Не називаючи жодних імен, міністр говорив про якихось поганих людей, "які навмисно створюють перепони у роботі міністерства" і пригрозив: якщо МОЗ будуть заважати, то "кількість жертв може бути катастрофічною".
+Він жодним словом не обмовився про проблеми із закупівлями, але зазначив, що ситуація з коронавірусом така, що "вже не можливо рятувати життя лише масками та дезінфекторами".
+При цьому Ілля Ємець висловив впевненість, що у його нелегкій роботі вся владна вертикаль його підтримує.
+Але схоже у владній вертикалі з останнім твердженням не зовсім згодні. 27 березня президент Володимир Зеленський заявив, що Іллю Ємця можуть звільнити з МОЗ.
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Як подорожувати під час епідемії
+Чи захищають медичні маски від вірусу?
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні. Інтерактивна мапа</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">В якій області найбільше інфікованих коронавірусом? Скільки одужало? А скільки померло? Все це - на нашій інтерактивній мапі.
+В Україні станом на ранок 28 березня загалом зафіксували 311 випадків зараження коронавірусом.
+Померли 8 хворих, одужали також 5 людей (всі - з Чернівецької області, так само всі уже повернулися додому або скоро повернуться).
+Усі дані про поширення коронавірусу в Україні - з інформаційних повідомлень міністерства охорони здоров'я, за винятком анексованого Росією Криму.
+Клікніть на позначку на області, щоби дізнатися ситуацію з коронавірусом на території регіону.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Зеленський хоче, щоб Рада 30 березня проголосувала за ринок землі. Зі змінами</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+Президент Володимир Зеленський заявив, що хоче від Верховної Ради ухвалення кількох законопроєктів, необхідних для траншу МВФ.
+"Ми розуміємо, що зараз світова криза. Нам дуже важливо її пройти. Тому умови МВФ - це два закони - це закон про банки та закон про землю, про що ми вже домовились", - сказав Зеленський після засідання фракції "Слуга народу".
+За його словами, 30 березня відбудеться позачергове засідання Ради, на якому розглянуть ці питання. Поки не зрозуміло, де будуть засідати депутати - спікер Дмитро Разумков не виключив, що це буде у внутрішньому дворику парламенту.
+Земельного бліцкригу Зеленського не сталося. Коли проголосують закон?
+Земля, порнофільми, слуги диявола і 300 спартанців: як депутати сварились про землю
+Затяжний мораторій: що заважає Україні відкрити ринок землі
+Як зміниться законопроєкт про землю?
+Володимир Зеленський зазначив, що спочатку землю зможуть купувати лише фізичні особи і не більше 100 га, а юридичні особи - лише з 2024 року і не більше 10 000 га.
+"Державну землю продавати зараз не будемо. Ми зменшили концентрацію для фізичних осіб до 100 га, для юридичних осіб - і це буде другий етап, з 2024 року, - до 10 000 га. Перший етап - для фізичних осіб, до 100 га", - заявив президент.
+Депутатка від "Слуги народу" Галина Янченко у Facebook більш детально пояснила суть змін. За її словами:
+Початок дії закону відкладається на 9 місяців від того, що планувалось, тобто запрацює з 1 липня 2021 року
+Заборонять продаж земель державної власності. Вільний обіг землі буде стосуватись лише ділянок, які належать пайовикам
+З 2021 землю зможуть купувати лише фізичні особи і не більше 100 га в одні руки, обмеження щодо юридичних осіб знімуть через кілька років, і вони зможуть купувати до 10 000 га в одні руки.
+Невдовзі українська земля може стати об'єктом продажу. Що про це потрібно знати?
+Україна може отримати 10 млрд доларів. Не тільки від МВФ
+Під час спілкування з журналістами Володимир Зеленський зазначив, що від МВФ, Світового банку та ЄБРР Україна може отримати 10 млрд доларів.
+За його словами, також триває діалог про отримання фінансової допомоги з боку Канади та Азербайджану.
+"Очікуємо відповідь від прем'єра Канади Джастіна Трюдо", - зазначив президент.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>На кордоні з Польщею тисячі українців. Масово повертаються додому</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Вдень на західних кордонах України утворилися великі черги з людей, які намагаються повернутися з Польщі та інших країн. Після цього прикордонникам довелося відкрити піший напрямок поряд з пунктом пропуску "Краківець".
+"Охоронці кордону розгорнули пересувні автомобільні комплекси прикордонного контролю на базі двох автомобілей. Усього забезпечено робочі місця для 7 експертів з перевірки документів", - зазначають в Державній прикордонній службі.
+Станом на 18:00 на пункті пропуску "Ягодин" вдалося пропустити 5600 людей, черга зникла, у пункті пропуску Рава-Руська пропустили 3 729 людей, залишалося 50 людей у черзі.
+Проте у пункті пропуску "Краківець" пропустили 3178 людей, але залишалася черга у 1 800 людей, тому прикордонники відкрили піший напрямок пропуску.
+Коронавірус в Україні. Інтерактивна мапа
+Що не так з евакуацією українців?
+"Антиколомойський закон": до чого тут дефолт, карантин і сам Коломойський?
+Дистанції не було
+Оскільки піші переходи закриті вже кілька днів, прикордонники сьогодні намагалися перевезти якомога більше людей автобусами, які надала місцева влада Львівської, Рівненської та Волинської областей.
+Однак через те, що наплив масовий, а також через додаткову профілактику, на пунктах пропуску виникли скупчення людей, в яких, за свідченнями очевидців, дотримуватися "соціальної дистанції" не виходило.
+Так само скупчення людей було і на залізничному вокзалі у польському Перемишлі, звідки українці повертаються до Львова.
+Юрій Степаненко з Інституту ядерних досліджень НАН України їздив до Варшави на експериментальні вимірювання.
+Вчора він з колегами повертався до України і перетинав кордон на пункті пропуску "Ягодин".
+Там, за його словами, польська сторона пропустила досить швидко: "Їм головне, щоб люди залишили Польщу".
+Проблеми почалися далі.
+Копирайт изображения
+ЮРІЙ СТЕПАНЕНКО
+Оскільки всі піші переходи закриті вже понад тиждень (від початку карантину), людям доводиться чекати кілька годин у чергах на автобуси, які перевезуть їх на український бік.
+Зокрема, там курсують кілька автобусів прикордонників, ДСНС, а також комерційних перевізників.
+Через те, що пропускають людей через КПП порівняно повільно, почали утворюватися натовпи.
+Пропустити Facebook допис , автор: Yuriy
+Українська кордонна жесть. Українські громадяни мають бути на карантині. Тобто гуртом, пліч о пліч самоізольовано...
+Posted by Yuriy Stepanenko on Thursday, 26 March 2020
+Кінець Facebook допису , автор: Yuriy
+"Дистанції там вже не притримувалися у принципі. Все було досить хаотично", - пригадує Юрій.
+Оскільки чоловік як і решта натовпу перебували в буферній зоні автомобільного пункту пропуску, то там не було передбачено навіть туалетів.
+На самому КПП працювало лише кілька віконець. "При переході поміряли температуру, спитали, де будемо самоізолюватися", - каже Юрій.
+За його словами, перетин кордону у нього зайняв близько п'яти годин.
+"Але нам ще пощастило, бо ми спеціально приїхали рано. А за нами залишалося значно більше людей. Вони прибували буквально на очах", - підсумував чоловік.
+Що кажуть прикордонники
+У Державній прикордонній службі пояснили BBC News Україна, що проблеми виникли через масовий наплив людей після заяви президента про закриття кордону.
+За словами речника прикордонної служби Андрія Демченка, потік фактично виріс удвічі.
+Станом на ранок п'ятниці, найбільше людей зібралося в пунктах пропуску "Краківець" (близько 2 тис.), "Ягодин" (1,2 тис.) і "Рава-Руська" (600).
+"Люди продовжують прибувати", - зазначав Андрій Демченко.
+Пропустити Facebook допис , автор: Державна прикордонна служба України
+❗️ Держприкордонслужба вживає заходів для доставки та оформлення пішоходів, які накопичуються перед пунктами...
+Posted by Державна прикордонна служба України on Friday, 27 March 2020
+Кінець Facebook допису , автор: Державна прикордонна служба України
+Він також запевнив, що прикордонники перевезуть автобусами всіх, хто там зібрався.
+Сам перехід через кордон затримується через те, що запровадили обов'язкову перевірку температури, а також заповнення форми щодо добровільної згоди на самоізоляцію. При цьому ще й треба проходити і звичні прикордонні процедури.
+"Додаткові контрольно-профілактичні заходи проводяться задля безпеки. Охоронці кордону розраховують на розуміння співвітчизників", - кажуть у ДПСУ.
+Про повне закриття українських кордонів напередодні заявив президент Зеленський: "До кінця п'ятниці, 27 березня, буде закрито державний кордон та припинено усі пасажирські перевезення".
+"Немає часу чекати": Зеленський заявив про закриття кордону для пасажирських перевезень
+"Ховати знайомих гірше". Як живе Європа на карантині
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+Як коронавірус змінив секс-індустрію - огляд ЗМІ
+Коли саме закриють кордони, має вирішити уряд. За даними BBC News Україна, таке рішення можуть прийняти вже у п'ятницю ввечері.
+Проблеми з потягом
+Скупчення людей виникали і при поверненні з Польщі потягом з Перемишля.
+Михайло, який їхав у вівторок, розповів BBC News Україна, що українців там не випускали з вокзалу і пропускали через спеціальні коридори поліцейських.
+Пройти можна було лише з квитком. Сам потяг також затримався на годину, однак проблем з паспортним контролем не виникало.
+А у Львові працівники, які проводили санітарний догляд, питали, кому потрібен "доїзд" в інші регіони. Таких людей тих просили пройти до залів очікування.
+"Але мене більше здивувало, що лише третина з тих, хто їхав, були у масках. Хоча у польських аптеках купити маски можна, вони не дорогі. Хтось навіть казав: зараз приїду і буду гуляти", - дивується чоловік, який сам зараз перебуває на самоізоляції.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу. В Італії майже тисяча смертей, росіян евакуюють з України</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Світ продовжує боротися проти коронавірусу, який шириться дедалі швидше.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: кількість хворих подвоїлася за кілька днів
+"Ховати знайомих гірше". Як живе Європа на карантині
+700 росіян поїхали до Москви
+Копирайт изображения
+EPA
+Image caption
+700 росіян сьогодні поїхали з України
+Потягом "Київ-Москва-Київ" додому поїхали понад 700 громадян Росії, повідомляє Державна прикордонна служба.
+Потяг відправився з Києва приблизно о 20:00.
+Цей потяг, вже з евакуйованими з Росії громадянами України, має повернутися до Києва 29 березня.
+Перед посадкою на потяг співробітники санітарно-карантинного підрозділу ДПСУ здійснили температурний скринінг усім пасажирам.
+Новий рекорд смертності в Італії та Іспанії
+Копирайт изображения
+GETTY IMAGES
+Смертність від коронавірусу в Італії за останню добу встановила асболютний рекорд за час пандемії - померли 969 людей.
+Також італійські лікарі зареєстрували 4 401 нового хворого.
+За весь час пандемії в Італії захворіли 86 498 людей, з них 9 134 померли та 10 950 одужали.
+В Іспанії за день від коронавірусу померли 769 людей.
+За весь час пандемії в країні захворіли на коронавірус 64 тисячі людей, понад 10 тисяч одужали, понад 4 900 померли.
+Сполучені Штати - вже епіцентр
+США обігнали Китай за кількістю заражених на коронавірус (85 991 випадок у Штатах проти 81 782 - у Китаї, за даними на ранок п'ятниці).
+Кількість випадків у Сполучених Штатах стрімко зростає, тоді як у Китаї нові зараження - це тільки десятки на день.
+Копирайт изображения
+GETTY IMAGES
+В одному лише Нью-Йорку налічується більше 30 тисяч хворих.
+Випадки зараження зафіксовані у всіх 50 американських штатах, число померлих перевищило позначку в тисячу людей.
+За словами президента США Дональда Трампа, країна вийшла на перше місце за випадками зараження через масове тестування людей.
+Глобальні цифри
+За даними Центру Джона Гопкінса, який веде постійну статистику підтверджених випадків, найбільше хворих у США, Китаї, Італії, Іспанії та Німеччині.
+24 тис. заражених померли, більше 122 тис. - повністю одужали.
+Найвища смертність в Італії, Іспанії, Китаї, Ірані та Франції.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+Станом на ранок 27 березня в Україні - 218 підтверджених випадків COVID-19. П'ять людей померли, ще п'ять - вже одужали.
+В Україні спалахи трапляються навіть у невеликих населених пунктах.
+"На Сарненщині лабораторно підтвердженні 9 випадків зараження COVID-19 з одного населеного пункту", - написав у п'ятницю голова місцевої райради Руслан Серпенінов.
+Пропустити Facebook допис , автор: Серпенінов
+Шановні мешканці району! На Сарненщині лабораторно підтвердженні 9 випадків зараження COVID-19 з одного населеного...
+Posted by Серпенінов Руслан on Friday, 27 March 2020
+Кінець Facebook допису , автор: Серпенінов
+"Стан хворих - легкої та середньої тяжкості. Перебувають на лікуванні в Сарненській ЦРЛ", - додав він.
+В Україні в 11 разів побільшало тяжких респіраторних інфекцій - BBC
+У лютому-березні в Україні стрімко зросла кількість тяжких гострих респіраторних інфекцій, в тому числі пневмоній.
+Такі дані аналізу BBC News Україна потижневої статистики Центру громадського здоров'я (ЦГЗ) за січень-березень 2019 та 2020 року.
+Виходячи з цих даних, кількість тяжких гострих респіраторних інфекцій (ТГРІ) в країні стрімко зросла.
+На початок лютого — в три рази, з 43 до 143 випадків на тиждень, порівняно з минулим роком. На початок березня — в 7,5 рази з 22 до 164 випадків на тиждень.
+А починаючи з середини березня, кількість ТГРІ у порівнянні з аналогічним періодом минулого року зросла в 11 разів. За тиждень 16-22 березня кількість випадків склала 254 проти 23 минулого року.
+Це 30% від кількості всіх госпіталізованих з усіх причин в країні. Торік в пікові періоди відсоток пацієнтів з ТГРІ не перевищував 7% від всіх госпіталізованих.
+Чи пов'язане це з коронавірусом - читайте у нашій статті з детальним аналізом.
+В Україні в 11 разів побільшало тяжких респіраторних інфекцій - BBC
+Поширення по експоненті
+У Всесвітній організації з охорони здоров'я заявили, що вірус поширюється зі значним прискоренням:
+Перші 100 тис. заражень сталися за 67 днів
+Другі 100 тис. заражень - за 11 днів
+Треті 100 тис. заражень - за 4 дні
+Четверті 100 тис. заражень - лише за 2 дні
+"Без агресивних дій у всіх країнах померти можуть мільйони", - попередив керівник Всесвітньої організації охорони здоров'я доктор Тедрос Аданом Гебреісус.
+Менше куріть
+У ВООЗ також закликали менше курити.
+"Вживання тютюнових продуктів може підвищити ваші шанси заразитися COVID-19", - попереджають медики.
+Пропустити Facebook допис , автор: World Health Organization (WHO)
+Using tobacco products can increase your chance of getting COVID-19 ❗️Bringing your 👐 to your 👄 can transfer the virus...
+Posted by World Health Organization (WHO) on Thursday, 26 March 2020
+Кінець Facebook допису , автор: World Health Organization (WHO)
+За їхніми словами, під час куріння людина постійно підносить руки до роту — а саме через руки вірус найчастіше потрапляє до організму.
+Ділитися цигарками - це більші шанси передачі коронавірусу від людини до людини.
+Зрештою, тютюн послаблює дихальну систему людини і робить її більш вразливою для хвороб.
+Оновлюється...
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Як швидко та смачно приготувати гречку</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Смажена гречка з цибулею - проста і смачна страва. Вона чудово смакує і в поєднанні з м'ясом чи овочами, і сама по собі.
+Промийте гречку під холодною проточною водою, додайте в каструлю курячий бульйон та варіть гречку до готовності.
+Інгредієнти:
+Вершкове масло 50 г
+Гречана крупа 125 г
+Курячий бульйон - 400 мл
+Цибуля-порей - 1-2 штуки
+Петрушка - 2 ст. подрібнені ложки
+Олія - 1 ст. ложка
+Здорове харчування: чи може корисна їжа бути дешевою
+"Скуповуйте гречку з гідністю": соцмережі вирують через карантин в Україні
+Бланшуйте на сковороді цибулю-порей з петрушкою 2-3 хвилини.
+Розтопіть вершкове масло на сковороді, додайте гречку і обсмажуйте до золотисто-коричневого кольору, тоді додайте цибулю-порей з зеленню.
+Приготована таким чином гречка - повноцінна страва, але її також можна подавати з запеченим чи підсмаженим м'ясом чи овочевим рагу.
+Час приготування 20 хвилин.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Керівник поліції Києва Крищенко підхопив коронавірус - Геращенко</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+У голови поліції Києва, заступника голови Нацполіції України Андрія Крищенка діагностували коронавірус. Про це повідомив заступник міністра внутрішніх справ Антон Геращенко.
+Стан здоров'я Крищенка - задовільний, він продовжує виконувати свої обов'язки дистанційно, зазначив Геращенко.
+Він також повідомив, що у п'ятницю, крім пана Крищенка, діагноз підтвердили ще в двох поліцейських та одного курсанта.
+Коронавірус в Україні. Інтерактивна мапа
+У Бориса Джонсона коронавірус
+У принца Чарльза виявили коронавірус
+"Саме медики і правоохоронці, як показує трагічний досвід Італії, найбільш часто стають жертвами ураження небезпечною інфекцією", - написав він у фейсбуку.
+Пропустити Facebook допис , автор: Антон
+Кінець Facebook допису , автор: Антон
+Поліцейські встановили коло тих, хто контактував із Крищенком протягом інкубаційного періоду. Усі вони поінформовані про ризик і перебувають на самоізоляції, додав Геращенко.
+Між тим, керівник столичної поліції та члени його родини протягом останнього місяця за кордоном не перебували, запевняє Геращенко.
+Загалом станом на ранок 27 березня в Україні підтвердили 218 випадків зараження коронавірусом.
+З Рівненщини, тим часом, повідомили про шосту смерть від COVID-19 в Україні.
+Як коронавірус шириться планетою. Мапа
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Коронавірус: що треба знати
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>В Україні ще одна смерть від коронавірусу. Більше 200 людей захворіло</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Про шосту смерть від COVID-19 повідомляють на Рівненщині - там захворіло одразу дев'ять мешканців одного села.
+Загалом же станом на ранок 27 березня в Україні підтвердили 218 випадків COVID-19, повідомив Центр громадського здоров'я.
+П'ятеро людей вже одужали - всі вони з Чернівецької області, їх або вже виписали з лікарні, або скоро випишуть.
+VIP-палати у лікарнях: Зеленський попросив їх скасувати
+Коронавірус в Україні. Інтерактивна мапа
+Ситуація на Рівненщині
+"У Рівненській області, станом на 8 ранку 27 березня підтверджено дев'ять випадків захворювання на COVID-19, один з яких летальний", - повідомив голова Рівненської ОДА Віталій Коваль.
+За його словами, всі хворі - з села Тинне.
+Вісьмох хворих ізолювали, їхній стан стабільний.
+Пропустити Facebook допис , автор: Віталій Коваль
+Кінець Facebook допису , автор: Віталій Коваль
+"Ще вчора після отримання даних швидких тестів, на виїздах із села встановлено пости патрульної поліції та працівників ДСНС. До з'ясування обставин - заборонено залишати село. Рух габаритного транспорту пустили в обхід села", - повідомив Віталій Коваль.
+Раніше про хворих написав голова Сарненської райради Руслан Серпенінов
+"На Сарненщині лабораторно підтвердженні 9 випадків зараження COVID-19 з одного населеного пункту", - написав Руслан Серпенінов.
+Пропустити Facebook допис , автор: Серпенінов
+Кінець Facebook допису , автор: Серпенінов
+Хто хворіє
+Копирайт изображения
+GETTY IMAGES
+"Найбільше випадків було зареєстровано серед працездатного населення віком від 30 до 65 років - 68,7%", - кажуть у Центрі громадського здоров'я.
+Пропустити Facebook допис , автор: Центр громадського здоров’я України
+Кінець Facebook допису , автор: Центр громадського здоров’я України
+"37,6% усіх випадків припадає на вікову категорію 30-49 років", - додають там.
+Ще у середу кількість хворих складала трохи більше сотні, тож за останні дні число заражених подвоїлося.
+"Ховати знайомих гірше". Як живе Європа на карантині
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+Загалом це звична тенденція при пандемії, пояснюють у Всесвітній організації охорони здоров'я. Чим більше людей інфіковано, тим більше інших вони заражають. Саме тому мова йде про самоізоляцію як найдієвіший спосіб боротьби з поширенням вірусу.
+Копирайт изображения
+МОЗ
+В Україні на офіційну статистику впливає і збільшення кількості тестів на COVID-19.
+Загалом в Україні вже провели 1 050 лабораторних тестів.
+Шість випадків COVID-19 стали летальними, п'ять пацієнтів повністю одужали.
+У світі, за даними Центру Джона Гопкінса, більше 532 тис. підтверджених випадків хвороби. 24 тис. заражених померли, більше 122 тис. - повністю одужали.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Діана Куришко</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Що не так з евакуацією українців?</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SOPA IMAGES GETTY
+Продюсерка з Києва Рада Радмілєвіч поїхала у відпустку на Балі у січні, коли світ про коронавірус ще не чув. Але тепер повернутися додому вона не може.
+Закриті кордони, скасовані рейси - пандемія заблокувала планету, а заразом і українців, які застрягли на іншому боці Землі.
+За кілька днів після закриття авіапростору і кордонів для пасажирських перевезень до України повернули 80 тисяч людей. Проте понад 17 тисяч українців все ще не можуть повернутися.
+Ще більше ускладнила ситуацію для цих людей заява президента Володимира Зеленського про те, що до кінця п'ятниці, 27 березня, кордон закриють і припинять навіть евакуацію.
+Затори в аеропортах, недотримання дистанції при подорожах і карантину вдома, як повертаються і не повертаються українці, і як дорога з Києва до Одеси може коштувати чотири тисячі гривень, розповідає ВВС News Україна.
+Коронавірус в Україні. Інтерактивна мапа
+"Немає часу чекати": Зеленський заявив про закриття кордону
+Коронавірус в Україні: п'ята смерть, 156 людей захворіли
+На іншому боці Землі
+"Так, це ув'язнення в раю, але ми хочемо додому. Ми просимо про евакуацію нашим коштом, ми купимо квитки, але варіантів, як повернутися, наразі у нас немає", - говорить Рада Радмілєвіч, яка на Балі координує групу з майже тисячі українців, які хочуть повернутися додому.
+За її словами, багато людей у відчаї, бо гроші закінчуються: потрібно оплачувати житло, штрафи за перебування після закінчення дії візового штампу. А от варіантів, як виїхати, немає.
+Схожу історію розповідає Антон Заєць з Таїланду.
+Індонезія, Таїланд, а також США - це наразі три найбільш віддалені країни, звідки не можуть вибратися понад 2 000 українців.
+Загалом на евакуацію з різних країн чекає понад 17 тисяч українців.
+Скасовані регулярні рейси, закриті кордони, анульовані квитки, не повернуті за них гроші, високі ціни на квитки на спецрейси або взагалі відсутність спецрейсів і взагалі можливості вилетіти - так описують ситуацію більшість українців, які застрягли в Азії.
+Тисячі людей об'єднуються у канали в телеграмі, де діляться своїми історіями і варіантами, як вибратися з країни, пишуть звернення до президента і МЗС, підписують петиції.
+Пропустити Facebook допис , автор: Anton
+Шановні! Дуже треба поширити інформацію. Важливо при цьому тегнути (в коментарях оригіналу чи при репості) ваших...
+Posted by Anton Zaiats on Thursday, 26 March 2020
+Кінець Facebook допису , автор: Anton
+"Обіцяні евакуаційні спецрейси за пільговими цінами не були організовані ані в достатній кількості, ані за дійсно пільговими цінами", - написав у Facebook Антон Заєць.
+"Ми просимо організувати нам чартер з Бангкока, за який ми самі заплатимо", - говорить пані Радмілєвіч.
+Після заяви Зеленського жінка опублікувала повний розпачу і обурення пост з детальним описом, як українці і дипломати намагалися організувати евакуацію з Балі, як їм це майже вдалося, і як всі надії зникли після повідомлення про закриття кордонів.
+Пропустити Facebook допис , автор: Rada
+Это история о том, как нас кинуло наше государство. Или Proud to be Ukrainian. Мы приехали в Индонезию в начале...
+Posted by Rada Radmilevich on Thursday, 26 March 2020
+Кінець Facebook допису , автор: Rada
+Що буде далі?
+У МЗС кажуть, що роблять все можливе, надають "максимальне сприяння туроператорам та перевізникам, щоб вони забрали українських туристів з віддалених куточків світу".
+Дипломати розповідали, що працюють над поверненням українців "з Єгипту, Домініканської Республіки, курортних островів Азіатсько-Тихоокеанського регіону".
+З Латинської Америки евакуювати українців мали німецькі літаки, розповідав нещодавно міністр закордонних справ Дмитро Кулеба.
+МЗС визначило хаби, з яких людей обіцяли гарантовано забрати додому: Стамбул, Прага, Берлін, Варшава, Перемишль, Відень, Братислава, Рига, Вільнюс.
+Проте великою проблемою було дістатися цих хабів.
+Не зрозуміло, як буде розвиватися ситуація далі. З 27 березня Україна взагалі закриє кордони для пасажирських перевезень.
+Про це ввечері 26 березня розповів президент Володимир Зеленський.
+"Два тижні тому я просив українців терміново повернутися - більшість зробили це самостійно, близько 80 тисяч інших ми повернули додому літаками та потягами", - заявив пан Зеленський у відеозверненні.
+"Але сьогодні ми більше не маємо часу чекати. Ми опинилися перед вибором між безпекою громадян, які ще за кордоном, і безпекою 40 мільйонів громадян, які перебувають всередині країни", - додав він.
+В Італії через коронавірус померли щонайменше 50 священників
+"Боюся, що голод вб'є нас швидше за коронавірус"
+Не вигуляні діти та нестача масок: як живе Київ на карантині
+Він сказав, що про українців, які все ще перебувають за кордоном "подбають наші дипломатичні представництва та українські громади за кордоном".
+"Поступово усіх повертатимуть додому, але з урахуванням епідеміологічної ситуації в місті вашого перебування і рівня забезпечення медичної системи до вашої обов'язкової ізоляції", - зазначив президент.
+Куди їх привозять і що з цим не так ?
+Проте якраз до умов повернення українців з-за кордону виникає багато питань.
+Користувачі соцмереж жаліються, що після прибуття їм доводиться довго чекати у терміналах, де скупчується багато людей з рейсів із різних країн, багато хто з яких кашляє.
+Нещодавно на Центральному залізничному вокзалі Києва кілька годин стояв потяг, що прибув із Риги (Латвія), у якому було понад 600 пасажирів.
+Ці люди майже добу поверталися до Києва, а потім ще кілька годин їх не випускали із замкнутого приміщення, поки кількох пасажирів не забрала швидка. У них були симптоми, властиві коронавірусу, але згодом діагноз не підтвердився.
+Українці Оксані Зінченко вдалося вилетіти з Барселони до Києва за пільговою ціною у 228 євро. Проте, вірусолог за професією, пані Зінченко обурюється не цінами, а тим, як в Україні організували повернення людей із найбільш заражених коронавірусом країн.
+"Ховати знайомих гірше". Як живе Європа на карантині
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+23 березня, коли її літак з Іспанії приземлився у "Борисполі", майже одночасно з ним сіли борти з Італії і Франції - країн з найбільшими у Європі спалахами коронавірусу.
+"Хто додумався об'єднати в часі прибуття цих літаків? Ми дві години чекали на огляд всередині літака. Тобто час перебування у тісному приміщенні зріс у 1,5 рази , а разом з цим і вірогідність заразитися, якщо поруч є хтось хворий. До терміналу нас вивозили у забитих натовпом автобусах, яких ще довелося довго чекати на вітрі, холоді, був десь 0 градусів. Промерзли до кісток. Не здивуюсь, якщо у когось з'являться симптоми", - говорить пані Зінченко.
+Затори в аеропорту
+В аеропорті "Бориспіль" всім пасажирам міряють температуру і дають підписати згоду на самоізоляцію.
+Для тих, хто прибув з країн з великими спалахами хвороби, а також тим, у кого є симптоми, пропонують пройти тести на коронавірус.
+З 22 березня прямо у Борисполі можна здати кров і перевіритися.
+За весь час було лише дві людини з підозрою на цю хворобу, каже директор із виробництва аеропорту "Бориспіль" Юрій Павлюк.
+Він підтверджує, що в аеропорту часом виникали затори з пасажирів, і пояснює це нестачею персоналу.
+В аеропорті зараз працюють лише 14 лікарів з санітарно-карантинного підрозділу МОЗ - оглядають пасажирів і беруть кров, щоб перевірити на коронавірус.
+Пан Павлюк запевняє, що літаки з країн з коронавірусом вже розводять в часі, і вони більше не будуть прибувати одночасно.
+За його словами, наразі аеропорт взагалі обмежив кількість прильотів на одну годину. Зараз це максимум три літаки, раніше могло бути 5-6 літаків на годину.
+Також в "Борисполі", за його словами, організовували дві окремі зони прильоту - для людей з небезпечних з точки зору коронавірусу країн і для решти.
+Як їхати далі?
+Крім повернення до Києва, часто невирішеним залишається питання поїздок до регіонів.
+Усі регулярні пасажирські перевезення між містами України заборонені. Не ходять ні потяги, ні автобуси.
+У Київській держадміністрації ВВС News Україна запевнили, що співпрацюють з регіонами, й ті спеціально надсилають автобуси, щоб забирати людей з-під вокзалу чи аеропорту.
+"Багато людей добираються власним транспортом або автобусами, які за ними присилають", - розповів Микола Поворозник, перший заступник голови Київської міської державної адміністрації.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Проте, скільки саме таких автобусів було і чи вони ще будуть, чиновник уточнити не зміг.
+На такі автобуси щастить потрапити не всім. Оксані Зінченко, щоб доїхати з Києва до Одеси, довелося заплатити за таксі 4 тисячі гривень.
+Після 21 березня при перетині українського кордону всі пасажирі мають підписувати згоду про добровільну самоізоляцію.
+Однак, як ці 80 тисяч людей, яких повернули до України, роз'їжджалися у регіони, чи дотримувалися вони дистанції з іншими пасажирами, чи перебувають вони справді вдома на самоізоляції, ніхто не контролює.
+У соцмережах люди обурюються, що українці, які повернулися з країн, де є спалахи коронавірусу, можуть заражати інших.
+Нещодавно на Харківщині поліція вийшла на 9 людей, які повернулися з-за кордону і порушили самоізоляцію. Штрафувати їх за це не стали. Вони просто ще раз пообіцяли сидіти вдома.
+Коронавірус в Україні. Інтерактивна мапа
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Коронавірус: інфекціоністка відповіла на найпоширеніші запитання</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BBC News Україна зібрала запитання читачів і глядачів про коронавірус та поставила їх медичній експертці ЮНІСЕФ під час Facebook-лайву.
+Катерина Булавінова розповіла, як часто треба мити руки, скільки і чим витирати поверхні, як берегти собак, чи варто жінкам частіше мити волосся, щоб уберегтися від коронавірусу, чи варто дезінфікувати овочі з магазину та як не зловживати ліками.
+Експертка також розвіяла низку поширених помилкових уявлень українців про коронавірус.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Відео BBC News Україна в будь-який час - підписуйтеся на наш канал у YouTube.
+Всі випуски новин BBC News Україна на YouTube.
+Коронавірус в Україні. Інтерактивна мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Коронавірус: як правильно ізолюватися
+Коронавірус: що він робить з організмом
+"Ховати знайомих гірше". Як живе Європа на карантині
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>В'ячеслав Шрамович</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>"Антиколомойський закон": до чого тут карантин, дефолт і сам Коломойський?</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+"Антиколомойський закон" можуть ухвалити вже найближчими днями і це, як очікується, дозволить Україні отримати кредит МВФ - вкрай важливі кошти для економіки епохи карантину.
+Його ініціатори говорять про обережний оптимізм і сподіваються на підтримку депутатів різних фракцій. Мовляв, це саме той випадок, коли потрібно об'єднуватися.
+Водночас опоненти кажуть, що ця погоджена з МВФ ініціатива суперечить Конституції, а кредит - "розкрадуть".
+"Анонс кінця епохи". Соцмережі - про зустріч Коломойського і Зеленського
+Чого Коломойський хоче від України за Приват і як змінювалися ці вимоги
+В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
+Що це за законопроєкт?
+Чи не найбільше пристрастей перед позачерговим засіданням Ради розгорілося навколо законопроєкту з нудною назвою "щодо удосконалення деяких механізмів регулювання банківської діяльності".
+Але його неофіційна назва - "антиколомойський законопроєкт" - натякає, звідки ж взялася вся напруга.
+Сама ініціатива стала продуктом довгих і непростих переговорів Офісу президента та уряду з МВФ про новий кредит.
+Мова може йти про суму від 5,5 до 10 млрд доларів.
+Про те, що такі кошти вкрай необхідні для ослабленої карантином української економіки, не раз говорили різні посадовці - від президента Зеленського до міністра внутрішніх справ Авакова.
+Надзвичайний стан Авакова: як зростає роль міністра внутрішніх справ
+За версією багатьох оглядачів, проблема для угоди з МВФ одна - амбіції бізнесмена Ігоря Коломойського отримати від держави компенсацію за, як він вважає, несправедливо відібраний у нього "Приватбанк".
+Український уряд намагався вирішити питання, але попередні спроби, судячи з усього, міжнародних кредиторів не влаштували.
+Тому 24 березня в Раді з'явився оновлений "антиколомойський законопроєкт".
+"Приватбанк" виграв у Коломойського апеляцію в Лондонському суді
+Його суть зводиться до того, щоб максимально ускладнити процес виплат компенсацій колишнім власникам банків, якщо суд вирішить, що держава несправедливо націоналізувала чи вивела з ринку якийсь банк.
+А також зменшити можливі суми цих компенсацій.
+Проєкт не просто робить неможливими повернення комусь такого банку, а й визначає, що компенсація залежить від розміру "упущеної вигоди".
+Цю суму визначатиме аудиторська фірма, яку призначить суд, та яка буде діяти за міжнародними стандартами.
+Тобто ексвласники банків вже не зможуть домовитись з кимось в уряді про великі суми компенсацій, наприклад, за "моральну шкоду".
+Крім того, рішення суду про компенсацію колишнім власникам (приміром, "Приватбанку") не скасовуватиме розслідування про їхні ймовірні зловживання, сумнівні кредитування і виведення коштів.
+Сам законопроєкт готував один з переговорників з МВФ міністр юстиції Денис Малюська. Саме по тих позиціях, про які домовилися з міжнародними партнерами.
+За даними джерел BBC News Україна, проєкт узгодили детально.
+#НіДефолту
+Проєкт вже підтримала низка депутатів від "Слуги народу".
+Наприклад, Анастасія Красносільська (Радіна), яка у парламенті курує антикорупційну політику, та Микита Потураєв, голова підкомітету з інформаційної політики, запустили флешмоб "#НіДефолту".
+Колишній депутат і журналіст Сергій Лещенко каже, що насправді це придумали в Офісі президента.
+У самому ж флешмобі депутати закликають колег по фракції проголосувати за пропозиції уряду.
+Коломойський порадив дефолт. Що робити Зеленському?
+Що таке дефолт і чим він загрожує
+"Боюся, що голод вб'є нас швидше за коронавірус"
+"Шанс для України отримати кредит від МВФ та уникнути дефолту", - йдеться у їхньому зверненні.
+Пропустити Facebook допис , автор: Anastasia
+#ніДефолту Ми, народні депутати України, члени фракції “Слуга народу”, закликаємо колег по фракцїї та парламенту...
+Posted by Anastasia Krasnosilska on Wednesday, 25 March 2020
+Кінець Facebook допису , автор: Anastasia
+І описуються ризики дефолту: "Перестанемо бути надійними партнерами, щонайменше 10 наступних років нас оминатимуть усі міжнародні інвестори, ми не зможемо отримати від міжнародних фінансових інститутів жодних кредитів, без яких неможливо буде стимулювати економіку та провести успішні реформи. Державні активи будуть скуповуватися за безцінь. Гривня впаде, інфляція буде неконтрольованою, зростатиме безробіття".
+"Віримо, що більшість з наших колег свідомі своєї відповідальності за долю держави та розуміють всю складність ситуації, в якій опинилася Україна. А тому, незважаючи на загрозу коронавірусу, вони без вагань прийдуть до парламенту та підтримають законопроєкт", - резюмували у зверненні.
+За словами Микити Потураєва, ініціативу готові підтримати "значно більше" депутатів, ніж 20-30, які поширили заяву у себе на Facebook.
+Відповідь "групи Коломойського"
+У зверненні "НіДефолту" не було жодної згадки про Ігоря Коломойського чи "Приватбанк", але на нього відреагували ті депутати, яких часто пов'язують з командою бізнесмена Коломойського.
+Наприклад, Олександр Дубінський написав: "25 (на момент публікації) депутатів "Слуги народу" вирішили повідомити всім, що закон по "Приватбанку" - це найважливіший закон для держави на позачерговій сесії парламенту в умовах зупинки бізнесу, транспорту і економіки. Тому що без нього нам не дадуть кредит МВФ, який буде розкрадений, як і всі попередні".
+Пропустити Facebook допис , автор: Александр
+#нідефолту 25 (на момент публикации) депутата Слуги Народа решили сообщить всем, что закон по ПриватБанку - это самый...
+Posted by Александр Дубинский on Wednesday, 25 March 2020
+Кінець Facebook допису , автор: Александр
+Він запропонував Раді займатися іншими питаннями, які "люди очікують від позачергової сесії": податковими канікулами для малого бізнесу, скасуваннями комуналки для найбідніших, підвищенням зарплат для медиків, захистом орендарів від виселення.
+В іншому дописі він пообіцяв підтримати законопроєкт, якщо він буде відповідати Конституції і його ухвалить профільний комітет з питань фінансів, податкової та митної політики.
+Сам Дубінський - заступник голови цього комітету.
+Одразу чотири депутати від "Слуги народу", яких у ЗМІ називають "групою Коломойського" (куди входять, зокрема, його бізнес-партнери чи ексжурналісти каналу "1+1"), подали свої законопроєкти на заміну урядовому.
+Це вже згаданий Олександр Дубінський, а також Ігор Палиця, Ольга Смаглюк-Василевська та Олег Дунда.
+У своїх проєктах вони критикують урядову ініціативу як таку, що суперечить Конституції і дає перевагу у судах Нацбанку та іншим державним органам перед акціонерами і власниками банків.
+Як вважає Микита Потураєв, протидія може йти не лише від людей, які "мають історію стосунків з Коломойським".
+"Тут питання не лише у Коломойському, а й у багатьох інших колишніх власниках банків, зокрема, з інших фракцій, які можуть чинити опір", - вказує він.
+Законопроєкт зробить фактично неможливим повернення їм банків, незалежно від рішень судів.
+Коли можуть проголосувати?
+У "Слузі народу" кажуть, що "антиколомойський законопроєкт" мають винести на голосування на найближчому позачерговому засіданні.
+Його планують провести у суботу чи неділю (утім, дату засідання можуть і перенести).
+Перед цим, у п'ятницю, урядову ініціативу про неповернення банків колишнім власникам та чотири її альтернативи має розглянути профільний комітет.
+Прихильники "антиколомойського законопроєкту" сподіваються, що Рада зможе об'єднатися навколо ідеї і назавжди вирішить питання "Приватбанку", що допоможе досягнути домовленості з МВФ.
+Опоненти та популярні анонімні політичні Telegram-канали запевняють, що голосів немає.
+Крім того, дедалі частіше говорять про те, що на позачерговому засіданні може з'явитися ще одна довгограюча і резонасна ініціатива, яку згадують у розмовах з МВФ, - про ринок землі.
+Керівництво МВФ у заяві у четвер заявило про "гарний прогрес" у переговорах з українською владою щодо регулювання банків та земельної реформи.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Галина Корба</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>В Україні в 11 разів побільшало тяжких респіраторних інфекцій: до чого тут коронавірус</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">У лютому-березні в Україні стрімко зросла кількість тяжких гострих респіраторних інфекцій, в тому числі пневмоній: спочатку утричі, потім ушестеро, а потім аж в 11 разів у порівнянні з минулим роком.
+BBC News Україна розбиралася, чи пов'язане це зростання з коронавірусом, найпоширеніше ускладення якого - пневмонія.
+Одна із сімейних лікарів Києва, яка попросила не називати її імені, розповідає, що перший пацієнт з нетиповими симптомами ГРВІ звернувся до неї в лютому цього року.
+Йшлося про дівчинку, яка нещодавно з батьками повернулася з Китаю. Тоді медик вперше запідозрила, що у пацієнтки коронавірус - за місяць до того, як в Україні офіційно з'явився перший хворий на цю хворобу.
+За кілька тижнів кількість таких хворих почала зростати. А кількість її пацієнтів з пневмоніями зросла втричі у порівнянні з минулим роком, каже лікарка.
+"Це саме пневмонії і дуже специфічні", - підкреслює вона.
+Як перевіритися на коронавірус?
+Коронавірус: що він робить з організмом
+Хроніки коронавірусу: ковзанка-морг в Іспанії та 24 нових випадків в Україні
+"Антиколомойський закон": до чого тут дефолт, карантин і сам Коломойський?
+"До мене приходять люди з ознаками ГРВІ, виконують всі мої призначення, а позитивної динаміки немає. А потім на десяту-дванадцяту добу я раптово вислуховую пневмонію, і таку тотальну, двосторонню", - пояснює медик.
+Проте підтвердити наявність коронавірусу у таких пацієнтів донедавна було неможливо через відсутність спеціальних тестів, скаржиться вона.
+Стрімке зростання
+BBC News Україна дослідила потижневу статистику Центру громадського здоров'я (ЦГЗ) за січень-березень 2019 та 2020 року.
+Виходячи з цих даних, кількість тяжких гострих респіраторних інфекцій (ТГРІ) в країні стрімко зросла.
+На початок лютого — в три рази з 43 до 143 випадків на тиждень, порівняно з минулим роком. На початок березня — в 7,5 рази з 22 до 164 випадків на тиждень.
+А починаючи з середини березня, кількість ТГРІ у порівнянні з аналогічним періодом минулого року зросла в 11 разів. За тиждень 16-22 березня кількість випадків склала 254 проти 23 минулого року.
+Це 30% від кількості всіх госпіталізованих з усіх причин в країні. Торік в пікові періоди відсоток пацієнтів з ТГРІ не перевищував 7% від всіх госпіталізованих.
+Та чи пов'язане це зростання з коронавірусом?
+Грип і паніка
+ТГРІ — це гостре респіраторне захворювання з кашлем та високою температурою, яке триває понад десять днів і потребує госпіталізації пацієнта.
+Під цим поняттям лікарі розуміють також пневмонії та інші важкі стани, які можуть навіть потребувати реанімації.
+Саме такі ускладнення характерні для коронавірусу. Але також для звичайного грипу та навіть ГРВІ.
+У Центрі громадського здоров'я BBC News Україна підтвердили, що приріст ТГРІ в країні справді суттєвий. Але переконують, що часто йдеться про звичайний грип. А саме про грип типу AH1N1, більш відомий як свинячий грип.
+"В цьому сезоні він переважає в циркуляції, тому і летальних випадків багато, і епідеміологічні пороги тривалий час перевищені. Цей грип так себе поводить", - пояснює Оксана Артемчук, завідувачка відділу Грипу на ГРВІ ЦГЗ.
+У порівнянні з сезоном 2019 року, захворюваність на грип та ГРВІ цього року справді зросла, особливо в лютому.
+Втім, відповідно до статистики ЦГЗ, відсоток підтвердженого грипу серед протестованих 16-22 березня пацієнтів з ТГРІ склав менше 13%. Минулого року за аналогічний період грип підтвердили у 26% випадків.
+Значно більше за грип, каже пані Артемчук, статистику розігнала паніка серед населення, наляканого коронавірусом.
+"Люди усвідомили небезпеку нової коронавірусної хвороби, - пояснює вона. - Раніше як було? В людини нежить і температура, а вона йде на роботу і ні до якого лікаря не звертається, а зараз тільки занедужала - одразу телефонує до лікарів і це одразу фіксується".
+Колишній заступник міністра охорони здоров'я Павло Ковтонюк називає це "епідемією панічних настроїв".
+"Мені доводилося чути про випадки, коли схвильовані люди з симптомами ГРВІ наполягають на госпіталізації, навіть якщо її можна уникнути в нормальний час", - каже він.
+Можливо, все ж коронавірус?
+Чи пов'язане різке зростання ТГРІ з недіагностованим спалахом коронавірусу, офіційно стверджувати неможливо.
+Для цього потрібне масове тестування хворих. А Україна має одні з найнижчих у світі показники з тестування населення.
+Станом на 24 березня тут протестували на коронавірус лише тисячу людей. Для порівняння в Південній Кореї на той час протестували 290 тисяч, у Великій Британії понад 40 тисяч, в Білорусі - 16 тисяч.
+Лише 23 березня в Україну літаком з Китаю доставили спеціальне обладнання для проведення тестування за методом ПЛР (полімеразна ланцюгова реакція). Але його вистачить лише на 50 тис. тестів.
+Тож зараз, офіційно станом на 26 березня в Україні захворіли на коронавірус лише 196 людей.
+Втім, спеціалісти у сфері охорони здоров'я визнають, що реальна цифра значно більша.
+"Звичайно, коли кажуть про сотні тисяч хворих в Україні, це просто математично неможливо. Мій прогноз — близько тисячі і вони зосереджені в кількох регіонах. Але не більше", - каже співрозмовник BBC News Україна на умовах анонімності.
+Сплеск ТГРІ частково підтверджує ці розрахунки, погоджується Алла Мироненко, завідувачка відділу респіраторних та інших вірусних інфекцій ДП "Інститут епідеміології та інфекційних хвороб".
+"Тисячами повертаються гастарбайтери, діагностувати їх часом нічим, а часом вони не звертаються в лікарні, зрештою, не стоїть завдання всіх обстежити на коронавірус", - пояснює вірусолог.
+За її словами, тестів роблять мало, і це спотворює картину.
+"У Хмельницькому лише зараз після 10 років страждань надали прилад, на якому можна тестувати ПЛР-методом. Вони тепер там до 10-ї вечора сидять і щасливі, що в них є прилад. Треба було, щоб коронавірус для цього прийшов", - обурюється вона.
+Втім, Павло Ковтонюк переконаний, що "прихованих" випадків коронавірусу серед статистики по ТГРІ небагато.
+"Їх одиниці, але, з іншого боку, вони небезпечні — адже інфекція могла передаватися всередині лікарні", - додає він.
+А ситуацію з тестуванням в країні Ковтонюк називає катастрофічною.
+Тестуватимуть як грип
+У Центрі громадського здоров'я BBC News Україна розповіли про плани зробити тестування на коронавірус таким же рутинним, як і тестування на грип.
+Україна вже подала заявку до Всесвітньої організації охорони здоров'я (ВООЗ), яка, цілком можливо, безкоштовно надасть Україні відповідні тест-системи.
+Як зробити тест на коронавірус? Питання і відповіді
+Скільки Україні треба тестів на коронавірус
+"Ховати знайомих гірше". Як живе Європа на карантині
+Тоді, як і зараз, лікарі відбиратимуть у хворих на ТГРІ зразки. Їх перевірятимуть на спершу грип, потім на ГРВІ, а потім, якщо грип і ГРВІ не підтвердять - на коронавірус.
+Але це точно не питання найближчого часу.
+"Можливо, пізніше. Коли карантини згорнуть, коли ми поборемо коронавірус, і він стане звичайним сезонним вірусом, а не новим і невідомим", - сподівається Оксана Артемчук з ЦГЗ.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Коронавірус: у Чернівецькій області троє людей одужали, ще п’ятеро захворіли</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Упродовж 26 березня у Чернівецькій області одужали троє людей, яким раніше діагностували коронавірус, повідомляють в місцевій ОДА.
+Водночас в регіоні зафіксували і 5 нових випадків хвороби.
+Йдеться про трьох дорослих віком до 40 років та двох дітей - двох та 11-ти років.
+Четверо з п'яти нових інфікованих, кажуть в ОДА, повернулися з-за кордону, один контактував з хворими в Україні.
+"Коли тобі кажуть: у тебе - коронавірус". Розповідь першого українця, який одужав
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: п'ята смерть, 156 людей захворіли
+Таким чином, загальна кількість хворих у Чернівецькій області станом на 26 березня складає 47 людей.
+Загалом в Україні станом на ранок четверга МОЗ повідомляв про 156 підтверджених випадків коронавірусу, п'ятеро людей померли.
+Серед померлих - двоє мешканців Івано-Франківської області, по одному - з Буковини, Житомирської та Тернопільської областей.
+За кількістю виявлених випадків захворювання лідирують Чернівецька область, Київ та Київська область.
+Новина оновлюється...
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>"Немає часу чекати": Зеленський заявив про закриття кордону для пасажирських перевезень</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Володимир Зеленський заявив про повне закриття українських кордонів для пасажирських перевезень. Не пропускатимуть навіть українських громадян.
+"Сьогодні ми діємо настільки жорстко, наскільки цього вимагають сьогодення та виклики майбутнього. Саме тому до кінця п'ятниці, 27 березня, буде закрито державний кордон та припинено усі пасажирські перевезення", - сказав Зеленський.
+Чинні обмежувальні заходи, які зараз діють в Україні, забороняють лише регулярні пасажирські перевезення, але повертатися до України все одно можуть зокрема громадяни, яких держава повертає з країн їхнього перебування в екстреному порядку.
+Коронавірус в Україні: п'ята смерть, 156 людей захворіли
+"Не маємо часу чекати"
+"Два тижні тому я просив українців терміново повернутися - більшість зробили це самостійно, близько 80 тисяч інших ми повернули додому літаками та потягами. Але сьогодні ми більше не маємо часу чекати. Ми опинилися перед вибором між безпекою громадян, які ще за кордоном, і безпекою 40 мільйонів громадян, які перебувають всередині країни", - пояснив президент.
+За його словами, про тих, хто найближчим часом не зможе повернутися, подбають дипломатичні представництва України та українські громади за кордоном.
+"Про жодного українця, який не зможе повернутися в найближчі дні, ніхто не забуде. Поступово усіх повертатимуть додому, але з урахуванням епідеміологічної ситуації в місці вашого перебування і рівня забезпечення медичної системи для вашої обов'язкової ізоляції", - сказав Зеленський.
+В Україні, за останніми даними МОЗ, зафіксовано 156 випадків зараження коронавірусом, 5 людей померли.
+Коронавірус в Україні. Інтерактивна мапа
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Карантин: що зі школою і вступом до вишів?</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Навчальний рік для всіх школярів, окрім 11-класників, цього року завершиться 1 липня.
+А для випускників вступна кампанія до університетів через карантин може тривати аж до середини жовтня.
+Про це у четвер під час онлайн-конференції заявила виконувачка обов'язків міністра освіти Любомира Мандзій.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: п'ята смерть, 156 людей захворіли
+Хроніки коронавірусу: у США - більше тисячі смертей, на боротьбу виділили $2 трлн
+Школярі вчитимуться до 1 липня
+За її словами, все залежатиме від того, коли учні зможуть повернутися за шкільні парти після карантину.
+Наразі ж до 24 квітня все навчання точно буде продовжуватися лише дистанційно.
+"Але ми розуміємо, що може бути дуже по-різному", - додала Мандзій.
+Пропустити Facebook допис , автор: Міністерство освіти і науки України
+Т.в.о. Міністра освіти і науки Lubomyra Mandziy розповідає про закінчення навчального року, цьогорічне ЗНО, вступну...
+Posted by Міністерство освіти і науки України on Thursday, 26 March 2020
+Кінець Facebook допису , автор: Міністерство освіти і науки України
+Згодом виконувачка обов'язків міністра додала, що до тем, які не встигли нормально опрацювати дистанційно, зможуть повернутися у наступному навчальному році.
+"Навчальний рік закінчиться 1 липня. Окрім випускників 11 класу", - наголосила Любомира Мандзій.
+Що буде з випускниками?
+Коли ж навчальний рік завершиться для одинадцятикласників, поки що невідомо.
+За словами Мандзій, він триватиме доти, поки вони не отримають документ про освіту.
+Тут все залежатиме від завершення основної сесії ЗНО.
+"Якщо повернемося за шкільні парти у травні, то у травні відбуватиметься пробне зовнішнє незалежне оцінювання (ЗНО). А основна сесія ЗНО розпочнеться орієнтовно після 20-х чисел червня", - пояснила вона.
+Вступ може затягнутися до жовтня
+Копирайт изображения
+МОН
+Любомира Мандзій відзначила, що якщо навчання не відновиться у червні, то ЗНО можуть провести і в липні, і у серпні.
+"Якщо ми готові розпочати ЗНО у середині серпня, то його процедура завершиться у середині вересня. За таких умова вступна кампанія у заклади вищої освіти завершиться у середині жовтня", - дала прогноз виконувачка обов'язків міністра освіти.
+Вона пообіцяла точно повідомити дату старту вступної кампанії, коли це стане зрозуміло.
+Зарплати вчителям і підсумкова атестація
+Любомира Мандзій також розповіла про те, що міністерство вирішило скасувати державну підсумкову атестацію для учнів 4-го і 9-го класу.
+Водночас вона запевнила, що всі педагоги отримуватимуть зарплати, попри карантин і дистанційне навчання
+"Всі педагогічні працівники мають отримувати середню зарплату", - наголосила урядовець.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Річард Грей</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Наука</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Коронавірус: чи піде пандемія на спад, коли потеплішає?</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SERGEI SUPINSKY
+Чи є новий коронавірус сезонним, як більшість вірусів грипу? Та як на його поширення впливають кліматичні і погодні умови?
+Спалахи багатьох інфекційних захворювань поступово згасають з настанням теплої пори року. Грип або кишкова інфекція норовірус більш розповсюджені у зимові місяці.
+Пік зараження тифом випадає на літо. Випадки кору знижуються влітку в помірному кліматі, а у тропічних регіонах підвищуються під час посухи.
+Отже, цілком закономірне питання - чи залежить від сезону і активність нового коронавірусу, епідемія якого почалася всередині минулого грудня в Китаї, а тепер перемістилася у Європу та США.
+Найбільші спалахи захворювання на Covid-19 сталися в регіонах, де погода прохолодна, а отже, чи можна припустити, що з настанням літа пандемія піде на спад.
+Коронавірус: чи можна ним заразитися двічі?
+Онлайн карта коронавірусу
+Коронавірус: коли закінчиться епідемія
+Більшість вірусологів, однак, не надто оптимістичні. Вірус SARS-CoV-2, який спричинює коронавірусну інфекцію, - новий і поки що мало вивчений.
+А найближчий до нього за походженням вірус Sars, спалах якого відбувся у 2003 році, стримали швидко, і отже, інформації про те, як на нього вплинула б зміна пори року, немає.
+Втім, дещо відомо про інші види коронавірусів, які заражають людей.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Є надія, що з потеплінням у Північній півкулі спалах коронавірусу почне знижуватися
+Дослідження деяких з них показали, що спалах спричинених ними інфекцій дихальних шляхів має "помітну зимову сезонність". Тобто найбільше захворювань було між груднем та квітнем, так само як і з грипом.
+Дані перших досліджень SARS-CoV-2 показують, що вірус надає перевагу прохолодній і сухій погоді.
+Його поширення пов'язане з кількома погодними чинниками: температурою повітря, швидкістю вітру та відносною вологістю.
+Помірний теплий, а також холодний клімат є найбільш сприятливими для спалаху Covid-19
+Помірний теплий, а також холодний клімат є найбільш сприятливими для спалаху Covid-19.
+А от тропічні частини світу, ймовірно, постраждають найменше, кажуть дослідники.
+Утім, є одне велике "але". Пандемії часто не відповідають закономірностям звичайних сезонних спалахів.
+Наприклад, пік іспанки припав на літні місяці, тоді як більшість спалахів грипу відбувається взимку.
+Але чому інші коронавіруси сезонні та що дає надію на те, що і новий вірус SARS-CoV-2 також має цю рису?
+Коронавіруси належать до сімейства так званих "загорнутих вірусів". Вони вкриті маслянистою оболонкою - ліпідною двошаровою структурою, "прикрашеною" білковими наростами, які схожі на корону. Звідси й назва - "коронавіруси".
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Досліджень того, як на захворюваність на Covid-19 впливає погода, ще мало
+Через цю маслянисту оболонку вірус стаж більш чутливим до нагрівання. У холоді оболонка твердне і стає желеподібною, як застигає жир на холодному вареному м'ясі.
+Таким чином, вона захищає вірус, поки він перебуває за межами організму. Саме тому більшість "загорнутих вірусів" мають виражену сезонність.
+Дослідження вже показали, що Sars-Cov-2 може витримати до 72 годин на твердих поверхнях, як-от пластик та неіржавна сталь, за температури 21-23°C та відносній вологості повітря 40%.
+Як довго коронавірус живе на поверхнях?
+Як саме поводиться новий коронавірус за інших температур та вологості ще належить дослідити, але інші коронавіруси виживають понад 28 днів за температури 4°C.
+"Клімат впливає на стабільність вірусу поза людським організмом, наприклад, коли він виходить з кашлем або чханням", - пояснює Мігель Араухо з Національного музею природничих наук у Мадриді в Іспанії.
+"Що довше вірус залишається стабільним у навколишньому середовищі, то більша його здатність заражати інших людей та спричиняти епідемію", - додає дослідник.
+Онлайн карта коронавірусу
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Як перевіритися на коронавірус?
+Дослідження Університету Меріленду показало, що вірус Sars-Cov-2 найбільше поширився у містах та регіонах світу, де середня температура була близько 5-11°С з низькою відносною вологістю.
+Втім, недавній аналіз поширення нового коронавірусу в Азії, проведений дослідниками Гарвардської медичної школи, свідчить, що він буде менш чутливим до погоди, ніж сподіваються вчені.
+Це підкреслює необхідність широких заходів охорони громадського здоров'я у боротьбі з захворюванням.
+Sars-Cov-2 найбільше поширився у містах та регіонах світу, де середня температура була близько 5-11°С з низькою відносною вологістю
+Річ у тім, що поширення вірусу залежить далеко не лише від його здатності виживати в навколишньому середовищі.
+І саме тут поняття сезонності захворювання ускладнюється.
+Коронавірус поширюють люди, а тому сезонні зміни у поведінці людей також впливають на частоту заражень.
+Наприклад, випадки кору в Європі, як правило, збігаються зі шкільними семестрами та знижуються під час канікул.
+Вважають, що ключову роль у поширенні Sars-Cov-2 з Уханя в інші міста Китаю та по всьому світу зіграла велика міграція людей перед Китайським новим роком 25 січня.
+Погода також впливає і на наш імунітет, роблячи нас більш вразливими до інфекцій. Деякі дослідження припускають, що рівень вітаміну D в організмі впливає на нашу здатність захворіти.
+Взимку наш організм отримує менше вітаміну D від сонячних променів. Хоча вплив цього чинника на сезонність грипу багато дослідників вважають суперечливим.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Лабораторні дослідження та комп'ютерне моделювання припускають, що новий коронавірус зможе вижити й у теплих та вологих умовах
+Так само неоднозначним є питання про те, чи послаблює нашу імунну систему холодна погода. На думку опонентів, холод збільшує кількість клітин, які захищають наше тіло від інфекцій.
+А от що, без сумніву, впливає на нашу здатність протистояти вірусам, - це вологість повітря.
+Коли повітря дуже сухе, кількість слизу, що покриває наші легені та дихальні шляхи, зменшується. Ця секреція утворює природний захист від інфекцій, і з нею ми стаємо менш вразливими до вірусів.
+А от що, без сумніву, впливає на нашу здатність протистояти вірусам, - це вологість повітря
+Оскільки вірус SARS-CoV-2 є новим, у багатьох людей немає від нього імунітету, поки вони не перехворіють на нього.
+А це означає, що він поширюватиметься та спричинюватиме хвороби не так, як ендемічні віруси, притаманні певному регіону.
+Авіаперельоти стали основним маршрутом швидкого поширення вірусу світом, зазначає Вітторія Коліцца, директор відділу досліджень Французького інституту охорони здоров'я та медичних досліджень.
+Але щойно він починає ширитися в межах спільноти, його передачі сприяють близькі контакти між людьми. Припинення контактів повинно знизити рівень зараження. Саме тому більшість урядів й ухвалили рішення про суворий карантин.
+Якщо число випадків Covid-19 знизиться протягом найближчих місяців, цьому може бути кілька причин. Це, насамперед, заходи профілактики, як-от ізоляція та карантини, зростання колективного імунітету, а також зміна пори року.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Навіть якщо випадки захворювання на Covid-19 знизяться влітку, вірус не зникне і може повернутися у холодному сезоні
+"Якщо новому коронавірусу дійсно притаманна сезонність, це може замаскувати справжній вплив двох інших чинників", - попереджає професор Ян Альберт з Каролінського Інституту в Стокгольмі.
+"У країнах, де суворі обмеження вберегли багатьох людей від зараження, цілком можлива друга хвиля захворювань з настанням осені та зими", - пояснює він.
+Навіть якщо Covid-19 залежить від пори року, навряд чи він повністю зникне протягом літніх місяців. Але зменшення випадків захворювання певну користь принесе.
+"Кроки, які ми робимо, щоб вирівняти криву пандемії, дорого коштують економіці, але вони мають допомогти нам протриматися до літа", - зазначає професор Альберт.
+"Це допоможе системам охорони здоров'я виграти потрібний їм час на підготовку".
+Для світу, який веде важку боротьбу з поширення вірусу, це може бути час, якого він відчайдушно потребує.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Future.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Наука</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Хробак, якому 500 млн років. Вчені знайшли "пращура" всіх тварин</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SOHAIL WASIF/UCR
+Біологи з США і Австралії знайшли можливого "пращура" всіх тварин - стародавній вид двосторонньо-симетричних істот, що поклали початок розвитку кожного з нас.
+Рештки викопного хробака, які знайшли в Австралії, - найбільш ранній зразок скам'янілої білатерії - двосторонньо-симетричного організму.
+Крихітна хробакоподібна істота (розміром із зернятко рису), що жила на морському дні понад пів мільярд років тому, дала американським і австралійським біологам зачіпку до розуміння складного еволюційного шляху всього тваринного світу.
+Професор Університету Каліфорнії у Ріверсайді Скотт Еванс і його колеги назвали її Ikaria wariootia.
+Чи виникло б людство знов, якби ми відмотали час назад?
+Тест: що ви знаєте про еволюцію
+У Латинській Америці знайшли найстарішу рослину
+Білатерії мають передню і задню сторони, симетричні боки, ротові отвори і травний орган. Відкриття описали в журналі PNAS.
+Автори дослідження вважають, що розвиток двосторонньої симетрії став найважливішим кроком у еволюції тваринного світу. Завдяки їй тварини отримали можливість цілеспрямовано рухатися. Крім того, симетрична будова організму більш функціональна.
+Безліч різних біологічних видів, від черв'яків і комах до динозаврів і людей, мають тіла симетричної будови.
+Відбитки на скелях
+Копирайт изображения
+DROSER LAB/UCR
+Image caption
+У каменях були крихітні отвори, в яких, на думку біологів, мешкали білатерії, але шукати самих тварин нікому не спадало на думку
+Ikaria жила 555 млн років тому за часів вендської геологічної доби (також званої едіакарської). Це перша стадія складного багатоклітинного життя на Землі.
+Її сліди знайшли в скелях Нільпени, на півдні Австралії, в середині 2000-х.
+Камені мали крихітні отвори, в яких, на думку біологів, мешкали білатерії, але шукати самих тварин нікому не спадало на думку.
+І лише коли Скотт Еванс і Мері Дроузер - професор геології у тому ж університеті у Ріверсайді - помітили навколо отворів крихітні овальні відбитки, виявилося, що це дійсно сліди білатерій.
+Чи п'яніють комарі від алкоголю в крові людини?
+Знайдений в Ефіопії череп змінює уявлення про предків людини
+Тривимірне лазерне сканування показало тіло рівної циліндричної форми з чітко вираженою головою, хвостом і злегка випуклими м'язами.
+Ikaria wariootia були від 2 до 7 мм завдовжки і близько 1-2,5 мм завширшки. У найбільшому із виявлених отворів збереглися рештки найбільшої з особин - науковці зійшлись на думці, що саме вона і зробила отвори у кам'яних відкладеннях.
+Копирайт изображения
+DROSER LAB/UCR
+Image caption
+3D-зображення, яке дає чітке уявлення про Ikaria wariootia
+"Ми припускали, що ці організми, найімовірніше, існували у вендську добу, але розуміли, що виявити і розпізнати їх вкрай складно, - розповів Скотт Еванс. - Коли я побачив 3D-скани, то зрозумів, що ми зробили відкриття".
+Білатерії цього виду, очевидно, провели своє життя на дні океану в пошуках будь-якої органічної матерії, яку можна з'їсти: для цього вони робили в піску нори, часом доволі глибокі.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Технології</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Уряд Британії замовив апарати штучної вентиляції легень у виробника пилососів</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Британський уряд замовив у компанії Dyson, відомого виробника пилососів, 10 тисяч апаратів штучної вентиляції легень (ШВЛ).
+Таке обладнання є критично важливим в окремих випадках захворювання Covid-19, коли в пацієнтів виникає гостра дихальна недостатність - ШВЛ дозволяє підтримувати їхнє дихання.
+Фірма, яку очолює інженер сер Джеймс Дайсон, розробила новий тип апаратів ШВЛ з нуля, відгукнувшись на заклик Національної служби охорони здоров'я Великої Британії (NHS).
+Держзамовлення буде виконано, коли апарати Dyson пройдуть випробування і будуть сертифіковані - влада країни вже прискорила цей процес.
+У компанії кажуть, що її інженери працювали над створенням обладнання штучної вентиляції легень цілодобово.
+Системи штучної вентиляції легень. Що це і чи справді їх бракує
+VIP-палати у лікарнях: Зеленський попросив їх скасувати
+Копирайт изображения
+DYSON/PA MEDIA
+Image caption
+Dyson розробидла власну модель апарату ШВЛ
+Втім, миттєвого переходу на такі апарати все одно не буде: навіть якщо нове обладнання отримає сертифікат найближчими днями, шлях від прототипу до масового випуску все одно триватиме не менш як два тижні.
+Як розповіли BBC в британському уряді, влада наразі скуповує апарати ШВЛ де тільки можливо.
+У NHS зараз є трохи більше 8 тисяч апаратів, ще стільки ж уряд Бориса Джонсона сподівається закупити в британських та іноземних виробників.
+Проте, згідно з прогнозами того, як протікатиме пандемія, владі знадобиться принаймні 30 тисяч апаратів ШВЛ.
+З досвіду Китаю та Італії підраховано, що штучної вентиляції легень потребували від 2% до 4% інфікованих пацієнтів.
+Як працює апарат ШВЛ
+ШВЛ забезпечує збагачення легень киснем і видалення з них вуглекислого газу
+Апарат використовується в пацієнтів з хворобами легень, які не можуть дихати самостійно, а також під час хірургічних операцій і в постопераційний період
+Трубка, що підключається до апарата ШВЛ, вводиться пацієнту в рот, ніс або через невеликий розріз в горлі
+Використання апарату ШВЛ потребує фахівців, які пройшли відповідне навчання, застосовувати його в домашніх умовах неможливо, кажуть експерти
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Гелієр Чен</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Чи допомагає публічний осуд дотримуватись карантину</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+EPA
+Image caption
+Люди мають триматися на відстані не менше 2 м один від одного, радять фахівці
+Фото галасливої юрби у парках, на ринках і пляжах у США, Великій Британії та Канаді викликали хвилю обурення у соцмережах, а влада називає людей, що не дотримуються безпечної дистанції з іншими, егоїстичними, зарозумілими або схильними до саморуйнування.
+Деякі йдуть ще далі та кажуть, що той, хто нехтує правилами поведінки під час карантину, "заслуговує на отримання вірусу".
+А гештег #COVIDIOTS набирає дедалі більшої популярності.
+У Британії чоловік транслював наживо, як люди гуляють набережною біля його будинку. Відео, яке він супроводжував брутальними і лайливими коментарями, стало вірусним.
+Соціальні психологи кажуть, що відчуття сорому відіграє важливу роль у дотриманні соціальних норм - особливо в часи, коли ці норми швидко змінюються через коронавірус.
+Однак дистанціюватися на вулиці - не так вже й непросто, особливо коли фахівці дають подекуди суперечливі поради, а передбачити поведінку інших людей - неможливо.
+Міфи про коронавірус. Розвінчуємо
+Коронавірус: коли закінчиться епідемія
+Отже, чи можна займатись спортом на свіжому повітрі без зайвого ризику і публічного осуду?
+Можна гуляти, чи ні?
+Офіційні поради збивають з пантелику. З одного боку, нам кажуть залишатися вдома якомога довше. З іншого - що важливо продовжувати тренуватися, і що прогулянка у парку - це нормально.
+У Нью-Йорку відповідальний за роботу міських парків Мітчелл Сілвер закликав мешканців користуватися парками міста, вказуючи, що проведення часу на вулиці може зменшити стрес і покращити імунну систему.
+Британський прем'єр-міністр Борис Джонсон також наголосив, що парки та відкриті простори мають "вирішальне значення для нашої країни і суспільства", і закликав людей користуватися ними відповідально.
+Image caption
+Прогулянка на свіжому повітрі поліпшують психічне здоров'я та роботу мозку
+Але коли парки стають надто популярними, або люди починають збиратися там групами - це стає проблематичним.
+Минулі вихідні поліція американського Сіетла була змушена через гучномовець нагадувати людям у парку, що вони мають триматися на відстані не менше 2 м один від одного.
+А у Британії деякі парки, пляжі й відкриті зони відпочинку були переповнені на вихідні, тому вже у понеділок уряд оголосив про жорсткі карантинні обмеження.
+The Stranger, новинний сайт у Сіетлі, написав про лісові маршрути для індивідуальних прогулянок, але вже за день видалив цю статтю, дізнавшись, що люди збираються у групи і подорожують або ходять у колективні походи цими маршрутами.
+В Канаді на деяких спорожнілих вулицях Ванкувера та Торонто було тихо, тоді як на міських пляжах - просто не пройти. Тому прем'єр країни Джастін Трюдо закликав людей бути розважними і не наражати інших на небезпеку.
+Image caption
+Коли кількість людей у парку зростає, значно підвищується ризик зараження
+Брайан Лабус, професор громадської охорони здоров'я в університеті штату Невада, Лас-Вегас, підкреслює, що кожен "вихід на вулицю має сприйматися як ризик".
+Але якщо ретельно планувати свої дії, ризик можна звести до нуля.
+"Прогулянки наодинці або з собакою - цілком безпечні. Хвилюватись варто, якщо доводиться контактувати з іншими людьми".
+Від групових пробіжок і велотренувань також варто відмовитись через необхідність завжди дотримуватись дистанції у 2 м.
+"Якщо ви пробігаєте поруч з інфікованою людиною у момент, коли вона чхає, на вас впадуть краплі вірусу. І не має значення, як швидко ви біжите, - обігнати чхання не зможе ніхто", - каже професор Лабус.
+Натомість він рекомендує бігунам та велосипедистам регулювати темп руху там, де це необхідно.Так вони зможуть дотримуватися безпечної відстані з тими, хто поруч.
+Онлайн карта коронавірусу
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Як перевіритися на коронавірус?
+Також важливо ретельно продумати, куди ви йдете, - і розставити пріоритети, щоб уникнути скупчення людей.
+"Коли кількість людей у парку зростає, значно підвищується ризик зараження", - каже він, адже складно дотримуватись дистанції у 2 м з усіма. Особливо це стосується місць масового скупчення людей, наприклад, входу на територію парку.
+Натомість професор Лабус рекомендує обирати для прогулянок тихі й відлюдні місця поруч із вашим будинком.
+"Коронавірусний етикет"
+Image caption
+У ліфті важко дотримуватись соціальної дистанції
+Спалах коронавірусу породив нові соціальні дилеми. Як вітатися з іншими під час прогулянки? Як розійтися на вузькій стежці? Як користуватись ліфтом?
+Президент Інституту Емілі Пост, Ліззі Пост, опублікувала правила етикету на час коронавірусу.
+"Наші манери наразі виглядають трохи інакше, але головні принципи "уваги, поваги і чесності" залишаються незмінними", - каже вона.
+"Коли я гуляю з собакою у парку в своєму районі, і хтось наближається, а я цього не бачила, я відходжу зі стежки на траву, або чекаю, поки вони пройдуть".
+Вона визнає, що за звичайних обставин це виглядало б грубо, але закликає відкидати відчуття незручності.
+"Найкращий спосіб запевнити, що ви не грубіян,- дивитись в очі, посміхатись або пояснити, що це лише правила поведінки під час карантину.
+Усі експерти кажуть, що чим більше ви дотримуєтесь цих правил, тим краще для вас".
+На вузьких пішохідних доріжках "ви, безумовно, можете відвернутись від того, хто проходить поруч". Або йти, як на мосту з однополосним рухом, - почекати, поки інша людина пройде, а потім рухатись самому, рекомендує Ліззі Пост.
+А що робити, якщо хтось намагається їхати з вами у ліфті?
+Пані Пост каже, що вона "можливо, просто б вийшла і поступилася б своїм місцем у ліфті". Або спробувала б пояснити: "Я намагаюся дотримуватись безпечної дистанції, ви не проти почекати наступний ліфт?"
+"Буде трохи ніяково, але, гадаю, поступово усі зрозуміють, що ви просто намагалися поводитись цивілізовано".
+Чи працює публічний осуд?
+Відкритий громадський осуд - це складне і суперечливе питання.
+В останні роки деякі люди після публічного осуду в інтернеті ставали об'єктом самочинних розправ. Були навіть випадки, коли вони втрачали роботу або отримували смертельні погрози.
+Image caption
+В США деякі паби та бари працювали в день святого Патріка
+Онлайн-осуд поки не набув широкого поширення, але деякі люди вже скаржаться, що стали "мішенню" несправедливих нападок.
+Один з власників ірландських пабів у Пасадені, штат Каліфорнія, зазнав жорстокої критики за те, що відкрив свій бар у День святого Патріка, привернувши натовп клієнтів - і гнів місцевих жителів.
+Джозеф Гріффін розповів LA Times, що просив клієнтів замовляти їжу лише на винос або з доставкою, і що не знав, що напередодні місцева влада наказала закрити всі бари.
+"Посипались телефонні дзвінки від обурених місцевих жителів. Деякі поводились дуже грубо - кричали на мене і моїх працівників. Це було щось неймовірне".
+Проте, експерти кажуть, що сором також може бути ефективним інструментом для запровадження нових соціальних норм, і що спалах коронавірусу є особливо гарним прикладом того, де це особливо необхідно.
+"Коронавірус - це проблема, яка зачіпає всіх нас - проблема з серйозними і негайними наслідками, коли ми всі маємо йти на жертви ... це справжня дилема співпраці".
+"Однак не варто вдаватись до публічного осуду за межами спільної проблеми", - каже Дженніфер Жаке, професор з екологічних досліджень Нью-Йоркського університету.
+Професор Жаке, авторка книги про те, як громадський осуд може стати стимулом до співпраці, вважає, що ця тактика ефективно спрацювала у ситуації з коронавірусом - люди відмовились від накопичення запасів і дотримуються правил соціального дистанціювання.
+Вона вважає, що осуд також ефективно діє проти влади - наприклад, якщо уряди не забезпечують дотримання дистанціювання, не надають достатньої кількості тестів на коронавірус і не захищають працівників охорони здоров'я.
+"Я сподіваюся, що осуд стане ефективним інструментом для забезпечення суспільного добробуту".
+Чи можна заразитися коронавірусом двічі?
+Ліззі Пост стверджує, що погану поведінку краще засуджувати у коректній манері. Наприклад, замість того, щоб називати людей у багатолюдних місцях "божевільними" або "дурнями", краще запросити їх до розмови і зосередитись на вирішенні проблеми.
+"Дуже важливий тон розмови, адже люди це відчувають. Якщо ви критикуєте їхні інтелектуальні здібності і психічний стан, це дуже агресивна поведінка".
+Тим часом, Даніель Шніцер, соціальний психолог з Університету Монреаля, каже, що суспільний осуд може стримувати певну поведінку, але попереджає, що існують певні обмеження.
+За його словами, відкритий публічний осуд шкодить репутації, тому деякі люди можуть соромитись певної поведінки, але продовжують робити це таємно.
+Вихід на вулицю - це публічний вчинок, тому люди, яких присоромили, частіше дотримуються правил соціального дистанціювання, стверджує він.
+Однак ця тактика - менш ефективна за зачиненими дверима, наприклад, якщо хтось через інтернет-магазини робить запаси, які їм не потрібні.
+Професор Шніцер стверджує, що "почуття провини пов'язане із шкодою людям, яких ви любите", - це призводить до "більш стабільної, м'якої і надійної" зміни поведінки.
+"Цілком можливо, що прохання уряду турбуватися про добробут інших може бути більш ефективним, ніж осуд", - каже він, хоча "для того, щоб почуття провини працювало, потрібно цінувати добробут інших".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Вікторія Джилл</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Коронавірус: як безпечно купувати продукти та замовляти їжу з доставкою</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Під час карантину влада рекомендує обмежитися лише "продуктами першої необхідності" та виходити з дому "тільки у разі крайньої потреби".
+Уряд також радить за можливості "користуватися доставкою їжі".
+Але як це зробити безпечно?
+Ризики в магазині
+Коронавірус поширюється з кашлем і чханням хворої людини. Крихітні краплі слини і слизу потрапляють у повітря і на поверхні та можуть спричинити зараження, якщо хтось вдихає їх або торкається предметів.
+Коронавірус в Україні. Інтерактивна мапа
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+"Ховати знайомих гірше". Як живе Європа на карантині
+Тому похід до супермаркету чи магазину, де ви перебуваєте поруч із багатьма людьми, вже пов'язаний із ризиком.
+Соціальне дистанціювання, щонайменше на два метри, є важливим. Тому багато магазинів обмежують число людей всередині та вимагають від покупців дотримуватися дистанції.
+На думку професора Саллі Блумфілд із Лондонської школи гігієни та тропічної медицини, супермаркети є "ідеальним середовищем" для передачі вірусу.
+"Багато людей торкаються поверхонь та речей в супермаркеті - конвеєрної стрічки на касі, кредитних карток, кнопок автоматів та банкоматів, паперових чеків тощо... Не кажучи вже про те, що ви перебуваєте поблизу багатьох інших людей".
+Як ці ризики зменшити:
+Мийте руки протягом 20 секунд милом і водою або обробіть їх дезінфікуючим засобом на основі спирту до і після покупок.
+Торкнувшись поверхонь, продуктового візка, кошика, упаковок та інших виробів, уникайте дотиків до обличчя.
+Користуйтеся безконтактними способами оплати.
+Покупки
+Доказів того, що Covid-19 може передаватися через їжу, немає. Крім того, акуратне приготування і обробка їжі знищує вірус.
+Утім, головною проблемою є пакування, якого торкається велика кількість людей.
+"Продукти в контейнерах або пакетах потрібно або витримувати протягом 72 годин перед використанням, або протирати розчином хлорки чи спиртом", - каже професор Блумфілд.
+"Незагорнуті свіжі продукти, як-от фрукти та овочі, ретельно промийте під проточною водою і залиште просохнути", - додає вчена.
+Онлайн карта коронавірусу
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Як перевіритися на коронавірус?
+Чи безпечна доставка їжі?
+Доставка їжі є безпечнішою, ніж похід у магазин, тому що таким чином можна уникнути контактів з людьми. Єдиний ризик становить можливе забруднення пакетів.
+Експертка з безпеки харчових продуктів та блогерка д-р Ліза Акерлі пропонує залишити на вхідних дверях записку із проханням кур'єру подзвонити та зробити кілька кроків назад.
+Як зазначає доктор Джеймс Гілл із медичної школи Ворвіка, "Протирання поверхонь простим побутовим відбілювачем, розведеним, як вказано на упаковці, знешкоджує вірус протягом однієї хвилини".
+Професор Елісон Сінклер, вірусолог з Університету Сассексу, додає: "Скористатися доставкою їжі з магазину так само безпечно, як і попросити купити продукти друга або волонтера".
+Деякі експерти також радять використовувати пластикові пакетики під час цієї пандемії лише один раз.
+А їжа на винос?
+Багато місцевих ресторанів переобладнали свій бізнес на винос. Відомі мережі та шановані ресторани намагатимуться дотримуватися жорстких правил гігієни. Отже, купити на винос свіже приготовану страву має бути безпечним.
+Щоби зменшити ризик забруднення на упаковці, одразу перекладіть страву у чистий домашній посуд, радить проф. Блумфілд. "Тару викиньте в мішок для сміття і ретельно вимийте руки перед прийомом їжі", - додає фахівець.
+"Виймайте їжу з контейнера ложкою, а їжте її ножем і виделкою - не пальцями".
+У теперішніх обставинах краще замовити гарячу, свіже приготовану їжу, ніж холодні та сирі інгредієнти.
+Агентство зі стандартів харчових продуктів наголошує, що "немає жодних причин уникати доставки готової їжі, якщо вона була приготована і запакована правильно".
+Для найобережніших та найуразливіших можна ще додатково термічно обробити замовлені страви.
+"Піцу, наприклад, можна поставити на пару хвилин у мікрохвильовку", - додає професор Блумфілд.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Як коронавірус змінив секс-індустрію - огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У п'ятницю, 27 березня світові ЗМІ висвітлюють, як поширення коронавірусу та карантинні обмеження змінюють секс-індустрію, відносини між закоханими та інтернет. А італійські ЗМІ пишуть про "непотрібну допомогу", яку Італія отримала з Росії.
+Секс-індустрія на карантині
+Коронавірус змінив ситуацію для секс-індустрії в Німеччині, пише Los Angeles Times.
+Минулого тижня канцлерка Ангела Меркель оголосила про закриття всіх борделів, так само як і барів, клубів, театрів та музеїв в рамках боротьби зі спалахом коронавірусу.
+Секс-працівниці непокояться про майбутнє свого бізнесу на тлі можливої економічної кризи.
+"Те, що ми пропонуємо - це розкіш, а не щоденна потреба. Це може бути перша річ, на якій люди будуть економити", - каже Ундіна де Рів'єра, секс-працівниця з 25-річним досвідом.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Для кварталів червоних ліхтарів у Європі настали тяжкі часи
+Проституція у Німеччині легалізована, і це приваблює секс-працівниць з усього світу.
+"Вони приїздять з Румунії, Болгарії, України, Польщі, Таїланду та Південної Америки. Також є секс-працівниці та клієнти з Британії та США ", - розповідає Сюзанна Блайер Вільп з берлінської Асоціації надавачів еротичних та сексуальних послуг.
+Чи можна займатися сексом під час коронавірусу?
+Як багатії рятуються від коронавірусу. Огляд ЗМІ
+В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
+Вона каже, що близько 80% секс-працівниць у Німеччині - іноземні громадянки, тож навряд чи зможуть скористатися антикризовою допомогою від уряду.
+"Найбільше дістається найбіднішим. Їхній прибуток зник. У них немає постійної адреси та медичного страхування. Це серйозна ситуація", - каже пані Вільп.
+Деякі секс-працівниці знайшли вихід у "віддаленій роботі" - наприклад, продають онлайн контент для дорослих та експериментують з веб-камерами, пише видання.
+Кохання в часи коронавірусу
+Копирайт изображения
+GETTY IMAGES
+Під час карантину можна бачитися зі своїм хлопцем чи дівчиною, але є умови, пише Daily Telegraph.
+Парам слід визначитися - не зустрічатися фізично впродовж трьох тижнів або ж з'їхатися, щоб жити разом. Саме це днями порекомендувала заступниця головного лікаря Англії Дженні Гарріс.
+Це важливо для зменшення соціальних контактів, пояснила вона. Якщо ви живете разом, ви менше пересуваєтесь своїм містом або селом, відповідно до рекомендацій влади.
+Про побачення ж доведеться забути. За умовами карантину в Британії з дому можна виходити лише в разі потреби, наприклад, купити продукти, отримати медичну допомогу або раз на день прогулятися чи пробігтися.
+"Я лише бажав побачити її". Кохання під час коронавірусу
+Бебі-бум чи хвиля розлучень? Що буде після карантину
+"Ховати знайомих гірше". Як живе Європа на карантині
+Якщо ж ви не наважилися або не можете жити разом, зберегти стосунки можна за допомогою віртуальних побачень, пише видання.
+"Красиво вдягніться, неначе це справжня зустріч. Якщо ви ставитеся до ваших онлайн-побачень як до справжніх, ви докладаєте зусиль, щоб потішити свого партнера, а це підтримує іскру", - радить консультантка з питань стосунків Ейлін Ебботт.
+Ще один варіант - одночасно дивитися фільм, а потім його обговорювати. А якщо ж ви вирішили з'їхатися, важливо поважати особистий простір один одного, а в разі непорозумінь - обговорювати, як їх вирішити, радить експертка.
+Коронавірус сповільнює інтернет
+Під час пандемії люди стали більше проводити часу онлайн, що вплинуло на швидкість завантаження та якість відео, пише New York Times.
+Карантини, запроваджені у багатьох країнах світу, зробили людей більш залежними від інтернету для спілкування, роботи, навчання та розваг.
+Значне зростання у використанні YouTube, Netflix, відеоконференцій у Zoom, дзвінків по Facebook та відеоігор стало позначатися на інтернет-інфраструктурі, хоча трафік ще не досяг свого піку.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Доба коронавірусу може суттєво підвищити користування послугами відеоконференцій Zoom
+У Євросоюзі вирішили діяти на випередження. Стрімінговим компаніям, на кшталт Netflix та YouTube, наказали зменшити якість відеофайлів, щоб менше перевантажувати інтернет-трафік. У США безпровідним провайдерам дали доступ до більшого спектру, щоб підвищити потужність їхніх мереж.
+Інтернет-провайдери кажуть, що в березні лише за кілька днів досягли зросту, якого розраховували досягнути за весь 2020 рік.
+У Європі інтернет-трафік на домашніх фіксованих мережах зріс більш ніж на 30%. Користувачі стали вдвічі більше грати в онлайн-ігри та використовувати відеоконференції. Надсилання повідомлень по WhatsApp зросло в чотири рази.
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+Карантин: як пристосовується український бізнес
+Коронавірус в Україні: що буде з відпустками і зарплатами
+Збільшення трафіку та навантаження на інтернет-мережі уповільнило швидкість завантаження веб-сторінок та додатків, пише видання. Великий попит змусив провідних провайдерів зайнятися збільшенням потужностей.
+В Іспанії використання інтернету зменшується лише о 8 годині вечора, коли всі люди підходять до вікон аплодувати лікарям. "Раптом о 8 годині використання падає, а потім знову росте. Це прекрасно", - каже виданню представник іспанського провайдера Telefonica.
+"Непотрібна допомога"
+Копирайт изображения
+GETTY IMAGES
+Image caption
+80% допомоги, яку надіслала Росія Італії в дев'ятьох літаках для боротьби з коронавірусом, виявилися непотрібними або не мали особливої користі
+80% допомоги, яку надіслала Росія Італії в дев'ятьох літаках Іл для боротьби з коронавірусом, виявилися непотрібними або не мали особливої користі, пише італійська La Stampa з посиланням на джерела серед політиків.
+На відміну від допомоги з Китаю, що складалася здебільшого з респіраторів та хірургічних масок, росіяни привезли техніку для бактеріологічного знезараження територій, польову лабораторію для стерилізації та хімічно-бактеріологічної профілактики та інше подібне обладнання, пише видання.
+Путін вирішив, що коронавірус дає можливість фізичного проникнення на територію Італії, а італійський прем'єр-міністр Джузеппе Конте вхопився за можливість підтримки, погодившись прийняти це все, щоб зміцнити особисті стосунки з президентом Росії, зазначає газета.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі
+В Італії через коронавірус померли щонайменше 50 священників
+Близько сотні експертів, яких надіслала Москва, - це військові медики, а всю операцію проводить Міністерство оборони Росії, а не Міністерство охорони здоров'я. Вони мають звання генерала, полковника, майора та підполковника, а також досвід участі у військових операціях в африканських країнах, пише La Stampa.
+"Це справді виняткова ситуація", пише видання про подорож російських військових територією країни з Риму до Бергамо. Міністри закордонних справ двох країн питання допомоги не обговорювали, цьому передувала лише довга телефонна розмова між Путіним та Конте.
+Росія надіслала все безкоштовно, як "щедрий подарунок Італії від Путіна", зазначає газета. "Але щедрість має свою ціну: представники російського Міністерства оборони вільно пересуваються територією Італії за кілька кроків від баз НАТО", підсумовує видання.
+Огляд підготувала Ганна Чорноус
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Міфи про коронавірус. Розвінчуємо</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>У прем'єра Британії Бориса Джонсона виявили коронавірус</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Прем'єр-міністр Великої Британії Борис Джонсон повідомив, що підхопив коронавірус.
+Про це він розповів у своєму фейсбуку.
+"Протягом останніх 24 годин у мене з'явилися легкі симптоми, і тест показав позитивний результат", - написав він.
+У принца Чарльза виявили коронавірус
+"Ховати знайомих гірше". Як живе Європа на карантині
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+Він додав, що самоізолювався, але і далі очолює роботу британського уряду по боротьбі з вірусом через відеоконференції.
+"Разом ми це переможемо", - додав британський прем'єр.
+Борису Джонсону 55 років.
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі
+"Боюся, що голод вб'є нас швидше за коронавірус"
+Перед тим стало відомо, що на COVID-19 захворів і британський принц Чарльз.
+Як коронавірус шириться планетою. Мапа
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Коронавірус: що треба знати
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: пів мільйона хворих у світі, українка з підозрою на хворобу втекла з лікарні</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Кількість випадків захворювання на коронавірус у світі перевищила 500 тисяч. Понад 23 тис. із них померли, 120 тис. - одужали.
+Найвищою смертність лишається в Італії - понад 8 тисяч смертей, Іспанії - 4 тисячі та Китаї - 3 тисячі.
+В Україні станом на 26 березня зафіксували 156 випадків зараження коронавірусом. П'ять людей померли, одна людина одужала.
+Українка з підозрою на коронавірус втекла з лікарні
+39-річна жителька Прикарпаття, яка нещодавно повернулася з Бельгії, з невідомих причин залишила лікувальний заклад у Києві, де їй встановили підозру на коронавірус.
+До України вона прилетіла 23 березня, в аеропорту "Бориспіль" в неї виявили підвищену температуру і провели експрес-тест на коронавірус - він дав позитивний результат.
+Після цього жінку шпиталізували в Олександрівську лікарню в Києві, де їй зробили повторний експрес-тест - цього разу результат був негативний.
+Згодом жінку перевели в столичну лікарню №4, де їй зробили ще два тести. Один із них виявився позитивним, другий - негативним.
+Коронавірус в Україні. Інтерактивна мапа
+"Ховати знайомих гірше". Як живе Європа на карантині
+Вже 24 березня пацієнтка з невідомих причин самовільно залишила лікарню - на контакт з лікарями вона не виходила, на дзвінки не відповідала.
+Наступного дня, після того, як до пошуків долучилися правоохоронці, жінку знайшли на Івано-Франківщині, де вона мешкає.
+Начальник ГУНП в Івано-Франківській області Володимир Голубош розповів, що поліція зупинила автівку, в якій жінка перебувала з чоловіком, дочкою та зятем.
+"Одразу було викликано карету швидкої допомоги, доправлено до обласної інфекційної лікарні, взято відповідні аналізи. Взято зобов'язання про дотримання самоізоляції. Також зібрані матеріали для притягнення жінки до адміністративної відповідальності. Ознак кримінального правопорушення не встановлено", - розповів пан Голубош.
+Голова Івано-Франківської ОДА Віталій Федорів розповів, що попри позитивний тест на коронавірус, жінка почувається добре і не має симптомів хвороби.
+На Буковині троє людей одужали, ще п'ятеро захворіли
+Упродовж 26 березня у Чернівецькій області одужали троє людей, яким раніше діагностували коронавірус, повідомляють в місцевій ОДА.
+Водночас в регіоні зафіксували і 5 нових випадків хвороби.
+Йдеться про трьох дорослих віком до 40 років та двох дітей - двох та 11-ти років.
+Четверо з п'яти нових інфікованих, кажуть в ОДА, повернулися з-за кордону, один контактував з хворими в Україні.
+Таким чином, загальна кількість хворих у Чернівецькій області станом на 26 березня складає 47 людей.
+США спрямує 2 трлн доларів на підтримку економіки через коронавірус
+Копирайт изображения
+GETTY IMAGES
+У США ухвалили законопроєкт про спрямування 2 трлн доларів на допомогу бізнесу, лікарням та громадянам.
+Ухвалений Сенатом США законопроєкт стане найбільшим планом економічного стимулювання в історії Америки, якщо його підпише президент Трамп.
+Ось, на що американські конгресмени вирішили виділити гроші:
+Дорослі американці із зарплатою до 75 000 доларів на рік отримають чеки на 1 200 доларів. Для тих, хто отримує понад 75 000 доларів, виплати будуть меншими
+Розпочнеться програма кредитування на 500 мільярдів доларів для підприємств, міст та штатів
+Приблизно 100 мільярдів доларів отримають лікарні
+367 мільярдів доларів спрямують на фонд утримання працівників малого бізнесу
+Ще 17 мільярдів доларів виділяють на допомогу компаніям, які вважаються ключовими для національної безпеки
+Авіакомпанії стануть найбільшими отримувачами допомоги. Пасажирські авіалінії мають право на 25 млрд доларів в кредитах та ще 25 млрд доларів в грантах.
+Авіакомпанії-вантажоперевізники отримають право на ще 8 млрд доларів у кредитах та грантаха
+Нью-Йорк вдається до більших обмежень
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У Нью-Йорку планують тимчасово заборонити баскетбол та інши спортивні ігри у парках
+Захворювання на коронавірус зафіксували в усіх 50 штатах США, найбільша кількість смертей спостерігається у шести з них:
+Нью-Йорк - 368
+Вашингтон - 133
+Каліфорнія - 67
+Луїзіана - 65
+Нью-Джерсі - 62
+Джорджія 47
+Попри уповільнення темпів шпиталізації, губернатор штату Нью-Йорк Ендрю Куомо попередив, що "багато треба зробити", й оголосив про нові кроки, спрямовані на стримування вірусу.
+Коронавірус: коли закінчиться епідемія
+Коронавірус в Україні: п'ята смерть, 145 людей захворіли
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+Нью-Йорк зробить деякі вулиці пішохідними, щоб забезпечити більше місця для дотримання соціальної дистанції між людьми.
+Місто також планує заборонити баскетбол та інші контактні види спорту в громадських парках.
+"Наша близькість робить нас вразливими", - попередив пан Куомо.
+Британія купує апарати штучного дихання
+Британський уряд замовив у компанії Dyson 10 000 апаратів штучного дихання, хоча вони прийдуть не одразу.
+Фірма заявляє, що сподівається виробляти апарати у Вілтширі, але для переходу від прототипу до фактичного виробництва може знадобитися кілька тижнів.
+Наразі у лікарнях Британії є понад 8 000 апаратів штучного дихання. Підраховано, що буде потрібно щонайменше 30 000, аби врятувати людей з тяжкими симптомами.
+Копирайт изображения
+FAMILY PHOTO
+Image caption
+21-річна Хлої Міддлтон стала однією з наймолодших жертв коронавірусу у Британії
+Наразі в Британії вже 9 500 людей захворіли на коронавірус, померли 463 людини.
+Серед померлих - 21-річна Хлої Міддлтон з Бекінгемшира в Англії.
+97-річна жінка перемогла коронавірус
+97-річна жінка стала найстаршою людиною в Південній Кореї, яка одужала від вірусу, повідомляє Yonhap News.
+Інших деталей про неї поки що немає. Але вона не єдина літня людина, яка перемогла вірус.
+Раніше китайські державні ЗМІ повідомили, що 100-річний чоловік у Китаї також видужав від вірусу.
+У випуску новин Сіньхуа згадувалося, що він є найстарішим пацієнтом, який одужав на сьогодні.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Матч "Аталанта"- "Валенсія" 19 лютого відвідали 44 тисячі фанів
+Поширенню коронавірусу у Європі міг сприяти матч Ліги Чемпіонів між італійським клубом "Аталанта" з міста Бергамо та іспанським клубом "Валенсія". Такої думки дотримується мер італійського міста Бергамо та італійський професор-імунолог, повідомляє Sun.
+Матч проходив 19 лютого на стадіоні Сан Сіро (також відомому як стадіон Джузеппе Меацца) в Мілані, оскільки домашня арена господарів матчу в місті Бергамо була занадто малою, аби вмістити всіх охочих.
+Міланський стадіон відвідали 44 тисячі футбольних фанів з Італії та Іспанії.
+"Матч був біологічною бомбою. Ніхто не знав, що вірус вже циркулює серед нас. Багато хто спостерігав за грою в групах, і було багато контактів (між фанатами. -Ред.) тієї ночі", - наголосив мер Бергамо Джорджо Горі в коментарі виданню Marca.
+Італійський професор-імунолог з університету Сапіенца в Римі Франческо ле Фоке зазначив у коментарі Sun, що в поширення коронавірусу могли бути кілька каталізаторів, зокрема, футбольний матч.
+"Гра "Аталанта"-"Валенсія" цілком могла бути одним з них. Це була вершина колективної ейфорії в унікальному футбольному сезоні для цього клубу (Аталанта виграла з рахунком 4:1. - Ред.)", - вважає науковець.
+"Зібрання тисяч людей, які перебувають в сантиметрах один від одного, які виявляють ейфорію обіймами, криками, все це могло б сприяти відповідній реакції на вірус", - пояснює Франческо ле Фоке.
+На думку італійського вченого, футбольні фани, які вже на той момент могли відчувати підвищення температури, навряд чи б пропустили через це такий важливий матч.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ховати знайомих гірше". Як живе Європа на карантині
+"Боюся, що голод вб'є нас швидше за коронавірус"
+Що сталося далі
+10 березня команди зіграли матч-відповідь у Валенсії, а вже 15 березня іспанський клуб повідомив про п'ятьох хворих на коронавірус футболістів у своєму складі і відправив всіх гравців на самоізоляцію.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Вантажівки італійської армії вивозять труни померлих від коронавірусу в крематорії в інших регіонах Італії
+Пізніше стало відомо про захворювання в 35% гравців та співробітників клубу.
+"Аталанта" також пішла на самоізоляцію 15 березня. В голкіпера команди виявили коронавірус.
+Наразі Італія та Іспанія є лідерами із захворюваності на коронавірус у Європі.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+В Бергамо померли кілька сотень людей
+Станом на 26 березня в Італії зафіксовано понад 74 тисячі випадків захворювання і 7500 померлих від коронавірусу.
+Бергамо є одним з найбільш уражених коронавірусом міст в країні - станом на 24 березня тут було понад 3800 хворих та 580 померлих.
+В Іспанії захворіли 49 500 людей, з них 3647 померли.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>В Італії через коронавірус померли щонайменше 50 священників</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ORATORIO CASNIGO
+Смертельний коронавірус, що охопив майже весь світ, вбив щонайменше 50 священників в Італії, каже влада країни.
+Серед них - 72-річний отець Джузеппе Берарделлі. Він помер у лікарні в Ловере поблизу Бергамо - одного з найбільш постраждалих від вірусу італійських міст.
+У вівторок ЗМІ повідомили, що священник віддав свій дихальний апарат незнайомому молодшому пацієнту з коронавірусом. Але близькі друзі пана Берарделлі заперечили цей факт.
+В Італії від коронавірусу померло більше людей, ніж в будь-якій іншій країні світу. За останніми даними, в країні зафіксовано 6820 смертельних випадків.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ховати знайомих гірше". Як живе Європа на карантині
+У країні оголосили загальний карантин, щоб зупинити розповсюдження інфекцій з найбільш постраждалого північного регіону Ломбардія.
+Коронавірус швидко шириться світом - його зафіксували вже у понад 160 країнах, де він спричинив понад 16 тис. смертей.
+Коронавірус: що він робить з організмом
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Як коронавірус шириться планетою. Мапа
+По всьому світу підтвердили понад 360 тис. випадків, а епіцентром епідемії стала Європа. Також зростає кількість інфікованих у США.
+Ким був отець Берарделлі?
+Джузеппе Берарделлі був головним священником міста Касніго. Він помер минулого тижня в лікарні Ловере, що поруч із містом Бергамо.
+Мешканці Касніго аплодували з вікон і з балконів, коли труну з тілом священника везли на міський цвинтар. Церемонії прощання і похорону не було через заборону масових заходів.
+Італійські ЗМІ, які цитувала ВВС, посилалися на медичні джерела, що сповіщали про те, що священник віддав свій апарат штучної вентиляції легенів молодому пацієнту.
+Однак друзі покійного священника кажуть, що їм про це нічого не відомо.
+Джузеппе Форесті, який працював з ним у єпархії Касніго, заявив, що отець Берарделлі відмовився від вентиляції легенів за станом здоров'я - він міг не витримати процедуру.
+Католицьке інформаційне агентство цитує генерального секретаря своєї єпархії отця Джуліо Делавіта: "Ситуації з апаратом штучного дихання не було".
+У вівторок папа Франциск провів молитву за померлих лікарів та священників і "подякував Богові за їхній героїчний приклад у служінні хворим".
+Яка ситуація в Італії?
+12 березня Італія закрила більшість підприємств та заборонила публічні зібрання по всій країні, щоб зупинити поширення вірусу.
+Бари, ресторани та більшість магазинів закриті, так само, як і школи та університети.
+Прем'єр-міністр Джузеппе Конте заявив, що карантин допоміг запобігти "краху системи".
+Копирайт изображения
+PIERO CRUCIATTI
+Image caption
+Іноді похоронна відправа займає кілька секунд, часто обходяться зовсім без неї
+Він повідомляв про незначне уповільнення темпів зараження вже кілька днів поспіль. Але коли у країні гине понад 600 людей щодня, про приборкання епідемії говорити зарано.
+На сьогодні в Італії є 69,176 підтверджених випадків інфікування Covid-19.
+Проте кількість заражених може бути значно більшою. Анджело Борреллі, начальник цивільного захисту Італії, заявив газеті La Repubblica у вівторок, що насправді "з упевненістю" можна вважати, що реальні цифри більші у 10 разів.
+"Протягом наступних кількох годин... ми побачимо, чи справді крива зростання вирівнюється", - сказав він.
+Яка ситуація у світі?
+Всесвітня організація охорони здоров'я (ВООЗ) попередила, що пандемія коронавірусної хвороби прискорюється, зараз підтверджено понад 300 тис. випадків.
+"Боюся, що голод вб'є нас швидше за коронавірус"
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+Від першого повідомлення про Covid-19 до 100 тис. випадків минуло 67 днів, наступні 100 тис. зафіксували за 11 днів, і лише чотири дні знадобилось для підтвердження ще 100 тис. інфікованих.
+Водночас генеральний директор ВООЗ Тедрос Аданом Гебреісус заявив, що "траєкторію все ще можна змінити".
+Він закликав країни активно тестувати людей та відстежувати контакти інфікованих.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>VIP-палати у лікарнях: Зеленський попросив Кличка їх скасувати</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Володимир Зеленський у розмові з мером Києва Віталієм Кличком попросив скасувати будь-які "VIP-палати" для перших осіб держави у київських лікарнях. Про це BBC News Україна повідомила речниця президента України Юлія Мендель.
+"Володимир Зеленський дійсно мав розмову з Віталієм Кличком і попросив його скасувати будь-які VIP-палати, які мають особливі умови для перших осіб", - зазначила вона.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: кількість хворих подвоїлася за кілька днів
+"Антиколомойський закон": до чого тут дефолт, карантин і сам Коломойський?
+Раніше Віталій Кличко заявив, що в київських лікарнях дійсно передбачені окремі палати для людей з державною охороною.
+Так він відреагував на публікацію виданням Bihus.info наказу КМДА про облаштування таких палат в київських лікарнях.
+"Мова про те, що на випадок захворювання перші особи держави повинні мати певні умови, окремі палати, щоб поряд знаходилася державна охорона. Така практика була завжди і не тільки в Україні", - пояснив мер Києва.
+Він повідомив, що наказ поширили на "виконання наказів Державної служби охорони, МОЗ і звернення на їх підставі Державного управління справами при президенті".
+Копирайт изображения
+GETTY IMAGES
+Image caption
+"На випадок захворювання перші особи держави повинні мати певні умови, окремі палати, щоб поряд знаходилася державна охорона. Така практика була зажди і не тільки в Україні", - каже Кличко
+"Але я розмовляв вчора з Володимиром Зеленським, і він готовий і налаштований скасувати накази про які йдеться, і які ми маємо виконувати", - додав Віталій Кличко.
+Віталій Кличко: "Я не заздрю Зеленському"
+Хроніки коронавірусу: у США - більше тисячі смертей, на боротьбу виділили $2 трлн
+"Боюся, що голод вб'є нас швидше за коронавірус"
+25 березня видання Bihus.info опублікувало наказ Департаменту охорони здоров'я Київської міської держадміністрації про особливі умови лікування чиновників з державною охороною.
+У визначеному департаментом переліку згадувалися 17 медзакладів, серед яких Олександрівська лікарня, Дитяча клінічна лікарня №7 та Київський міський центр дитячої нейрохірургії.
+Готовність Києва до пандемії
+Віталій Кличко також озвучив інформацію про готовність київських лікарень до прийому хворих на коронавірус.
+"Місто підготувало сім лікарень для прийому хворих, персонал підготовлений. Розгорнуто зараз 400 ліжок, передбачено 78 боксів", - повідомив він.
+За його словами, в лікарнях зараз є 380 апаратів штучної вентиляції легень, 9 тисяч тестів на коронавірус і в разі необхідності місто готове розгорнути ще сім тисяч ліжок.
+Коронавірус в Україні: п'ята смерть, 156 людей захворіли
+"Ховати знайомих гірше". Як живе Європа на карантині
+Мер Києва також нагадав, що столиця передала лікарням 39 сучасних машин швидкої допомоги з апаратами штучної вентиляції легенів.
+За словами Віталія Кличка, в столиці розпочали повну дезінфекцію житлових будинків.
+"Обробляють ліфтові кабіни, ручки дверей, дитячі та спортивні майданчики", - повідомив він.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: п'ята смерть, 156 людей захворіли</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+В Україні зафіксували п'яту смерть від коронавірусу. В Івано-Франківський області померла жінка, яка прибула до лікарні разом зі своїм чоловіком, повідомляє міністерство охорони здоров'я.
+"Жінка довго займалася самолікуванням і запізно звернулася до лікарів. Врятувати пацієнтку вже не вдалося, вона померла за добу", - йдеться у повідомленні.
+Чоловік померлої перебуває в лікарні у стані середнього ступеня тяжкості.
+VIP-палати у лікарнях: Зеленський попросив їх скасувати
+Мер Конотопа Артем Семеніхін та Сумська ОДА повідомили про смерть 76-річної жінки у Конотопській центральній лікарні, в якої був позитивний експрес-тест на коронавірус. Втім, чи пов'язана її смерть саме з коронавірусом COVID-19, ще мають показати додаткові аналізи.
+Якщо її діагноз підтвердиться, це буде вже шоста смерть в Україні від коронавірусу.
+Коронавірус в Україні. Інтерактивна мапа
+Хроніки коронавірусу: у США - більше тисячі смертей, на боротьбу виділили $2 трлн
+Загалом станом на 10:00 26 березня в Україні виявили 156 випадків COVID-19.
+Медики зареєстрували 43 нові випадки за середу.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Зменшення зарплат, звільнення чи закриття? Що планує український бізнес на карантині
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Боюся, що голод вб'є нас швидше за коронавірус"
+Найбільша кількість людей, які захворіли, - в Чернівецькій області (42), Києві (34), Київській (24), Івано-Франківській (16) та Тернопільській (15) областях.
+Серед померлих - двоє мешканців Івано-Франківської області, по одному - з Буковини, Житомирської та Тернопільської областей.
+Пропустити Facebook допис , автор: Центр громадського здоров’я України
+Підтверджено 145 випадків COVID-19 (станом на 22:30 25 березня) За результатами досліджень вірусологічної...
+Posted by Центр громадського здоров’я України on Wednesday, 25 March 2020
+Кінець Facebook допису , автор: Центр громадського здоров’я України
+Раніше, у середу, стало відомо, що у Тернопільській області помер чоловік, хворий на COVID-19.
+"Це мешканець села Ковалівка Монастириського району. Чоловікові було 68 років. Висловлюємо співчуття рідним чоловіка", - повідомли у регіональному штабі боротьби з коронавірусом.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BBC_reading/panddas1.xlsx
+++ b/BBC_reading/panddas1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12050,6 +12050,8 @@
 Думка психіатра
 Психіатр Андрій Мухоморов каже, що переведення годинника дуже погано впливає на організм.
 "Людський організм - це ритмічна система, яка має стабільні денні та нічні ритми", - пояснює він.
+Копирайт изображения
+GETTY IMAGES
 В коментарі BBC News Україна лікар каже, що кожні півроку примушувати його переадаптуватися з одного часу на інший - це серйозне навантаження.
 Універсальних порад, як краще мінімізувати ризики, немає. "Протягом місяця людина налаштовується на новий ритм і організм адаптовується", - пояснює пан Мухоморов.
 Якщо ж людина відчуває труднощі досить довгий період, то варто звернутися до лікаря.
@@ -12063,6 +12065,8 @@
 Ви - жайворонок чи сова? У цьому винні пращури!
 За її словами, переведення годинника впливає на ритміку клітин організму, а також на багато функцій.
 "І хоча одна година - це не критично для здорових людей, і вони протягом кількох днів адаптуються, однак ризики ДТП у перші дні та деякі впливи на людей з серцево-судинними захворюваннями показані у багатьох дослідженнях", - каже пані Маслова BBC News Україна.
+Копирайт изображения
+AFP/GETTY IMAGES
 Що стосується порад, то за словами науковця, готуватися варто за кілька днів. "Лягати і вставати на 15-30 хв раніше", - радить науковець.
 Також вона закликає бути більш уважними на дорозі та прислухатись до свого організму, не перевантажувати його.
 Стежте за нами в Telegram! Ми щодня надсилаємо добірку найкращих статей.
@@ -12662,6 +12666,8 @@
 У МЗС кажуть, що роблять все можливе, надають "максимальне сприяння туроператорам та перевізникам, щоб вони забрали українських туристів з віддалених куточків світу".
 Дипломати розповідали, що працюють над поверненням українців "з Єгипту, Домініканської Республіки, курортних островів Азіатсько-Тихоокеанського регіону".
 З Латинської Америки евакуювати українців мали німецькі літаки, розповідав нещодавно міністр закордонних справ Дмитро Кулеба.
+Копирайт изображения
+SOPA IMAGES GETTY
 МЗС визначило хаби, з яких людей обіцяли гарантовано забрати додому: Стамбул, Прага, Берлін, Варшава, Перемишль, Відень, Братислава, Рига, Вільнюс.
 Проте великою проблемою було дістатися цих хабів.
 Не зрозуміло, як буде розвиватися ситуація далі. З 27 березня Україна взагалі закриє кордони для пасажирських перевезень.
@@ -12693,6 +12699,8 @@
 Пан Павлюк запевняє, що літаки з країн з коронавірусом вже розводять в часі, і вони більше не будуть прибувати одночасно.
 За його словами, наразі аеропорт взагалі обмежив кількість прильотів на одну годину. Зараз це максимум три літаки, раніше могло бути 5-6 літаків на годину.
 Також в "Борисполі", за його словами, організовували дві окремі зони прильоту - для людей з небезпечних з точки зору коронавірусу країн і для решти.
+Копирайт изображения
+SOPA IMAGES
 Як їхати далі?
 Крім повернення до Києва, часто невирішеним залишається питання поїздок до регіонів.
 Усі регулярні пасажирські перевезення між містами України заборонені. Не ходять ні потяги, ні автобуси.
@@ -13096,103 +13104,77 @@
           <t>28/03/2020</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Річард Грей</t>
-        </is>
-      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Наука</t>
+          <t>Суспільство</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Коронавірус: чи піде пандемія на спад, коли потеплішає?</t>
+          <t>Наскільки безпечний Zoom?</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
-SERGEI SUPINSKY
-Чи є новий коронавірус сезонним, як більшість вірусів грипу? Та як на його поширення впливають кліматичні і погодні умови?
-Спалахи багатьох інфекційних захворювань поступово згасають з настанням теплої пори року. Грип або кишкова інфекція норовірус більш розповсюджені у зимові місяці.
-Пік зараження тифом випадає на літо. Випадки кору знижуються влітку в помірному кліматі, а у тропічних регіонах підвищуються під час посухи.
-Отже, цілком закономірне питання - чи залежить від сезону і активність нового коронавірусу, епідемія якого почалася всередині минулого грудня в Китаї, а тепер перемістилася у Європу та США.
-Найбільші спалахи захворювання на Covid-19 сталися в регіонах, де погода прохолодна, а отже, чи можна припустити, що з настанням літа пандемія піде на спад.
-Коронавірус: чи можна ним заразитися двічі?
-Онлайн карта коронавірусу
+ZOOM
+Image caption
+Zoom став головним інструментом спілкування в світі
+Zoom - платформа для відеоконференцій і онлайн-зустрічей - стала головним засобом спілкування під час пандемії. Активи компанії від початку спалаху коронавірусу дуже зросли.
+Цього тижня британський прем'єр Борис Джонсон написав у Twitter, що проводить засідання Кабінету міністрів через цей додаток.
+Це викликало питання, наскільки Zoom безпечний для зустрічей такого рівня.
+Zoom заявляє, що гарантує максимальну безпеку і готовий відповісти на будь-які запитання уряду.
 Коронавірус: коли закінчиться епідемія
-Більшість вірусологів, однак, не надто оптимістичні. Вірус SARS-CoV-2, який спричинює коронавірусну інфекцію, - новий і поки що мало вивчений.
-А найближчий до нього за походженням вірус Sars, спалах якого відбувся у 2003 році, стримали швидко, і отже, інформації про те, як на нього вплинула б зміна пори року, немає.
-Втім, дещо відомо про інші види коронавірусів, які заражають людей.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Є надія, що з потеплінням у Північній півкулі спалах коронавірусу почне знижуватися
-Дослідження деяких з них показали, що спалах спричинених ними інфекцій дихальних шляхів має "помітну зимову сезонність". Тобто найбільше захворювань було між груднем та квітнем, так само як і з грипом.
-Дані перших досліджень SARS-CoV-2 показують, що вірус надає перевагу прохолодній і сухій погоді.
-Його поширення пов'язане з кількома погодними чинниками: температурою повітря, швидкістю вітру та відносною вологістю.
-Помірний теплий, а також холодний клімат є найбільш сприятливими для спалаху Covid-19
-Помірний теплий, а також холодний клімат є найбільш сприятливими для спалаху Covid-19.
-А от тропічні частини світу, ймовірно, постраждають найменше, кажуть дослідники.
-Утім, є одне велике "але". Пандемії часто не відповідають закономірностям звичайних сезонних спалахів.
-Наприклад, пік іспанки припав на літні місяці, тоді як більшість спалахів грипу відбувається взимку.
-Але чому інші коронавіруси сезонні та що дає надію на те, що і новий вірус SARS-CoV-2 також має цю рису?
-Коронавіруси належать до сімейства так званих "загорнутих вірусів". Вони вкриті маслянистою оболонкою - ліпідною двошаровою структурою, "прикрашеною" білковими наростами, які схожі на корону. Звідси й назва - "коронавіруси".
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Досліджень того, як на захворюваність на Covid-19 впливає погода, ще мало
-Через цю маслянисту оболонку вірус стаж більш чутливим до нагрівання. У холоді оболонка твердне і стає желеподібною, як застигає жир на холодному вареному м'ясі.
-Таким чином, вона захищає вірус, поки він перебуває за межами організму. Саме тому більшість "загорнутих вірусів" мають виражену сезонність.
-Дослідження вже показали, що Sars-Cov-2 може витримати до 72 годин на твердих поверхнях, як-от пластик та неіржавна сталь, за температури 21-23°C та відносній вологості повітря 40%.
-Як довго коронавірус живе на поверхнях?
-Як саме поводиться новий коронавірус за інших температур та вологості ще належить дослідити, але інші коронавіруси виживають понад 28 днів за температури 4°C.
-"Клімат впливає на стабільність вірусу поза людським організмом, наприклад, коли він виходить з кашлем або чханням", - пояснює Мігель Араухо з Національного музею природничих наук у Мадриді в Іспанії.
-"Що довше вірус залишається стабільним у навколишньому середовищі, то більша його здатність заражати інших людей та спричиняти епідемію", - додає дослідник.
+Як подорожувати під час епідемії
+Коронавірус: як правильно ізолюватися
+Головний засіб спілкування
+22 березня американське видання Quartz розповіло про закоханих з Каліфорнії, які планували одружитися. У лютому юнак і дівчина хвилювалися, що через вірус не поїдуть у свій медовий місяць до Ісландії. А у березні - вже про саме весілля: влада штату заборонила всі публічні заходи.
+У призначений день і годину всі гості весілля отримали від молодят посилання на відеоконференцію. Наречений і наречена були у своїй квартирі у весільному вбранні, священник також під'єднався через відеозв'язок. Так вони і одружилися, раз у раз промовляючи: "Господи, цього просто не може бути".
+У Норвегії за допомогою Zoom продовжили навчальний рік у школах і університетах. В інших країнах школярі на карантині освоюють сервіс і використовують його для позакласного спілкування.
+Перейшли на дистанційну роботу редакції ЗМІ. Сервіс допомагає їм робити щоденне планування. Працівники компаній по всьому світу проводять там робочі наради, а вечорами, також через відеозв'язок, п'ють вино і обговорюють новини.
+Молодь по всьому світу використовує Zoom для заочних побачень, за допомогою сервісу влаштовують дні народження і заочні вечері з сім'єю та родичами.
+New York Times пише, що в березні 2020 року зростання клієнтської бази Zoom склало 18%, щодня його завантажують від 350 до 600 тис. разів.
+А це взагалі безпечно?
+Копирайт изображения
+ZOOM
+Останній помічений дефект Zoom усунув у січні 2020 року. Ізраїльська компанія Check Point, що спеціалізується на кібербезпеці, виявила вразливість, що дозволяла підслуховувати розмови, які не були захищені паролем, і отримувати всі файли, що поширювали під час таких конференцій. Дізнавшись про це, Zoom запаролив усі наради.
+Але дефекти все одно залишилися. Британська Guardian повідомляла, що хакери змогли проникнути на неназвану нараду в Zoom і запустити ролик порнографічного змісту.
+Американські ЗМІ також повідомляли про поодинокі випадки зламу конференцій, де хакери залишали расистські й просто образливі повідомлення. Правда, за даними NBC, вони не отримували доступу до вмісту комп'ютерів і телефонів.
+Міністерство оборони Великої Британії вважає, що уразливими під час конференцій в Zoom можуть бути відеокамери в MacBook.
+Сама компанія ніколи не коментувала випадки зламу.
 Онлайн карта коронавірусу
 Коронавірус: що він робить з організмом
 Чи захищають медичні маски від вірусу?
 Як перевіритися на коронавірус?
-Дослідження Університету Меріленду показало, що вірус Sars-Cov-2 найбільше поширився у містах та регіонах світу, де середня температура була близько 5-11°С з низькою відносною вологістю.
-Втім, недавній аналіз поширення нового коронавірусу в Азії, проведений дослідниками Гарвардської медичної школи, свідчить, що він буде менш чутливим до погоди, ніж сподіваються вчені.
-Це підкреслює необхідність широких заходів охорони громадського здоров'я у боротьбі з захворюванням.
-Sars-Cov-2 найбільше поширився у містах та регіонах світу, де середня температура була близько 5-11°С з низькою відносною вологістю
-Річ у тім, що поширення вірусу залежить далеко не лише від його здатності виживати в навколишньому середовищі.
-І саме тут поняття сезонності захворювання ускладнюється.
-Коронавірус поширюють люди, а тому сезонні зміни у поведінці людей також впливають на частоту заражень.
-Наприклад, випадки кору в Європі, як правило, збігаються зі шкільними семестрами та знижуються під час канікул.
-Вважають, що ключову роль у поширенні Sars-Cov-2 з Уханя в інші міста Китаю та по всьому світу зіграла велика міграція людей перед Китайським новим роком 25 січня.
-Погода також впливає і на наш імунітет, роблячи нас більш вразливими до інфекцій. Деякі дослідження припускають, що рівень вітаміну D в організмі впливає на нашу здатність захворіти.
-Взимку наш організм отримує менше вітаміну D від сонячних променів. Хоча вплив цього чинника на сезонність грипу багато дослідників вважають суперечливим.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Лабораторні дослідження та комп'ютерне моделювання припускають, що новий коронавірус зможе вижити й у теплих та вологих умовах
-Так само неоднозначним є питання про те, чи послаблює нашу імунну систему холодна погода. На думку опонентів, холод збільшує кількість клітин, які захищають наше тіло від інфекцій.
-А от що, без сумніву, впливає на нашу здатність протистояти вірусам, - це вологість повітря.
-Коли повітря дуже сухе, кількість слизу, що покриває наші легені та дихальні шляхи, зменшується. Ця секреція утворює природний захист від інфекцій, і з нею ми стаємо менш вразливими до вірусів.
-А от що, без сумніву, впливає на нашу здатність протистояти вірусам, - це вологість повітря
-Оскільки вірус SARS-CoV-2 є новим, у багатьох людей немає від нього імунітету, поки вони не перехворіють на нього.
-А це означає, що він поширюватиметься та спричинюватиме хвороби не так, як ендемічні віруси, притаманні певному регіону.
-Авіаперельоти стали основним маршрутом швидкого поширення вірусу світом, зазначає Вітторія Коліцца, директор відділу досліджень Французького інституту охорони здоров'я та медичних досліджень.
-Але щойно він починає ширитися в межах спільноти, його передачі сприяють близькі контакти між людьми. Припинення контактів повинно знизити рівень зараження. Саме тому більшість урядів й ухвалили рішення про суворий карантин.
-Якщо число випадків Covid-19 знизиться протягом найближчих місяців, цьому може бути кілька причин. Це, насамперед, заходи профілактики, як-от ізоляція та карантини, зростання колективного імунітету, а також зміна пори року.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Навіть якщо випадки захворювання на Covid-19 знизяться влітку, вірус не зникне і може повернутися у холодному сезоні
-"Якщо новому коронавірусу дійсно притаманна сезонність, це може замаскувати справжній вплив двох інших чинників", - попереджає професор Ян Альберт з Каролінського Інституту в Стокгольмі.
-"У країнах, де суворі обмеження вберегли багатьох людей від зараження, цілком можлива друга хвиля захворювань з настанням осені та зими", - пояснює він.
-Навіть якщо Covid-19 залежить від пори року, навряд чи він повністю зникне протягом літніх місяців. Але зменшення випадків захворювання певну користь принесе.
-"Кроки, які ми робимо, щоб вирівняти криву пандемії, дорого коштують економіці, але вони мають допомогти нам протриматися до літа", - зазначає професор Альберт.
-"Це допоможе системам охорони здоров'я виграти потрібний їм час на підготовку".
-Для світу, який веде важку боротьбу з поширення вірусу, це може бути час, якого він відчайдушно потребує.
-Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Future.
-Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
-Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
---
+Історія Zoom
+Сервіс Zoom запустили в січні 2013 року, у наступні кілька років його засновник Ерік Юань міг тільки радіти тому, що він все правильно придумав: мільйон користувачів відразу після запуску, 10 мільйонів до літа 2014 року, 40 мільйонів приватних осіб і 65 тисяч організацій - в 2015 році.
+У січні 2017 року вартість компанії досягла мільярда доларів, в березні 2019-го її акції почали продавати на біржі, і вартість Zoom досягла 16 мільярдів. А нещодавно піднялася до 38,5 млрд доларів.
+Копирайт изображения
+ZOOM
+Image caption
+Ерік Юань працював у технологічній компанії Cisco у Кремнієвій долині та розробляв ідею власного бізнесу. Остаточно вона оформилась до 2011 року - так виникла компанія Zoom Video Communications
+Юань Чжен народився у китайській шахтарській родині, закінчив технологічний університет у провінції Шаньдун і в середині 1990-х переїхав жити до Каліфорнії. Там він взяв собі ім'я Ерік Юань.
+Пан Юань працював у технологічній компанії Cisco у Кремнієвій долині. Він придумував ідею власного бізнесу, яка остаточно оформилася до 2011 року. Так виникла компанія Zoom Video Communications - зручний сервіс для групової комунікації людей.
+Zoom спокійно обігнав конкурентів, таких як Skype та Microsoft Teams, частково через деякі доволі прості функції, зокрема адаптивний фон.
+У безкоштовної версії програми кількість учасників конференції не перевищує 100 осіб, а час наради - 40 хвилин. Платна підписка - 39 доларів на місяць для приватної особи - знімає ці обмеження.
+Обмеження також скасували для шкіл у Британії, Канаді та Німеччині, щоб дозволити вчителям проводити відеоуроки вдома.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Люди, які раніше, можливо, не довіряли технологіям, тепер завантажують програми, щоб підтримувати зв'язок із зовнішнім світом
+Проблеми конфіденційності
+Zoom збирає велику кількість даних, щоб проаналізувати роботу свого сервісу і надати бізнесу корисні інструменти.
+Міжнародна некомерційна юридична організація The Electronic Frontier Foundation склала перелік питань щодо його конфіденційності:
+інтерфейс Zoom дозволяє контролювати дії учасників під час колективного використання екрана. Вони можуть бачити, чи активні Zoom-вікна
+адміністратори також можуть переглядати інформаційні панелі активності користувачів, зокрема систему ранжирування користувачів
+якщо користувач записує дзвінки через Zoom, адміністратори можуть отримати доступ до записів
+адміністратори можуть бачити операційну систему, IP-адреси, дані про місце розташування та інформацію про пристрій кожного учасника.
+Попри всі ці обмеження, популярність додатку лише зростає, а у загальний доступ потрапляє інформація, яка створює багато комічних ситуацій.
+Наприклад, вірусним стало відео, де жінка під час бізнес-конференції, забувши, що її колеги можуть її бачити, йде в туалет, а інша частина її команди збентежено за цим спостерігає.
+Проблема виникає, якщо інформація про нараду потрапляє у публічний простір через те, що немає можливості налаштувати лише внутрішній доступ до таких даних.
+Експерти вважають, що організатори зборів також повинні вимкнути функцію "передачі файлів", щоб запобігти поширенню шкідливих програм.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
 </t>
         </is>
       </c>
@@ -13203,133 +13185,25 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Гелієр Чен</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Наука</t>
+          <t>Суспільство</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Хробак, якому 500 млн років. Вчені знайшли "пращура" всіх тварин</t>
+          <t>Чи допомагає публічний осуд дотримуватись карантину</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-SOHAIL WASIF/UCR
-Біологи з США і Австралії знайшли можливого "пращура" всіх тварин - стародавній вид двосторонньо-симетричних істот, що поклали початок розвитку кожного з нас.
-Рештки викопного хробака, які знайшли в Австралії, - найбільш ранній зразок скам'янілої білатерії - двосторонньо-симетричного організму.
-Крихітна хробакоподібна істота (розміром із зернятко рису), що жила на морському дні понад пів мільярд років тому, дала американським і австралійським біологам зачіпку до розуміння складного еволюційного шляху всього тваринного світу.
-Професор Університету Каліфорнії у Ріверсайді Скотт Еванс і його колеги назвали її Ikaria wariootia.
-Чи виникло б людство знов, якби ми відмотали час назад?
-Тест: що ви знаєте про еволюцію
-У Латинській Америці знайшли найстарішу рослину
-Білатерії мають передню і задню сторони, симетричні боки, ротові отвори і травний орган. Відкриття описали в журналі PNAS.
-Автори дослідження вважають, що розвиток двосторонньої симетрії став найважливішим кроком у еволюції тваринного світу. Завдяки їй тварини отримали можливість цілеспрямовано рухатися. Крім того, симетрична будова організму більш функціональна.
-Безліч різних біологічних видів, від черв'яків і комах до динозаврів і людей, мають тіла симетричної будови.
-Відбитки на скелях
-Копирайт изображения
-DROSER LAB/UCR
-Image caption
-У каменях були крихітні отвори, в яких, на думку біологів, мешкали білатерії, але шукати самих тварин нікому не спадало на думку
-Ikaria жила 555 млн років тому за часів вендської геологічної доби (також званої едіакарської). Це перша стадія складного багатоклітинного життя на Землі.
-Її сліди знайшли в скелях Нільпени, на півдні Австралії, в середині 2000-х.
-Камені мали крихітні отвори, в яких, на думку біологів, мешкали білатерії, але шукати самих тварин нікому не спадало на думку.
-І лише коли Скотт Еванс і Мері Дроузер - професор геології у тому ж університеті у Ріверсайді - помітили навколо отворів крихітні овальні відбитки, виявилося, що це дійсно сліди білатерій.
-Чи п'яніють комарі від алкоголю в крові людини?
-Знайдений в Ефіопії череп змінює уявлення про предків людини
-Тривимірне лазерне сканування показало тіло рівної циліндричної форми з чітко вираженою головою, хвостом і злегка випуклими м'язами.
-Ikaria wariootia були від 2 до 7 мм завдовжки і близько 1-2,5 мм завширшки. У найбільшому із виявлених отворів збереглися рештки найбільшої з особин - науковці зійшлись на думці, що саме вона і зробила отвори у кам'яних відкладеннях.
-Копирайт изображения
-DROSER LAB/UCR
-Image caption
-3D-зображення, яке дає чітке уявлення про Ikaria wariootia
-"Ми припускали, що ці організми, найімовірніше, існували у вендську добу, але розуміли, що виявити і розпізнати їх вкрай складно, - розповів Скотт Еванс. - Коли я побачив 3D-скани, то зрозумів, що ми зробили відкриття".
-Білатерії цього виду, очевидно, провели своє життя на дні океану в пошуках будь-якої органічної матерії, яку можна з'їсти: для цього вони робили в піску нори, часом доволі глибокі.
-Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>26/03/2020</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Технології</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Уряд Британії замовив апарати штучної вентиляції легень у виробника пилососів</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-GETTY IMAGES
-Британський уряд замовив у компанії Dyson, відомого виробника пилососів, 10 тисяч апаратів штучної вентиляції легень (ШВЛ).
-Таке обладнання є критично важливим в окремих випадках захворювання Covid-19, коли в пацієнтів виникає гостра дихальна недостатність - ШВЛ дозволяє підтримувати їхнє дихання.
-Фірма, яку очолює інженер сер Джеймс Дайсон, розробила новий тип апаратів ШВЛ з нуля, відгукнувшись на заклик Національної служби охорони здоров'я Великої Британії (NHS).
-Держзамовлення буде виконано, коли апарати Dyson пройдуть випробування і будуть сертифіковані - влада країни вже прискорила цей процес.
-У компанії кажуть, що її інженери працювали над створенням обладнання штучної вентиляції легень цілодобово.
-Системи штучної вентиляції легень. Що це і чи справді їх бракує
-VIP-палати у лікарнях: Зеленський попросив їх скасувати
-Копирайт изображения
-DYSON/PA MEDIA
-Image caption
-Dyson розробидла власну модель апарату ШВЛ
-Втім, миттєвого переходу на такі апарати все одно не буде: навіть якщо нове обладнання отримає сертифікат найближчими днями, шлях від прототипу до масового випуску все одно триватиме не менш як два тижні.
-Як розповіли BBC в британському уряді, влада наразі скуповує апарати ШВЛ де тільки можливо.
-У NHS зараз є трохи більше 8 тисяч апаратів, ще стільки ж уряд Бориса Джонсона сподівається закупити в британських та іноземних виробників.
-Проте, згідно з прогнозами того, як протікатиме пандемія, владі знадобиться принаймні 30 тисяч апаратів ШВЛ.
-З досвіду Китаю та Італії підраховано, що штучної вентиляції легень потребували від 2% до 4% інфікованих пацієнтів.
-Як працює апарат ШВЛ
-ШВЛ забезпечує збагачення легень киснем і видалення з них вуглекислого газу
-Апарат використовується в пацієнтів з хворобами легень, які не можуть дихати самостійно, а також під час хірургічних операцій і в постопераційний період
-Трубка, що підключається до апарата ШВЛ, вводиться пацієнту в рот, ніс або через невеликий розріз в горлі
-Використання апарату ШВЛ потребує фахівців, які пройшли відповідне навчання, застосовувати його в домашніх умовах неможливо, кажуть експерти
-Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>28/03/2020</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Гелієр Чен</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Чи допомагає публічний осуд дотримуватись карантину</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 EPA
@@ -13348,6 +13222,8 @@
 Офіційні поради збивають з пантелику. З одного боку, нам кажуть залишатися вдома якомога довше. З іншого - що важливо продовжувати тренуватися, і що прогулянка у парку - це нормально.
 У Нью-Йорку відповідальний за роботу міських парків Мітчелл Сілвер закликав мешканців користуватися парками міста, вказуючи, що проведення часу на вулиці може зменшити стрес і покращити імунну систему.
 Британський прем'єр-міністр Борис Джонсон також наголосив, що парки та відкриті простори мають "вирішальне значення для нашої країни і суспільства", і закликав людей користуватися ними відповідально.
+Копирайт изображения
+GETTY IMAGES
 Image caption
 Прогулянка на свіжому повітрі поліпшують психічне здоров'я та роботу мозку
 Але коли парки стають надто популярними, або люди починають збиратися там групами - це стає проблематичним.
@@ -13355,6 +13231,8 @@
 А у Британії деякі парки, пляжі й відкриті зони відпочинку були переповнені на вихідні, тому вже у понеділок уряд оголосив про жорсткі карантинні обмеження.
 The Stranger, новинний сайт у Сіетлі, написав про лісові маршрути для індивідуальних прогулянок, але вже за день видалив цю статтю, дізнавшись, що люди збираються у групи і подорожують або ходять у колективні походи цими маршрутами.
 В Канаді на деяких спорожнілих вулицях Ванкувера та Торонто було тихо, тоді як на міських пляжах - просто не пройти. Тому прем'єр країни Джастін Трюдо закликав людей бути розважними і не наражати інших на небезпеку.
+Копирайт изображения
+REUTERS
 Image caption
 Коли кількість людей у парку зростає, значно підвищується ризик зараження
 Брайан Лабус, професор громадської охорони здоров'я в університеті штату Невада, Лас-Вегас, підкреслює, що кожен "вихід на вулицю має сприйматися як ризик".
@@ -13371,6 +13249,8 @@
 "Коли кількість людей у парку зростає, значно підвищується ризик зараження", - каже він, адже складно дотримуватись дистанції у 2 м з усіма. Особливо це стосується місць масового скупчення людей, наприклад, входу на територію парку.
 Натомість професор Лабус рекомендує обирати для прогулянок тихі й відлюдні місця поруч із вашим будинком.
 "Коронавірусний етикет"
+Копирайт изображения
+GETTY IMAGES
 Image caption
 У ліфті важко дотримуватись соціальної дистанції
 Спалах коронавірусу породив нові соціальні дилеми. Як вітатися з іншими під час прогулянки? Як розійтися на вузькій стежці? Як користуватись ліфтом?
@@ -13381,12 +13261,16 @@
 "Найкращий спосіб запевнити, що ви не грубіян,- дивитись в очі, посміхатись або пояснити, що це лише правила поведінки під час карантину.
 Усі експерти кажуть, що чим більше ви дотримуєтесь цих правил, тим краще для вас".
 На вузьких пішохідних доріжках "ви, безумовно, можете відвернутись від того, хто проходить поруч". Або йти, як на мосту з однополосним рухом, - почекати, поки інша людина пройде, а потім рухатись самому, рекомендує Ліззі Пост.
+Копирайт изображения
+REUTERS
 А що робити, якщо хтось намагається їхати з вами у ліфті?
 Пані Пост каже, що вона "можливо, просто б вийшла і поступилася б своїм місцем у ліфті". Або спробувала б пояснити: "Я намагаюся дотримуватись безпечної дистанції, ви не проти почекати наступний ліфт?"
 "Буде трохи ніяково, але, гадаю, поступово усі зрозуміють, що ви просто намагалися поводитись цивілізовано".
 Чи працює публічний осуд?
 Відкритий громадський осуд - це складне і суперечливе питання.
 В останні роки деякі люди після публічного осуду в інтернеті ставали об'єктом самочинних розправ. Були навіть випадки, коли вони втрачали роботу або отримували смертельні погрози.
+Копирайт изображения
+EPA
 Image caption
 В США деякі паби та бари працювали в день святого Патріка
 Онлайн-осуд поки не набув широкого поширення, але деякі люди вже скаржаться, що стали "мішенню" несправедливих нападок.
@@ -13413,31 +13297,31 @@
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
         <is>
           <t>27/03/2020</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Вікторія Джилл</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>Коронавірус: як безпечно купувати продукти та замовляти їжу з доставкою</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 GETTY IMAGES
@@ -13485,6 +13369,104 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Мерая Кері святкує 50-ліття. Фотогалерея.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мерая Кері - одна із найуспішніших американських співачок. Вона продала понад 200 млн альбомів.
+27 березня вона святкує своє 50-річчя.
+Копирайт изображения
+BRIGHTON PRIDE
+Свій дебютний альбом, який так і називався - Mariah Carey, - вона випустила 1990 року під лейблом Columbia Records.
+Дебют був успішним: чотири сингли з альбому посідали перше місце в американському чарті Billboard Hot 100.
+Мерая Кері вперше зізналася, що має психічний розлад
+Пісня репера-новачка встановила рекорд, який не могли побити 26 років
+Копирайт изображения
+RAYMOND BOYD/GETTY
+Image caption
+Виступ Мераї Кері 1990 року
+Після успіху наступних альбомів Emotions (1991), Music Box (1993) і Merry Christmas (1994) співачку визнали найбільш комерційно успішним музикантом за всю історію лейбла Columbia.
+Я витратив 40 фунтів на музичний альбом, який вже маю
+Копирайт изображения
+DEBORAH FEINGOLD/GETTY
+2000 року Кері покинула лейбл Columbia і уклала 100-мільйонний контракт з Virgin Records.
+Наступного року вона знялася у головній ролі у художньому фільмі "Блиск" (Glitter). Однак фільм провалився у прокаті.
+Virgin Records викупив раніше підписаний контракт на 5 студійних альбомів, виплативши 50 мільйонів відступних.
+Image caption
+Мерая Кері виступає у новорічну ніч на BBC ONE 2001 року
+Після невдалого періоду Мерая підписала контракт з Island Records і повернулася на вершини світових чартів з альбомом The Emancipation of Mimi (2005).
+1998 року її назвали найбільш продаваним виконавцем десятиліття, а 2000-го - найбільш комерційно успішною співачкою тисячоліття на церемонії World Music Awards.
+Копирайт изображения
+PA
+У грудні 2019 року пісня All I Want for Christmas Is You очолила чарт Billboard Hot 100 - через 25 років після дебюту 1994 року.
+Копирайт изображения
+PA
+2018 року Кері вперше публічно зізналася, що вже 17 років бореться з біполярним розладом.
+Вона розповіла виданню People, що це захворювання діагностували у 2001 році після нервового зриву, через який вона потрапила до лікарні.
+Біполярний розлад - це психічне захворювання, що характеризується раптовими змінами настрою: від шалено радісного до депресивно пригніченого.
+Копирайт изображения
+GETTY IMAGES
+У шлюбі співачка була двічі.
+Із червня 1993 року по травень 1997-го Мерая була одружена з музичним продюсером Томмі Мотоллою.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Мерая Кері із Ніком Кенноном і дітьми
+З квітня 2008-го по листопад 2016-го вона була одружена з музикантом Ніком Кенноном. У подружжя є діти-близнюки - дочка Монро Кеннон і син Мороккан Скотт Кеннон.
+Копирайт изображения
+MICHAEL LOCCISANO/GETTY
+Image caption
+Мерая Кері на прем'єрі художнього фільму "Гріхопадіння" у Нью-Йорку в січні 2020 року.
+Одна із найостанніших її публічних появ відбулася на прем'єрі фільму Тайлера Перрі "Гріхопадіння" (A Fall From Grace) у Нью-Йорку в січні 2020 року.
+Пандемія коронавірусу змусила її, як і багатьох інших зірок, скасувати найближчі концерти.
+Копирайт изображения
+JIM SMEAL/GETTY
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+***
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Міфи про коронавірус. Розвінчуємо</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+    </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
@@ -13497,129 +13479,15 @@
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Здоров'я</t>
+          <t>Суспільство</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Як коронавірус змінив секс-індустрію - огляд ЗМІ</t>
+          <t>У прем'єра Британії Бориса Джонсона виявили коронавірус</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-GETTY IMAGES
-У п'ятницю, 27 березня світові ЗМІ висвітлюють, як поширення коронавірусу та карантинні обмеження змінюють секс-індустрію, відносини між закоханими та інтернет. А італійські ЗМІ пишуть про "непотрібну допомогу", яку Італія отримала з Росії.
-Секс-індустрія на карантині
-Коронавірус змінив ситуацію для секс-індустрії в Німеччині, пише Los Angeles Times.
-Минулого тижня канцлерка Ангела Меркель оголосила про закриття всіх борделів, так само як і барів, клубів, театрів та музеїв в рамках боротьби зі спалахом коронавірусу.
-Секс-працівниці непокояться про майбутнє свого бізнесу на тлі можливої економічної кризи.
-"Те, що ми пропонуємо - це розкіш, а не щоденна потреба. Це може бути перша річ, на якій люди будуть економити", - каже Ундіна де Рів'єра, секс-працівниця з 25-річним досвідом.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Для кварталів червоних ліхтарів у Європі настали тяжкі часи
-Проституція у Німеччині легалізована, і це приваблює секс-працівниць з усього світу.
-"Вони приїздять з Румунії, Болгарії, України, Польщі, Таїланду та Південної Америки. Також є секс-працівниці та клієнти з Британії та США ", - розповідає Сюзанна Блайер Вільп з берлінської Асоціації надавачів еротичних та сексуальних послуг.
-Чи можна займатися сексом під час коронавірусу?
-Як багатії рятуються від коронавірусу. Огляд ЗМІ
-В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
-Вона каже, що близько 80% секс-працівниць у Німеччині - іноземні громадянки, тож навряд чи зможуть скористатися антикризовою допомогою від уряду.
-"Найбільше дістається найбіднішим. Їхній прибуток зник. У них немає постійної адреси та медичного страхування. Це серйозна ситуація", - каже пані Вільп.
-Деякі секс-працівниці знайшли вихід у "віддаленій роботі" - наприклад, продають онлайн контент для дорослих та експериментують з веб-камерами, пише видання.
-Кохання в часи коронавірусу
-Копирайт изображения
-GETTY IMAGES
-Під час карантину можна бачитися зі своїм хлопцем чи дівчиною, але є умови, пише Daily Telegraph.
-Парам слід визначитися - не зустрічатися фізично впродовж трьох тижнів або ж з'їхатися, щоб жити разом. Саме це днями порекомендувала заступниця головного лікаря Англії Дженні Гарріс.
-Це важливо для зменшення соціальних контактів, пояснила вона. Якщо ви живете разом, ви менше пересуваєтесь своїм містом або селом, відповідно до рекомендацій влади.
-Про побачення ж доведеться забути. За умовами карантину в Британії з дому можна виходити лише в разі потреби, наприклад, купити продукти, отримати медичну допомогу або раз на день прогулятися чи пробігтися.
-"Я лише бажав побачити її". Кохання під час коронавірусу
-Бебі-бум чи хвиля розлучень? Що буде після карантину
-"Ховати знайомих гірше". Як живе Європа на карантині
-Якщо ж ви не наважилися або не можете жити разом, зберегти стосунки можна за допомогою віртуальних побачень, пише видання.
-"Красиво вдягніться, неначе це справжня зустріч. Якщо ви ставитеся до ваших онлайн-побачень як до справжніх, ви докладаєте зусиль, щоб потішити свого партнера, а це підтримує іскру", - радить консультантка з питань стосунків Ейлін Ебботт.
-Ще один варіант - одночасно дивитися фільм, а потім його обговорювати. А якщо ж ви вирішили з'їхатися, важливо поважати особистий простір один одного, а в разі непорозумінь - обговорювати, як їх вирішити, радить експертка.
-Коронавірус сповільнює інтернет
-Під час пандемії люди стали більше проводити часу онлайн, що вплинуло на швидкість завантаження та якість відео, пише New York Times.
-Карантини, запроваджені у багатьох країнах світу, зробили людей більш залежними від інтернету для спілкування, роботи, навчання та розваг.
-Значне зростання у використанні YouTube, Netflix, відеоконференцій у Zoom, дзвінків по Facebook та відеоігор стало позначатися на інтернет-інфраструктурі, хоча трафік ще не досяг свого піку.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Доба коронавірусу може суттєво підвищити користування послугами відеоконференцій Zoom
-У Євросоюзі вирішили діяти на випередження. Стрімінговим компаніям, на кшталт Netflix та YouTube, наказали зменшити якість відеофайлів, щоб менше перевантажувати інтернет-трафік. У США безпровідним провайдерам дали доступ до більшого спектру, щоб підвищити потужність їхніх мереж.
-Інтернет-провайдери кажуть, що в березні лише за кілька днів досягли зросту, якого розраховували досягнути за весь 2020 рік.
-У Європі інтернет-трафік на домашніх фіксованих мережах зріс більш ніж на 30%. Користувачі стали вдвічі більше грати в онлайн-ігри та використовувати відеоконференції. Надсилання повідомлень по WhatsApp зросло в чотири рази.
-Карантин в Україні: сервіси, які можуть стати вам у пригоді
-Карантин: як пристосовується український бізнес
-Коронавірус в Україні: що буде з відпустками і зарплатами
-Збільшення трафіку та навантаження на інтернет-мережі уповільнило швидкість завантаження веб-сторінок та додатків, пише видання. Великий попит змусив провідних провайдерів зайнятися збільшенням потужностей.
-В Іспанії використання інтернету зменшується лише о 8 годині вечора, коли всі люди підходять до вікон аплодувати лікарям. "Раптом о 8 годині використання падає, а потім знову росте. Це прекрасно", - каже виданню представник іспанського провайдера Telefonica.
-"Непотрібна допомога"
-Копирайт изображения
-GETTY IMAGES
-Image caption
-80% допомоги, яку надіслала Росія Італії в дев'ятьох літаках для боротьби з коронавірусом, виявилися непотрібними або не мали особливої користі
-80% допомоги, яку надіслала Росія Італії в дев'ятьох літаках Іл для боротьби з коронавірусом, виявилися непотрібними або не мали особливої користі, пише італійська La Stampa з посиланням на джерела серед політиків.
-На відміну від допомоги з Китаю, що складалася здебільшого з респіраторів та хірургічних масок, росіяни привезли техніку для бактеріологічного знезараження територій, польову лабораторію для стерилізації та хімічно-бактеріологічної профілактики та інше подібне обладнання, пише видання.
-Путін вирішив, що коронавірус дає можливість фізичного проникнення на територію Італії, а італійський прем'єр-міністр Джузеппе Конте вхопився за можливість підтримки, погодившись прийняти це все, щоб зміцнити особисті стосунки з президентом Росії, зазначає газета.
-Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
-"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
-Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі
-В Італії через коронавірус померли щонайменше 50 священників
-Близько сотні експертів, яких надіслала Москва, - це військові медики, а всю операцію проводить Міністерство оборони Росії, а не Міністерство охорони здоров'я. Вони мають звання генерала, полковника, майора та підполковника, а також досвід участі у військових операціях в африканських країнах, пише La Stampa.
-"Це справді виняткова ситуація", пише видання про подорож російських військових територією країни з Риму до Бергамо. Міністри закордонних справ двох країн питання допомоги не обговорювали, цьому передувала лише довга телефонна розмова між Путіним та Конте.
-Росія надіслала все безкоштовно, як "щедрий подарунок Італії від Путіна", зазначає газета. "Але щедрість має свою ціну: представники російського Міністерства оборони вільно пересуваються територією Італії за кілька кроків від баз НАТО", підсумовує видання.
-Огляд підготувала Ганна Чорноус
-Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>27/03/2020</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Міфи про коронавірус. Розвінчуємо</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>27/03/2020</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>У прем'єра Британії Бориса Джонсона виявили коронавірус</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 REUTERS
@@ -13645,98 +13513,39 @@
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
         <is>
           <t>26/03/2020</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Хроніки коронавірусу: пів мільйона хворих у світі, українка з підозрою на хворобу втекла з лікарні</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-UNIAN
-Кількість випадків захворювання на коронавірус у світі перевищила 500 тисяч. Понад 23 тис. із них померли, 120 тис. - одужали.
-Найвищою смертність лишається в Італії - понад 8 тисяч смертей, Іспанії - 4 тисячі та Китаї - 3 тисячі.
-В Україні станом на 26 березня зафіксували 156 випадків зараження коронавірусом. П'ять людей померли, одна людина одужала.
-Українка з підозрою на коронавірус втекла з лікарні
-39-річна жителька Прикарпаття, яка нещодавно повернулася з Бельгії, з невідомих причин залишила лікувальний заклад у Києві, де їй встановили підозру на коронавірус.
-До України вона прилетіла 23 березня, в аеропорту "Бориспіль" в неї виявили підвищену температуру і провели експрес-тест на коронавірус - він дав позитивний результат.
-Після цього жінку шпиталізували в Олександрівську лікарню в Києві, де їй зробили повторний експрес-тест - цього разу результат був негативний.
-Згодом жінку перевели в столичну лікарню №4, де їй зробили ще два тести. Один із них виявився позитивним, другий - негативним.
-Коронавірус в Україні. Інтерактивна мапа
-"Ховати знайомих гірше". Як живе Європа на карантині
-Вже 24 березня пацієнтка з невідомих причин самовільно залишила лікарню - на контакт з лікарями вона не виходила, на дзвінки не відповідала.
-Наступного дня, після того, як до пошуків долучилися правоохоронці, жінку знайшли на Івано-Франківщині, де вона мешкає.
-Начальник ГУНП в Івано-Франківській області Володимир Голубош розповів, що поліція зупинила автівку, в якій жінка перебувала з чоловіком, дочкою та зятем.
-"Одразу було викликано карету швидкої допомоги, доправлено до обласної інфекційної лікарні, взято відповідні аналізи. Взято зобов'язання про дотримання самоізоляції. Також зібрані матеріали для притягнення жінки до адміністративної відповідальності. Ознак кримінального правопорушення не встановлено", - розповів пан Голубош.
-Голова Івано-Франківської ОДА Віталій Федорів розповів, що попри позитивний тест на коронавірус, жінка почувається добре і не має симптомів хвороби.
-На Буковині троє людей одужали, ще п'ятеро захворіли
-Упродовж 26 березня у Чернівецькій області одужали троє людей, яким раніше діагностували коронавірус, повідомляють в місцевій ОДА.
-Водночас в регіоні зафіксували і 5 нових випадків хвороби.
-Йдеться про трьох дорослих віком до 40 років та двох дітей - двох та 11-ти років.
-Четверо з п'яти нових інфікованих, кажуть в ОДА, повернулися з-за кордону, один контактував з хворими в Україні.
-Таким чином, загальна кількість хворих у Чернівецькій області станом на 26 березня складає 47 людей.
-США спрямує 2 трлн доларів на підтримку економіки через коронавірус
-Копирайт изображения
-GETTY IMAGES
-У США ухвалили законопроєкт про спрямування 2 трлн доларів на допомогу бізнесу, лікарням та громадянам.
-Ухвалений Сенатом США законопроєкт стане найбільшим планом економічного стимулювання в історії Америки, якщо його підпише президент Трамп.
-Ось, на що американські конгресмени вирішили виділити гроші:
-Дорослі американці із зарплатою до 75 000 доларів на рік отримають чеки на 1 200 доларів. Для тих, хто отримує понад 75 000 доларів, виплати будуть меншими
-Розпочнеться програма кредитування на 500 мільярдів доларів для підприємств, міст та штатів
-Приблизно 100 мільярдів доларів отримають лікарні
-367 мільярдів доларів спрямують на фонд утримання працівників малого бізнесу
-Ще 17 мільярдів доларів виділяють на допомогу компаніям, які вважаються ключовими для національної безпеки
-Авіакомпанії стануть найбільшими отримувачами допомоги. Пасажирські авіалінії мають право на 25 млрд доларів в кредитах та ще 25 млрд доларів в грантах.
-Авіакомпанії-вантажоперевізники отримають право на ще 8 млрд доларів у кредитах та грантаха
-Нью-Йорк вдається до більших обмежень
-Копирайт изображения
-GETTY IMAGES
-Image caption
-У Нью-Йорку планують тимчасово заборонити баскетбол та інши спортивні ігри у парках
-Захворювання на коронавірус зафіксували в усіх 50 штатах США, найбільша кількість смертей спостерігається у шести з них:
-Нью-Йорк - 368
-Вашингтон - 133
-Каліфорнія - 67
-Луїзіана - 65
-Нью-Джерсі - 62
-Джорджія 47
-Попри уповільнення темпів шпиталізації, губернатор штату Нью-Йорк Ендрю Куомо попередив, що "багато треба зробити", й оголосив про нові кроки, спрямовані на стримування вірусу.
-Коронавірус: коли закінчиться епідемія
-Коронавірус в Україні: п'ята смерть, 145 людей захворіли
-Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
-Нью-Йорк зробить деякі вулиці пішохідними, щоб забезпечити більше місця для дотримання соціальної дистанції між людьми.
-Місто також планує заборонити баскетбол та інші контактні види спорту в громадських парках.
-"Наша близькість робить нас вразливими", - попередив пан Куомо.
-Британія купує апарати штучного дихання
-Британський уряд замовив у компанії Dyson 10 000 апаратів штучного дихання, хоча вони прийдуть не одразу.
-Фірма заявляє, що сподівається виробляти апарати у Вілтширі, але для переходу від прототипу до фактичного виробництва може знадобитися кілька тижнів.
-Наразі у лікарнях Британії є понад 8 000 апаратів штучного дихання. Підраховано, що буде потрібно щонайменше 30 000, аби врятувати людей з тяжкими симптомами.
-Копирайт изображения
-FAMILY PHOTO
-Image caption
-21-річна Хлої Міддлтон стала однією з наймолодших жертв коронавірусу у Британії
-Наразі в Британії вже 9 500 людей захворіли на коронавірус, померли 463 людини.
-Серед померлих - 21-річна Хлої Міддлтон з Бекінгемшира в Англії.
-97-річна жінка перемогла коронавірус
-97-річна жінка стала найстаршою людиною в Південній Кореї, яка одужала від вірусу, повідомляє Yonhap News.
-Інших деталей про неї поки що немає. Але вона не єдина літня людина, яка перемогла вірус.
-Раніше китайські державні ЗМІ повідомили, що 100-річний чоловік у Китаї також видужав від вірусу.
-У випуску новин Сіньхуа згадувалося, що він є найстарішим пацієнтом, який одужав на сьогодні.
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Борис Акунін підхопив коронавірус</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Тест на коронавірус, який зробили російському письменнику Борису Акуніну, дав позитивний результат. Про це сам він розповів у своєму фейсбуці.
+"Я закину ФБ, бо валяюся з модною хворобою. Трохи окріпну - обов'язково поділюся враженнями. (Спойлер: страх перед коронавірусом набагато страшніший за сам коронавірус. Обережним бути треба, а панікувати нема чого", - написав письменник.
+Упродож останніх років Борис Акунін мешкає в Лондоні.
+Пропустити Facebook допис , автор: Akunin
+Кінець Facebook допису , автор: Akunin
+Борис Акунін - творчий псевдонім Григорія Чхарташвілі.
+Він є автором кількох десятків романів та повістей - переважно детективного жанру. Серед найпопулярніших із них - "Турецький гамбіт", "Алмазна колісниця" та "Левіафан".
+Коронавірус: що він робить з організмом
+Знаменитості, які підхопили коронавірус
 Як коронавірус шириться планетою. Мапа
 Як подорожувати під час епідемії
 Як перевіритися на коронавірус?
@@ -13746,85 +13555,27 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
         <is>
           <t>26/03/2020</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-GETTY IMAGES
-Image caption
-Матч "Аталанта"- "Валенсія" 19 лютого відвідали 44 тисячі фанів
-Поширенню коронавірусу у Європі міг сприяти матч Ліги Чемпіонів між італійським клубом "Аталанта" з міста Бергамо та іспанським клубом "Валенсія". Такої думки дотримується мер італійського міста Бергамо та італійський професор-імунолог, повідомляє Sun.
-Матч проходив 19 лютого на стадіоні Сан Сіро (також відомому як стадіон Джузеппе Меацца) в Мілані, оскільки домашня арена господарів матчу в місті Бергамо була занадто малою, аби вмістити всіх охочих.
-Міланський стадіон відвідали 44 тисячі футбольних фанів з Італії та Іспанії.
-"Матч був біологічною бомбою. Ніхто не знав, що вірус вже циркулює серед нас. Багато хто спостерігав за грою в групах, і було багато контактів (між фанатами. -Ред.) тієї ночі", - наголосив мер Бергамо Джорджо Горі в коментарі виданню Marca.
-Італійський професор-імунолог з університету Сапіенца в Римі Франческо ле Фоке зазначив у коментарі Sun, що в поширення коронавірусу могли бути кілька каталізаторів, зокрема, футбольний матч.
-"Гра "Аталанта"-"Валенсія" цілком могла бути одним з них. Це була вершина колективної ейфорії в унікальному футбольному сезоні для цього клубу (Аталанта виграла з рахунком 4:1. - Ред.)", - вважає науковець.
-"Зібрання тисяч людей, які перебувають в сантиметрах один від одного, які виявляють ейфорію обіймами, криками, все це могло б сприяти відповідній реакції на вірус", - пояснює Франческо ле Фоке.
-На думку італійського вченого, футбольні фани, які вже на той момент могли відчувати підвищення температури, навряд чи б пропустили через це такий важливий матч.
-Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
-"Ховати знайомих гірше". Як живе Європа на карантині
-"Боюся, що голод вб'є нас швидше за коронавірус"
-Що сталося далі
-10 березня команди зіграли матч-відповідь у Валенсії, а вже 15 березня іспанський клуб повідомив про п'ятьох хворих на коронавірус футболістів у своєму складі і відправив всіх гравців на самоізоляцію.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-Вантажівки італійської армії вивозять труни померлих від коронавірусу в крематорії в інших регіонах Італії
-Пізніше стало відомо про захворювання в 35% гравців та співробітників клубу.
-"Аталанта" також пішла на самоізоляцію 15 березня. В голкіпера команди виявили коронавірус.
-Наразі Італія та Іспанія є лідерами із захворюваності на коронавірус у Європі.
-Копирайт изображения
-GETTY IMAGES
-Image caption
-В Бергамо померли кілька сотень людей
-Станом на 26 березня в Італії зафіксовано понад 74 тисячі випадків захворювання і 7500 померлих від коронавірусу.
-Бергамо є одним з найбільш уражених коронавірусом міст в країні - станом на 24 березня тут було понад 3800 хворих та 580 померлих.
-В Іспанії захворіли 49 500 людей, з них 3647 померли.
-Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>26/03/2020</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Здоров'я</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>В Італії через коронавірус померли щонайменше 50 священників</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 ORATORIO CASNIGO
@@ -13873,58 +13624,1338 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Оркестр на самоізоляції зіграв Бетховена онлайн</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Роттердамський філармонічний оркестр знайшов спосіб виступати разом під час пандемії та не порушувати правил самоізоляції для його музикантів.
+Члени оркестру кожен у власній домівці записали партії для "Оди до радості" Бетховена.
+Потім все звели в єдиний трек - ось що з цього вийшло.
+Підписуйтеся на наш Youtube-канал!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Річард Грей</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Наука</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Коронавірус: чи піде пандемія на спад, коли потеплішає?</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SERGEI SUPINSKY
+Чи є новий коронавірус сезонним, як більшість вірусів грипу? Та як на його поширення впливають кліматичні і погодні умови?
+Спалахи багатьох інфекційних захворювань поступово згасають з настанням теплої пори року. Грип або кишкова інфекція норовірус більш розповсюджені у зимові місяці.
+Пік зараження тифом випадає на літо. Випадки кору знижуються влітку в помірному кліматі, а у тропічних регіонах підвищуються під час посухи.
+Отже, цілком закономірне питання - чи залежить від сезону і активність нового коронавірусу, епідемія якого почалася всередині минулого грудня в Китаї, а тепер перемістилася у Європу та США.
+Найбільші спалахи захворювання на Covid-19 сталися в регіонах, де погода прохолодна, а отже, чи можна припустити, що з настанням літа пандемія піде на спад.
+Коронавірус: чи можна ним заразитися двічі?
+Онлайн карта коронавірусу
+Коронавірус: коли закінчиться епідемія
+Більшість вірусологів, однак, не надто оптимістичні. Вірус SARS-CoV-2, який спричинює коронавірусну інфекцію, - новий і поки що мало вивчений.
+А найближчий до нього за походженням вірус Sars, спалах якого відбувся у 2003 році, стримали швидко, і отже, інформації про те, як на нього вплинула б зміна пори року, немає.
+Втім, дещо відомо про інші види коронавірусів, які заражають людей.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Є надія, що з потеплінням у Північній півкулі спалах коронавірусу почне знижуватися
+Дослідження деяких з них показали, що спалах спричинених ними інфекцій дихальних шляхів має "помітну зимову сезонність". Тобто найбільше захворювань було між груднем та квітнем, так само як і з грипом.
+Дані перших досліджень SARS-CoV-2 показують, що вірус надає перевагу прохолодній і сухій погоді.
+Його поширення пов'язане з кількома погодними чинниками: температурою повітря, швидкістю вітру та відносною вологістю.
+Помірний теплий, а також холодний клімат є найбільш сприятливими для спалаху Covid-19
+Помірний теплий, а також холодний клімат є найбільш сприятливими для спалаху Covid-19.
+А от тропічні частини світу, ймовірно, постраждають найменше, кажуть дослідники.
+Утім, є одне велике "але". Пандемії часто не відповідають закономірностям звичайних сезонних спалахів.
+Наприклад, пік іспанки припав на літні місяці, тоді як більшість спалахів грипу відбувається взимку.
+Але чому інші коронавіруси сезонні та що дає надію на те, що і новий вірус SARS-CoV-2 також має цю рису?
+Коронавіруси належать до сімейства так званих "загорнутих вірусів". Вони вкриті маслянистою оболонкою - ліпідною двошаровою структурою, "прикрашеною" білковими наростами, які схожі на корону. Звідси й назва - "коронавіруси".
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Досліджень того, як на захворюваність на Covid-19 впливає погода, ще мало
+Через цю маслянисту оболонку вірус стаж більш чутливим до нагрівання. У холоді оболонка твердне і стає желеподібною, як застигає жир на холодному вареному м'ясі.
+Таким чином, вона захищає вірус, поки він перебуває за межами організму. Саме тому більшість "загорнутих вірусів" мають виражену сезонність.
+Дослідження вже показали, що Sars-Cov-2 може витримати до 72 годин на твердих поверхнях, як-от пластик та неіржавна сталь, за температури 21-23°C та відносній вологості повітря 40%.
+Як довго коронавірус живе на поверхнях?
+Як саме поводиться новий коронавірус за інших температур та вологості ще належить дослідити, але інші коронавіруси виживають понад 28 днів за температури 4°C.
+"Клімат впливає на стабільність вірусу поза людським організмом, наприклад, коли він виходить з кашлем або чханням", - пояснює Мігель Араухо з Національного музею природничих наук у Мадриді в Іспанії.
+"Що довше вірус залишається стабільним у навколишньому середовищі, то більша його здатність заражати інших людей та спричиняти епідемію", - додає дослідник.
+Онлайн карта коронавірусу
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Як перевіритися на коронавірус?
+Дослідження Університету Меріленду показало, що вірус Sars-Cov-2 найбільше поширився у містах та регіонах світу, де середня температура була близько 5-11°С з низькою відносною вологістю.
+Втім, недавній аналіз поширення нового коронавірусу в Азії, проведений дослідниками Гарвардської медичної школи, свідчить, що він буде менш чутливим до погоди, ніж сподіваються вчені.
+Це підкреслює необхідність широких заходів охорони громадського здоров'я у боротьбі з захворюванням.
+Sars-Cov-2 найбільше поширився у містах та регіонах світу, де середня температура була близько 5-11°С з низькою відносною вологістю
+Річ у тім, що поширення вірусу залежить далеко не лише від його здатності виживати в навколишньому середовищі.
+І саме тут поняття сезонності захворювання ускладнюється.
+Коронавірус поширюють люди, а тому сезонні зміни у поведінці людей також впливають на частоту заражень.
+Наприклад, випадки кору в Європі, як правило, збігаються зі шкільними семестрами та знижуються під час канікул.
+Вважають, що ключову роль у поширенні Sars-Cov-2 з Уханя в інші міста Китаю та по всьому світу зіграла велика міграція людей перед Китайським новим роком 25 січня.
+Погода також впливає і на наш імунітет, роблячи нас більш вразливими до інфекцій. Деякі дослідження припускають, що рівень вітаміну D в організмі впливає на нашу здатність захворіти.
+Взимку наш організм отримує менше вітаміну D від сонячних променів. Хоча вплив цього чинника на сезонність грипу багато дослідників вважають суперечливим.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Лабораторні дослідження та комп'ютерне моделювання припускають, що новий коронавірус зможе вижити й у теплих та вологих умовах
+Так само неоднозначним є питання про те, чи послаблює нашу імунну систему холодна погода. На думку опонентів, холод збільшує кількість клітин, які захищають наше тіло від інфекцій.
+А от що, без сумніву, впливає на нашу здатність протистояти вірусам, - це вологість повітря.
+Коли повітря дуже сухе, кількість слизу, що покриває наші легені та дихальні шляхи, зменшується. Ця секреція утворює природний захист від інфекцій, і з нею ми стаємо менш вразливими до вірусів.
+А от що, без сумніву, впливає на нашу здатність протистояти вірусам, - це вологість повітря
+Оскільки вірус SARS-CoV-2 є новим, у багатьох людей немає від нього імунітету, поки вони не перехворіють на нього.
+А це означає, що він поширюватиметься та спричинюватиме хвороби не так, як ендемічні віруси, притаманні певному регіону.
+Авіаперельоти стали основним маршрутом швидкого поширення вірусу світом, зазначає Вітторія Коліцца, директор відділу досліджень Французького інституту охорони здоров'я та медичних досліджень.
+Але щойно він починає ширитися в межах спільноти, його передачі сприяють близькі контакти між людьми. Припинення контактів повинно знизити рівень зараження. Саме тому більшість урядів й ухвалили рішення про суворий карантин.
+Якщо число випадків Covid-19 знизиться протягом найближчих місяців, цьому може бути кілька причин. Це, насамперед, заходи профілактики, як-от ізоляція та карантини, зростання колективного імунітету, а також зміна пори року.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Навіть якщо випадки захворювання на Covid-19 знизяться влітку, вірус не зникне і може повернутися у холодному сезоні
+"Якщо новому коронавірусу дійсно притаманна сезонність, це може замаскувати справжній вплив двох інших чинників", - попереджає професор Ян Альберт з Каролінського Інституту в Стокгольмі.
+"У країнах, де суворі обмеження вберегли багатьох людей від зараження, цілком можлива друга хвиля захворювань з настанням осені та зими", - пояснює він.
+Навіть якщо Covid-19 залежить від пори року, навряд чи він повністю зникне протягом літніх місяців. Але зменшення випадків захворювання певну користь принесе.
+"Кроки, які ми робимо, щоб вирівняти криву пандемії, дорого коштують економіці, але вони мають допомогти нам протриматися до літа", - зазначає професор Альберт.
+"Це допоможе системам охорони здоров'я виграти потрібний їм час на підготовку".
+Для світу, який веде важку боротьбу з поширення вірусу, це може бути час, якого він відчайдушно потребує.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Future.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Наука</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Хробак, якому 500 млн років. Вчені знайшли "пращура" всіх тварин</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SOHAIL WASIF/UCR
+Біологи з США і Австралії знайшли можливого "пращура" всіх тварин - стародавній вид двосторонньо-симетричних істот, що поклали початок розвитку кожного з нас.
+Рештки викопного хробака, які знайшли в Австралії, - найбільш ранній зразок скам'янілої білатерії - двосторонньо-симетричного організму.
+Крихітна хробакоподібна істота (розміром із зернятко рису), що жила на морському дні понад пів мільярд років тому, дала американським і австралійським біологам зачіпку до розуміння складного еволюційного шляху всього тваринного світу.
+Професор Університету Каліфорнії у Ріверсайді Скотт Еванс і його колеги назвали її Ikaria wariootia.
+Чи виникло б людство знов, якби ми відмотали час назад?
+Тест: що ви знаєте про еволюцію
+У Латинській Америці знайшли найстарішу рослину
+Білатерії мають передню і задню сторони, симетричні боки, ротові отвори і травний орган. Відкриття описали в журналі PNAS.
+Автори дослідження вважають, що розвиток двосторонньої симетрії став найважливішим кроком у еволюції тваринного світу. Завдяки їй тварини отримали можливість цілеспрямовано рухатися. Крім того, симетрична будова організму більш функціональна.
+Безліч різних біологічних видів, від черв'яків і комах до динозаврів і людей, мають тіла симетричної будови.
+Відбитки на скелях
+Копирайт изображения
+DROSER LAB/UCR
+Image caption
+У каменях були крихітні отвори, в яких, на думку біологів, мешкали білатерії, але шукати самих тварин нікому не спадало на думку
+Ikaria жила 555 млн років тому за часів вендської геологічної доби (також званої едіакарської). Це перша стадія складного багатоклітинного життя на Землі.
+Її сліди знайшли в скелях Нільпени, на півдні Австралії, в середині 2000-х.
+Камені мали крихітні отвори, в яких, на думку біологів, мешкали білатерії, але шукати самих тварин нікому не спадало на думку.
+І лише коли Скотт Еванс і Мері Дроузер - професор геології у тому ж університеті у Ріверсайді - помітили навколо отворів крихітні овальні відбитки, виявилося, що це дійсно сліди білатерій.
+Чи п'яніють комарі від алкоголю в крові людини?
+Знайдений в Ефіопії череп змінює уявлення про предків людини
+Тривимірне лазерне сканування показало тіло рівної циліндричної форми з чітко вираженою головою, хвостом і злегка випуклими м'язами.
+Ikaria wariootia були від 2 до 7 мм завдовжки і близько 1-2,5 мм завширшки. У найбільшому із виявлених отворів збереглися рештки найбільшої з особин - науковці зійшлись на думці, що саме вона і зробила отвори у кам'яних відкладеннях.
+Копирайт изображения
+DROSER LAB/UCR
+Image caption
+3D-зображення, яке дає чітке уявлення про Ikaria wariootia
+"Ми припускали, що ці організми, найімовірніше, існували у вендську добу, але розуміли, що виявити і розпізнати їх вкрай складно, - розповів Скотт Еванс. - Коли я побачив 3D-скани, то зрозумів, що ми зробили відкриття".
+Білатерії цього виду, очевидно, провели своє життя на дні океану в пошуках будь-якої органічної матерії, яку можна з'їсти: для цього вони робили в піску нори, часом доволі глибокі.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>26/03/2020</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: за добу 62 нових випадки, дві людини загинули</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Станом на ранок 30 березня в Україні підтвердили 480 випадків зараження COVID-19.
+За добу виявили 62 нових випадки, повідомляє Центр громадського здоров'я.
+Також за добу померли дві людини від коронавірусу.
+Хроніки коронавірусу: обсервація для українців та суворий карантин в Москві
+Коронавірус: як правильно ізолюватися
+Тож всього жертвами хвороби стало 11 українців.
+6 пацієнтів одужало.
+В лідерах за кількістю захворювань - Київ (102 випадки), Чернівецька область (75 випадків), Тернопільська область (60 випадків).
+Коронавірус в Україні. Інтерактивна мапа
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: обсервація для українців та суворий карантин в Москві</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Image caption
+Досі на обсервацію відправляли лише українців, яких евакуювали з Китаю в лютому
+Станом на 30 березня у світі зареєстрували понад 722 тис. випадків зараження коронавірусом. Видужали майже 152 тис. людей, померли — майже 34 тис.
+США - лідер за кількістю людей, у яких підтвердили хворобу. Йдеться про 142 тис. заражених. Вилікувались 4767, померли 2393.
+Коронавірус: у світі оголосили пандемію
+Коронавірус: як правильно ізолюватися
+Водночас лідером за смертями залишається Італія. Тут померли понад 10 тис. людей, вилікувались 13 тис., а всього захворіли понад 97 тис. італійців.
+Серед країн, де загинули найбільше людей, також Іспанія (6 803), Китай (3 186), Іран (2 640) та Франція (2 606).
+Україна: понад 50 нових випадків та обсервація для новоприбулих українців
+Станом на вечір 22 березня в Україні офіційно підтвердили 475 випадків зараження COVID-19, повідомив Центр громадського здоров'я.
+За весь час від вірусу померли 10 людей, офіційно видужали — шестеро.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус: коли закінчиться епідемія
+Як зробити тест на коронавірус? Питання і відповіді
+Водночас Кабінет міністрів ввечері посилив карантинні заходи щодо українців, які повертаються з-за кордону.
+Уряд зобов'язав всіх новоприбулих дотримуватися режиму обсервації.
+Президент Володимир Зеленський уточнив, що обсервація триватиме два тижні. Це стосується всіх, хто повернеться після 28 березня.
+Для того, щоб забезпечити ізоляцію новоприбулих, влада домовляється з готелями, в яких введуть спеціальні заходи безпеки.
+Станом на неділю до України повернулися понад 140 тис. українців.
+Також ввечері 22 березня в Україну прибув другий літак з Китаю. За словами Зеленського, на борту було 300 тис. спеціальних респіраторів та 35 тис. захисних костюмів для лікарів, військових і поліціянтів. А ще 2 млн масок для населення.
+Очікується також літак, який доставить з Китаю 100 тис. ПЛР-тестів.
+Москвичі в ізоляції
+У Росії після кількатижневого зволікання все ж вирішили запровадити жорсткі карантинні заходи за прикладом країн Західної Європи.
+Щоправда, режим обов'язкової самоізоляції стосується тільки Москви та прилеглих населених пунктів.
+Виходити на вулицю можна лише з поважних причин: щоб отримати медичну допомогу, дістатися на роботу, купити продукти чи ліки, винести сміття та вигуляти домашню тварину, але не більш як в 100 метрах від свого житла.
+Також в Москві планують запровадити спеціальні перепустки, які дозволять пересуватися містом.
+США: Великдень на карантині
+Копирайт изображения
+GETTY IMAGES
+Президент США Дональд Трамп визнав, що до Великодня карантинні заходи скасувати не вдасться.
+Він офіційно заявив, що обмеження збережуть до 30 квітня, а пік смертей очікують за два тижні.
+У Білому домі допускають, що коронавірус може вбити понад 200 тис. американців, а захворіти можуть мільйони.
+Тож Трамп зазначив, що важливо не дозволити кількості загиблих перевищити 100 тис.
+Трамп про принца Гаррі та Меган Маркл: "Платити мають вони"
+Окремо президент США згадав королівську подружню пару — принца Гаррі та Меган Маркл, які на тлі коронавірусу вирішили переїхати з Канади до американського помешкання колишньої акторки.
+Трамп заявив, що Сполучені Штати не будуть оплачувати рахунки подружжя за їхню охорону.
+Знаменитості, які підхопили коронавірус
+У Бориса Джонсона коронавірус
+"Платити мають вони", - заявив американський президент.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Коронавірус: на Черкащині 43 нових випадки за добу. Вчора було три</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Станом на ранок 29 березня на Черкащині зафіксували вже 46 випадків коронавірусу. 43 із них - лише за останню добу, розповів голова Черкаської ОДА.
+Спалах у Кам'янці
+Найгірша ситуація - в Кам'янці, де виявили одразу 23 інфікованих. 5 із них - медичні працівники.
+При цьому ще в суботу, 28 березня, було відомо лише про одного хворого з Кам'янки - чоловіка, який, за даними місцевих ЗМІ, працював водієм в одній з приватних фірм.
+Напередодні мер Черкас Анатолій Бондаренко розповідав, що влада виявила 25 людей, з якими він контактував, - усіх їх мали перевірити на коронавірус.
+Вже в неділю голова Черкаської ОДА Роман Бондар, заявив, що тести 23 перевірених осіб показали позитивний результат.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус: що він робить з організмом
+Загалом, каже пан Бондар, в області зробили 157 ПЛР-тестувань, результати 46 виявилися показали позитивний результат. Серед інфікованих є дворічна дитина.
+15 хворих перебувають в стані середньої тяжкості, їх госпіталізовано. Усі інші хворі мають легкі симптоми.
+"Є надія, що вони заразилися нещодавно, сподіваємося на їхнє швидке одужання", - заявив пан Бондар.
+Він також розповів, що з 9 ранку неділі у Кам'янці почали працювати блокпости - в людей, які намагаються в'їхати в місто, перевіряють температуру.
+"В'їхати та виїхати з Кам'янки поки можна без обмежень", - сказав пан Бондар, але додав, що вже незабаром може бути схвалене рішення про обмеження в'їзду виїзду з 20 години вечора до 6 години ранку - окрім автомобілів екстрених служб.
+"Спробуємо взяти під контроль увесь трафік", - каже голова Черкаської ОДА.
+Українські "суперпоширювачі"?
+Копирайт изображения
+UNIAN
+Впевнено говорити про те, що усі 23 інфікованих людей у Кам'янці заразилися саме від водія, в якого коронавірус виявили до цього, не можна.
+Проте опосередковані дані свідчать про те, що він міг бути так званим суперпоширювачем хвороби - так називають людей, які заражають велику кількість оточуючих.
+Раніше стало відомо, що на Тернопільщині від Covid-19 помер 68-річний чоловік з села Ковалівка - на початку березня він контактував зі священником, в якого теж виявили коронавірус.
+Як розповідав заступник міністра внутрішніх справ Антон Геращенко, вони зустрілися на похороні, де загалом перебували близько 70 людей.
+Загалом, за оцінками епідеміологів та поліції, священник, про якого йде мова, міг контактувати з 500 людьми.
+Станом на 29 березня у селі Ковалівка виявили вже 4 випадки коронавірусу.
+Коронавірус у Радомишлі: померла цілувала ікону, на службі в церкві було 25 людей
+Також 13 березня стало відомо про смерть 71-річної жінки у Радомишлі - за кілька днів до цього вона відвідувала місцеву церкву.
+Згодом у Радомишльській міській раді повідомили що парафіянам церкви зробили тест на коронавірус, у шістьох результат виявився позитивним. Але ці аналізи ще мають пройти додаткову первірку.
+418 випадків в Україні
+Загалом в Україні станом на ранок 29 березня офіційно підтвердили 418 випадків коронавірусної інфекції, 109 із них - за останню добу.
+Як зазначив головний санітарний лікар Віктор Ляшко, в Україні не залишилося жодної області, де б не були зафіксовані випадки коронавірусу.
+Найбільше випадків зареєстрували у Києві - 82, Чернівецькій (59) та Тернопільській (57) областях.
+Загалом від коронавірусу в Україні померли дев'ятеро людей.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні. Інтерактивна мапа</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">В якій області найбільше інфікованих коронавірусом? Скільки одужало? А скільки померло? Все це - на нашій інтерактивній мапі.
+В Україні станом на ранок 30 березня загалом зафіксували 480 випадків зараження коронавірусом.
+Станом на ранок 30 березня найбільше випадків зареєстрували у Києві - 102, далі йдуть Чернівецька (75) та Тернопільська (60) області.
+Померли 11 хворих, одужали також 6 людей.
+Усі дані про поширення коронавірусу в Україні - з інформаційних повідомлень міністерства охорони здоров'я, за винятком анексованого Росією Криму.
+Клікніть на позначку на області, щоби дізнатися ситуацію з коронавірусом на території регіону.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Тесса Вонг</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Коронавірус: чому в одних країнах носять маски, а в інших – ні</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+AFP
+Image caption
+У багатьох країнах Азії, включно з Китаєм, люди у масках - звичайне явище
+Вийдіть сьогодні на вулицю без маски у Гонконгу, Сеулі чи Токіо - і на вас напевно кидатимуть косі погляди.
+Від початку спалаху коронавірусу мешканці деяких країн охоче підхопили звичай прикривати ніс і рот маскою; виходячи без маски, ви ризикуєте наразитися на загальний осуд.
+Водночас у багатьох інших точках світу - від Британії та США до Австралії чи Сінгапуру - і сьогодні цілком прийнятно з'являтися на люди з неприкритим обличчям.
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+"Ховати знайомих гірше". Як живе Європа на карантині
+В Італії через коронавірус померли щонайменше 50 священників
+Чому в одних країнах носять і пропагують маски, а в інших - зневажають? Причину слід шукати не лише у настановах урядовців і медиків, а також в культурі та історії.
+Чи зміниться ситуація з посиленням пандемії?
+Офіційні заяви щодо масок
+Від початку спалаху коронавірусу представники Всесвітньої організації охорони здоров'я (ВООЗ) висловлюються на цю тему абсолютно чітко. Лише дві категорії людей повинні носити маски: хворі на коронавірус (з явними симптомами) і особи, які доглядають за тими, в кого вже діагностували або підозрюють коронавірус.
+Іншим людям носити маски не треба. На це є кілька причин.
+По-перше, маски не дають надійного захисту. Як показують поточні дослідження, вірус поширюється крапельним шляхом і через контакт із зараженими поверхнями. Отже, маска може захистити хіба в тій ситуації, коли хвора людина підходить до вас дуже близько і чхає або кашляє вам в обличчя.
+На думку фахівців, набагато ефективніше якомога частіше мити руки водою з милом.
+Копирайт изображения
+AFP
+Image caption
+В Ухані та Гуанчжоу людей без масок можуть заарештувати
+Носіння маски створює додаткові складнощі: потрібно бути надзвичайно обережним, знімаючи її, а деяким людям вона дає безпідставне відчуття безпеки.
+І все ж, в окремих азійських країнах сьогодні усі поголовно ходять у масках - це вважається способом самозахисту і виявом турботи про ближніх.
+У материковому Китаї, Гонконгу, Японії, Таїланді та Тайвані вважається, що носієм вірусу може бути кожний, навіть без видимих симптомів. Тому, в дусі солідарності, ви повинні захищати інших від себе.
+Подекуди носити маски закликає уряд. В окремих китайських провінціях без маски вас можуть навіть заарештувати й накласти на вас покарання.
+В Індонезії та на Філіппінах - де багато хто підозрює, що офіційна статистика не відповідає реальній - більшість населення великих міст носить маски з власної ініціативи, намагаючись захистити себе.
+В багатьох з цих країн люди звикли носити маски ще до коронавірусу. З них навіть зробили модний аксесуар - був час, коли вуличні ринки Гонконгу заполонили маски з популярним персонажем Hello Kitty.
+У Східній Азії люди зазвичай носять маски, коли хворіють, а також у пору цвітіння дерев, адже відкрито чхати або кашляти вважається нечемним. Спалах вірусу Sars у 2003 р., що зачепив кілька країн у цьому регіоні, також закріпив думку про важливість носіння масок, особливо у Гонконгу, де цей вірус забрав багато життів.
+Отже, ці країни відрізняються від західних передусім тим, що вони вже й раніше переживали епідемії - і спогади про це досі свіжі та болісні.
+Копирайт изображения
+AFP
+Image caption
+У Гонконгу продаються маски з найрізноманітнішими принтами
+Крім того, у Південно-Східній Азії, особливо у густонаселених містах, багато хто носить маски через забруднене повітря.
+Але не вся Азія однакова. У Сінгапурі, де я зараз перебуваю, уряд закликає громадян не купувати маски, щоби не створювати їхній дефіцит для медичних працівників, тож більшість людей обходяться без них. Люди довіряють уряду і тому схильні прислухатися до його порад.
+Маска як соціальний символ
+Дехто висловлює думку, що повсюдні маски служать наочним нагадуванням про загрозу від вірусу - і таким чином можуть додатково нас стимулювати, зокрема спонукати до кращої особистої гігієни.
+"Надягати маску перед виходом на вулицю - це своєрідний ритуал, як надягати уніформу. Ритуали ж допомагають людям краще пам'ятати про те, що вони символізують, і діяти відповідно. У даному разі це означає дотримуватись правил гігієни, наприклад, не торкатися обличчя, або уникати людних місць і зберігати соціальну дистанцію", - каже Дональд Лоу, фахівець з поведінкової економіки та викладач Гонконзького університету науки й технологій.
+Копирайт изображения
+AFP
+Image caption
+Можливо, маска нагадує нам і нашому оточенню, як важливо дотримуватись правил гігієни?
+Також є думка, що у війні проти вірусу не варто нехтувати жодними засобами, навіть незначними.
+"Ми точно не знаємо, наскільки ефективні маски, та припускаємо, що бодай трішки ефективні, адже такий захист ми надаємо і медичним працівникам", - каже Бенджамін Каулінг, епідеміолог Гонконзького університету.
+"Якщо у місцях скупчення люди переважно носитимуть маски, гадаю, це частково пригальмує передачу інфекції; а наразі ми шукаємо навіть найменші способи на це вплинути. Кожна крихта важлива".
+Втім, загальне носіння масок потенційно може й нашкодити. Подекуди - наприклад, у Японії, Індонезії й Таїланді - маски нині в дефіциті, а Південна Корея була змушена запровадити обмеження на їхній продаж.
+Копирайт изображения
+REUTERS
+Image caption
+Прем'єр-міністр Таїланду в масці, що пасує до костюму
+Є побоювання, що люди почнуть використовувати одноразові маски багато разів (що є грубим порушенням гігієни), спекулювати масками на чорному ринку чи носити маски домашнього виробництва, які часто поступаються якістю перед промисловими і можуть бути непридатними для використання.
+Інша проблема - дискримінація людей, які не носять масок у громадських місцях. У згаданих країнах від них буквально сахаються й нерідко не пускають у крамниці чи установи.
+У Гонконгу, деякі таблоїди опублікували на перших шпальтах фото людей європейської зовнішності, які весело проводять час у місцевих осередках нічного життя - звісно, без масок. Журналісти суворо розкритикували експатріантів і туристів, які, на їхню думку, поводяться бездумно і необачно.
+Втім, дискримінація тут двобічна.
+У країнах (переважно західних), де мало хто носить маски, їхні прихильники теж наражаються на презирство чи навіть напади. Справу лише погіршує те, що велика частина людей у масках - азійці за походженням.
+Нарешті, цілком можливо, що країни, де носіння маски вважається загальною нормою, мають рацію. Дедалі більше експертів піддають сумнівам офіційні рекомендації ВООЗ.
+Незареєстровані випадки
+По-перше, постають нові докази того, що серед нас може бути багато "прихованих носіїв" - ззовні здорових людей, що мають коронавірус в організмі, але не мають або майже не мають симптомів. Схоже, таких людей більше, ніж фахівці вважали спочатку.
+Приблизно у третині всіх діагностованих у Китаї випадків, носії вірусу не виявляли жодних симптомів, за даними китайського уряду, про які повідомила газета South China Morning Post.
+На круїзному лайнері Diamond Princess, який стояв на карантині в японському порту Йокогама, з більш ніж 600 діагностованих випадків близько половини проходили абсолютно без симптомів.
+Про подібну частку безсимптомних випадків повідомлялось і в Ісландії, де тестують більший відсоток громадян, ніж у будь-якій іншій країні світу, за заявами місцевих посадовців.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Раніше вважалося, що, не виявляючи симптомів, носії вірусу не надто заразні. Та станом на сьогодні в цьому багато хто сумнівається. Можливо, якби всі користувалися масками, "приховані носії" вірусу не ставали б його поширювачами?
+Нещодавно науковці опублікували нове дослідження китайських випадків коронавірусу, згідно з яким "незареєстровані випадки інфекції" - без симптомів або з незначними симптомами - були високо заразними та, ймовірно, спричинили близько 80% усіх випадків хвороби.
+Втім, це лише одне дослідження; безсумнівно, майбутні роботи науковців доповнять загальну картину ще багатьма рисами.
+Маска для обличчя - наслідок впливу історичних подій, минулих епідемій і культурних норм. Пандемія ще наростає, а з нею й обсяги нових даних і досліджень - тож не виключено, що наша поведінка знову зміниться.
+Матеріал підготовлений за участі Гел'єр Чанг
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Вільям Парк</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Надзвичайна ситуація: як зберегти душевний спокій</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNSPLASH
+Покращити собі настрій навіть за часів тотальної тривоги і стресу - цілком можливо. Ось кілька способів, ефективність яких довели дослідники.
+Глобальна пандемія коронавірусу зачинила людей вдома, закрила кордони і призвела до економічної нестабільності. Не перейматися долею світу в таких обставинах, звісно, складно.
+Втім, навіть за часів тотальної тривоги і стресу підняти собі настрій - цілком можливо.
+Хоча наші емоції - це складний механізм, наука вже добре його вивчила. Ми зібрали поради провідних психологів про те, як впоратися зі стресом. Деякі з них, однак, можуть вас здивувати.
+1. Відволікайтеся
+Зациклитися на проблемі, якою б вона не була - пандемія коронавірусу чи зміни клімату, - легко. Проте якщо зайняти свої думки чимось іншим, можна суттєво знизити напругу.
+Дослідження свідчать, що відволікання допомагає знизити артеріальний тиск до нормального рівня.
+Як стати щасливим за 7 днів
+2. Медитація допомагає не всім
+Щоби заспокоїтися у часи великих криз, найчастіше радять медитувати та практикувати усвідомленість. Утім, цей спосіб є дієвим далеко не для всіх.
+Копирайт изображения
+UNSPLASH
+Image caption
+Медитація - дієвий спосіб, але підходить не усім
+Якщо спроба позбутися зайвих думок, змушує вас лише більше концентруватися на негативі, не засмучуйтесь. Відволікайтеся на інші речі.
+3. Переосмисліть ситуацію
+Те, як ми сприймаємо свої емоції, значною мірою залежить від контексту, в якому ми їх бачимо.
+Деррен Браун у своїй книжці 2017 року "Щасливі" (Happy) розповідає про тенісиста, який починає матч із думкою "Я повинен перемогти".
+Коли спортсмен розраховує лише на перемогу, він може одразу впасти у відчай, якщо почне програвати.
+У таку пастку часто потрапляють перфекціоністи. Вони важко сприймають власні невдачі і реагують на них з відчуттям більшої провини, сорому і гніву.
+Вони також частіше кидають справу, якщо щось не вдається одразу.
+Хочете бути щасливим? Припиніть намагатися
+Втім, гравець, який починає матч із думкою "я зроблю все, що в моїх силах", зазвичай, менш болісно сприймає поразку і здатний битися до кінця.
+Отже, такий самий принцип можна застосувати й у повсякденному житті.
+Скажіть собі, що ви робитимете все, що у ваших силах: дотримуватиметесь гігієни, залишатиметесь вдома. Це ефективніше, ніж думати про те, що від вас не залежить ("Я не захворію").
+Коли ми намагаємося контролювати, те, що від нас не залежить, ми відчуваємо сильну тривогу і стрес.
+4. Ви не зобов'язані бути щасливими
+Хоча це здається нелогічним, але гнатися за позитивними емоціями також не треба. Коли ми з усіх сил намагаємося бути щасливими, ефект часто - зворотний.
+Копирайт изображения
+UNSPLASH
+Image caption
+Заведіть щоденник
+Коли ми зосереджені на власному добробуті, ми не звертаємо уваги на почуття інших людей, що сприяє відчуженню та роз'єднанню. Крім того, коли ми активно шукаємо щастя, нас охоплює відчуття, що час вислизає.
+І знову ж таки: якщо ви зосереджені на результаті - "я повинна відчувати щастя" - ви переживатимете невдачу гостріше.
+Дозвольте собі не бути надто позитивними, адже це природно у важкі часи.
+5. Зосередьтеся на дрібницях
+Замість того, щоби прагнути до щастя загалом, краще зосередитися на простих маленьких речах, які приносять нам задоволення.
+Професорка університету Центрального Ланкаширу Санді Манн у своїй книжці "Десять хвилин до щастя" (Ten Minutes to Happiness) радить вести щоденник.
+Чого нам всім бракує для щастя
+Ця ідея ґрунтується на "позитивній психології" - повсякденній практиці маленьких кроків до щастя.
+Манн пропонує щодня відповідати на кілька запитань. Це займе у вас не більше 10 хвилин, але суттєво покращить настрій.
+1. Які речі, хоч якими буденними вони були, принесли вам задоволення?
+2. За що вас похвалили?
+3. У чому вам пощастило?
+4. Які ви мали досягнення, хай і невеликі?
+5. За що ви відчули вдячність?
+6. Яку добру справу ви зробили?
+Переваги такого щоденнику ви відчуєте двічі. Спочатку, коли писатимете його, адже це допоможе вам зосередитися на приємних дрібничках, які сталися протягом дня.
+А згодом - коли переглядатимете щоденник і зможете пригадати, що вас робило щасливими у минулому.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Італійці вітають одне одного. Напис на банері - "Усе буде добре"
+6. А, може, приберіть вдома?
+Карантин, здається, ідеальним часом нарешті зробити генеральне прибирання, наприклад, за методом Марі Кондо.
+У захаращеному просторі складно зосередитися. Дослідники давно довели, що у неприбраній спальні важче заснути, а безлад на кухні підштовхує нас до нездорового вибору їжі.
+Якщо вам доведеться провести багато часу вдома, варто зробити цей простір затишним і чистим.
+7. Обмежте соцмережі
+Хоча соціальні медіа - це невичерпне джерело поганих новин, для багатьох це також спосіб залишатися в курсі подій та підтримувати зв'язок з друзями та коханими.
+Як "прокачати" щастя за 10 хвилин
+Не беріть смартфон у спальню та встановіть обмеження на екранний час, так ви зможете збалансувати недоліки і переваги соцмереж.
+8. Поїдьте з міста
+Виїхати не деякий час з міста - також корисно, якщо, звісно, цю поїздку можна організувати безпечно, уникаючи переповненого транспорту.
+Адже саме мешканці міста мають найвищі показники психічних розладів та поганого настрою.
+Споглядання води та блакитного неба творить дива з нашим настроєм. Як показало одне дослідження 2016 року, збільшення блакитного простору на 20-30% перед нашими очима може знизити стан тривоги та стресу.
+Цікаво, що зелений простір такого ефекту не має, тому морський краєвид, схоже, є кориснішим за ліси.
+Якщо вас не полишають тривожні думки про долю світу, спробуйте деякі з цих порад. І пам'ятайте: наші емоції - це те, що ми самі з ними робимо.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Future.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ніколас Барбер</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Карантин: що подивитися, щоб покращити настрій</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+IMBD
+Image caption
+"Амелі"
+Кіно завжди було способом втекти від реальності. BBC Culture радить добірку фільмів, які розрадять та сповнять позитивом.
+Жодна форма мистецтва не дозволяє нам так добре відволіктися від суворої реальності, як кінематограф.
+Дати собі раду у тривожні часи карантину та самоізоляції допоможуть фільми, які пройшли перевірку часом і безперечно довели свій терапевтичний ефект.
+Ковдра і відерко морозива з шоколадною крихтою не обов'язкові, але дуже рекомендовані.
+Обирайте, чого саме потребує ваша душа у цю мить.
+Зануритися у позитив
+Копирайт изображения
+ALAMY
+Image caption
+"З волі небес" (1926)
+Забути про власні турботи на деякий час дивним чином допомагають фільми про людей, в яких взагалі немає проблем. Наприклад, про мільйонера Гарольда Меннерса із комедійної мелодрами "З волі небес" (1926), який буквально випромінює життєрадісність і позитив.
+Ще один приклад - ексцентричний спадкоємець пивоварні Чарльз Пайк із комедії 1941 року "Леді Єва" з Барбарой Стенвік та Генрі Фонда у головних ролях.
+Найкращі фільми 2020: ви не захочете їх проґавити
+Українські фільми 2020: що дивитися?
+Найкращі фільми 2019 - за версією BBC Culture
+Утім, перше місце серед майстрів безтурботності безперечно належить акторам Фреду Астеру та Джинджер Роджерс. За часів Великої депресії вони розважали глядачів блиском світського життя у музичних комедіях "Циліндр" (1935) і "Безтурботний" (1938).
+Підспівувати
+Копирайт изображения
+ALAMY
+Image caption
+"Співаючи під дощем" (1952)
+Наукою це не доведено, але пісні Fit as a Fiddle, Make 'em Laugh, Moses Supposes або Good Morning із мюзикла "Співаючи під дощем" (1952) підіймають настрій вже не одному поколінню глядачів.
+Протягом кількох наступних тижнів найвідоміший з усіх голлівудських мюзиклів з Джин Келлі, Деббі Рейнольдс та Дональдом О'Коннором рекомендовано дивитися всім принаймні раз на день, можливо, також підспівувати і пританцьовувати.
+Втім, будь-який гарний мюзикл здатен збадьорити та налаштувати на позитив. "Пасхальний парад" (1948), "Театральний фургон" (1953), "Брати Блюз" (1980) та "Крамничка жахів" (1986) чудово підійдуть.
+Закохатися
+Копирайт изображения
+ALAMY
+Image caption
+"Інтимна розмова" (1959)
+У чому ж шарм романтичних комедій? Можливо, у тому, що фантастично привабливі головні герої обов'язково закохаються, навіть якщо спочатку ледве витримують одне одного, як у фільмі "Інтимна розмова" (1959).
+Або тому, що ми можемо трохи пожити їхнім життям - вдягтися в їхній одяг, приємно посумувати в розкішній квартирі на Мангеттені, пофліртувати з незнайомцем у барі або клубі.
+Фільми 2010-тих: Десятиріччя, яке змінило кіно
+Чому ми знову і знов переглядаємо старі фільми
+100 американських фільмів усіх часів
+Та хто б не мріяв на годинку перевтілитися у Г'ю Гранта та Енді Макдауелл у "Чотирьох весіллях і похороні" (1994) або Біллі Кристала та і Мег Райан у "Коли Гаррі зустрів Саллі" (1989).
+Відчути турботу
+Копирайт изображения
+ALAMY
+Іноді наша внутрішня дитина відчайдушно потребує підтримки розсудливого і надійного дорослого. Хто краще впорається з цією роллю, як не Балу та Багіра із "Книги Джунглів" (1967)?
+Життєствердні пісні та яскрава анімація повертають оптимістичний настрій та віру в краще.
+Втім, якщо дорослий поруч обов'язково має бути людиною, до ваших послуг - ідеальна няня "Мері Поппінс" (1964), брутальний Джейсон Стейтгем у ролі дитячого охоронця "Захисник" (2012) або містер Лопес, мудрого і терплячий сільський вчитель із французької документальної стрічки "Бути і мати" (2002).
+Побачити, як хтось рятує світ
+Копирайт изображения
+GETTY IMAGES
+Image caption
+"Шпигун, який мене кохав" (1977)
+А чи є щось більш заспокійливе, ніж образ супергероя, який перемагає вселенське зло, сиплячи у процесі дотепними жартами.
+"Шпигун, який мене кохав" (1977) - один з небагатьох фільм про Бонда з ідеальним співвідношенням правдоподібної загрози та пародії на самого себе.
+Не фанати бондіани? Тоді обирайте з улюблених героїв бойовиків, чи то Джон Макклейн з "Міцного горішка"(1988), Індіана Джонс з "У пошуках втраченого ковчега" (1981) або Супермен із "Супермена" (1978).
+Від душі посміятися
+Копирайт изображения
+GETTY IMAGES
+Image caption
+"Це - Spinal Tap" (1984)
+Комедії критикують соціальну несправедливість та недосконалу людську природу. Але забудьмо на час про їхню виховну функцію і скористаймося ними лише з терапевтичною метою - щоби добре посміятися.
+Один з найкращих - мок'юментарі "Це - Spinal Tap" (1984), дотепна пародія на британські хеві-метал гурти.
+І ще кілька варіантів, щоби увімкнути гумор на повну: "Качиний Суп" (1933), "Повернення Рожевої Пантери" (1975), "Бовдур" (1979), "Аероплан!" (1980), "Борат" (2006), "Що ми робимо у тінях" (2014) та "Пінгвіни Мадагаскару" (2014).
+Ще сиру, Громіте?
+Копирайт изображения
+ALAMY
+Image caption
+"Воллес і Громіт та прокляття кролика-перевертня" (2005)
+Є щось невимовно затишне у пластиліновому світі, створеному британською анімаційною студією Aardman.
+Ностальгія за старою дивакуватою Англією, одержимою сиром? Безсоромна дурість і нестримні каламбури? Величезні зубасті посмішки? Або усвідомлення того, що навіть якщо герої потрапляють у тотальну халепу, їм нічого не загрожує, адже вони - з пластиліну?
+"Воллес і Громіт та прокляття кролика-перевертня" (2005) містить всі ці інгредієнти, доповнені чудовим голосом Пітера Салліса та хитромудрими приладами - суцільне задоволення від першої до останньої хвилини.
+Шанувальники японської студії анімації Ghibli стверджують, що їхні мультфільми не менш дотепні та життєрадісні. Але якщо ви не маєте наміру зраджувати Aardman, подивіться "Втеча з курника" (2000), " Пірати! Банда невдах!" (2012), "Дикі предки" (2018) та "Баранчик Шон: Фермагеддон" (2019).
+Відчути братство
+Копирайт изображения
+ALAMY
+Image caption
+"Святковий обід у середині літа" (2008)
+"Святковий обід у середині літа" (2008) - це чарівна комедія про вік та їжу. Фільм став режисерським дебютом італійського актора і сценариста Джанні Ді Грегоріо, відомого за драмою "Гоморра".
+Головний герой 60-річний чоловік доглядає за своєю літньою матір'ю та водночас іще за трьома немолодими жінками. Цей надзвичайно легкий фільм оповідає про прості буденні радості та задоволення, яке ми здатні отримати, турбуючись про інших, готуючи смачну їжу та відвідуючи старого друга.
+А щоб нагадати собі, як важливо відчути себе частиною спільноти, можна подивитися "Це дивовижне життя" (1946), "Амелі" (2001), "Чоловічий стриптиз" (1997) Пітера Каттанео та будь-яку екранізацію романів Джейн Остін на вибір.
+А також комедію "Пригоди Паддінгтона 2" (2017), в якій сусіди рятують довірливого ведмедика від підступного Містера Каррі.
+Якщо ви все ще сумніваєтесь у лікувальній силі кіно
+Копирайт изображения
+ALAMY
+Image caption
+"Перемотка" (2008)
+Комедія "Перемотка" (2008) Мішеля Гондрі про двох друзів (Джек Блек і Мос Деф), які випадково стирають усі записи на відеокасетах зі студії прокату. Щоб приховати свій промах, друзі знімають власні аматорські версії "Мисливців за привидами", "Коли ми були королями", "Космічної одіссеї 2001 року" та інших відомих фільмів.
+Комедія "Перемотка" між іншим - ще й ностальгічна згадка про часи, коли подивитися фільм збиралися усім районом - задоволення, в якому багатьом на разі відмовлено.
+Схожі за настроєм "Мандри Саллівана" (1941) Престона Стерджеса та "Новий кінотеатр "Парадізо" Джузеппе Торнаторе 1988 року.
+Побачити світло в кінці тунелю
+Копирайт изображения
+ALAMY
+Image caption
+"Волл-і" (2008)
+І насамкінець - науково-фантастичний мультфільм "Волл-і" (2008). Класика студїі Pixar оповідає про самотнього іржавого робота, що мешкає на спустошеній, забрудненій сміттям Землі.
+Втім, зрештою, на своїх зоряних крейсерах на Землю повертаються люди, вони засіюють поля, які поступово починають колоситися.
+Вселяє надію.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Culture.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головні статті в месенджер? Підписуйтесь на наш Telegram.
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Девід Сілверберг</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Наука</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Риба з пробірки: чи замінить вона на наших столах справжню</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+STERLING CAVIAR
+Надмірний вилов знизив кількість дикої риби, значну частину попиту наразі задовольняють рибні господарства. Та чи можемо ми одного дня їсти "рибу", вирощену з клітин у лабораторії, як планує ряд стартапів?
+"Ікра - це вже не предмет розкоші", - каже Девід Шенсон, який має чотири рибних господарства у Сакраменто, штат Каліфорнія, де вирощує осетрових заради ікри.
+Бізнес процвітає, каже пан Шенсон, й це не просто самореклама. Світовий ринок ікри у 2018 році сягнув 670 млн фунтів (854 млн доларів) і, як очікують, до 2025 року зросте майже на 10% - такі дані наводить дослідницька фірма Androit Market.
+Чи споживали б ви м’ясо, отримане без убивства?
+Веганський бургер "із кров'ю", вирощений у пробірці
+Але ринку ікри, скоріш за все, доведеться все більше покладатися на штучно вирощену рибу, адже кількість диких осетрових риб в основних річкових басейнах за останнє століття зменшилася на 70%, згідно з даними Світового фонду дикої природи.
+За даними ООН, надмірний вилов риби та глобальне потепління вже давно загрожують запасам риби у світі, а третину запасів морської риби досі виловлюють у надмірних масштабах.
+Копирайт изображения
+STERLING CAVIAR
+"Простіше кажучи, у нас закінчується риба, - каже Даніель Полі, професор рибного господарства Інституту океанів і рибного господарства університету Британської Колумбії. - І ситуація щороку погіршується".
+"Можливо, кілька століть тому ми могли б жити за рахунок полювання, але ми зараз не можемо цього робити, а рибальство - це полювання. Сама думка про полювання у 21 столітті з метою прогодувати 10 мільярдів людей є абсурдною".
+Однак кілька компаній вважають, що можуть вирішити цю проблему. Вони експериментують із вирощуванням "м'яса" риби у лабораторії.
+Як в Африці збирають та готують смачну закуску з сарани
+Більшість із них базуються у Кремнієвій долині, ще кілька - у Європі та Азії. Вони розробили методику екстрагування стовбурових клітин риби та вирощування з них їстівного м'яса у промислових масштабах.
+Стовбурові клітини - це тип клітини, які є в ембріонах або дорослих організмах, - з яких можуть утворюватися різні спеціалізовані клітини. Так само з них можна виростити м'язові клітини, з яких переважно складається рибне філе.
+Копирайт изображения
+FINLESS FOODS
+Image caption
+З лабораторної риби можна робити котлети і рибні палички
+"Уявіть собі це як 3D-друк, тільки ми так "друкуємо" рибу", - пояснює Майкл Селден, виконавчий директор і співзасновник стартапу Finless Foods, що займається лабораторним вирощуванням риби.
+Його компанія планує виготовляти рибний фарш, а не цілі тушки, бо виготовити з нуля шкіру, кістки та кров поки що неможливо.
+Finless Foods та подібні стартапи наразі не продають свою продукцію, адже для цього потрібно отримати дозвіл регуляторів, тому їхня риба не з'явиться на прилавках ще протягом двох-трьох років.
+Базована у Сан-Франциско компанія Wild Type має схожі амбіції, але зосереджується на тихоокеанському лососі. Здається, що робити рибу в лабораторії - дорого і для виробника, і для споживача, але керівник компанії Джастін Колбек сподівається, що одного дня таку рибу вдасться зробити доступною.
+Копирайт изображения
+WILD TYPE
+Image caption
+Лабораторний лосось компанії Wild Type досить схожий на справжній
+"Наша мета полягає у тому, щоб врешті-решт знизити ціну на наш лосось, щоб він коштував менше, ніж звичайний", - каже він.
+Сінгапурська компанія Shiok Meats почала лабораторне вирощування з ракоподібних, а саме креветок.
+Вони беруть трохи стовбурових клітин у справжньої креветки і вирощують їх у великих кількостях у біореакторі, на кшталт цистерн, у яких пивовари роблять пиво.
+У резервуарах підтримують постійний тиск і температуру, а клітини знаходяться у рідині, багатій на поживні речовини. За кілька тижнів м'ясо буде готове.
+"Це таке ж м'ясо, яке отримуємо із убитої тварини, але в цьому випадку обходиться без убивства", - каже Сандхья Шрірам, виконавчий директор та співзасновник компанії Shiok Meats.
+Компанія планує випустити фарш із креветок у 2021 році, продаючи його спочатку в Сінгапурі, а потім по всій Східній Азії.
+Він із задоволенням називає продукт своєї фірми "чистим м'ясом" через відсутність антибіотиків і низький рівень викидів парникових газів у порівнянні з традиційним тваринництвом.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У світі виловлюють занадто багато риби
+Однак про відсутність шкідливого впливу такого виробництва на довкілля говорити зарано.
+Хоча лабораторне виробництво має менший вуглецевий слід, ніж традиційне тваринництво, для нього потрібна велика кількість електроенергії, говорить Саймон Сомоджі, професор університету Гвельфа в Онтаріо, Канада.
+Веганське чи тваринне: яке молоко менше шкодить природі
+"Звідки береться ця енергія? Вони використовують карбонізовану чи відновлювану енергію?" - питає він.
+Водночас пан Сомоджі вважає, що лабораторне вирощування риби, можливо, є навіть більш перспективним, ніж лабораторне виготовлення яловичини.
+"Риба - це краща бізнес-модель, ніж червоне м'ясо, оскільки значна частина плавникової риби йде на рибний фарш, з якого роблять рибні палички та котлети. Лабораторна риба ідеально для цього підходить".
+Пан Колбек з вірить у майбутнє, де любителі риби матимуть такі ж варіанти, як і ті, хто любить м'ясо - чи його альтернативи.
+"Від справжнього м'яса до рослинних замінників та м'яса, вирощеного з клітин ... переможе не якась одна компанія, а споживач - завдяки більшому вибору та прозорості продовольчих систем".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Адріенне Мюррей</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Технології</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Коронавірус: як роботи допомагають боротися з пандемією</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ADRIENNE MURRAY
+Image caption
+Цьому роботу потрібно 20 хвилин для обробки приміщення
+"Будь ласка, вийдіть із кімнати, зачиніть двері і почніть дезінфекцію", - говорить голос робота.
+"Зараз він таке і китайською сказати може", - додає Саймон Еллісон, віцепрезидент компанії UVD Robots.
+Крізь скло ми спостерігаємо, як машина-автопілот рухається по змодельованій палаті лікарні, де знищує мікроби спалахами ультрафіолетового світла.
+"Ми і так були бізнесом, що швидко розвивався, але зі спалахом коронавірусу попит стрімко злетів", - розповідає президент фірми Пер Юль Нільсен.
+Коронавірус: що він робить з організмом
+Коронавірус в Україні. Інтерактивна мапа
+За його словами, роботів "вантажівками" везуть до Китаю, а саме до Уханя. Продажі у решті Азії та в Європі також зростають.
+"Стійкий попит в Італії, - додає пан Нільсен. - Вони насправді опинилися у безвиході. Звісно, ми плануємо їм допомагати".
+Виробництво прискорили, і зараз виготовлення одного робота забирає менш як день на заводі в данському Оденсе - третьому найбільшому місті країні і хабі з роботики, що швидко розвивається.
+Вони світяться, немов мечі джедаїв, вісім лампочок випускають концентрований промінь ультрафіолетового світла. Воно знищує бактерії, віруси та інші шкідливі мікроби, щоб вони не розмножувалися.
+Копирайт изображения
+ADRIENNE MURRAY
+Image caption
+Потужне ультрафіолетове світло - це вже перевірений засіб для вбивства мікробів
+Таке світло шкідливе також і для людей, тому треба чекати за дверима. 10-20 хвилин і робота виконана.
+"Проблематичних живих організмів, які сприяють поширенню інфекцій, не так вже й багато", - пояснює професор Ганс Йорн Колмус, клінічний мікробіолог Університету Південної Данії, де допомогли розробити робота.
+"Якщо ви використаєте потрібну дозу ультрафіолету протягом потрібного часу, то можете бути певні, що позбавитеся шкідливого організму".
+І додає: "Такий тип дезінфекції можна використовувати у ситуаціях епідемії, яку ми переживаємо зараз, зі спалахом коронавірусу".
+Копирайт изображения
+ADRIENNE MURRAY
+Робота запустили у виробництво на початку 2019-го, після шести років співпраці головної фірми-розробника, Blue Ocean Robotics і університетської лікарні Оденсе.
+Кожен робот коштує $67 000 і має на меті знизити ризики зараження інфекціями у госпіталях. Адже їх потім досить дорого лікувати і це може коштувати життів.
+Поки що ефективність робота щодо коронавірусу не тестували, але пан Нільсен певен, що машина з цим впорається.
+"Коронавірус дуже схожий на інші віруси на кшталт Mers або Sars. Але ми знаємо, що їх можна вбити УФ-випромінюванням", - каже він.
+Доктор Лена Сіріч, доцент Університетського коледжу Лондона і експерт з молекулярної біології, погоджується, що роботи-дезінфектори можуть допомогти побороти коронавірус.
+Копирайт изображения
+XENEX
+Image caption
+Xenex також має пристрій, який використовує ультрафіолетове світло
+Такі роботи, звісно, не "паличка-виручалочка", констатує доктор Сіріч. Але додає: "Ці (машини) забезпечать додатковий захисний бар'єр".
+"Ми на порозі того, що пацієнтів із коронавірусом буде дуже багато і в багатьох лікарнях. Гадаю, буде розумно запроваджувати додаткові режими чистоти... з точки зору контролю за інфекцією".
+Задля повноцінного ефекту, ультрафіолет має бути прямо націленим на поверхню. Якщо промені світла блокує бруд чи інші перепони, то затінені поверхні не продизінфікуються. Тому потрібно прибрати вручну.
+Ультрафіолетове випромінювання десятками років використовували для очищення води і повітря, а також у лабораторіях.
+Але комбінація із автономними роботами - це новітня розробка.
+Американська фірма Xenex розробила технологію LightStrike. Це пристрій із лампою, схожою за формою на підкову. Його потрібно встановити вручну, і він буде розповсюджувати ультрафіолетове світло.
+Компанію фактично захлинула хвиля замовлень з Італії, Японії, Таїланду та Південної Кореї.
+Xenex говорить, що чимало досліджень довели - технологія ефективна у боротьбі з лікарняними інфекціями та може боротися із так званими супербактеріями. У 2014-му один із госпіталів у Техасі використовував її для очищення після випадку Еболи.
+Більше 500 медичних установ, переважно у США, мають цю машину. В Каліфорнії і Небрасці її вже використовують для знезараження лікарняних палат, де лікували пацієнтів із коронавірусом, розповідає компанія-виробник.
+В Китаї, звідки почався спалах, також взяли на озброєння нові технології, щоб допомогти побороти хворобу.
+Нація стала найбільшим закупником дронів та робототехнологій, йдеться у доповіді глобальної дослідницької компанії IDC.
+Леон Сяо, старший менеджер із досліджень IDC China говорить, що роботів використовують для різноманітних завдань. Переважно для дезінфекцій, доставки ліків, медичного обладнання, прибирання відходів і вимірювання температури.
+'Я гадаю, це прорив для подальшого масштабного використання роботики як у лікарнях, так і в інших громадських місцях", - говорить пан Сяо. Щоправда, звільнити місце в лікарнях для роботів і змусити персонал прийняти такі зміни - це виклик, говорить він.
+Коронавірус підштовхнув і самі китайські компанії з виробництва роботехніки до інновацій.
+YouiBot із Шеньчженя вже робив автономних роботів і швидко адаптував технологію для розробки пристрою для дезінфекцій.
+Копирайт изображения
+YOUIBOT
+Image caption
+Компанія YouiBot швидко розробила власного робота-дезінфектора
+"Ми намагаємося зробити щось (щоб допомогти), як і будь-хто тут у Китаї", - говорить представник YouiBot Кейман Гуань.
+Стартап адаптував вже розроблену базу для робота і програмного забезпечення із термальними камерами і лампами ультрафіолетового випромінювання.
+"Технічно для нас - це не так складно, як здається… чесно, це щось на кшталт конструктора Лего", - зізнається пан Гуань.
+Поставки зробили на фабрики, офіси, в аеропорт та лікарні Уханю. "Просто зараз робот працює у багажному відділенні. Вдень вимірює температуру тіла, а вночі вбиває вірус", - говорить він. Щоправда, ефективність машини ще не перевіряли.
+Тим часом закриття заводів та інші обмеження для боротьби із коронавірусом, ускладнили поставки деталей. "Якщо немає якогось одного компоненту, ми не можемо зібрати всю машину", - додає пан Гуань. При цьому погоджується, що останніми тижнями ситуація покращилася.
+"Небагато хорошого скажеш про епідемію," - констатує професор Колмус, але принаймні вона змусила індустрію "шукати нових рішень".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Технології</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Уряд Британії замовив апарати штучної вентиляції легень у виробника пилососів</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Британський уряд замовив у компанії Dyson, відомого виробника пилососів, 10 тисяч апаратів штучної вентиляції легень (ШВЛ).
+Таке обладнання є критично важливим в окремих випадках захворювання Covid-19, коли в пацієнтів виникає гостра дихальна недостатність - ШВЛ дозволяє підтримувати їхнє дихання.
+Фірма, яку очолює інженер сер Джеймс Дайсон, розробила новий тип апаратів ШВЛ з нуля, відгукнувшись на заклик Національної служби охорони здоров'я Великої Британії (NHS).
+Держзамовлення буде виконано, коли апарати Dyson пройдуть випробування і будуть сертифіковані - влада країни вже прискорила цей процес.
+У компанії кажуть, що її інженери працювали над створенням обладнання штучної вентиляції легень цілодобово.
+Системи штучної вентиляції легень. Що це і чи справді їх бракує
+VIP-палати у лікарнях: Зеленський попросив їх скасувати
+Копирайт изображения
+DYSON/PA MEDIA
+Image caption
+Dyson розробидла власну модель апарату ШВЛ
+Втім, миттєвого переходу на такі апарати все одно не буде: навіть якщо нове обладнання отримає сертифікат найближчими днями, шлях від прототипу до масового випуску все одно триватиме не менш як два тижні.
+Як розповіли BBC в британському уряді, влада наразі скуповує апарати ШВЛ де тільки можливо.
+У NHS зараз є трохи більше 8 тисяч апаратів, ще стільки ж уряд Бориса Джонсона сподівається закупити в британських та іноземних виробників.
+Проте, згідно з прогнозами того, як протікатиме пандемія, владі знадобиться принаймні 30 тисяч апаратів ШВЛ.
+З досвіду Китаю та Італії підраховано, що штучної вентиляції легень потребували від 2% до 4% інфікованих пацієнтів.
+Як працює апарат ШВЛ
+ШВЛ забезпечує збагачення легень киснем і видалення з них вуглекислого газу
+Апарат використовується в пацієнтів з хворобами легень, які не можуть дихати самостійно, а також під час хірургічних операцій і в постопераційний період
+Трубка, що підключається до апарата ШВЛ, вводиться пацієнту в рот, ніс або через невеликий розріз в горлі
+Використання апарату ШВЛ потребує фахівців, які пройшли відповідне навчання, застосовувати його в домашніх умовах неможливо, кажуть експерти
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>Здоров'я</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>VIP-палати у лікарнях: Зеленський попросив Кличка їх скасувати</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-GETTY IMAGES
-Володимир Зеленський у розмові з мером Києва Віталієм Кличком попросив скасувати будь-які "VIP-палати" для перших осіб держави у київських лікарнях. Про це BBC News Україна повідомила речниця президента України Юлія Мендель.
-"Володимир Зеленський дійсно мав розмову з Віталієм Кличком і попросив його скасувати будь-які VIP-палати, які мають особливі умови для перших осіб", - зазначила вона.
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Коронавірус: 9 питань, на які ми досі не маємо відповіді</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Здається, що минула вже ціла вічність, але світ дізнався про коронавірус не так вже й давно.
+І попри неймовірні зусилля вчених з усього світу, відповіді на деякі запитання для нас досі лишаються невідомими. Ось кілька з них.
+1). Скільки людей насправді інфіковані
+Це одне з найочевидніших і найважливіших запитань.
+У світі виявлено вже сотні тисяч хворих, але йдеться лише про офіційно підтверджені випадки, і насправді ця цифра є більшою.
+Але зрозуміти, якою саме є реальна кількість інфікованих, дуже непросто - хоча б тому, що чимало людей хоч і є носіями інфекції, але навіть про це не здогадуються, бо не мають жодних симптомів хвороби.
+Коронавірус: що він робить з організмом
+Коронавірус в Україні: підтвердили 418 випадків
+2). Яким є реальний рівень смертності
+Це запитання є логічним продовженням попереднього. Оскільки ми не розуміємо, як сильно поширився коронавірус, то не можемо підрахувати й реальний рівень смертності.
+3). Повний спектр симптомів
+Ключові симптоми коронавірусу - підвищена температура й сухий кашель.
+Водночас була інформація, що в деяких пацієнтів він також може проявлятися у вигляді болю в горлі, головному болі та діареї.
+Відкритим питанням лишається, чи можуть нежить або чхання бути симптомами коронавірусної інфекції.
+4). Роль дітей у поширенні інфекції
+Копирайт изображения
+GETTY IMAGES
+Без сумніву, діти також можуть підхопити коронавірус, проте в більшості проявляються лише легкі симптоми хвороби.
+Окрім того серед дітей, в яких виявили коронавірус, набагато нижчий рівень смертності, ніж серед представників інших вікових груп.
+У випадку з іншими хворобами діти, як правило, є суперпоширювачами - зокрема, тому що контактують з великою кількістю людей (приміром, на дитячому майданчику). Але у випадку з коронавірусом досі не зрозуміло, яку роль діти відіграють в поширенні хвороби.
+5). Від кого люди підхопили коронавірус
+Ми знаємо, що спалах грипу стався в китайському Ухані наприкінці 2019 року. Вважається, що вірус передався від кажанів до невідомої тварини, від якої, зрештою й заразилася людина.
+Але досі не зрозуміло, про яку саме тварину йдеться. Це означає, що представники цього виду досі можуть становити небезпеку.
+6). Чи буде менше захворювань влітку
+Застуда і грип частіше зустрічаються в холодні пори року, але у випадку з коронавірусом все ще не зрозуміло, як ситуація зміниться з приходом літа.
+Наукові радники британського уряду вже заявили, що поширення коронавірусу може не мати сезонного ефекту. А якщо він і є, то менший, ніж у випадку з грипом і застудою.
+Копирайт изображения
+GETTY IMAGES
+7). Чому в деяких людей набагато серйозніші симптоми
+Для переважної більшості Covid-19 - це легка інфекція. Але у 20% пацієнтів виникають серйозні ускладнення. Але чому? Ми не знаємо.
+Виглядає так, що частково це пов'язано зі станом імунної системи, частково - з генетичним фактором. Але точну відповідь на це запитання вченим лише доведеться віднайти.
+8). Чи можна захворіти двічі
+На цю тему є багато спекуляцій. Досвід спостережень за іншими вірусами говорить нам, що в організмі людини, яка перехворіла, мають виробитися антитіла, які захищатимуть її від повторного зараження.
+Чи працює це у випадку з коронавірусом - ми не знаємо, адже вірус почав поширюватися лише в грудні - пройшло замало часу, щоб робити якісь впевнені висновки.
+Попри повідомлення про кілька випадків повторного зараження - є багато питань до достовірності цих даних.
+9). Чи мутуватиме вірус
+Віруси постійно мутують, але в більшості випадків їхній генетичний код змінюється несуттєво.
+Побоювання полягає в тому, що якщо вірус сильно мутує, то імунна система більше не розпізнає його, а вакцина не працюватиме.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Медді Севедж</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Карантин? Який карантин? Шведський підхід до боротьби з коронавірусом</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">У той час як більша частина Європи живе в умовах жорсткого карантину через спалах коронавірусу, в одній країні життя йде майже своїм звичаєм.
+Після довгої зими нарешті потеплішало, і мешканці шведської столиці насолоджуються цим по максимуму.
 Коронавірус в Україні. Інтерактивна мапа
+"Ховати знайомих гірше". Як живе Європа на карантині
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+Люди цілими сім'ями ласують морозивом під гігантською статуєю Тора на площі Маріаторгет. Молодь п'є коктейлі на літніх терасах кафе.
+Цього тижня у місті працювали нічні клуби, але від неділі зібрання понад 50 людей все ж заборонять.
+Порівняйте це із сусідньою Данією, яка обмежила зустрічі понад 10 людей, або з Британією, де взагалі не можна зустрічатися ні з ким, окрім тих, з ким ви разом мешкаєте.
+"Кожна людина несе велику відповідальність"
+На шведських дорогах стало помітно тихіше. Стокгольмська компанія громадського транспорту SL каже, що минулого тижня кількість пасажирів в поїздах метро і приміських потягах знизилася на 50%.
+Опитування також говорять про те, що майже половина стокгольмців працюють віддалено.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+З оцінками державної компанії Stockholm Business Region, яка підтримує бізнес-спільноту міста, ця цифра зросте щонайменше до 90% у найбільших столичних фірмах, завдяки високому рівню технічної грамотності працівників та бізнес-культурі, яка давно сприяє гнучкому та віддаленому робочому графіку.
+"Кожна компанія, яка має таку можливість, це робить, і це працює", - каже генеральний директор компанії Стаффан Інгварссон.
+Його слова влучно підкреслюють суть урядової стратегії: відповідальність за власні дії. Органи охорони здоров'я та політики досі сподіваються уповільнити поширення вірусу без впровадження драконівських законів.
+У країні замість суворих правил дають рекомендації - залишатися вдома, якщо ви хворі чи літні, мити руки, уникати подорожей без крайньої потреби, а також працювати з дому.
+На сьогодні у Швеції зафіксували майже 3500 випадків вірусу та 105 смертей.
+Image caption
+Мешканці Стокгольма можуть насолоджуватися весною у парках без жодних обмежень
+"Ми - дорослі люди, і маємо поводитись, як дорослі. Не поширювати паніку чи чутки", - заявив прем'єр-міністр Стефан Льовен у телевізійному зверненні до нації минулими вихідними.
+"У цій кризі ніхто не самотній, але кожна людина несе велику відповідальність", - додав він.
+Високий рівень довіри
+За даними загальнонаціонального опитування найбільшої місцевої аналітичної компанії Novus, більшість шведів подивилися це звернення і підтримали його.
+У Швеції - високий рівень довіри до державних органів влади, і саме це, на думку багатьох, змушує місцевих жителів дотримуватися урядових рекомендацій.
+Важливим чинником у стратегії країни є також демографія. На відміну від середземноморських країн, де під одним дахом мешкають кілька поколінь, більше половини шведських домогосподарств складаються з однієї людини, що знижує ризик поширення вірусу вдома.
+Водночас шведи полюбляють бути на свіжому повітрі, і чиновники заявили, що збереження фізичного та психічного здоров'я людей - ще одна причина, чому вони прагнуть уникати обмежень, які змусили б людей сидіти вдома.
+Image caption
+У Швеції відкриті кафе та ресторани
+"Ми маємо поєднувати мінімізацію наслідків спалаху вірусу для здоров'я та економічний вплив цієї кризи", - говорить Андреас Гатцігеоргіу, генеральний директор Торгової палати Стокгольма.
+"Місцева бізнес-спільнота дійсно вважає, що уряд Швеції та шведський підхід є більш розумними, ніж у багатьох інших країнах".
+"Розсудить історія"
+Водночас деякі шведи починають ставити під сумнів унікальний підхід своєї країни.
+"Я думаю, що люди схильні слухати рекомендації, але у такій критичній ситуації не впевнена, що цього достатньо", - каже доктор Емма Франс, епідеміолог зі шведського медичного університету Інститут Каролінської.
+Вона закликає до чіткіших інструкцій щодо того, як люди мають поводитись у громадських місцях, зокрема магазинах та тренажерних залах.
+Image caption
+Клієнтів у перукарнях поменшало
+І хоча у деяких компаній справи йдуть добре, для інших ситуація невтішна. На відміну від повних барів на площі Маріаторгет, у сусідньому барбершопі Honest Al's клієнтів значно поменшало, попри всі зусилля з підвищення безпеки.
+"У моєї дружини також своя компанія, тому ми можемо покладатись лише на себе. Бізнес йде погано. Мені треба оплачувати рахунки. Нам доведеться дзвонити до банку", - каже власник Аль Мосіка.
+Він вважає, що Швеція змінить тактику й запровадить карантин - можливість, яку чиновники не виключають у майбутньому.
+Д-р Емма Франс каже, що хто з політиків і науковців виявиться правим - розсудить історія.
+"Ніхто насправді не знає, які заходи будуть найефективнішими, - каже вона. - Я дуже рада, що ці рішення доводиться ухвалювати не мені".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: підтвердили 418 випадків</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+VLADIMIR GERDO
+В Україні лабораторно підтвердили 418 випадків коронавірусної інфекції - такі дані станом на 10:00 29 березня повідомив Центр громадського здоров'я.
+Протягом доби отримали 109 нових позитивних результатів ПЛР-дослідження на новий коронавірус.
+Коронавірус в Україні. Інтерактивна мапа
+В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
 Коронавірус в Україні: кількість хворих подвоїлася за кілька днів
-"Антиколомойський закон": до чого тут дефолт, карантин і сам Коломойський?
-Раніше Віталій Кличко заявив, що в київських лікарнях дійсно передбачені окремі палати для людей з державною охороною.
-Так він відреагував на публікацію виданням Bihus.info наказу КМДА про облаштування таких палат в київських лікарнях.
-"Мова про те, що на випадок захворювання перші особи держави повинні мати певні умови, окремі палати, щоб поряд знаходилася державна охорона. Така практика була завжди і не тільки в Україні", - пояснив мер Києва.
-Він повідомив, що наказ поширили на "виконання наказів Державної служби охорони, МОЗ і звернення на їх підставі Державного управління справами при президенті".
-Копирайт изображения
-GETTY IMAGES
-Image caption
-"На випадок захворювання перші особи держави повинні мати певні умови, окремі палати, щоб поряд знаходилася державна охорона. Така практика була зажди і не тільки в Україні", - каже Кличко
-"Але я розмовляв вчора з Володимиром Зеленським, і він готовий і налаштований скасувати накази про які йдеться, і які ми маємо виконувати", - додав Віталій Кличко.
-Віталій Кличко: "Я не заздрю Зеленському"
-Хроніки коронавірусу: у США - більше тисячі смертей, на боротьбу виділили $2 трлн
-"Боюся, що голод вб'є нас швидше за коронавірус"
-25 березня видання Bihus.info опублікувало наказ Департаменту охорони здоров'я Київської міської держадміністрації про особливі умови лікування чиновників з державною охороною.
-У визначеному департаментом переліку згадувалися 17 медзакладів, серед яких Олександрівська лікарня, Дитяча клінічна лікарня №7 та Київський міський центр дитячої нейрохірургії.
-Готовність Києва до пандемії
-Віталій Кличко також озвучив інформацію про готовність київських лікарень до прийому хворих на коронавірус.
-"Місто підготувало сім лікарень для прийому хворих, персонал підготовлений. Розгорнуто зараз 400 ліжок, передбачено 78 боксів", - повідомив він.
-За його словами, в лікарнях зараз є 380 апаратів штучної вентиляції легень, 9 тисяч тестів на коронавірус і в разі необхідності місто готове розгорнути ще сім тисяч ліжок.
-Коронавірус в Україні: п'ята смерть, 156 людей захворіли
 "Ховати знайомих гірше". Як живе Європа на карантині
-Мер Києва також нагадав, що столиця передала лікарням 39 сучасних машин швидкої допомоги з апаратами штучної вентиляції легенів.
-За словами Віталія Кличка, в столиці розпочали повну дезінфекцію житлових будинків.
-"Обробляють ліфтові кабіни, ручки дверей, дитячі та спортивні майданчики", - повідомив він.
+Найбільше випадків зареєстрували у Києві - 82, далі йдуть Чернівецька (59) та Тернопільська (57) області.
+Загалом від коронавірусу в Україні загинули вже 9 людей.
+У МОЗ кажуть, що переважно це люди літнього віку або пацієнти, які тривалий час займалися самолікуванням і занадто пізно звернулися до лікарів.
+Водночас одужали від хвороби 5 людей - повторне лабораторне дослідження не виявило вірусу в їхньому організмі.
+Копирайт изображения
+ВВС
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Як коронавірус змінив секс-індустрію - огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У п'ятницю, 27 березня світові ЗМІ висвітлюють, як поширення коронавірусу та карантинні обмеження змінюють секс-індустрію, відносини між закоханими та інтернет. А італійські ЗМІ пишуть про "непотрібну допомогу", яку Італія отримала з Росії.
+Секс-індустрія на карантині
+Коронавірус змінив ситуацію для секс-індустрії в Німеччині, пише Los Angeles Times.
+Минулого тижня канцлерка Ангела Меркель оголосила про закриття всіх борделів, так само як і барів, клубів, театрів та музеїв в рамках боротьби зі спалахом коронавірусу.
+Секс-працівниці непокояться про майбутнє свого бізнесу на тлі можливої економічної кризи.
+"Те, що ми пропонуємо - це розкіш, а не щоденна потреба. Це може бути перша річ, на якій люди будуть економити", - каже Ундіна де Рів'єра, секс-працівниця з 25-річним досвідом.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Для кварталів червоних ліхтарів у Європі настали тяжкі часи
+Проституція у Німеччині легалізована, і це приваблює секс-працівниць з усього світу.
+"Вони приїздять з Румунії, Болгарії, України, Польщі, Таїланду та Південної Америки. Також є секс-працівниці та клієнти з Британії та США ", - розповідає Сюзанна Блайер Вільп з берлінської Асоціації надавачів еротичних та сексуальних послуг.
+Чи можна займатися сексом під час коронавірусу?
+Як багатії рятуються від коронавірусу. Огляд ЗМІ
+В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
+Вона каже, що близько 80% секс-працівниць у Німеччині - іноземні громадянки, тож навряд чи зможуть скористатися антикризовою допомогою від уряду.
+"Найбільше дістається найбіднішим. Їхній прибуток зник. У них немає постійної адреси та медичного страхування. Це серйозна ситуація", - каже пані Вільп.
+Деякі секс-працівниці знайшли вихід у "віддаленій роботі" - наприклад, продають онлайн контент для дорослих та експериментують з веб-камерами, пише видання.
+Кохання в часи коронавірусу
+Копирайт изображения
+GETTY IMAGES
+Під час карантину можна бачитися зі своїм хлопцем чи дівчиною, але є умови, пише Daily Telegraph.
+Парам слід визначитися - не зустрічатися фізично впродовж трьох тижнів або ж з'їхатися, щоб жити разом. Саме це днями порекомендувала заступниця головного лікаря Англії Дженні Гарріс.
+Це важливо для зменшення соціальних контактів, пояснила вона. Якщо ви живете разом, ви менше пересуваєтесь своїм містом або селом, відповідно до рекомендацій влади.
+Про побачення ж доведеться забути. За умовами карантину в Британії з дому можна виходити лише в разі потреби, наприклад, купити продукти, отримати медичну допомогу або раз на день прогулятися чи пробігтися.
+"Я лише бажав побачити її". Кохання під час коронавірусу
+Бебі-бум чи хвиля розлучень? Що буде після карантину
+"Ховати знайомих гірше". Як живе Європа на карантині
+Якщо ж ви не наважилися або не можете жити разом, зберегти стосунки можна за допомогою віртуальних побачень, пише видання.
+"Красиво вдягніться, неначе це справжня зустріч. Якщо ви ставитеся до ваших онлайн-побачень як до справжніх, ви докладаєте зусиль, щоб потішити свого партнера, а це підтримує іскру", - радить консультантка з питань стосунків Ейлін Ебботт.
+Ще один варіант - одночасно дивитися фільм, а потім його обговорювати. А якщо ж ви вирішили з'їхатися, важливо поважати особистий простір один одного, а в разі непорозумінь - обговорювати, як їх вирішити, радить експертка.
+Коронавірус сповільнює інтернет
+Під час пандемії люди стали більше проводити часу онлайн, що вплинуло на швидкість завантаження та якість відео, пише New York Times.
+Карантини, запроваджені у багатьох країнах світу, зробили людей більш залежними від інтернету для спілкування, роботи, навчання та розваг.
+Значне зростання у використанні YouTube, Netflix, відеоконференцій у Zoom, дзвінків по Facebook та відеоігор стало позначатися на інтернет-інфраструктурі, хоча трафік ще не досяг свого піку.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Доба коронавірусу може суттєво підвищити користування послугами відеоконференцій Zoom
+У Євросоюзі вирішили діяти на випередження. Стрімінговим компаніям, на кшталт Netflix та YouTube, наказали зменшити якість відеофайлів, щоб менше перевантажувати інтернет-трафік. У США безпровідним провайдерам дали доступ до більшого спектру, щоб підвищити потужність їхніх мереж.
+Інтернет-провайдери кажуть, що в березні лише за кілька днів досягли зросту, якого розраховували досягнути за весь 2020 рік.
+У Європі інтернет-трафік на домашніх фіксованих мережах зріс більш ніж на 30%. Користувачі стали вдвічі більше грати в онлайн-ігри та використовувати відеоконференції. Надсилання повідомлень по WhatsApp зросло в чотири рази.
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+Карантин: як пристосовується український бізнес
+Коронавірус в Україні: що буде з відпустками і зарплатами
+Збільшення трафіку та навантаження на інтернет-мережі уповільнило швидкість завантаження веб-сторінок та додатків, пише видання. Великий попит змусив провідних провайдерів зайнятися збільшенням потужностей.
+В Іспанії використання інтернету зменшується лише о 8 годині вечора, коли всі люди підходять до вікон аплодувати лікарям. "Раптом о 8 годині використання падає, а потім знову росте. Це прекрасно", - каже виданню представник іспанського провайдера Telefonica.
+"Непотрібна допомога"
+Копирайт изображения
+GETTY IMAGES
+Image caption
+80% допомоги, яку надіслала Росія Італії в дев'ятьох літаках для боротьби з коронавірусом, виявилися непотрібними або не мали особливої користі
+80% допомоги, яку надіслала Росія Італії в дев'ятьох літаках Іл для боротьби з коронавірусом, виявилися непотрібними або не мали особливої користі, пише італійська La Stampa з посиланням на джерела серед політиків.
+На відміну від допомоги з Китаю, що складалася здебільшого з респіраторів та хірургічних масок, росіяни привезли техніку для бактеріологічного знезараження територій, польову лабораторію для стерилізації та хімічно-бактеріологічної профілактики та інше подібне обладнання, пише видання.
+Путін вирішив, що коронавірус дає можливість фізичного проникнення на територію Італії, а італійський прем'єр-міністр Джузеппе Конте вхопився за можливість підтримки, погодившись прийняти це все, щоб зміцнити особисті стосунки з президентом Росії, зазначає газета.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі
+В Італії через коронавірус померли щонайменше 50 священників
+Близько сотні експертів, яких надіслала Москва, - це військові медики, а всю операцію проводить Міністерство оборони Росії, а не Міністерство охорони здоров'я. Вони мають звання генерала, полковника, майора та підполковника, а також досвід участі у військових операціях в африканських країнах, пише La Stampa.
+"Це справді виняткова ситуація", пише видання про подорож російських військових територією країни з Риму до Бергамо. Міністри закордонних справ двох країн питання допомоги не обговорювали, цьому передувала лише довга телефонна розмова між Путіним та Конте.
+Росія надіслала все безкоштовно, як "щедрий подарунок Італії від Путіна", зазначає газета. "Але щедрість має свою ціну: представники російського Міністерства оборони вільно пересуваються територією Італії за кілька кроків від баз НАТО", підсумовує видання.
+Огляд підготувала Ганна Чорноус
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: пів мільйона хворих у світі, українка з підозрою на хворобу втекла з лікарні</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Кількість випадків захворювання на коронавірус у світі перевищила 500 тисяч. Понад 23 тис. із них померли, 120 тис. - одужали.
+Найвищою смертність лишається в Італії - понад 8 тисяч смертей, Іспанії - 4 тисячі та Китаї - 3 тисячі.
+В Україні станом на 26 березня зафіксували 156 випадків зараження коронавірусом. П'ять людей померли, одна людина одужала.
+Українка з підозрою на коронавірус втекла з лікарні
+39-річна жителька Прикарпаття, яка нещодавно повернулася з Бельгії, з невідомих причин залишила лікувальний заклад у Києві, де їй встановили підозру на коронавірус.
+До України вона прилетіла 23 березня, в аеропорту "Бориспіль" в неї виявили підвищену температуру і провели експрес-тест на коронавірус - він дав позитивний результат.
+Після цього жінку шпиталізували в Олександрівську лікарню в Києві, де їй зробили повторний експрес-тест - цього разу результат був негативний.
+Згодом жінку перевели в столичну лікарню №4, де їй зробили ще два тести. Один із них виявився позитивним, другий - негативним.
+Коронавірус в Україні. Інтерактивна мапа
+"Ховати знайомих гірше". Як живе Європа на карантині
+Вже 24 березня пацієнтка з невідомих причин самовільно залишила лікарню - на контакт з лікарями вона не виходила, на дзвінки не відповідала.
+Наступного дня, після того, як до пошуків долучилися правоохоронці, жінку знайшли на Івано-Франківщині, де вона мешкає.
+Начальник ГУНП в Івано-Франківській області Володимир Голубош розповів, що поліція зупинила автівку, в якій жінка перебувала з чоловіком, дочкою та зятем.
+"Одразу було викликано карету швидкої допомоги, доправлено до обласної інфекційної лікарні, взято відповідні аналізи. Взято зобов'язання про дотримання самоізоляції. Також зібрані матеріали для притягнення жінки до адміністративної відповідальності. Ознак кримінального правопорушення не встановлено", - розповів пан Голубош.
+Голова Івано-Франківської ОДА Віталій Федорів розповів, що попри позитивний тест на коронавірус, жінка почувається добре і не має симптомів хвороби.
+На Буковині троє людей одужали, ще п'ятеро захворіли
+Упродовж 26 березня у Чернівецькій області одужали троє людей, яким раніше діагностували коронавірус, повідомляють в місцевій ОДА.
+Водночас в регіоні зафіксували і 5 нових випадків хвороби.
+Йдеться про трьох дорослих віком до 40 років та двох дітей - двох та 11-ти років.
+Четверо з п'яти нових інфікованих, кажуть в ОДА, повернулися з-за кордону, один контактував з хворими в Україні.
+Таким чином, загальна кількість хворих у Чернівецькій області станом на 26 березня складає 47 людей.
+США спрямує 2 трлн доларів на підтримку економіки через коронавірус
+Копирайт изображения
+GETTY IMAGES
+У США ухвалили законопроєкт про спрямування 2 трлн доларів на допомогу бізнесу, лікарням та громадянам.
+Ухвалений Сенатом США законопроєкт стане найбільшим планом економічного стимулювання в історії Америки, якщо його підпише президент Трамп.
+Ось, на що американські конгресмени вирішили виділити гроші:
+Дорослі американці із зарплатою до 75 000 доларів на рік отримають чеки на 1 200 доларів. Для тих, хто отримує понад 75 000 доларів, виплати будуть меншими
+Розпочнеться програма кредитування на 500 мільярдів доларів для підприємств, міст та штатів
+Приблизно 100 мільярдів доларів отримають лікарні
+367 мільярдів доларів спрямують на фонд утримання працівників малого бізнесу
+Ще 17 мільярдів доларів виділяють на допомогу компаніям, які вважаються ключовими для національної безпеки
+Авіакомпанії стануть найбільшими отримувачами допомоги. Пасажирські авіалінії мають право на 25 млрд доларів в кредитах та ще 25 млрд доларів в грантах.
+Авіакомпанії-вантажоперевізники отримають право на ще 8 млрд доларів у кредитах та грантаха
+Нью-Йорк вдається до більших обмежень
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У Нью-Йорку планують тимчасово заборонити баскетбол та інши спортивні ігри у парках
+Захворювання на коронавірус зафіксували в усіх 50 штатах США, найбільша кількість смертей спостерігається у шести з них:
+Нью-Йорк - 368
+Вашингтон - 133
+Каліфорнія - 67
+Луїзіана - 65
+Нью-Джерсі - 62
+Джорджія 47
+Попри уповільнення темпів шпиталізації, губернатор штату Нью-Йорк Ендрю Куомо попередив, що "багато треба зробити", й оголосив про нові кроки, спрямовані на стримування вірусу.
+Коронавірус: коли закінчиться епідемія
+Коронавірус в Україні: п'ята смерть, 145 людей захворіли
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+Нью-Йорк зробить деякі вулиці пішохідними, щоб забезпечити більше місця для дотримання соціальної дистанції між людьми.
+Місто також планує заборонити баскетбол та інші контактні види спорту в громадських парках.
+"Наша близькість робить нас вразливими", - попередив пан Куомо.
+Британія купує апарати штучного дихання
+Британський уряд замовив у компанії Dyson 10 000 апаратів штучного дихання, хоча вони прийдуть не одразу.
+Фірма заявляє, що сподівається виробляти апарати у Вілтширі, але для переходу від прототипу до фактичного виробництва може знадобитися кілька тижнів.
+Наразі у лікарнях Британії є понад 8 000 апаратів штучного дихання. Підраховано, що буде потрібно щонайменше 30 000, аби врятувати людей з тяжкими симптомами.
+Копирайт изображения
+FAMILY PHOTO
+Image caption
+21-річна Хлої Міддлтон стала однією з наймолодших жертв коронавірусу у Британії
+Наразі в Британії вже 9 500 людей захворіли на коронавірус, померли 463 людини.
+Серед померлих - 21-річна Хлої Міддлтон з Бекінгемшира в Англії.
+97-річна жінка перемогла коронавірус
+97-річна жінка стала найстаршою людиною в Південній Кореї, яка одужала від вірусу, повідомляє Yonhap News.
+Інших деталей про неї поки що немає. Але вона не єдина літня людина, яка перемогла вірус.
+Раніше китайські державні ЗМІ повідомили, що 100-річний чоловік у Китаї також видужав від вірусу.
+У випуску новин Сіньхуа згадувалося, що він є найстарішим пацієнтом, який одужав на сьогодні.
 Як коронавірус шириться планетою. Мапа
 Як подорожувати під час епідемії
 Як перевіритися на коронавірус?
@@ -13934,54 +14965,3429 @@
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
         <is>
           <t>26/03/2020</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
         <is>
           <t>Здоров'я</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Коронавірус в Україні: п'ята смерть, 156 людей захворіли</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Копирайт изображения
-GETTY IMAGES
-В Україні зафіксували п'яту смерть від коронавірусу. В Івано-Франківський області померла жінка, яка прибула до лікарні разом зі своїм чоловіком, повідомляє міністерство охорони здоров'я.
-"Жінка довго займалася самолікуванням і запізно звернулася до лікарів. Врятувати пацієнтку вже не вдалося, вона померла за добу", - йдеться у повідомленні.
-Чоловік померлої перебуває в лікарні у стані середнього ступеня тяжкості.
-VIP-палати у лікарнях: Зеленський попросив їх скасувати
-Мер Конотопа Артем Семеніхін та Сумська ОДА повідомили про смерть 76-річної жінки у Конотопській центральній лікарні, в якої був позитивний експрес-тест на коронавірус. Втім, чи пов'язана її смерть саме з коронавірусом COVID-19, ще мають показати додаткові аналізи.
-Якщо її діагноз підтвердиться, це буде вже шоста смерть в Україні від коронавірусу.
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Матч "Аталанта"- "Валенсія" 19 лютого відвідали 44 тисячі фанів
+Поширенню коронавірусу у Європі міг сприяти матч Ліги Чемпіонів між італійським клубом "Аталанта" з міста Бергамо та іспанським клубом "Валенсія". Такої думки дотримується мер італійського міста Бергамо та італійський професор-імунолог, повідомляє Sun.
+Матч проходив 19 лютого на стадіоні Сан Сіро (також відомому як стадіон Джузеппе Меацца) в Мілані, оскільки домашня арена господарів матчу в місті Бергамо була занадто малою, аби вмістити всіх охочих.
+Міланський стадіон відвідали 44 тисячі футбольних фанів з Італії та Іспанії.
+"Матч був біологічною бомбою. Ніхто не знав, що вірус вже циркулює серед нас. Багато хто спостерігав за грою в групах, і було багато контактів (між фанатами. -Ред.) тієї ночі", - наголосив мер Бергамо Джорджо Горі в коментарі виданню Marca.
+Італійський професор-імунолог з університету Сапіенца в Римі Франческо ле Фоке зазначив у коментарі Sun, що в поширення коронавірусу могли бути кілька каталізаторів, зокрема, футбольний матч.
+"Гра "Аталанта"-"Валенсія" цілком могла бути одним з них. Це була вершина колективної ейфорії в унікальному футбольному сезоні для цього клубу (Аталанта виграла з рахунком 4:1. - Ред.)", - вважає науковець.
+"Зібрання тисяч людей, які перебувають в сантиметрах один від одного, які виявляють ейфорію обіймами, криками, все це могло б сприяти відповідній реакції на вірус", - пояснює Франческо ле Фоке.
+На думку італійського вченого, футбольні фани, які вже на той момент могли відчувати підвищення температури, навряд чи б пропустили через це такий важливий матч.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ховати знайомих гірше". Як живе Європа на карантині
+"Боюся, що голод вб'є нас швидше за коронавірус"
+Що сталося далі
+10 березня команди зіграли матч-відповідь у Валенсії, а вже 15 березня іспанський клуб повідомив про п'ятьох хворих на коронавірус футболістів у своєму складі і відправив всіх гравців на самоізоляцію.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Вантажівки італійської армії вивозять труни померлих від коронавірусу в крематорії в інших регіонах Італії
+Пізніше стало відомо про захворювання в 35% гравців та співробітників клубу.
+"Аталанта" також пішла на самоізоляцію 15 березня. В голкіпера команди виявили коронавірус.
+Наразі Італія та Іспанія є лідерами із захворюваності на коронавірус у Європі.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+В Бергамо померли кілька сотень людей
+Станом на 26 березня в Італії зафіксовано понад 74 тисячі випадків захворювання і 7500 померлих від коронавірусу.
+Бергамо є одним з найбільш уражених коронавірусом міст в країні - станом на 24 березня тут було понад 3800 хворих та 580 померлих.
+В Іспанії захворіли 49 500 людей, з них 3647 померли.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: рекорд смертей у Франції, Британії та Іспанії</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Франція зафіксувала рекорд смертей від коронавірусу за одну добу - 499 померлих. Сьогодні ж про рекорд смертей за день повідомила Велика Британія та Іспанія.
+У Франції за добу померли 499 людей, а загальна кількість смертей досягла 3523. Кількість захворювань у країні виросла до 52128.
+Велика Британія також побила власний сумний рекорд зі смертей від коронавірусу за один день.
+За минулу добу в країні зафіксували 393 померлих від хвороби.
+Загалом у Британії померла вже 1 801 людина.
 Коронавірус в Україні. Інтерактивна мапа
-Хроніки коронавірусу: у США - більше тисячі смертей, на боротьбу виділили $2 трлн
-Загалом станом на 10:00 26 березня в Україні виявили 156 випадків COVID-19.
-Медики зареєстрували 43 нові випадки за середу.
-Права на зображення BBC News Україна
-BBC NEWS УКРАЇНА
+В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
+У головлікаря, який тиждень тому потис руку Путіну, виявили коронавірус
+У Іспанії також заявили про найбільшу кількість смертей за день через коронавірус - 849. Кількість загиблих там зросла до 8189 людей.
+Станом на ранок 31 березня у світі зареєстрували майже 786 тис. хворих на коронавірус, видужали 166 тис. людей, померли - 37,8 тис.
+Копирайт изображения
+NO 10 DOWNING STREET
+Image caption
+Уряд Великої Британії провів перше онлайн засідання
+Лідери за кількістю померлих не змінились. Це Італія - 11,6 тис., Іспанія - 7,7 тис. та Китай - 3,2 тис.
+Найбільше зареєстрованих випадків зараження у США - 164,5 тис. хворих.
+Україна: тести з Південної Кореї та нові хворі
+На ранок 31 березня в Україні кількість хворих зросла до 549 випадків.
+Загалом від коронавірусу померли 15 людей. Одужали - восьмеро.
+60% хворих - люди віком 30-39 років.
+Як зробити тест на коронавірус? Питання і відповіді
+Скільки Україні треба тестів на коронавірус
+У понеділок з Південної Кореї доставили чергову партію високоточних ПЛР-тестів. Йдеться про 100 тис. тестів. Тиждень тому в країну вже завезли 50 тис. тестів з Китаю.
+Польща посилює обмеження
+Через спалах коронавірусу Польща посилює обмеження для громадян.
+У Польщі закривають парки, пляжі, площі та інші публічні місця. У країні зафіксували 2132 хворих та 31 смерть.
+Росія: "сухим законом" та побоями по коронавірусу
+Окремі регіони Росії запроваджують, як і в Москві, карантинні заходи. Втім, є і ті, де пропонують незвичайні ініціативи.
+Копирайт изображения
+GETTY IMAGES
+У Башкирії місцева влада погрожує мешканцям "сухим законом". Місцевий керівник Радій Хабіров вважає, що повна заборона на продаж алкоголю змусить людей під час неробочого тижня не збиратись разом і не порушувати правил ізоляції.
+В Пермському краї з цією метою вже ввели обмеження на продаж алкоголю. З 30 березня тут заборонили продавати такі напої у проміжку між 20:00 та 11:00.
+У Чечні заходи найбільш жорсткі. Людей, які вийшли на вулицю без причини, просто забирають в поліцію і тримають в переповнених камерах.
+Крім того, в мережі з'явилися відео, на яких місцеві силовики б'ють людей на вулицях палицями.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Amazon під ударом
+Працівники Amazon та інших компаній, що займаються доставкою, погрожують страйками через неналежні заходи захисту від коронавірусу.
+В компанії запевняють, що роблять все можливе, щоб підтримувати чистоту приміщень та допомагати працівникам дотримуватись соціальної дистанції.
+Зокрема, тут стали більше прибирати та запроваджують поетапні зміни та перерви для робітників.
+American Airlines вимагає від США мільярди через коронавірус
+Найбільша авіакомпанія світу за кількістю пасажирських перевезень American Airlines заявила, що вимагатиме 12 млрд доларів фінансової підтримки від американського уряду через збитки від коронавірусу.
+На думку компанії, така допомога дозволить перевізнику пройти через кризу "навіть за найгіршого сценарію".
+Раніше американський конгрес погодив виділення 2,2 трлн доларів на подолання кризи через коронавірус. З цих грошей 50 млрд - відвели для авіакомпаній.
+Зокрема, щоб допомогти їм уникнути скорочень працівників до 30 вересня.
+Втім, в American Airlines заявили, що мають намір до цього часу відновити свою роботу у повному обсязі.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Ольга Влад</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Коронавірус в Італії: як боротьба з "невідомим звіром" змінила людей</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+За 11 років життя в Італії я вперше бачу її такою.
+Та що там я, мій сусід, якому вже 92 роки, вперше бачить свою країну такою. У добу коронавірусу італійці перестали поділяти Італію, як раніше, на Північ та Південь. Їх об'єднала одна мета - боротьба з невідомим звіром, якого кожного дня досліджують медики.
+Ми в Італії зараз проживаємо "фазу свідомого підходу", розуміння карантину в повному обсязі, масштабів пандемії та наслідків.
+Після погіршення ситуації та тисяч смертей Італія перестала робити флешмоби та співати на балконах пританцьовуючи.
+Вивезення тіл померлих колонами військових машин, крематорії, кладовища, лікарні... Люди почали свідомо переоцінювати ситуацію довкола і перестали жити на карантині як на "канікулах".
+"Ховати знайомих гірше". Як живе Європа на карантині
+Як це у Швеції: "ліберальний (не) карантин" - чому він працює
+Як це в Британії: карантин, або Яйця - новий туалетний папір
+Італійці тепер роблять закупи продуктів харчування на 7-10 днів, щоб не виходити зайвий раз у магазини та супермаркети, де є тісна взаємодія з натовпом. Адже ми можемо перемогти цей вірус тільки тоді, коли почнемо поважати один одного і брати на себе відповідальність за своє життя та здоров'я. Разом ми - сила.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+31 березня в Італії - День скорботи за жертвами коронавірусу. Станом на 30 березня в країні від нього померли понад 11 тисяч людей.
+Кожного дня я бачу небайдужих людей. Людей, які роблять, здавалося б, маленькі, на перший погляд, справи. Проте вони вкрай важливі.
+Мій знайомий закрив свій ресторан, але потім він побачив голодних і виснажених далекобійників, які працюють у режимі нон-стоп, щоб забезпечити нас важливими продуктами. Він почав готувати їжу для них і роздавав їм з віконця свого ресторану. Вони їли, закрившись у кабінах вантажівок, у їхніх очах була безмежна вдячність.
+"Я не хочу це рекламувати, я не супергерой. Я просто роблю свою справу, для мене важливо бути корисним зараз", - каже він.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Дуомо ді Мілано зараз виглядає так
+Багато людей зараз залишилися без роботи і не мають змогу купити продукти.
+Тому у нас у Монці - містечку в 15 км від Мілана - організували захід серед людей "Допоможи ближньому". Ми збираємо герметично упаковані продукти харчування і надсилаємо на адреси тих людей, які потребують цього.
+Ділимося також упаковками кави, бо не можемо пригостити сусіда чашкою кави, так хоч упавковкою. Прив'язуємо за ниточку, а вони тягнуть, і так через балкон кожного ранку.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Мешканці Неаполя спускають кошик з продуктами для бездомного чоловіка
+Ще ми запровадили акцію "Залишися вдома і врятуй медика". Ця ідея виникла у зв'язку з недавніми подіями, що сталися з медпрацівниками.
+Цього місяця психологічного тиску не витримала 34-річна медсестра, яка працювала в лікарні регіону Ломбардія.
+Вона вчинила самогубство у туалеті лікарні.
+На жаль, це не поодинокий випадок - інша медсестра, також в Ломбардії, вчинила днями суїцид. Кількість померлих від коронавірусу медиків в Італії наразі перевищила півсотні.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Волонтери з Корпусу цивільного захисту розносять медичні маски. Трієст, 30 березня
+За розповідями мого сусіда-лікаря, робота лікарів має велике психологічне навантаження, тому їм надають психологічну допомогу.
+Лікар зараз іноді немов янгол-охоронець у білому халаті, чує останні найзаповітніші мрії, побажання рідним.
+Останнім часом медикам почали надавати більше захисного одягу, масок та рукавичок, які, за словами мого сусіда, вони міняють багато разів на день.
+Медики є чи не найбільш ризикованою групою людей, які можуть підхопити та передавати вірус. Важливо не тільки правильно захистити себе та одягати захисні речі, але й правильно їх вміти знімати.
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+"Ніхто не знає, що буде завтра". Що кажуть про карантин українці в Італії
+Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі
+Тому медикам проводять інструктаж - як правильно зняти маску, рукавички, захисний комбінезон. Через рукавички може поширюватися вірус, тому лікар, оглянувши хворого, знімає їх, одягає інші і тільки тоді торкається ручки та паперу, аби записати дані.
+Копирайт изображения
+GETTY IMAGES
+За словами мого сусіда, який працює у лікарні Ломбардії, діти також часто можуть заразитися.
+Вони маленькі, а вірус можна підхопити з поверхні землі. Вони всього торкаються руками, так пізнають світ.
+Тому, надто важливо, щоб батьки могли більше захистити своїх дітей від контактів на вулиці, каже цей лікар. Деякі італійці припускають, що оскільки багато батьків залишали своїх дітей з бабусями та дідусями, саме від онуків деякі з них могли підхопити коронавірус.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Італійські волонтери будують польовий шпиталь на території виставочного центру в Бергамо
+Стійкість до зарази залежить від імунітету. Мій сусід, працюючи в лікарні, захворів на коронавірус. Лікувався і перебував в ізоляції.
+"Перші симптоми, які я відчув, це загальний біль у тілі, не досить висока температура (37.8), яка зникла після першого дня, а потім повернулася разом з загальною втомою і нежитю. Тоді зробив тест. Зразу зрозумів, що це - він, той звір, що атакує мене. Я одразу почав лікування", - розповідає він.
+Зараз він почувається краще і хоче повернутися до колег.
+"Не терпиться повернутися до роботи! Я знаю, що коли не вистачає у лавах одного із медиків - це досить критично для цілої лікарні загалом. Мій обов'язок - рятувати людей, тому я свідомо хочу повернутися у це пекло", - каже цей лікар з інтенсивної терапії.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Лікарі у Бергамо відвідують вдома 80-річну жінку, в якої виявили симптоми коронавірусу
+В Італії почали викликати на роботу до лікарень медиків, які перебували вже на пенсії та студентів, які незабаром мають закінчити медичні вузи. Т
+акож, щоб допомогти італійським медикам прибувають колеги з інших країн. Вчора, наприклад, прибули до Італії 30 медиків з Албанії.
+В Україні часто запитують, чому Італія стала епіцентром пандемії у Європі. Можливих відповідей кілька. Регіон Ломбардія є економічним центром Італії, центром промисловості, моди та футболу. Сюди приїжджали щодня безліч підприємців та туристів.
+В Бергамо, де кілька сотень людей померли від коронавірусу, є великий міжнародний аеропорт, а також багато промислових підприємств, є безперервний соціальний контакт з усім світом.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Італійська армія вивозить труни з померлими від коронавірусу з Бергамо до інших міст та регіонів Італії. Морг та крематорій у Бергамо перевантажені
+Копирайт изображения
+GETTY IMAGES
+Припускають, що розповсюдженню сприяли кілька чинників: матч 19 лютого між "Аталантою" з Бергамо та іспанською "Валенсією", який відвідали десятки тисяч фанатів, показ моди, який проходив у Мілані.
+І звичайно, є ще традиції італійців: привітання з обіймами та поцілунками, торкання співбесідника, жестикуляція, звичка торкатися свого обличчя та волосся безліч разів на день, звичка не знімати взуття при вході в приміщення.
+Це все - припущення, але сподіваюся, ми дізнаємося згодом більше.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Працівниця супермаркету, прибиральниця чи робітниці заводу, що виробляє медичний одяг - всі ці люди теж стали героями сучасної Італії
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+На жаль, я часто чую такі фрази від деяких людей: "Помирають тільки літні люди, тому нема чого боятися!".
+А вони що не люди? Якщо людина стара, то життя не має більше сенсу чи не має цінності більше? Мені прикро це чути! Прикро, бо всі ми станемо з вами колись старенькими дідусями та бабусями.
+Копирайт изображения
+GETTY IMAGES
+Ми ще захочемо жити довго, щоб бачити, як ростуть наші внуки та правнуки.
+Треба більше цінувати своє життя і намагатися бути людяними. Не проживати, а дійсно жити.
+Коли вмирають літні люди - вмирає наша історія, наша мудрість. Вмирають чиїсь батьки, дідусі та бабусі. Цінуймо їх сьогодні, щоб потім заслужити повагу від людей та родичів до нас особисто.
+Будьмо свідомими і я впевнена, що ми можемо перемогти в цій боротьбі. Боротьбі, що має нас об'єднати і навчити любити ближнього, як самого себе!
+Станом на 30 березня в Італії виявили понад 101 тисячу випадків захворювання на коронавірус. 14 600 хворих одужали, 11 591 людина померла. 31 березня в країні оголошено Днем скорботи за померлими від коронавірусу.
+Про авторку: Ольга Влад - випускниця Дипломатичної академії України, юрист-міжнародник та перекладачка, з 2009 року живе в Італії.
+Коронавірус: що він робить з організмом
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Чи можна займатися сексом під час коронавірусу?
+Коронавірус: що треба знати
+Коронавірус: як правильно ізолюватися
+Копирайт изображения
+ВВС
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Коронавірус: дві нові смерті у Чернівецькій області</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+На Буковині 31 березня від коронавірусу померли двоє людей, повідомили в обласній адміністрації.
+Загалом в Україні офіційно відомо про 15 смертей від COVID-19.
+Станом на ранок 31 березня було 549 випадків захворювання на коронавірус.
+У Чернівецькій області кількість інфікованих коронавірусом росте надшвидкими темпами. Саме тут зафіксували першого хворого на коронавірус.
+Загальна чисельність хворих на Буковині від першого встановленого випадку складає 90 осіб.
+"Сусіди аплодують мені з балкона і пропонують борщ". Історія лікарки з Чернівців
+"Коли тобі кажуть: у тебе - коронавірус". Розповідь першого українця, який одужав
+Карантин в Україні: ринкам дозволили працювати. За яких умов?
+31 березня у Хотині померла жінка 1955 року народження, яка потрапила до лікарні 25 березня, а до того три дні лікувалась вдома.
+30 березня їй почали неінвазивну вентиляцію легень, а ввечері вона отримала позитивний результат тесту на COVID-19.
+Ще один чоловік 1962 року народження помер в Чернівецькій обласній лікарні. Він також хворів на цукровий діабет.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Карантин в Україні: ринкам дозволили працювати. За яких умов?</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+На ринках мають дотримуватись суворих обмежень, як і в магазинах
+Головний санітарний лікар Віктор Ляшко спеціальним розпорядженням дозволив роботу продовольчих ринків, але з низкою умов та обмежень.
+Саме про це свідчить його постанова від 30 березня.
+Раніше Віктор Ляшко допускав дозвіл на роботу ринків, якщо вони не будуть порушувати санітарно-епідемічних умов.
+Хроніки коронавірусу: рекорд смертей у Великій Британії за один день
+Коронавірус в Україні. Інтерактивна мапа
+У головлікаря, який тиждень тому потис руку Путіну, виявили коронавірус
+"Розуміємо, що це питання забезпеченості харчовими продуктами", - заявляв раніше пан Ляшко.
+"Частина з них зможе працювати, частина буде закрита, оскільки велике скупчення людей одночасно біля продуктового лотка може призводити до інфікування", - анонсував напередодні рішення санітарний лікар.
+Представники влади раніше скаржились, що в багатьох регіонах, а особливо у невеликих населених пунктах, ринки є важливими для забезпечення населення продуктами.
+Після запровадження карантину ринкам офіційно заборонили працювати.
+Згідно з рішенням МОЗ, їх зможуть відкрити, якщо вони є зареєстрованими операторами на ринку харчових продуктів.
+На території ринку має перебувати не більше одного відвідувача з розрахунку на 20 квадратних метрів.
+Керівництво має забезпечити дотримання відставні між покупцями у чергах не менш ніж 1,5 метра.
+Персонал та покупці ринку мають носити засоби індивідуального захисту.
+Окремо вказано, що для ринків вихідного дня відстань між місцями торгівлі має бути не менше 3 метрів.
+Схожі обмеження діють у продовольчих магазинах.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Як коронавірус може зруйнувати оборону України на Сході. Огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ГЕНШТАБ ЗСУ
+У вівторок, 31 березня, іноземна преса пише про таке:
+Чи є загроза вірусу на українській передовій
+Чи допоможе протитуберкульозна вакцина від коронавірусу
+Поради Лукашенка проти захворювання
+Особливий карантин для тварин в англійському зоопарку
+Війна в умовах вірусу
+Заходи з протидії коронавірусу буде важко втілити на українській передовій, пише Daily Signal.
+Українська армія вже проводить протиепідемічні заходи, пише видання. Запобігають масовим скупченням людей. Військовим вимірюють температуру перед входом до приміщень. Публічні місця часто дезінфікують.
+"Однак набагато легше дотримуватися гігієни в тилу, подалі від прямого протистояння," - вважає газета.
+Андрій Єрмак про "плівки" з братом: це атака на команду Зеленського
+Відповіді на головні питання про коронавірус
+Коронавірус: що він робить з організмом
+Видання пише, що бойові дії на Донбасі мало відрізняються від "війни в окопах" часів Першої світової війни, однак "у значно меншому масштабі". Через загрозу артилерійського вогню та снайперів українські військові часто ховаються під землею.
+"Тобто українці живуть у підземних, спартанських умовах, у тісноті поруч із товаришами. Власний простір - рідкісне явище. Ліжка солдатів часто ставлять дуже близько одне до одного. Їдять часто за одним столом", - розповідає газета.
+"Коротше кажучи, війна в окопах - це брудна і небезпечна справа, і немає практичного способу забезпечити соціальну дистанцію чи якісну гігієну, щодня ховаючись від російських ракет чи мін", - додає видання.
+Армія повідомляє, що в зоні бойових дій є чотири мобільні лікарні загальною кількістю 200 ліжок. Але, за словами офіцера Олексія Бобовнікова, вже є труднощі з такими "базовими речами", як маски та тести.
+"Є побоювання, що нинішніх ресурсів не вистачить для боротьби з поширенням коронавірусу в армії", - зазначає газета.
+Видання також цитує журналіста Іллю Пономаренка: "Я боюся, що це захворювання справді може мати руйнівний вплив на нашу оборону на всій лінії фронту, якщо ситуація значно погіршиться."
+"Зменшити вплив вірусу - це одна з головних проблем для виживання України на війні", - також каже Пономаренко.
+Вакцина БЦЖ проти коронавірусу?
+Копирайт изображения
+GETTY IMAGES
+Вакцину БЦЖ проти туберкульозу з 1953 по 2005 рік робили всім британським школярам віком від 10 до 14 років.
+Після того, як впали темпи цього захворювання, масову вакцинацію припинили.
+Однак тепер учені з чотирьох країн досліджують, чи може ця сама вакцина бути ефективною проти коронавірусу, пише Daily Mail.
+Очікується, що вакцина діятиме інакше від звичайного щеплення. Раніше вчені експериментували з введенням у тіло частинок генетичного матеріалу вірусу, щоб імунна система навчилася його ідентифікувати.
+Тепер дослідники сподіваються, що вакцина БЦЖ активізує всю імунну систему, щоб вона могла побороти будь-які частинки вірусів.
+Деякі попередні дослідження показали, що БЦЖ може захистити не тільки від туберкульозу, а й від інших хвороб.
+Уже понад 40 років її використовують для запобігання повернення раку сечового міхура у пацієнтів, які пережили цю хворобу. Ідуть дослідження щодо її використання при інших видах раку.
+Здатність БЦЖ посилювати загальний імунітет, на думку вчених, пояснюється тим, що ця вакцина "жива", тобто є послабленою версією організму, який спричиняє туберкульоз. Натомість більшість сучасних вакцин складаються з дезактивованих частин вірусу чи бактерії.
+Набір волонтерів для тестування вакцини БЦЖ проти коронавірусу почався минулого тижня в Нідерландах. Учені планують зробити таке щеплення чи плацебо тисячі лікарям, які працюють на передовій, а потім перевірити рівень інфекції у двох групах.
+Такі самі дослідження проведуть в Англії, Греції та Австралії.
+Лукашенко: "Ви бачите тут вірус? Я теж не бачу"
+Копирайт изображения
+GETTY IMAGES
+Інший спосіб боротьби проти COVID-19 пропонують у Білорусі.
+Там президент країни Олександр Лукашенко назвав спорт "найкращими ліками від вірусу", пише Independent.
+Лукашенко сказав журналісту під час хокейного матчу, що "краще померти стоячи, ніж жити на колінах".
+"Від психозу будуть інші хвороби". Як Лукашенко підкорив коронавірус в Білорусі
+На питання, чи може щось завадити його грі в хокей, президент відповів:
+"Це можливо, але навіщо? Я не розумію. Тут немає вірусів. Ви що, бачите, щоб вони тут десь літали? Я теж не бачу", - заявив він.
+Президент також рекомендував пити еквівалент 40-50мл чистого спирту щодня, щоб "отруїти" Covid-19, "але не на роботі".
+Серед інших його порад - ходити до бані двічі чи тричі на тиждень.
+"А після того, як вийдете з бані, помийте не тільки руки, але й внутрішній організм, випивши сто грамів (горілки - Ред.)", - проінструктував Лукашенко.
+Живуть у зоопарку
+Копирайт изображения
+GETTY IMAGES
+Четверо працівників зоопарку в англійському Корнуелі оселилися там на час карантину, щоб доглядати за тваринами, пише Daily Mail.
+У Paradise Park проживають 1200 птахів та ссавців. Це приватна установа.
+Четверо дівчат тепер про них дбають і навіть інколи вдають, що вони відвідувачі зоопарку, щоб не створювати стрес для тварин, які звикли до людей.
+Закриті Штати Америки і рейси-привиди: скільки втрачає туризм через коронавірус
+Знаменитості, які підхопили коронавірус
+"Ми також продовжуємо тренувати наших орлів, грифів, яструбів та інших птахів, які беруть участь у показових польотах щоліта", - розповідає одна з працівниць зоопарку, Іззі.
+Парк закрили 21 березня, однак працівники продовжують публікувати новини з життя тварин у соцмережах.
+Огляд підготувала Маргарита Малюкова, Служба Моніторингу BBC
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Лілія Макашова</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Як це у Швеції: "ліберальний (не) карантин" - чому він працює</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+У центрі Стокгольма цими вихідними люди насолоджувалися сакурою
+У Швеції вже 3,5 тисячі інфікованих коронавірусом та понад 100 смертей від коронавірусної хвороби. Чому ж тоді немає карантину? Про це у блозі розповідає українка за походженням, а нині - мешканка Гетеборга, Лілія Макашова.
+Надвечір одного з робочих днів я прочитала, що Швеція впроваджує нові обмеження для кафе та ресторанів - обслуговування лише столів з "достатньою" дистанцією між ними. Якщо не погоджуються - закриття. Оце так радикальне обмеження, подумаєте ви.
+Але насправді доступні місця, де люди обідають у Швеції, - це завжди формат їдальні, тобто черга і таця або ж взагалі лише take away. Офіціанти і читання меню - атрибути ресторанів, до яких на бізнес-ланчі не ходять.
+Карантин? Який карантин? Шведський підхід до боротьби з коронавірусом
+Оскільки офіційного карантину в країні немає, а мій інтернет вдома не витягує жодної відеоконференції, я іноді приходжу готуватися до своїх семінарів до міської бібліотеки, будівлі, яка є чудовим прикладом скандинавської архітектури, а її кафе - місцем, де завжди можна було смачно та недорого поїсти.
+Прийшовши туди знову, я була впевнена: єдине, що вони мені там запропонують, буде кава з собою. Але ні, нічого не змінилося - столи стоять так само близько, їжа на місці. Єдина новинка - оголошення на столі перед касиром з прохання тримати дистанцію у черзі та дезінфектор для рук.
+Добре, подумала я тоді і почала придивлятися до людей навколо. Більшість з них такі як я - студенти, які з початком онлайн-навчання приходять сюди робити групові завдання. Онлайн онлайном, але робота в групах - це наріжний камінь шведської освіти і його ніхто не скасовував.
+Інша ж група людей - пенсіонери, які так само як і раніше приходять сюди спілкуватися, читати газети та грати в шахи. Ті, кого стало тут насправді менше, - це батьки з немовлятами, і лише через це тепер в бібліотеці де-не-де, але все ж таки можна знайти вільний стіл.
+Полювання за туалетним папером
+Псевдокарантин у Швеції може зробити її для когось країною контрастів. Бари, кафе та ресторани працюють, і людей там не дуже поменшало, але університети - на карантині. Спортзали, басейни і СПА не закриті, але в автобусах перші двері не відчиняються і за півтора метра до водія все відгороджене попереджувальною стрічкою.
+Я теж, як і люди в інших країнах, кілька тижнів тому полювала на туалетний папір. Знайшла з третьої спроби і забрала передостанній пакунок. Але це було кілька тижнів тому, а зараз полиці з туалетним папером в магазинах знову повні, а попередню паніку, викликали новини з Британії.
+Як це в Британії: карантин, або Яйця - новий туалетний папір
+Хоча кишеньковий антисептик, наприклад, купити складно: в багатьох аптеках він закінчився, а у ті, які досі ще щось мають, продають по одному в руки.
+Загалом шведи, можливо, завдяки своєму спокійному темпераменту, досить гарно переносять таку ліберальну форму карантину. Працювати вдома, що, до речі, не є вимогою, а тільки опцією, - для багатьох з них це просто можливість провести час з родиною та дітьми.
+Без рожевих окулярів
+При цьому не варто думати, що шведська влада годує місцевих рожевими розповідями на кшталт "який там вірус".
+Швеція, на відміну від України і багатьох інших країн, була однією з небагатьох, яка мала власного державного епідеміолога весь цей час.
+Якщо коротко, позиція уряду така: ми контролюємо ситуацію і статистично ми виглядаємо добре, навіть на тлі країн зі справжнім карантином; на цю мить ситуація не настільки погана, як ми очікували, медичні заклади готові до спалаху; спортзали не закриті, тому що для більшості людей спорт - це спосіб залишатися здоровим і жити за графіком; бари та ресторани поки що працюють, бо ми не хочемо жорсткого падіння економіки; ми очікуємо спалаху вірусу і потім запровадимо нові обмеження.
+Досить чесно та прямолінійно, чи не так?
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Церкви відкриті, а люди вирішують, яких заходів безпеки вони готові дотримуватися
+Що ж до офіційної статистики, то першою інфікованою тут виявилася жінка, яка саме приїхала з Уханя, її ізолювали ще 31 січня, а даних, що вона когось заразила, немає. Більше інфікованих у Швеції стало вже після спалаху в Італії.
+Як коронавірус шириться планетою. Мапа
+До речі, Швеція - одна з країн-лідерів у світі за кількістю протестованих на коронавірус. Наразі відомо про майже 3,5 тисячі інфікованих та 102 летальні випадки.
+Показник чотиризначні та тризначні. Чому ж тоді немає карантину, запитаєте ви. У Швеції довіра до уряду і традиція не панікувати розвинуті на досить високому рівні, і це справді працює. А тримати дистанцію і не підходити ближче, ніж на метр, це взагалі частина ДНК шведів.
+За іронією долі, шведи, а особливо мешканці Гетеборга, де я і живу, бачили сонце, можливо, всього лише кілька днів за всю зиму по три години на день максимум. Ішов дощ, а на вулиці не можна було йти по прямій, бо вітер просто зносив.
+І тепер весь березень сонце майже щодня і стабільно не менше +7. Ніхто не може заборонити шведу після зими вийти погрітися на сонечку. Я думаю, що якщо закриються кафе, вони тоді просто сидітимуть на вулиці, заплющивши очі від сонця і попиваючи свою каву з термоса.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Люди вечеряють у ресторані в Стокгольмі, 27 березня
+"Це поки що працює"
+Проте, як і ситуація з туалетним папером, новини з Європи все ж впливають на спосіб життя шведів. Багато з них, навіть якщо дуже хочуть зустрітися з друзями, тепер нададуть перевагу не бару, а зустрічі вдома у невеликій компанії. Це можна побачити по набагато більших чергах у Systembolget (це шведський державний алкогольний монополіст), де люди купують алкоголь додому.
+Не дуже гучна нині Andralanggatan (вулиця з барами та ресторанами у Гетеборзі) о сьомій вечора виглядає дуже дивно і нетипово порожньо, а у закладах зараз можна проштовхнутися навіть у вечір п'ятниці - нереалістична ситуація за нормальних умов у Гетеборзі.
+Шведський принцип, який тут популярний у багатьох галузях - це індивідуалізм. Це значить, що навіть якщо ультимативних вимог від уряду не надходить, рішення приймаються на особистому рівні. І знову ж таки, це працює.
+Мене, наприклад, запросили на дві великі вечірки до дня народження цього тижня, але їх скасували через пандемію. Кілька моїх знайомих самоізолювалися ще до кризи з туалетним папером, бо знають, що вони - у групі ризику. Ще кілька не поїдуть на Великдень зустрітися з родиною, бо не хочуть ризикувати здоров'ям старших.
+Навіть без жорстких заходів люди слухають рекомендації, читають сайт місцевого МОЗу і приймають власні виважені рішення. Це теж поки що працює.
+Коронавірус: що він робить з організмом
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Чи можна займатися сексом під час коронавірусу?
+Коронавірус: що треба знати
+Коронавірус: як правильно ізолюватися
+Копирайт изображения
+ВВС
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Коронавірус: на Тернопільщині півторарічна дитина в реанімації</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Півторарічна дитина, хвора на коронавірус, проходить лікування в реанімаційному відділенні Тернопільської міської дитячої лікарні.
+У її мами, яка також перебуває в лікарні, теж підтвердили коронавірус, повідомляє Тернопільський штаб для боротьби з коронавірусом у Facebook.
+Крім того, в лікарні в інфекційному відділенні лікуються ще три дитини 11, 13 та 14 років.
+Коронавірус в Україні. Інтерактивна мапа
+Як це у Швеції: "ліберальний (не) карантин" - чому він працює
+Всього на Тернопільщині за весь час виявили 79 випадків зараження коронавірусом.
+Станом на 10:00 31 березня в Україні підтвердили 549 випадків COVID-19, з них 13 летальних, 8 пацієнтів одужало.
+Коронавірус: що він робить з організмом
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Чи можна займатися сексом під час коронавірусу?
+Коронавірус: що треба знати
+Коронавірус: як правильно ізолюватися
+Копирайт изображения
+ВВС
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні. Інтерактивна мапа</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">В якій області найбільше інфікованих коронавірусом? Скільки одужало? А скільки померло? Все це - на нашій інтерактивній мапі.
+В Україні станом на ранок 31 березня загалом зафіксували 549 випадків зараження коронавірусом.
+Станом на ранок 30 березня найбільше випадків зареєстрували у Києві - 107, далі йдуть Чернівецька (90) та Тернопільська (78) області.
+Померли 13 хворих, одужали також 8 людей.
+Усі дані про поширення коронавірусу в Україні - з інформаційних повідомлень міністерства охорони здоров'я, за винятком анексованого Росією Криму.
+Клікніть на позначку на області, щоби дізнатися ситуацію з коронавірусом на території регіону.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Олексій Калмиков</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Карантин: скільки доведеться заплатити за реанімацію економіки</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Повністю економічні наслідки поширення коронавірусу ми зможемо збагнути лише через місяці або роки
+Життя на планеті завмерло. Повернення до норми, якщо й можливе, то обійдеться дорожче, ніж будь-яка з усіх післявоєнних криз.
+Кінцевий рахунок від коронавірусу отримаємо за місяці, можливо, за роки. Але вже зараз Захід робить передоплату за лікування та реабілітацію економіки. Мова йде про трильйони доларів.
+Пандемія на Заході ще не досягла піку. Від її тривалості буде залежати, наскільки біднішими стануть люди. У більшості країн карантин триває тиждень-другий, проте влада попереджає, що в тій або іншій формі він може тривати й пів року.
+Приблизний масштаб лиха можна оцінити, розглянувши те, скільки грошей на початковому етапі влада багатих країн обіцяє витратити на реанімацію економіки.
+Падіння ринків: чому це має мене хвилювати?
+Коронавірус і економіка: що падає і що росте
+Ці суми - гігантські та безпрецедентні, вони лякають. США схвалили антикризовий пакет вартістю 2 трлн доларів. Європа поки що виділяє пів трильйона, але збирає набагато більше.
+Загалом країни "Великої двадцятки" до кінця березня вже пообіцяли витратити близько 5 трлн доларів грошей платників податків на боротьбу з кризою - це приблизно 6% річного обсягу світової економіки.
+На відміну від попередніх криз, мова йде не про друк нових грошей центробанками, а про перерозподіл вже наявних реальних доходів суспільства, які і так скорочувалися, на користь найбільш постраждалих.
+Іншими словами, збідніти можуть всі. Ті, хто виживе, постраждає і заплатить за тих, хто не переживе. Переможців не буде.
+Image caption
+Мільйони людей втратять близьких. Завдання влади - повернути їм надію на гідне життя.
+"Тепер вже зрозуміло, що світ занурюється в рецесію, - каже про спад світової економіки очільниця Міжнародного валютного фонду Крісталіна Георгієва. - Вона буде не менше, можливо, й гірше тієї, яку ми пережили 2009 року".
+Вона не виключила зростання економіки у 2021 році, але тільки в тому випадку, якщо пандемію вдасться приборкати, а породжені нею проблеми - виправити.
+На її думку, для цього потрібно "запобігти хвилі банкрутств та звільнень, які загрожують не тільки відновленню економіки, а й громадській злагоді". Коштує це дуже дорого.
+За що доведеться платити
+Коронавірус виявив проблеми в системі охорони здоров'я одних країн і повну руїну в інших. Перші невідкладні витрати пішли саме туди: тимчасові лікарні, термінова закупівля масок та устаткування, залучення до роботи додаткового медперсоналу. Коли пил осяде, більшості країн доведеться серйозно вкластися у вирішення проблем охорони здоров'я, виявлених цієї пандемією.
+Закриті Штати Америки і рейси-привиди: скільки втрачає туризм через коронавірус
+Чи обвалить коронавірус світову економіку й погіршить життя українців?
+Але грошей на це не буде, якщо економічна активність не відновиться, люди і бізнес не збережуть роботу і не продовжать платити податки. Тому для початку доведеться підтримати їх: субсидіями, податковими канікулами, пом'якшенням правил і прямою роздачею грошей.
+На що, крім порятунку хворих і створення вакцини, Захід буде витрачати гроші в першу чергу? У кожної країни свої рецепти, але ось приблизний перелік вже оголошених антикризових заходів.
+• Майже всі країни почали з допомоги перукарям, таксистам, дизайнерам і рестораторам. Вони обіцяють безоплатні гранти і пільгові кредити малому бізнесу, індивідуальним підприємцям та самозайнятим.
+• Пряма роздача грошей: наприклад, кожен американець отримає до 1 200 доларів готівкою, японцям та грекам теж обіцяють подарунки.
+• Пільгові кредити тим, хто постраждав та викуп компаній в найбільш постраждалих галузях. Список відкривають авіація та туризм, але він щодня поповнюється.
+• Податкові канікули: відстрочка платежів та соціальних зборів з підприємств та індивідуальних підприємців.
+• Збільшення допомоги з безробіття та пом'якшення вимог для її отримання. Ірландія, наприклад, обіцяє всім, хто втратив заробіток через Covid-19, допомогу в 350 євро на тиждень.
+• Кредитні канікули: відстрочка платежів по боргах компаній та фізичних осіб.
+• Дотація з бюджету на виплату зарплат співробітникам фірм, які вимушено не працюють через карантин. У Чехії, Нідерландах, Британії влада пообіцяла взяти на себе 80-90% платіжної відомості приватного бізнесу на кілька місяців.
+• Компенсація витрат на скорочення персоналу, аби людям виплатили вихідну допомогу за кілька місяців, а не звільняли без грошей.
+• Оплачувана відпустка з догляду за дітьми, аби батьки не поспішали виходити на роботу, поки школи не працюють. У Франції, наприклад, це до двох тижнів за бюджетний кошт.
+• Деякі країни (наприклад, Швейцарія) навіть компенсують втрати від зриву конференцій та інших заходів.
+Ці заходи коштуватимуть трильйони доларів, гроші візьмуть в борг, а розплачуватися доведеться майбутнім поколінням. Однак без штучного дихання бізнес та населення можуть не пережити Covid-19.
+Image caption
+Малому бізнесу карантин завдав найбільшого удару. Ринок Бокерія у Барселоні.
+"Нинішня криза - стовідсотково найсерйозніша і найбільш масштабна на нашій пам'яті, - сказала ВВС головна економістка клубу багатих країн ОЕСР Лоранс Бун. - Цього разу проблема не в нестачі ліквідності. Цього разу головна проблема - вірус".
+Вона додає, що якщо епідемію не вдасться приборкати за пару місяців і вона повернеться наступної зими, жоден економіст в світі не візьметься передбачити, якими будуть наслідки.
+Хто і скільки пообіцяв заплатити
+У справі боротьби з вірусом ніхто поки що не може зрівнятися з США. Найбагатша країна світу швидко вийшла в лідери за кількістю інфікованих коронавірусом. Попри публічний скепсис президента Дональда Трампа, США поставилися до епідемії як до неприємності історичного масштабу.
+Конгрес виділив понад 2 трлн доларів на реанімацію економіки. Пів трильйона отримають великий та середній бізнес, 350 млрд роздадуть дрібним підприємцям у вигляді пільгових кредитів.
+Американцям готівкою видадуть 300 млрд доларів, і ще приблизно стільки ж піде на виплату допомоги тим, хто через вірус втратив роботу.
+Попри значний обсяг антикризового пакету, який перевищує річний обсяг економіки Росії і який можна порівняти з ВВП Бразилії, Італії або Канади, конгресмени і Білий дім припускають, що рахунок цей не остаточний і в підсумку доведеться заплатити більше.
+Image caption
+Життя в Нью-Йорку завмерло. Навіть на Таймс-сквер.
+Схвалений Конгресом і підписаний Трампом минулої п'ятниці закон коштуватиме Америці приблизно 10% її річного ВВП. Інші країни поки діють скромніше, але деякі вже виділили великі суми.
+Друга найбільша економіка у світі - Євросоюз - поки що не може домовитися про спільні стимули. Однак на національному рівні гроші вже течуть рікою.
+Німеччина виділила понад 150 млрд євро, або 4,5% ВВП, і пообіцяла у разі потреби збільшити антикризовий пакет до 800 млрд євро, що становить чверть німецької економіки.
+З найбільш постраждалих від коронавірусу країн ЄС Франція виявилася найщедрішою: вона готова виділити 350 млрд євро (15% ВВП).
+Італія поки виділяє 25 млрд євро, Іспанія - лише 10 млрд. Це не перевищує 2% їхнього ВВП, і ніхто не вірить, що цього вистачить.
+Нідерланди збираються витратити до 20 млрд євро, або 2% ВВП, лише у найближчі три місяці. Приблизно стільки ж вже виділили Данія, Польща, Португалія, Ірландія та Чехія.
+Небо порожніє: коронавірус поставив авіакомпанії на межу виживання
+Які країни краще готові до епідемії коронавірусу - FT
+Інші, на кшталт Австрії, Греції, Швеції та Естонії, вирішили не розраховувати на краще, а відразу готуватися до гіршого: вони виділяють від 5% до 10% ВВП на боротьбу з новою кризою.
+Аналогічним чином діють інші розвинені країни, зокрема Австралія, Канада та Ізраїль. Ще інші, на кшталт Японії, поки підраховують збитки і сплачують компенсації.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: підтвердили 548 випадків, зранку було 480</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+В Україні лабораторно підтвердили 548 випадків коронавірусної інфекції - такі дані станом на 22:00 30 березня наводить Міністерство охорони здоров'я.
+Ще зранку у відомстві говорили про 480 виявлених випадків захворювання.
+Таким чином за день кількість хворих зросла на 68 осіб.
+Коронавірус в Україні. Інтерактивна мапа
+В Україні спалах тяжких респіраторних інфекцій. До чого тут коронавірус?
+Коронавірус в Україні: кількість хворих подвоїлася за кілька днів
+Загалом від коронавірусу в Україні загинули вже 13 людей.
+Свіжу статистику по областях у МОЗ поки не наводять, проте зранку найгіршою ситуація була у Києві (102 випадки), Чернівецькій області (75 випадків) та Тернопільській області (60 випадків) (станом на 10 годину ранку 30 березня).
+Одужали від хвороби вже 8 людей, кажуть в Міністерстві охорони здоров'я, - повторне лабораторне дослідження не виявило вірусу в їхньому організмі.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+"Ховати знайомих гірше". Як живе Європа на карантині
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Коронавірус: для Олімпійських ігор в Токіо затвердили нову дату</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Олімпійські ігри в Токіо, які мали відбутися влітку, пройдуть з 23 липня по 8 серпня 2021 року.
+Про це повідомили в Міжнародному олімпійському комітеті. Рішення ухвалили в понеділок.
+Перенести проведення літньої Олімпіади довелося через поширення пандемії коронавірусу у світі.
+Так само перенесення зачепить і Паралімпійські ігри - вони розпочнуться 24 серпня наступного року.
+"Людство наразі перебуває у темному тунелі. Олімпійські ігри 2020 можуть стати світлом в кінці цього тунелю", - заявив голова МОК Томас Бах.
+Євро-2020 з футболу скасували через пандемію коронавірусу. Коли відбудеться
+Футбольний матч міг стати "біологічною бомбою" коронавірусу в Європі
+Раніше аналогічне рішення схвалили і щодо проведення Чемпіонату Європи з футболу, який так само перенесли на 2021 рік. Він мав розпочався 12 червня цього року, а завершитись 12 липня.
+До цього через спалах коронавірусу на невизначений термін призупинили спортивні першості у багатьох країнах.
+Серед них - національні футбольні чемпіонати Європи і американська НБА.
+Так само УЄФА на невизначений термін відклала проведення матчів Ліги чемпіонів та Ліги Європи.
+Станом на 30 березня у світі зафіксували вже понад 730 тисяч підтверджених випадків коронавірусу. 156 тисяч людей одужали, понад 35 тисяч померли.
+Найбільше хворих - у США (143 тисячі), Італії (93 тисяч), Іспанії (87 тисяч), Китаї (82 тисячі) та Німеччині (62 тисячі).
+За кількістю смертей лідирують Італія (10 тисяч), Іспанія (7 тисяч) і Китай (3 тисячі).
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Google Classroom: що це і як працює</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+На тлі коронавірусу популярність у світі стрімко набирають додатки та сервіси, про існування яких ще кілька місяців тому багато хто не здогадувався.
+Один із них - Google Classroom, який наразі займає перші місця в категорії "Освіта" в онлайн-магазинах AppStore та Google Play, де кількість його завантажень вже перевалила за 50 мільйонів.
+Classroom - це безкоштовний сервіс для дистанційного навчання, створений ще у 2014 році. Але великою популярністю він тривалий час не користувався. За даними сайту Android Police, до березня цього року Classroom не входив навіть до топ-100 освітніх додатків.
+Проте сьогодні, коли у багатьох країнах світу навчальні заклади закриті на карантин, його функціонал виявився актуальним.
+Наскільки безпечний Zoom?
+Як перевести на віддалену роботу всю країну
+Що можна робити
+Classroom є поєднанням сервісів Google (Google Disc, Google Docs тощо), адаптованих під освітні задачі. Для роботи з ним потрібно обов'язково мати акаунт Google.
+Користуватися сервісом можна як з комп'ютера, так і з мобільного.
+У Classroom вчитель може створити власний віртуальний клас і окремі курси - їм присвоюються унікальні коди, за якими доступ до них отримують учні.
+На сторінці кожного курсу вчитель може, наприклад, публікувати навчальні матеріали, проводити опитування, тести й створювати тематичні завдання.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Через пандемію коронавірусу школи в багатьох країнах закрили на карантин
+Кожному завданню можна встановити термін виконання, викладач також в режимі реального часу може спостерігати за тим, як учні виконують завдання, бачити список зданих та незданих робіт і виставляти оцінки за будь-якою шкалою.
+Вчитель також публікує оголошення у стрічці класу, додаючи в них не лише текст, а й, приміром, зображення або відео з Youtube, спілкується з учнями у чаті.
+Учні можуть бачити список завдань курсу - як виконані, так і ті, які лише доведеться здати.
+При цьому кожному учню вчитель може дати індивідуальне завдання, яке не побачать інші.
+"Меч у серця невинних учнів"
+На ринку є достатня кількість аналогів Google Classroom, які надають користувачам схожий функціонал. Проте до його переваг зазвичай відносять безкоштовність, простий інтерфейс та інтеграцію з іншими інструментами Google, до яких звикли багато користувачів.
+Втім, як пише видання The Telegraph, можливостями Classroom задоволені не всі - передусім учні шкіл, які масово виставляють додатку мінімальні оцінки в магазинах Google Play та Appstore. Дітлахи жаліються, що цей додаток змушує їх навчатися, а не відпочивати під час карантину.
+"Цей додаток - меч у серця невинних учнів. Дайте нам відпочити від школи й насолодитися карантином", - написав один із них.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Карантин: поліція розігнала вечірку</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+DERBYSHIRE POLICE
+Image caption
+Поліція Дербіширу опублікувала у Twitter фотографії застілля, які спричинили шквал коментарів
+Поліція англійського графства Дербішир була шокована, коли виявила 25 дорослих та дітей, які влаштували вечірку.
+Усіх учасників розігнали, а з господарями "розібралися" через порушення правил соціальної дистанції, йдеться у повідомленні поліції у Twitter.
+Google Classroom: що це і як працює
+Кличко присоромив киян за "тусовки" на природі: "Нас всіх чекатиме катастрофа"
+Раніше цього тижня місцеву поліцію розкритикували після того, як вона оприлюднила відеозаписи людей, які гуляли на природі по двоє, зроблені дроном.
+Однак поліцейські заявили, що вони лише стежать за дотриманням закону, ухваленого урядом.
+"Очевидно, що люди досі цілковито нехтують урядовими порадами та правилами", - йдеться у повідомленні.
+Копирайт изображения
+DERBYSHIRE POLICE
+Image caption
+Поліція Дербіширу також виявила групу людей, які насолоджувались пікніком та кальяном
+Деякі користувачі підтримали дії поліції, водночас інші почали їх критикувати.
+Однак багатьох схвилював не стільки сам факт вечірки, скільки їжа на бенкеті.
+"Мені більше хвилює, що є люди, які вважають тарілку з апельсинами прийнятною їжею для бенкету", - написала користувачка на ім'я Емма.
+"Це абрикоси... з куркою?!" - дивується Ден Маккалох.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Спорт? Так, але біля будинку
+Раніше колишній британський міністр юстиції Девід Гоук сказав, що оприлюднені кадри з поліцейських безпілотників "хибно оцінили", адже люди на відео зберігають соціальну дистанцію.
+Однак згодом уряд уточнив свої поради щодо прогулянок на вулиці і зазначив, що люди мають займатися фізичними вправами біля будинку, а не їздити для цього кудись.
+Активісти Big Brother Watch, що стежать за дотриманням конфіденційності приватного життя, заявили, що зйомка людей та публікація відео в інтернеті були "нечесними та контрпродуктивними".
+Інспектор поліції Стів Понт розповів програмі BBC Today: "Ми хотіли нагадати про те, що люди мають залишатися вдома, а багато людей не залишаються вдома, вони знаходять виправдання або лазівки - і ми просто хотіли проілюструвати, що так робити не можна".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: в Україні "сортуватимуть" хворих</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+T.ME/MOZOFFICIAL
+В Україні з'явилися пункти медичного "сортування" хворих на COVID-19, розповіли у МОЗ.
+У міністерстві, яке отримало нового керівника, розповіли, що пункти розгорнули по всій Україні.
+Всі пацієнти, які приходять до лікарні з респіраторними симптомами, мають ще до входу пройти "первинне скринінгове медичне розподілення".
+Це значить, що пацієнтів мають оглянути і розподілити залежно від ступеню важкості їхнього стану.
+Госпіталізувати будуть лише тих хворих, які потребують цілодобового нагляду лікарів.
+"Така схема сприятиме зниженню ризиків інфікування на території лікарні для інших пацієнтів", - зазначили у МОЗ.
+Копирайт изображения
+UNIAN
+Image caption
+Досі на обсервацію відправляли лише українців, яких евакуювали з Китаю в лютому
+Загалом станом на 30 березня у світі зареєстрували понад 722 тис. випадків зараження коронавірусом. Видужали майже 152 тис. людей, померли — майже 34 тис.
+США - лідер за кількістю людей, у яких підтвердили хворобу. Йдеться про 142 тис. заражених. Вилікувались 4767, померли 2393.
+Коронавірус: у світі оголосили пандемію
+Коронавірус: як правильно ізолюватися
+Водночас лідером за смертями залишається Італія. Тут померли понад 10 тис. людей, вилікувались 13 тис., а всього захворіли понад 97 тис. італійців.
+Серед країн, де загинули найбільше людей, також Іспанія (6 803), Китай (3 186), Іран (2 640) та Франція (2 606).
+Україна: понад 50 нових випадків та обсервація для новоприбулих українців
+Станом на вечір 29 березня в Україні офіційно підтвердили 475 випадків зараження COVID-19, повідомив Центр громадського здоров'я.
+За весь час від вірусу померли 10 людей, офіційно видужали — шестеро.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус: коли закінчиться епідемія
+Як зробити тест на коронавірус? Питання і відповіді
+Водночас Кабінет міністрів ввечері посилив карантинні заходи щодо українців, які повертаються з-за кордону.
+Уряд зобов'язав всіх новоприбулих дотримуватися режиму обсервації.
+Президент Володимир Зеленський уточнив, що обсервація триватиме два тижні. Це стосується всіх, хто повернеться після 28 березня.
+Для того, щоб забезпечити ізоляцію новоприбулих, влада домовляється з готелями, в яких введуть спеціальні заходи безпеки.
+Станом на неділю до України повернулися понад 140 тис. українців.
+Також ввечері 22 березня в Україну прибув другий літак з Китаю. За словами Зеленського, на борту було 300 тис. спеціальних респіраторів та 35 тис. захисних костюмів для лікарів, військових і поліціянтів. А ще 2 млн масок для населення.
+Очікується також літак, який доставить з Китаю 100 тис. ПЛР-тестів.
+Москвичі в ізоляції
+У Росії після кількатижневого зволікання все ж вирішили запровадити жорсткі карантинні заходи за прикладом країн Західної Європи.
+Щоправда, режим обов'язкової самоізоляції стосується тільки Москви та прилеглих населених пунктів.
+Виходити на вулицю можна лише з поважних причин: щоб отримати медичну допомогу, дістатися на роботу, купити продукти чи ліки, винести сміття та вигуляти домашню тварину, але не більш як в 100 метрах від свого житла.
+Також в Москві планують запровадити спеціальні перепустки, які дозволять пересуватися містом.
+США: Великдень на карантині
+Копирайт изображения
+GETTY IMAGES
+Президент США Дональд Трамп визнав, що до Великодня карантинні заходи скасувати не вдасться.
+Він офіційно заявив, що обмеження збережуть до 30 квітня, а пік смертей очікують за два тижні.
+У Білому домі допускають, що коронавірус може вбити понад 200 тис. американців, а захворіти можуть мільйони.
+Тож Трамп зазначив, що важливо не дозволити кількості загиблих перевищити 100 тис.
+Трамп про принца Гаррі та Меган Маркл: "Платити мають вони"
+Окремо президент США згадав королівську подружню пару — принца Гаррі та Меган Маркл, які на тлі коронавірусу вирішили переїхати з Канади до американського помешкання колишньої акторки.
+Трамп заявив, що Сполучені Штати не будуть оплачувати рахунки подружжя за їхню охорону.
+Знаменитості, які підхопили коронавірус
+У Бориса Джонсона коронавірус
+"Платити мають вони", - заявив американський президент.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Обсервація vs самоізоляція: чому кількасот українців тримали в літаку в "Борисполі"</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Українці, які повертатимуться з-за кордону після 29 березня, обов'язково мають дотримуватися обсервації. Таке рішення увечері неділі ухвалив уряд.
+Президент Володимир Зеленський напередодні розповів, що українців поселятимуть в готелях, з якими, за його словами, вже попередньо домовилися.
+Водночас в київському аеропорту "Бориспіль" на деякий час "застрягли" сотні українців, які повернулися з-за кордону.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус: як правильно ізолюватися
+Як коронавірус шириться планетою. Мапа
+Люди погоджувалися на самоізоляцію, але категорично відмовлялися від примусової обсервації в готелях.
+У Держприкордонслужбі пояснюють, що проблеми виникли через те, що коли люди вилітали, такого рішення ще не було, а коли прилетіли в "Бориспіль", воно набуло чинності.
+Примусова обсервація
+Речник Державної прикордонної служби Андрій Демченко розповів ВВС News Україна, що о 2 ночі в "Бориспіль" з катарської Дохи прилетіли 350 громадян України.
+"Наразі більшість вже поїхали в місця проведення обсервації, на борту лишаються 50 пасажирів, які не хочуть іти на обсервацію", - додав він.
+За словами Демченка, прикордонники разом з Нацполіцією та Нацгвардією виконують рішення уряду щодо обсервації тих, хто прибуває в Україну.
+Пропустити Facebook допис , автор: Masha
+Многие пишут а в чем проблема, вы поедете “отдыхать”. Друзья проблема в том, что пока мы летели они все порешали и мы...
+Posted by Masha Teterin on Sunday, 29 March 2020
+Кінець Facebook допису , автор: Masha
+Киянка Вікторія Андрушко - одна з кількох сотень українців, що прилетіли до "Борисполя" уночі. Вона розповіла, що разом з десятками інших пасажирів не залишає борт літака, яким вони прилетіли до Києва.
+"На борту зараз перебуває юрист авіакомпанії та представник поліції, ми пишемо заяву, що нас неправомірно хочуть відправити на обсервацію", - розповіла Вікторія.
+"Ми розуміємо масштабність ситуації і готові на самоізоляцію, але не примусову обсервацію. Тому що ті умови, які нам пропонують, - неприйнятні", - додає киянка.
+Копирайт изображения
+TARAS HONCHARENKO
+Image caption
+В аеропорту "Бориспіль" українцям на підпис роздали згоду на обсервацію
+Вікторія розповідає, що долетіла з Денпасара (Балі) в Доху своїм коштом - за тисячу доларів.
+Вже на борту літака, яким Вікторія летіла з Дохи до Києва, їй озвучили вимогу підписати згоду на обсервацію.
+"Якби нам раніше хтось сказав, що умовою вашого повернення додому є примусова обсервація в якомусь готелі, можливо, багато з нас би й не полетіло. Ми заплатили дуже багато грошей, аби дістатися додому, а тепер нам ще потрібно платити за те, щоби 14 дні провести невідомо, де", - розповіла українка.
+"Усі думали, що жінка хворіє на грип": чому на Тернопільщині десятки лікарів з коронавірусом?
+Холодно і голодно
+Українцям, які приїхали з-за кордону, уряд пропонує безкоштовну обсервацію в готелі "Козацький" на Майдані Незалежності або платну - у готелі Пуща Конгрес за 338 євро на двох за 14 днів перебування.
+Харчування оплачується власним коштом.
+Що таке коронавірус: пояснюємо за 60 секунд
+Коронавірус: як в Україні на нього тестують?
+Анна з Харкова разом з чоловіком погодилася на обсервацію в готелі "Козацький".
+"Вперше ми дізналися про обсервацію просто перед вильотом з Дохи до Києва. Пілот перед виїздом на злітну смугу зупинив літак зі словами: поки ви не підпишете папери, що згодні на обсервацію, ми не полетимо", - розповідає Анна.
+Пропустити Facebook допис 2, автор: Masha
+Засели таки в отель Крещатик как и говорили, выдали воду. Даже удалось уговорить что бы передали рюкзак с чаем и едой. Обратите плиз внимание на цены) они не успокоятся
+Posted by Masha Teterin on Sunday, 29 March 2020
+Кінець Facebook допису 2, автор: Masha
+Ще одну згоду вони дали вже в Києві. "Це всіх обурило, адже нас не поінформували про умови утримання в обсервації, її терміни та інше. Наші запитання ігнорували", - каже жінка.
+За словами Анни, на борту літака не було ані туалету, ані питної води, тому їй з чоловіком, як і десяткам інших українців, довелося їхати в готель.
+В "Козацький" приїхав і Сергій Корчагін з Миколаєва. За його словами, при вході в готель писали дві заяви: що готові пройти тестування на коронавірус і що погоджуються на самоізоляцію.
+"Він безкоштовний, але харчування нашим коштом. З-під крана тече вода з іржею, холодно, в кімнаті +12. Поселяють по двоє. Усі бродять по "Козацькому", фактично тут немає ніякої обсервації. Якщо людина одна, то йому пропонують підсилити ще когось", - розповів Сергій.
+Своїм коштом
+Тим, хто порушить умови обсервації, загрожує штраф - від 17 до 34 тисяч гривень. Рішення про це ухвалює суд.
+Марія Єфімова з Харкова, разом з трьома десятками українців, погодилася на обсервацію своїм коштом у Пущі.
+"Неприємно те, що нас змусили силою приїхати на обсервацію. У мене був план, як самоізолюватися у власній квартирі, де я мешкаю сама. Але зустріч в аеропорту розвивалася приголомшливо, тому я обрала шлях найменшого спротиву — оселитися в Пущі", - розповідає вона.
+Копирайт изображения
+MASHA EFIMOVA
+Image caption
+Так приймали українців з-за кордону на місці обсервації у Пущі
+Умовами проживання Марія задоволена. Водночас, додає вона, ціна на проживання вища, аніж раніше повідомляли, а їжа, яку треба замовляти в номер, не задовольняє.
+"Завтра чекатиму на передачку від подруги. Сподіваюся, вона зможе мені передати теплі речі, а також фрукти й сік. Сподіваюся, моя обсервація триватиме до 14 днів і я зможу вільно поїхати в рідний Харків", - додала вона.
+В обсервацію без тестування
+Заступник міністра внутрішніх справ Антон Геращенко наголосив на "обов'язковій обсервації" тих, хто повернувся з-за кордону, і пояснив, для чого це робиться.
+"Під час ізоляції не можна виходити за межі обсервації, бажано ні з ким не спілкуватися, лише телефоном або іншими електронними засобами зв'язку. Задача обсервації - виявити, чи особа інфікована, оскільки вона може про це не знати та заразити інших", - заступник міністра внутрішніх справ Антон Геращенко.
+Він також підкреслив, що правоохоронці не допустять хуліганства і насилля під час направлення людей в обсервацію.
+Коронавірус: інфекціоністка відповіла на найпоширеніші запитання
+А заступник міністра охорони здоров'я Віктор Ляшко пояснив, що українці, які повернулися з-за кордону не повинні проходити ПЛР-тестування, тому що в ньому немає сенсу.
+"Є питання інкубаційного періоду, і ПЛР-тестування не буде економічно й епідемічно обґрунтованим. Тому наразі єдине правильне рішення — це зменшення пасажиропотоку й відправка всіх на обсервацію (або самоізоляцію)", - додав пан Ляшко.
+Пізніше у понеділок у Нацполіції повідомили, що забезпечують порядок біля готелів "Козацький" та "Пуща Конгрес" і пояснюють тим, хто перебуває в обсервації, її правила.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Діана Куришко</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Максим Степанов - новий очільник МОЗ у часи коронавірусу</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Ексгубернатор Одеської області, управлінець з досвідом, лікар за освітою, а ще - кум друга Ігоря Коломойського.
+Що відомо про нового міністра охорони здоров'я - Максима Степанова, розповідає ВВС News Україна.
+Ємець і скандали. Як Україна п'ять тижнів нічого не купувала проти коронавірусу
+Міністерство - "порохова діжка"
+Максим Степанов у МОЗ замінив відомого кардіохірурга Іллю Ємця.
+Пан Ємець, який розповідав, що від коронавірусу "помруть всі пенсіонери", а також називав їх трупами, протримався у відомстві чотири тижні.
+Це ще менше, ніж було десять років тому, коли він керував міністерством три місяці.
+Рада звільнила Ємця і Уманського та провалила призначення їм заміни
+Скільки протримається на цій посаді Максим Степанов, передбачити неможливо, говорить політолог Володимир Фесенко.
+Коронавірус розвивається дуже швидко, й МОЗ зараз як порохова діжка, каже політолог.
+Копирайт изображения
+GETTY IMAGES
+"Те, що він — медик за освітою, ще ні про що не каже. МОЗ - це як порохова діжка, підірватися на цій посаді дуже легко. Ємець он двічі підірвався", - говорить політолог.
+Максим Степанов закінчив Донецький національний медуніверситет і вивчав міжнародну економіку у Київському економічному університеті імені Вадима Гетьмана.
+"Степанов - врівноважена фігура, він є фаховим управлінцем, досвід у нього є, але не на центральному рівні", - каже пан Фесенко.
+Копирайт изображения
+UNIAN
+Він працював заступником голови Державної податкової адміністрації України, має досвід керівництва державним підприємством "Поліграфічний комбінат "Україна". Два роки працював губернатором Одеської області за президента Петра Порошенка.
+Навесні 2019 року з Порошенком у Степанова виник конфлікт. Тоді, після першого туру президентських виборів, які на Одещині були провальними для Порошенка, президент хотів звільнити Степанова.
+Губернатор відмовився йти з посади. Проте зберегти свою посаду йому не вдалося. За президента Володимира Зеленського його таки звільнили.
+Відмова очільника Одещини йти з посади: бунт проти президента чи початок двовладдя?
+"Важко сказати, настільки Степанов буде придатним керувати МОЗ, наскільки він буде незалежним", - говорить про нового міністра Олексій Гарань, науковий директор Фонду "Демократичні ініціативи" імені Ілька Кучеріва, професор політології НаУКМА.
+Політолог говорить про зв'язки нового очільника МОЗ - він є кумом Ігоря Палиці, бізнес-партнера Ігоря Коломойського. Це, за словами політолога, викликає багато питань.
+"Я бачив, як близькі до Коломойського ЗМІ позитивно висвітлювали ймовірність призначення Степанова. Але з іншого боку, деякі джерела говорять, що стосунки між Степановим і Палицею зараз погіршилися", - зазначає Олексій Гарань.
+Політолог критикує, як хаотично підбираються в уряді кандидатури - не встигли призначити двох міністрів, як їх вже "зняли".
+"Реально страшно"
+Жорстко критикував дії уряду, в якому тепер працює, і сам Максим Степанов. Йдеться про реакцію на ситуацію з коронавірусом - затягування із затвердженням обладнання, необхідного для боротьби з хворобою, незабезпечення лікарів захистом.
+"Якщо чесно, в шоці. Реально страшно… У мене питання до Кабінету міністрів: є у вас хтось живий взагалі? Хто-небудь, порийтесь там в аптечці, знайдіть нашатир і приведіть до тями наш уряд!"- так коментував дії уряду щодо пандемії пан Степанов.
+Пропустити Facebook допис , автор: Maksym
+Просмотрел утвержденный правительством перечень...
+Posted by Maksym Stepanov on Sunday, 22 March 2020
+Кінець Facebook допису , автор: Maksym
+Він говорив, що ще в січні треба було закривати кордони, придбати життєво необхідну кисневу апаратуру і роз'яснити лікарям "алгоритми роботи з коронавірусом".
+Що буде з медреформою?
+Можна припустити, що Максим Степанов не ставитиме під сумнів запуск вторинної ланки медреформи, на відміну від його попередника, говорить Лілія Олефір з Реанімаційного пакета реформ.
+За словами експертки, таке припущення можна зробити з огляду на те, що за часів губернаторства Степанова у 2017-2019 роках Одеська область встигла ефективно почати підготовку до запуску реформи вторинки.
+Копирайт изображения
+UNIAN
+Image caption
+Максим Степанов довгий час керував державним підприємством "Поліграфічний комбінат "Україна"
+"Але поки не відомо, хто буде заступниками міністра. Питання злагодженої роботи і досвіду потенційних заступників відіграватиме надважливу роль у тому, наскільки швидко нова команда МОЗ зможе реагувати на протидію пандемії", - зазначила пані Олефір.
+Загалом, за її словами, не вистачає прозорості та консультацій з експертним середовищем щодо кадрових питань.
+За сім місяців у МОЗ маємо вже третього міністра, що, за словами експертки, свідчить про суттєві проблеми у політиці уряду.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Коронавірус: принц Чарльз одужав</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+71-річний принц Чарльз, в якого раніше виявили коронавірус, більше не перебуває на самоізоляції.
+"У Кларенс-хаусі підтвердили, що після консультацій з особистим лікарем, принц Уельський наразі вже не на самоізоляції", - йдеться в заяві речника Чарльза.
+Про те, що він підхопив коронавірус, стало відомо 25 березня. Повідомлялося, що він має легкі симптоми хвороби, але загалом почувається добре.
+Дружині Чарльза, 72-річній герцогині Корнуольській Каміллі, так само зробили тест, але коронавірусу не виявили.
+Упродовж тижня подружжя перебувало на самоізоляції у резиденції Балморал.
+У Бориса Джонсона коронавірус
+Князь Монако Альбер II підхопив коронавірус
+Речник принца Чарльза заявляв, що встановити, від кого саме він заразився, неможливо, оскільки упродовж останніх тижнів він мав багато зустрічей.
+Позаминулого тижня також стало відомо, що коронавірус підхопив князь Монако Альбер II.
+У його пресслужбі запевняли, що стан здоров'я Альбера II не викликає занепокоєння.
+Він став першим чинним лідером держави, в якого виявили коронавірус.
+Раніше у ЗМІ фігурувала інформація, що хворобу нібито діагностували в президента Бразилії Жаїра Болсонару, проте офіційно це заперечили.
+Минулої п'ятниці коронавірус також підтвердився у прем'єр-міністра Британії Бориса Джонсона.
+Він розповідав, що самоізолювався, але продовжує очолювати роботу британського уряду по боротьбі з вірусом з дому.
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Чого боїться Путін - огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У понеділок, 30 березня, західна преса пише про таке:
+Чого бояться в Кремлі під час пандемії
+Як роботодавці можуть стежити за вами під час дистанційної роботи
+Коронавірус змінив романтичні стосунки
+Астрофізик потрапив до лікарні, намагаючись врятувати людство
+Як коронавірус загрожує Путіну
+У Росії пандемія коронавірусу збігається з проблемою наступництва Путіна, пише експерт з російської політики Бен Ноубл у Telegraph.
+Через епідеміологічну ситуацію в країні перенесли голосування щодо змін до конституції, які дозволять Путіну залишитися президентом до 2036 року. Але режим непокоїться, що наразі таке голосування може бути ризикованим не лише через коронавірус.
+"Якщо економічні проблеми, пов'язані з падінням цін на нафту, слабшим курсом рубля і спалахом коронавірусу, посиляться, росіяни можуть вилити своє невдоволення на виборчих дільницях", - пише Ноубл.
+"Путін вирішує проблему-2024". Що відбувається в Росії?
+Хроніки коронавірусу: обсервація для українців та суворий карантин в Москві
+Путін назвав росіян і українців одним народом. Історики пояснюють, чи це так
+Він зазначає, що згідно з останніми опитуваннями рейтинг Путіна впав до позначки, що передувала анексії Криму. І майже половина росіян не підтримує конституційну реформу.
+Питання наступництва Путіна постають гостріше під час пандемії, пише оглядач. Вік Путіна - 67 років, а отже він у категорії, вразливій до вірусу. "Що станеться, якщо він стане недієздатним або помре?" - міркує оглядач.
+Те, що Путін не підготував чіткого наступника або групу осіб, які будуть керувати країною, може давати йому почуття безпеки, поки він залишається при владі, але це наражає систему та країну на ризик, якщо він зникне без попередження. "У Кремлі знають про таку екзистенційну загрозу", пише Ноубл.
+Кремль старанно повідомляє про кроки, які вжито для того, щоб убезпечити Путіна від вірусу. Мета такої інформаційної кампанії - не лише заспокоїти громадськість, а й запобігти будь-яким спекуляціям серед еліт про те, що Путін захворіє і буде неспроможним керувати, що може спровокувати передчасну боротьбу за владу.
+Зрештою, як свідчать дослідження, палацові перевороти частіше стоять за поваленням недемократичних лідерів, ніж народні повстання, підсумовує Ноубл.
+"Великий брат" у вашому ноутбуку
+Копирайт изображения
+GETTY IMAGES
+Працюєте з дому під час карантину? Ваш роботодавець може за вами шпигувати, попереджає Telegraph. Чимало великих організацій встановлюють на ноутбуки своїх співробітників спеціальні програми, які стежать за тим, чим зайняті працівники на своїх комп'ютерах.
+Виробники такого програмного забезпечення повідомляють про значне зростання попиту за останній тиждень. Деякі програми роблять скріншоти екранів і надсилають їх менеджерам, інші моніторять на які сайти заходять співробітники, фіксують скільки часу вони проводять, працюючи у Word чи Excel або ж регулярно фотографують працівників через вебкамеру.
 Зменшення зарплат, звільнення чи закриття? Що планує український бізнес на карантині
-Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
-"Боюся, що голод вб'є нас швидше за коронавірус"
-Найбільша кількість людей, які захворіли, - в Чернівецькій області (42), Києві (34), Київській (24), Івано-Франківській (16) та Тернопільській (15) областях.
-Серед померлих - двоє мешканців Івано-Франківської області, по одному - з Буковини, Житомирської та Тернопільської областей.
-Пропустити Facebook допис , автор: Центр громадського здоров’я України
-Підтверджено 145 випадків COVID-19 (станом на 22:30 25 березня) За результатами досліджень вірусологічної...
-Posted by Центр громадського здоров’я України on Wednesday, 25 March 2020
-Кінець Facebook допису , автор: Центр громадського здоров’я України
-Раніше, у середу, стало відомо, що у Тернопільській області помер чоловік, хворий на COVID-19.
-"Це мешканець села Ковалівка Монастириського району. Чоловікові було 68 років. Висловлюємо співчуття рідним чоловіка", - повідомли у регіональному штабі боротьби з коронавірусом.
-Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+Карантин? Який карантин? Шведський підхід до боротьби з коронавірусом
+"Завжди важливо пам'ятати, що якщо ваш роботодавець видав вам пристрій, вважайте, що вони або стежать за вашим місцем знаходження, або програми, якими ви користуєтеся, будуть робити аудит ваших пристроїв, щоб перевірити, чим ви займаєтеся, - і це легально", - застерігає Едгар Нджатоу, директор організації Workplace Fairness.
+Роботодавці можуть стежити за співробітниками через низку причин, але працівники мають право на приватність під час роботи, тому їм повинні повідомляти про те, що їх контролюють. Мають існувати чіткі правила, що дозволено, а що ні. Але в будь-якому разі, не варто використовувати робочі пристрої в особистих цілях, радять експерти.
+Романтика в часи пандемії
+Копирайт изображения
+GETTY IMAGES
+Під час карантину значно зросла популярність додатків для побачень. У Bumble люди почали надсилати більше повідомлень, а в Tinder тривалість розмов зросла на третину в порівнянні з попереднім місяцем, пише Independent.
+Романтичні стосунки цілком можуть розквітнути навіть під час віртуального спілкування. "Використання технологій для того, щоб регулярно спілкуватися, бачити один одного і робити щось разом онлайн може допомогти утворити тісніший емоційний зв'язок у парі", - каже психологиня Дарія Кусс.
+Як коронавірус змінив секс-індустрію - огляд ЗМІ
+Чи можна займатися сексом під час коронавірусу?
+Крім того, коронавірус повернув старомодні ритуали побачень у стосунки, зважаючи на неможливість фізичного контакту. Пари довше спілкуються онлайн, намагаючись більше дізнатися один про одного до сексу, пише видання.
+Такі часи також можуть стати хорошою перевіркою для неодружених пар, які живуть разом або з'їхалися на час карантину. Це може показати наскільки добре ви з партнером підходите один одному, каже психологиня з питань відносин Меделін Мейсон Роантрі.
+Магніти в носі заради людства
+Копирайт изображения
+GETTY IMAGES
+Австралійський астрофізик Даніель Реардон потрапив до лікарні, а заразом і на шпальти світової преси, через два магніти, які застрягли у нього в носі. Науковець намагався сконструювати намисто, яке б попереджало, коли людина торкається свого обличчя, пише Guardian.
+27-річний дослідник з Університету Свінберна в Мельбурні пояснив, що намагався розважитися під час самоізоляції, експериментуючи з потужними магнітами. Спочатку він випадково винайшов намисто, яке постійно дзижчало, поки людина не підносила руки до обличчя.
+Веган, який хоче створити ідеальний бургер
+Чому люди розкуповують туалетний папір під час коронавірусу
+Він вирішив піти далі, розмістивши два магніти в ніздрях і ще два назовні. Але коли прибрав зовнішні магніти, ті магніти, що лишилися всередині, з'єдналися між собою.
+Дослідник каже, що його дівчина, яка працює в лікарні, повезла його туди, щоб її колеги посміялися. Лікарі не обійшлися без жартів, але врятували винахідника, який пообіцяв знайти інший спосіб подолати нудьгу під час карантину.
+Огляд підготувала Ганна Чорноус, Служба моніторингу BBC
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Рада звільнила Ємця і Уманського та провалила призначення їм заміни</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Верховна рада звільнила Іллю Ємця з посади міністра охорони здоров'я, а Ігоря Уманського з посади міністра фінансів.
+Відповідне рішення парламент ухвалив на позачерговому засіданні в понеділок.
+Ємець і скандали. Як Україна п'ять тижнів нічого не купувала проти коронавірусу
+Водночас у Ради не вистачило голосів, щоб призначити міністрів замість них.
+Зокрема, парламент так і не призначив Сергія Марченка главою Мінфіну, а Максима Степанова очільником МОЗ.
+Показово, що обох звільнених міністрів призначили нещодавно - 4 березня цього року.
+Поки що ці важливі в умовах фінансової кризи та пандемії коронавірусу відомства будуть без повноцінних керівників.
+Кандидатуру Ольги Буславець, яка претендувала на пост міністра енергетики, зняли з розгляду на прохання президента Володимира Зеленського.
+Так само парламент провалив законопроєкт щодо скорочення видатків держбюджету та створення спецфонду для боротьби з коронавірусом.
+Документ вирішили відправити на повторне перше читання.
+Копирайт изображения
+УНІАН
+Image caption
+Ігор Уманський працював у Мінфіні кількох урядів
+Чим запам'ятався Ємець, коли очолював МОЗ?
+Ілля Ємець, який розповідав, що від коронавірусу "помруть всі пенсіонери", називаючи їх трупами, протримався у відомстві майже чотири тижні. Це ще менше, ніж було десять років тому, коли за часів Віктора Януковича пан Ємець керував міністерством всього три місяці.
+4 березня перед призначенням Ємця Володимир Зеленський сказав, що новий міністр свою першу пресконференцію має присвятити ситуації з коронавірусом. Пан Ємець не провів за час свого правління жодної пресконференції, а його діяльність щодо протидії пандемії критикували і опозиція, і влада.
+У МОЗ кілька тижнів не могли почати централізовані закупівлі медичних виробів від коронавірусу. Ці засоби для країни купували бізнесмени, благодійники та місцева влада.
+В міністерстві лише 26 березня, коли в Україні було вже понад 200 хворих, дали старт закупівлям.
+Політолог Володимир Фесенко розповів ВВС News Україна, що з точки зору здорового глузду, міняти міністрів фінансів і керівника МОЗ було не можна.
+"Уманський - був дуже потужний і його прибирають. Можливо, він був занадто незалежним, а зараз потрібні виконавці", - вважає пан Фесенко.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Коронавірус: чому важливо залишатися вдома?</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Залишатися вдома, можливо, не надто приємно, але це допомагає у боротьбі з пандемією коронавірусу. Кореспондентка BBC Health Лаура Фостер пояснює, як саме це працює.
+В Україні, як і в багатьох країнах світу, запровадили карантин. Влада закликає виходити з дому лише в разі необхідності, працювати віддалено та зменшити соціальні контакти.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Станом на ранок 30 березня в Україні підтвердили 480 випадків зараження COVID-19. За добу виявили 62 нових випадки, повідомляє Центр громадського здоров'я. Також за добу ще дві людини померли від коронавірусу.
+Коронавірус в Україні. Інтерактивна мапа
+Відео BBC News Україна в будь-який час - підписуйтеся на наш канал у YouTube.
+Всі випуски новин BBC News Україна на YouTube.
+Коронавірус в Україні. Інтерактивна мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Коронавірус: як правильно ізолюватися
+Коронавірус: що він робить з організмом
+"Ховати знайомих гірше". Як живе Європа на карантині
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Політика</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Коли чекати грошей МВФ і як це вплине на курс гривні</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNSPLASH
+Верховна Рада напередодні підтримала два законопроєкти, схвалення яких було основною умовою надання нового траншу від Міжнародного валютного фонду.
+Це закон про відкриття в Україні ринку землі та так званий "антиколомойський закон", головним завданням якого є не допустити повернення "ПриватБанку" його колишнім акціонерам - олігархам Ігорю Коломойському та Геннадію Боголюбову. Другий проєкт депутати поки схвалили лише у першому читанні.
+Володимир Зеленський за день до голосування за ці закони заявляв, що вони відкриють шлях до отримання міжнародної допомоги, яка, за словами президента, є життєво необхідною для стабілізації української економіки та подолання кризи.
+Прем'єр-міністр Денис Шмигаль, своєю чергою пояснював, що без нових кредитів Україні загрожує дефолт: "Цього року ми маємо погасити 3,5 млрд доларів зовнішніх зобов'язань і 5,5 млрд внутрішніх. Без підтримки фінансових організацій, напевне, нам доведеться впасти у прірву дефолту".
+Рада вночі запустила відкритий ринок землі. Але з обмеженнями
+"Антиколомойський закон": до чого тут дефолт, карантин і сам Коломойський?
+Скільки грошей може отримати Україна і коли
+Ще в грудні МВФ та Україна досягли попередньої згоди про виділення кредиту на суму 5,5 мільярда доларів, проте в березні мова йшла вже про 8 мільярдів.
+Разом із допомогою Світового банку і Європейського банку реконструкції та розвитку Київ загалом може розраховувати на отримання близько 10 мільярдів доларів.
+Як розповідав президент, вже упродовж 15 днів після виконання усіх умов МВФ має виділити перший швидкий транш на суму від 1,75 до 2 мільярдів.
+Втім, говорити про те, що Києву вже готові перерахувати ці кошти поки зарано, наголошують експерти.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Без нових кредитів Україні загрожує дефолт, пояснював президент, закликаючи депутатів підтримати необхідні закони
+Інвестбанкір Сергій Фурса взагалі має сумніви, що МВФ влаштує ухвалена редакція земельної реформи - на його думку, правки "вихолостили з неї усю економічну сутність", а прописані обмеження не створять того попиту на землю, який дозволив би говорити про серйозний позитивний ефект цієї реформи для економіки.
+"Але навіть якщо МВФ скаже, що із земельною реформою все добре, то все ж лишаються незакриті питання. Попереду - друге читання "антиколомойського" закону, в який усе впирається, і бюджет, який також доведеться узгоджувати з МВФ", - каже пан Фурса у розмові з BBC News Україна.
+Напередодні Рада розглядала запропоновані урядом зміни до бюджету, проте провалила голосування. Прем'єр-міністр Денис Шмигаль ввечері у понеділок висловив сподівання, що повторний розгляд законопроєкту може відбутися за 7-8 днів.
+Приблизно тиждень, орієнтовно, має тривати й схвалення у другому читанні "антиколомойського закону".
+"Як тільки все це приймуть, одразу почнуться перемовини з МВФ, і на рішення, думаю, можна буде очікувати вже упродовж кількох днів", - пояснює Сергій Фурса.
+Що буде з гривнею?
+Вчорашня підтримка депутатами законів, необхідних для продовження співпраці з МВФ, посприяла тому, що гривня вже дещо укріпилася.
+Станом на ранок вівторка котирування гривні на міжбанку опустилися до 27,7 гривні за долар, тоді як до цього тривалий час трималися вище позначки 28 гривень за долар.
+Втім, серйозно розраховувати на те, що виділення кредиту суттєво укріпить гривню, а тим більше поверне курс до показників початку року, все ж не варто, кажуть експерти.
+"Думаю, що отримання грошей від МВФ та інших партнерів, якщо якось і вплинуть на курсову ситуацію, то радше психологічно. Бо ці кошти і урядом, і Нацбанком вже враховані в курсовій політиці, яка реалізується зараз", - каже у розмові з BBC головний редактор журналу "Гроші" Олександр Крамаренко.
+За його словами, об'єктивні показники навпаки говорять про те, що гривня має поступово девальвувати.
+Копирайт изображения
+UNIAN
+"Нацбанк має викуповувати надлишки валюти і не дозволяти гривні укріплюватися. Бо якщо так станеться, то це погіршить і без того складний стан наших експортерів, це буде стимулювати імпорт і дозволить швидше виводити валюту з країни за більш вигідним курсом тим, хто так робить. Плюс Нацбанк вже багато коштів витратив на стабілізацію валюти, і було б логічно, якби зараз він намагався відновити свої резерви".
+За оцінками пана Крамаренка, курс найближчим часом триматиметься в межах від 27,5 до 28,5 гривень за долар.
+Так само сподіватися на серйозне укріплення національної валюти після отримання траншу МВФ не радить і Сергій Фурса.
+"Девальвація буде в будь-якому разі - при наявності співпраці з МВФ чи без неї. Але кредит має дозволити її стримувати", - каже він.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Політика</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Андрій Єрмак про "плівки" з братом: це атака на команду Зеленського</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Голова Офісу президента Андрій Єрмак не відповів на питання, чи говорив він з Володимиром Зеленським щодо скандалу навколо "плівок" з його братом. Проте вказав, що їхня поява - це атака на команду президента.
+Про це він повідомив під час спеціального онлайн-брифінгу на сторінці Офісу президента у FB.
+На питання журналістів, чи обговорював він цей скандал з президентом, пан Єрмак уник прямої відповіді.
+Натомість він сказав, що Державне бюро розслідувань та СБУ розслідують, хто робив ці плівки, про що саме там ідеться і хто їх замовив.
+Від продюсера - до голови Офісу Зеленського. Хто такий Андрій Єрмак
+Перша жінка-генпрокурор від Зеленського: що відомо про Ірину Венедіктову
+Мінфін очолив кадр Гройсмана: що відомо про нового міністра
+Андрій Єрмак вважає, що поява "плівок" - це була спроба зірвати голосування у парламенті 30 березня.
+"Я розглядаю ці плівки в неділю, за день до засідання в парламенті, у світлі розгляду дуже важливих питань. Робили все, щоб Україна опинилась на порозі дефолту, щоб Рада не прийняла важливі закони", - заявив Єрмак.
+30 березня парламент схвалив відкриття ринку землі та у першому читанні проголосував проєкт закону щодо неповернення банків їхнім колишнім власникам - так званий "антиколомойський закон".
+Також пан Єрмак назвав справжнє ім'я депутата Гео Лероса від "Слуги народу", який опублікував "плівки".
+Копирайт изображения
+GEO LEROS
+Image caption
+Гео Лерос - депутат від "Слуги народу", який опублікував "плівки Єрмака"
+"Цей пан, який називає себе Гео Лерос - його справжнє прізвище - Курихян Георг Багратович. Він є інструментом, який використовують люди, які борються не тільки зі мною, а й з владою та командою президента", - вважає керівник ОП.
+Єрмак каже, що Лерос налаштований проти нього, бо голова ОП заблокував одне з кадрових призначень, що той лобіював.
+Брат Андрія Єрмака Денис назвав опублікований матеріал "нарізкою".
+Андрій Єрмак працює головою Офісу президента з 11 лютого 2020 року.
+До цього з травня 2019 року він був радником президента Зеленського й займався переважно налагодженням стосунків на російському та американському напрямку.
+"Плівки Єрмака"
+Гучний політичний скандал навколо голови Офісу президента вибухнув 29 березня.
+Депутат Ради від "Слуги народу" Гео Лерос на своїй сторінці у Facebook виклав низку відеозаписів, на якій людина, схожа на брата Андрія Єрмака, домовляється з різними людьми щодо працевлаштування на різноманітні посади у владі.
+Пропустити Facebook допис , автор: Geo
+Видео доказательства как Ермак через своего брата барыжит государственными должностями, внедряет свою программу в...
+Posted by Geo Leros on Sunday, 29 March 2020
+Кінець Facebook допису , автор: Geo
+При цьому він начебто вимагає за сприяння великі суми грошей.
+Записи на тих кадрах "датовані" другою половиною 2019 року, коли Єрмак був ще радником президента Зеленського.
+Перед цим пан Лерос вже публічно критикував Єрмака та його дії на посаді голови Офісу президента, зокрема, і щодо домовленостей у Мінську про спільну Координаційну раду з представниками ОРДЛО.
+29 березня ввечері на звинувачення Лероса у тому, що його брат за гроші міг влаштувати людей на владні посади, відповів сам голова ОП.
+Він підтвердив, що на відео його брат Денис, а також пообіцяв подати заяви до СБУ та ДБР через публікацію відео.
+Права на зображення Андрій
+АНДРІЙ
+Пан Єрмак не коментував Звинувачення проти свого брата по суті.
+Натомість стало відомо, що Державне бюро розслідувань відкрило провадження щодо Гео Лероса одразу за чотирма статтями. Серед них були "втручання у діяльність державного діяча та розголошення державної таємниці".
+Пана Лероса викликали на допит до ДБР.
+Пропустити Facebook допис 2, автор: Geo
+Мне сегодня позвонили и вызвали на допрос в ДБР. Позвольте я процитирую театр абсурда, который происходит: «Нардеп от ...
+Posted by Geo Leros on Monday, 30 March 2020
+Кінець Facebook допису 2, автор: Geo
+Сам Лерос направив матеріали до НАБУ та Антикорупційної прокуратури, яка відкрила провадження та почала перевіряти надані матеріали щодо можливої корупції високопосадовців. Зокрема, й вищих посадових осіб Офісу президента.
+30 березня ситуацію з "плівками" прокоментував сам Денис Єрмак. В коментарі виданню "Бабель" він назвав це шахрайством та нарізкою.
+"По суті, я обговорюю проєкти, які подавав у системі звернення громадян до Кабміну. Прикро, що мої ініціативи реформ і проєктів мало того, що не розглянули на Кабміні (відписки, понад 50), але й особисто мене і брата облили брудом", - написав він у Facebook-месенджері у відповідь на питання "Бабеля".
+На уточнююче запитання, чи памʼятає він, з ким зустрічався, Денис Єрмак відповів, що ні.
+Офіційно президент Зеленський не коментував цей скандал.
+Проте, як вказувала низка українських ЗМІ, президент міг мати розмову з головою свого Офісу з цього приводу.
+Пропустити Facebook допис , автор: Спеціалізована антикорупційна прокуратура
+#САП РОЗПОЧАТО КРИМІНАЛЬНЕ ПРОВАДЖЕННЯ ЗА ФАКТОМ МОЖЛИВОГО ВЧИНЕННЯ КОРУПЦІЙНИХ ЗЛОЧИНІВ ПІД ЧАС ПРИЗНАЧЕННЯ ОСІБ ДО...
+Posted by Спеціалізована антикорупційна прокуратура on Monday, 30 March 2020
+Кінець Facebook допису , автор: Спеціалізована антикорупційна прокуратура
+Багато оглядачів та експертів вже порівнюють ситуацію навколо Єрмака зі скандалом часів Петра Порошенка та його соратника Гладковського (Свинарчука).
+Так само експерти припускають, що це може так само вдарити по рейтингу Зеленського, як і питання Свинарчука по рейтингу Порошенка.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Політика</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Ринок землі: Рада підтримала земельну реформу в другому читанні</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Верховна Рада в другому читанні підтримала законопроєкт, який має відкрити в Україні ринок сільськогосподарської землі. За документ проголосували 259 депутатів.
+Зокрема, законопроєкт підтримали 206 депутатів фракції "Слуга народу", 13 депутатів фракції "Голос", 23 депутати фракції Петра Порошенка "Європейська солідарність", 12 депутатів з групи "Довіра".
+Серед тих, хто голосував проти, - 12 депутатів з "Батьківщини", по двоє депутатів зі "Слуги народу", групи "За майбутнє" та ОПЗЖ.
+Голосування відбулось майже о першій ночі на позачерговому засіданні Верховної Ради, яке розпочалось о 16.30 у понеділок і тривало понад 8 годин. Загалом депутати розглянули понад 4 000 поправок, зокрема, під час останнього засідання понад 600.
+Минулого тижня голова Міжнародного валютного фонду Крісталіна Георгієва заявила, що ухвалення ринку землі є однією з ключових умов виділення Україні нової кредитної лінії.
+Президент Володимир Зеленський напередодні заявив, що отримання грошей МВФ необхідне Україні в умовах економічної кризи та пандемії коронавірусу. Цю ж тезу він підтримав у парламенті.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Володимир Зеленський був присутнім у Раді під час голосування
+Згідно з новим законом, ринок землі має запрацювати в Україні з другого півріччя 2021 року. Це майже на рік пізніше, ніж планували. При цьому в законі передбачили низку обмежень.
+Земля України: скільки її, кому належить і хто на ній працює
+Затяжний мораторій: що заважає Україні відкрити ринок землі
+Більшість проти відкриття ринку землі - опитування
+Хто зможе купувати землю?
+Раніше законопроєкт передбачав, що в одні руки можна буде купувати не більше 10 тис. гектарів.
+Але, згідно з остаточною версією закону, в перші три роки можна буде купувати не більше 100 гектарів в одні руки. І лише з 2024 року - до 10 тис. гектарів, як планувалося.
+Крім того, з 2021 до 2024 року право на купівлю землі буде тільки у фізичних осіб. Юридичним особам купувати землю сільськогосподарського призначення в цей період заборонено, вони зможуть купувати землю з 2024 року.
+Також заборонено продавати землю, яка перебуває у державній власності.
+Іноземні компанії і громадяни не зможуть купувати землю, доки це питання не вирішать окремо на референдумі.
+Володимир Зеленський ще в листопаді, оголошуючи про намір запустити земельну реформу, заявляв, що "китайці, араби та інопланетяни" не стануть власниками української землі.
+Тоді ж він пообіцяв, що між першим і другим читанням до законопроєкту внесуть зміни, згідно з якими "право продавати і купувати землю матимуть лише українські громадяни та українські компанії, засновані виключно українськими громадянами".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Політика</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Сергій Марченко: що відомо про нового міністра фінансів</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Верховна Рада на позачерговому засіданні 30 березня звільнила міністра фінансів Ігоря Уманського і з другої спроби призначила на його місце Сергія Марченка.
+Для призначення Марченка з першого разу у монобільшості не вистачило голосів, тож уряд повторно вніс подання на призначення голови Мінфіну на вже третьому позачерговому засіданні за день.
+Міністр фінансів Ігор Уманський протримався на посаді керівника надважливого в умовах економічної кризи Мінфіну менш як місяць. Як припускають експерти, пан Уманський міг виявитись занадто незалежним, що не надто сподобалось Банковій.
+Його замінив Сергій Марченко, який раніше працював в адміністрації президента Петра Порошенка, уряді Володимира Гройсмана та йшов з ним на вибори до Верховної Ради.
+Рада звільнила Ємця і Уманського та провалила призначення їм заміни
+Перша жінка-генпрокурор від Зеленського: що відомо про Ірину Венедіктову
+Рятувати економіку буде менеджер Бахматюка: що відомо про нового міністра
+Уряд Шмигаля: хто пішов та хто лишається
+Сергій Марченко вважається досвідченим експертом у фінансових справах.
+В уряді Володимира Гройсмана він з 2016 до 2018 року працював заступником міністра фінансів.
+Коли після гучного скандалу Рада звільнила з посади глави Мінфіну Олександра Данилюка (який за президента Зеленського кілька місяців був секретарем РНБО), пан Марченко пішов з міністерства. Проте незабаром він опинився в адміністрації президента Петра Порошенка до травня 2019 року.
+Там він був заступником голови АП Ігоря Райніна.
+Копирайт изображения
+UNIAN
+Image caption
+Сергій Марченко (ліворуч), міністр фінансів Олександр Данилюк (у центрі) та Володимир Гройсман (праворуч) - 2017 рік
+На позачергових парламентських виборах влітку 2019 року Сергій Марченко опинився у виборчому списку тоді ще прем'єр-міністра Володимира Гройсмана.
+Він отримав сьоме місце, проте партія Гройсмана не подолала виборчого бар'єра.
+Фінансист і чиновник
+Сергій Марченко народився на Київщині у січні 1981 року.
+У 2002 році він закінчив академію податкової служби за спеціальністю "управління державними фінансами". Згодом став кандидатом економічних наук.
+Згодом працював у державних структурах міністерства фінансів, фіскальній службі та секретаріаті Кабміну.
+Image caption
+Сергій Марченко у команді Володимира Гройсмана
+Як вказує рух "Чесно", Сергій Марченко брав участь у розробці бюджетного кодексу, який схвалили у 2014 році.
+Пан Марченко свого часу був експертом у Bendukidze Free Market Center та академічним директором спільної програми "KSE" та "GIZ".
+На початку 2016 року Марченко керував координаційним центром забезпечення взаємодії з Кабміном у МОЗ.
+Сергій Марченко має дружину, доньку та сина.
+Родина має дві квартири у Києві та автомобіль AUDI A6.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Економіка</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Земля в українській літературі та кіно. Тест</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Верховна Рада на нічному засіданні дозволила продаж землі, суперечки за яку сторіччями були однією з головних тем в українській літературі.
+Братовбивство за батьківську землю, суперечки за межі, жадоба скупити цілі райони і боротьба з великими землевласниками - все це вже було змальовано класиками української літератури.
+Рада вночі запустила відкритий ринок землі. Але з обмеженнями
+Земля України: скільки її, кому належить і хто на ній працює
+Можливо, варто перечитати класиків, щоб краще розуміти, чого нам не оминути у майбутньому.
+Фото УНІАН та УКРІНФОРМ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Економіка</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>"Історичний крок" чи "кастрована" реформа: соцмережі вирують через ринок землі</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Користувачі соцмереж активно обговорюють закон про ринок землі, який Верховна Рада ухвалила вночі у вівторок.
+Дехто називає це історичним рішенням, дехто звинувачує владу, що вона продала країну, а окремі користувачі критикують закон за недостатню революційність.
+Боротьба за землю в українській літературі та кіно. Тест
+Рада вночі запустила відкритий ринок землі. Але з обмеженнями
+Земля України: скільки її, кому належить і хто на ній працює
+"Якщо коротко про кастрований ринок землі в Україні, який, можливо, запрацює де-юре з липня 2021 року, а де-факто з січня 2024 року, то це жорстока історія про те, як невинність зберегти і дитя отримати", - пише в Facebook президент асоціації "Український клуб аграрного бізнесу" Алекс Ліссітса.
+Пропустити Facebook допис , автор: Alex
+Кінець Facebook допису , автор: Alex
+Інвестиційний банкір Сергій Фурса назвав закон про ринок землі "історією про втрачений шанс".
+На його думку, нове обмеження купувати не більше 100 гектарів в одні руки в проміжку між липнем 2021 року та січнем 2024 року не дозволить з'явитися значному попиту на землю, а отже ціни не зростуть і селяни не зароблять.
+Пропустити Facebook допис , автор: Sergey
+Кінець Facebook допису , автор: Sergey
+А виключення з продажу земель у державній власності дозволить "корупціонерам і далі паразитувати на ній", переконує він, зазначаючи, що зараз державі належить 10 млн гектарів, що дорівнює площі всієї Болгарії.
+"Останні правки вихолостили всю економічну суть з цієї реформи. Вона не дасть ніякого економічного ефекту. Ні на макрорівні, ні на мікрорівні", - скаржиться Фурса.
+"Чому в нас все через одне місце, в останній момент, з надривом, та ще й наполовину? Але все одно радий за ухвалений земельний закон. Здається, так мало, і водночас так багато", - пише в Facebook бізнесмен Ігор Ліскі.
+Пропустити Facebook допис , автор: Igor
+Кінець Facebook допису , автор: Igor
+Журналісти Соня Кошкіна та Сергій Сидоренко назвали закон "історичним кроком".
+Пропустити Facebook допис , автор: Sonya
+Кінець Facebook допису , автор: Sonya
+Водночас Сидоренко не втримався від жартів на тему ринку. Він пожартував, що тепер "всю землю вивезуть вагонами в Німеччину", а те, що залишиться, після 2023 року "скупить Сорос".
+Пропустити Facebook допис , автор: Сергій
+Кінець Facebook допису , автор: Сергій
+"Піду скуплю пакети АТБ і буду насипати в них чорнозем. Хтось знає, чи після відкриття кордонів, як скінчиться карантин, по скільки кілограм чорнозему на одного дорослого можна вивозити?" - жартує користувач Федір Лапій.
+Пропустити Facebook допис , автор: Denys
+Кінець Facebook допису , автор: Denys
+Проти ринку землі традиційно виступають представники "Батьківщини", ОПЗЖ та "Свободи".
+"Зрадники, які під покровом ночі, прикриваючись епідемією, з грубим порушенням регламенту проголосували за дерибан української землі!" - написав лідер "Свободи" Олег Тягнибок.
+А співголова ОПЗЖ Вадим Рабінович навіть написав вірша від обурення.
+Пропустити Facebook допис , автор: Vadim
+Кінець Facebook допису , автор: Vadim
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Георгій Ерман</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Економіка</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Ринок землі: як він працює у Франції і чи варто Україні переймати її досвід</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Французький фермер розорює плугом землю на винограднику у муніципалітеті Сассе, департамент Луар-е-Шер. Січень 2020 року
+Питання відкриття ринку землі кілька місяців було однією з найгостріших політичних тем в Україні, воно спричиняло сутички на вулицях та штовханину в Раді.
+На початку лютого Юлія Тимошенко навіть вистояла декілька годин у ложі спікера, аби зупинити ухвалення закону про ринок землі у другому читанні.
+Лідерка "Батьківщини" у своїх виступах неодноразово закликала наслідувати приклад Франції, де ринок землі є регульованим.
+"У Франції створена спеціальна агенція, яка не дає жодного міліметра землі отримати без їхнього контролю. Франція демонструє політику підтримки власного фермера", - заявила вона в ефірі ICTV минулого року.
+І от нарешті в ніч проти 31 березня Верховна Рада таки ухвалила закон про землю.
+BBC News Україна проаналізувала, як функціонує ринок землі у Франції, і чи варто запозичувати її досвід.
+Рада вночі запустила відкритий ринок землі. Але з обмеженнями
+Хто володіє землею Шотландії: арабський шейх, данський мільярдер і герцог
+Земля України: скільки її, кому належить і хто на ній працює
+"Ферма Франція"
+Франція - провідний агровиробник Євросоюзу, на якого припадає 16,9% аграрного виробництва ЄС.
+Об'єм виробництва у сільському господарстві Франції 2018 року становив 73 млрд євро, у той час як в Німеччині - 56 млрд євро, а в Італії - 51 млрд євро.
+Франція має найбільший фонд земель сільськогосподарського призначення серед країн ЄС - 27,8 млн га.
+За даними Євростату, середня ціна гектару землі у Франції у 2018 році у становила 6 020 євро за гектар.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Франція вже кілька сторіч є одним з провідних сільськогосподарських виробників Європи. Картина Жюля Бретона "Повернення збиральниць жита"
+Згідно з даними Etude Agrifrance 2019, у 2018 році гектар землі у Франції коштував трохи дорожче - 6 270 євро.
+Зокрема, 7590 євро складала ціна за гектар землі, на якому вирощували зернові, і 4 950 євро за гектар пасовищ.
+Ціна за найкращі сільськогосподарські землі, наприклад, у регіоні Нор-па-де-Кале та місцевості Сантерр у регіоні Пікардія, перевищує 25 000 євро за гектар.
+Водночас середня ціна землі у Франції набагато поступається ціні у багатьох країнах ЄС.
+Наприклад, за даними Євростату 2018 року, середня ціна землі в інших країнах ЄС становила:
+Нідерланди - 70,3 тисячі євро за гектар
+Італія - 33,6 тис.
+Ірландія - 27,5 тис.
+Британія - 23,1 тис.
+Іспанія - 13 тис.
+Швеція - 8,8 тис.
+Польща - 10,3 тис.
+Чехія - 7,6 тис.
+Тож середня ціна на землю у Франції вища лише за ціну землі в деяких країнах, які нещодавно вступили до ЄС:
+Румунія - 4,9 тис. євро
+Угорщина - 4,6 тис.
+Латвія - 3,9 тис.
+Хорватія - 3,3 тис.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Збір яблук в Ля-Шапель-Уон
+Сотні тисяч фермерів з невеликими доходами
+В Україні станом на травень 2019 року нараховували 46 тисяч фермерських господарств, і є тенденція до повільного зростання їх кількості - у липні 2013 року їх було 40,9 тисячі.
+Натомість у Франції фермерських господарств майже в 10 разів більше, хоча вже багато років триває тенденція до їх скорочення.
+Якщо у 2008 році в країні було 514 тисяч фермерів, у 2018 році їхня кількість скоротилася до 448,5 тисяч.
+Займатися фермерством у Франції - це важка, і не завжди прибуткова діяльність.
+За даними Національного інституту статистики та економічних студій, у 2017 році у Франції 444 тисячі людей були самозайнятими у сільському та лісовому господарстві.
+З них майже п'ята частина - 92 тисячі - отримували середній прибуток лише у 560 євро на місяць і працювали за пільговим податковим режимом (micro-BA).
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Фермер Франсіс Боні зі своїми коровами в департаменті Аверон у центральній Франції
+Інші 352 тисячі фермерів платили податки за звичайним режимом, проте 19% з них задекларували нульовий дохід або збитки.
+Середній прибуток французького фермера 2017 року складав 1390 євро на місяць.
+Найбільше заробляли ті, хто займається виноробством - 2790 євро, вирощуванням овочів, фруктів та квітів - 2500 євро, садівництвом - 2060.
+Натомість середній місячний дохід зайнятих у тваринництві складав лише 1 100 євро, 28% зайнятих у цій галузі задекларували збитки або нульовий дохід; у виробництві зернових - 980 євро, і 30% зайнятих у галузі задекларували збитки або нульовий дохід.
+Копирайт изображения
+GETTY IMAGES
+Розмір ферм у Франції поступово збільшується.
+У 2016 році розмір земельних фондів 5,6% ферм складав понад 200 га, 17,2% ферм мали 100-200 га, 20,2% ферм - від 50 до 100 га і 40,1% ферм мали менш як 20 га землі.
+Якщо у 2000 році середній розмір ферми складав 43 га, до 2016 році він збільшився до 63 га.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+І молочне, і м'ясне тваринництво є одними з найменш прибуткових галузей сільського господарства у Франції
+У сільському господарстві 2016 року було зайнято 824 тисячі людей, 57,9% були керівниками і користувачами землі, 20% - постійними робітниками на зарплаті, 16% сезонними робітниками.
+За даними цього ж інституту, вік зайнятих у сільському господарстві постійно зростав. Якщо у 2000 році 26,1% фермерів та їхніх співвласників були віком до 40 років і 20,5% - віком понад 60 років, то в 2016 році 17,5% і 25,3% відповідно.
+Основна вікова група фермерів - це люди від 40 до 59 років, 2016 року таких було понад 57%.
+Як функціонує ринок землі
+Всі операції з купівлі-продажу землі у Франції проходять під контролем Товариств земельного упорядкування та сільського господарства (Sociétés d'aménagement foncier et d'établissement rural, SAFER).
+Ці організації є приватними, але функціонують не з метою отримання прибутку. Вони фактично виступають регуляторами землекористування в країні, іноді запобігають угодам купівлі, самостійно купують її, а потім перепродають.
+Створили SAFER ще 1960 року за правління Шарля де Голля. Метою було збільшити продуктивність сільського господарства і залучити якомога більше молодих родин до фермерства. У 1990-х роках до цієї місії додалися захист довкілля, ландшафтів, природних ресурсів.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Як і чинна політична система Франції, система регулювання ринка землі - результат діяльності президента Шарля де Голля (якого на фотографії 1968 року пригощають селяни) та його міністрів
+У складі SAFER діє технічний комітет, який розглядає досьє людей, що планують купити землю. До його складу входять представники сільськогосподарських організацій та профспілок, місцевої влади, а також представники від міністерств фінансів та сільського господарства.
+Рішення ухвалює Рада директорів SAFER, яка складається з представників організацій аграріїв та місцевої влади, а затверджують його представники Мінфіну та Міністерства сільського господарства.
+Нотаріуси, які супроводжують угоду купівлі-продажу ділянки землі, зобов'язані повідомити SAFER про проєкт такої угоди і запитати, чи має регулятор якісь плани щодо купівлі саме цієї ділянки землі.
+Копирайт изображения
+GETTY IMAGES
+Регіональне відділення SAFER має два місяці на відповідь. Якщо регулятор вирішить, що земля приноситиме більшу користь для Франції в руках іншого власника - фермера, місцевої громади, національного парку, держави - вона може застосувати так зване право переважної купівлі.
+Це означає, що власник землі зобов'язаний продати її саме SAFER. Водночас регулятор має публічно обґрунтувати своє рішення про переважну купівлю.
+Окрім того, якщо регулятор вирішить, що ціна землі не відповідає реаліям, її можуть намагатися змінити через суд.
+За даними SAFER, право переважної купівлі застосовується лише приблизно щодо десятої частини проєктів угод купівлі-продажу землі.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+42-річна фермерка Патрісія Десіз, яка вирощує корів шаролезької породи, з 14-річною донькою Анаїс на Сільськогосподарському салоні у Парижі
+Наприклад, у 2018 році відділення SAFER придбали 11 700 об'єктів власності загальною площею 103 тисяч га, а продали 105 тисяч га.
+Водночас за правом переважної купівлі у 2018 році придбано лише 6 600 га вартістю 68 млн євро. Це склало 6% проданої землі та 12% угод купівлі-продажу землі того року. Все інше - це звичайні "полюбовні" угоди купівлі-продажу.
+Деякі фермери навіть звертаються прямо до SAFER з пропозицією купити свою землю і не шукають покупців деінде.
+Через обмеженість фінансових ресурсів для купівлі землі регулятори раніше намагалися не купувати великі земельні володіння, оскільки мали право викупати лише всю земельну частку, проте з 2015 року їм дозволили купувати і окрему частину великих земельних володінь.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Збір врожаю лаванди у Провансі
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+В системи контролю ринку землі у Франції є і переваги, і недоліки.
+Детально про них в коментарі BBC News Україна розповідає і порівнює з українськими реаліями засновник компанії Groupe Alfagro, французький бізнесмен Жерар де Ля Салль. Він понад 15 років працює в Україні в галузі виробництва та збуту сільськогосподарської техніки.
+"Те, що у Франції зараз приблизно 450 тисяч фермерів - це завдяки контролю таких структур (SAFER). Інакше б ми пішли шляхом України - шляхом концентрації землі. Кількість фермерів суттєво б скоротилася", - зазначає він.
+Копирайт изображения
+GETTY IMAGES
+На думку пана де Ля Салля, кількість фермерів має значення для всієї економіки.
+"В Україні набагато більше землі (у Франції 28 млн га землі сільськогосподарського призначення, в Україні - 42 млн га. - Ред.), але вдесятеро разів менше фермерів. Якщо українці хочуть бачити розвиток компаній, які виробляють сільськогосподарську техніку, потрібно, щоб аграрна політика полягала в збільшенні кількості фермерів. Це дозволить створити більше виробництв і робочих місць", - пояснює він.
+Недоліком французький бізнесмен вважає надто суворий контроль ринку землі.
+"Французькі політики не сприймають збільшення розміру ферм. У Франції багато ферм з маленькими земельними ділянками у порівнянні з фермами інших країн ЄС, і це створює труднощі для конкурентоздатності французьких фермерів", - зазначає Жерар де Ля Салль.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У добу коронавірусу французькі фермери забезпечують прямі поставки їжі споживачам. Фермер Давид Фернандес з центральної Франції, наприклад, постачає французькі родини свіжими овочами
+Копирайт изображения
+GETTY IMAGES
+Чи можуть купувати землю іноземці
+Іноземці можуть купувати землю у Франції. Проте система купівлі-продажу землі влаштована таким чином, що переваги при купівлі отримують орендарі. Переважно це французькі фермери або громадяни ЄС, які вже давно займаються сільським господарством у країні.
+"На купівлю і використання землі має бути дозвіл SAFER і той, хто вже використовує цю землю, має привілеї, в нього більше шансів отримати дозвіл, ніж у звичайного інвестора", - пояснює Жерар де Ля Салль.
+Громадяни країн ЄС мають такі ж права на купівлю землі, як і французи. А ось в громадян інших країн шансів на купівлю менше.
+"Наприклад, перш ніж надати дозвіл на купівлю землі українцю, SAFER перевірить, чи існує француз або громадянин країн ЄС, який міг би купити цю землю", - зазначає французький бізнесмен.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Фермери Каролін та Тібо Бейссони збирають врожай салату-латуку у муніципалітеті Жиньяк-ля-Нерт у Провансі
+Оренда землі
+Франція - країна, де існує надзвичайний захист прав орендаря згідно з законом про оренду (Statut du fermage), ухваленим ще 1946 року.
+Договір оренди укладається щонайменше на 9 років, навіть якщо сторони хочуть укласти його на менший строк, вони не мають на це права.
+Суборенда є забороненою, навіть якщо на неї погодився землевласник.
+Право оренди поновлюється за бажанням орендатора.
+Землевласник не може відмовитися поновити договір оренди за виключенням ситуації, коли він оброблятиме землю за власний рахунок.
+У випадку смерті орендаря, орендний договір не припиняється, оренда передається його нащадкам
+У випадку смерті землевласника, його наступник має виконувати чинні договори оренди, дія яких не припиняється.
+У випадку ухвалення рішення про продаж землі, чинний орендатор має пріоритет на її купівлю.
+Орендна плата не визначається на розсуд землевласника, а має бути в рамках діапазону, встановленого на рівні префектури на час укладання угоди.
+Орендна плата індексується щороку відповідно до індексів, визначених префектом.
+Жерар де Ля Салль зазначає, що в законі існує важливе положення, яке захищає орендаря.
+"Якщо власник землі хоче її продати, а ця земля вже використовується орендарем, саме він є першою людиною, якому власник землі має її запропонувати купити. А якщо орендар не може купити, він може вимагати, аби угода оренди продовжувалася і новий власник зобов'язаний погодитися", - пояснює він.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Молоді фермери збирають врожай овочів у кооперативі "100 мавп" біля Тулузи. Його створили спеціально для залучення молоді до сільського господарства і обмеження для неї фінансових ризиків
+Водночас ціну на землю визначає власник і орендар не може її оскаржити.
+"Навіть, якщо власник хоче 5 млн євро за гектар. Якщо орендар не може заплатити, це його проблема, не продавця", - каже Жерар де Ля Салль.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+59-річний фермер Жан-Батіст Лоято, який займається свинарством, позує разом з 25-річною донькою Лейре на Сільськогосподарському салоні у Парижі
+Водночас французький закон про оренду передбачає кілька можливостей розірвання угоди оренди для землевласника:
+несплата хоча б однієї орендної плати
+нездатність орендаря використовувати орендовану землю
+випадок суборенди, до якої вдався орендатор
+передання землі для іншого господарського призначення (під будівництво), але це неможливо без згоди САФЕР
+досягнення пенсійного віку орендарем
+бажання самостійно обробляти землю, або передати членам родини чи нащадкам для обробки.
+На думку Жерара де Ля Салля, Україні не вистачає такого закону, як французький Statut du fermage, який захищає орендарів таким чином, аби вони могли якомога довше використовувати землю.
+"Зараз (після відкриття ринку землі. - Ред.) в Україні може скластися ситуація, коли орендатор не зможе купити у власника орендовану ним землю, і той продасть її іншій людині. А якби в Україні була така ж система захисту орендарів, як у Франції, занепокоєння в них було б менше", - зазначає він.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Вустрична ферма в Сет, регіон Лангедок-Руссійон
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Робота на вустричній фермі біля узбережжя Нормандії
+"Золоті" виноградники
+Виноградники є найціннішими землями.
+Згідно з даними Міністерства сільського господарства Франції, 793 тисячі гектарів землі у Франції використовувалося під виноградники у 2018 році. Це складає приблизно 10% площі виноградників у світі.
+Копирайт изображения
+GETTY IMAGES
+Виноробством займаються 85 тисяч господарств і воно дає 15% прибутку від сільського господарства.
+Згідно з даними дослідження BNPParibas, ціна на землі з виноградниками в рази перевищує ціну на землі для зернових. 144 тис. євро - це середня ціна гектара виноградників, але в Шампані ціна становить 1,2-1,5 млн євро за га, в комуні Помероль досягає 3,8 млн євро.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У комуні Помероль - найдорожча земля з виноградниками у Франції
+Хоча в українських та російських ЗМІ є чимало згадок про те, що іноземцям заборонено купувати виноградники, які є національним спадком Франції, це не так.
+"Те, що пишуть в статтях про заборону купувати виноробні господарства - це абсолютна неправда. Відбувається це так: іноземці купують частину акціонерного товариства, зареєстрованого у Франції, яке володіє виноградниками, і отримують контроль. Їм нічого не може завадити", - каже Жерар де Ля Салль.
+2010-ті роки позначилися купівлею виноробних господарств громадянами Китаю, Сингапуру, Індії, Кореї, Росії.
+Багаті іноземці можуть купувати виноградники, аби спробувати себе у цьому бізнесі, для перепродажу через деякий час або, щоб похизуватися перед друзями.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Збір врожаю в Шато Петрюс, комуна Помероль
+"Чому так багато іноземців зараз купують виноробні? Тому що у французів недостатньо коштів, їх ціна велика, дуже невелика кількість французьких інвесторів має кошти, щоб купити. А якщо платоспроможних французів немає, власник продає іноземцям", - пояснює Жерар де Ля Салль.
+Азійські бізнесмени часто купують виноробні за більшу ціну, ніж встановлена власником.
+Наприклад, у 2012 році сингапурський бізнесмен Луїс Нг Чі Сінг придбав виноробне господарство Жевре-Шамбертен з 2,3 га землі, які продавали за 3,5 млн євро, за 8 млн євро.
+Втім, згідно з дослідженням Vinea Transaction, у 2015 році лише 2% власників виноробень були іноземцями, вони контролювали 12 000 га землі і приблизно 500 господарств.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Гонконзький інвестор Пітер Квок позує у винному льоху виноробні "Шато Бельфон-Бельсьє" у квітні 2018 року. Ця виноробня була сьомою, яку він придбав у Франції
+90% з них концентрувалися в районі Бордо і середземноморських департаментах Франції.
+22% іноземних власників були британцями, 21% китайцями, 17% бельгійцями, 9% швейцарцями, по 6% становили німці, голландці та американці.
+Протести та самогубства
+Аграрна політика у Франції є однією з найважливіших та найгостріших політичних тем.
+Відвідини Сільськогосподарського салону у Парижі є традицією для французьких президентів, які під час таких заходів спілкуються з фермерами і обіцяють забезпечити їм якщо не процвітання, то підтримку.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Відвідини Сільськогосподарського салону є традицією французьких президентів
+Потім минає якийсь час, і фермери виходять на протест. Це, зокрема, часто відбувається у зв'язку з падінням цін на аграрну продукцію.
+Наприклад, восени 2019 року організації FNSEA ("Федерація об'єднань фермерів") та Jeunes agriculteurs ("Молоді фермери") організували тракторні марші на Париж, вимагаючи від президента Макрона дієвих заходів для порятунку сільського господарства.
+І це попри дотації, які отримує французьке сільське господарство в рамках ЄС.
+Окрім того, французькі ЗМІ рясніють заголовками про самогубства та самотність фермерів.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Залучена до протестів фермерів корова з написом "Макроне, це моє останнє теля"
+Фермерство є однією з професій з найбільшим ризиком самогубств.
+Згідно зі звітом Mutualité sociale agricole, 2015 року зафіксували 605 самогубств серед зайнятих у сільському господарстві, зокрема, 372 серед фермерів і 233 серед сільськогосподарських робітників.
+Четверо з п'яти самогубців були чоловіки. Серед самогубців більшість (466 з 605) становили люди старше 50 років і фермери, які займаються молочним або м'ясним тваринництвом.
+Чому так відбувається?
+На думку Жерара де Ля Салля, така ситуація стала наслідком господарчого мислення французьких фермерів, а також деяких аспектів податкової та європейської політики.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Посівний сезон-2020 у полі біля міста Бетюн, на півночі Франції
+"Податкова система у Франції стимулює фермерів постійно інвестувати в господарство, аби платити менше податків. У ферми, яка має 100 га, буває по 4 трактори, хоча вистачило б одного. Фермери інвестують, купуючи техніку, яка їм не потрібна. Це одна причина заборгованості", - пояснює бізнесмен.
+"Інша група фермерів має борги через європейську політику. На фермах молочного тваринництва європейське право зобов'язує приводити до норми всі господарські споруди. Заради захисту довкілля, добробуту тварин та інтересів сусідів. Фермер виділяє сотні тисяч євро на непродуктивні витрати, зростає його борг. А коли ціна на молоко падає, виходить критична ситуація", - додає він.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Ще один сильний противник тваринництва у Франції - рух веганів-зоозахисників
+В інтерв'ю французькому виданню Figaro фермер, автор книги "Фермери, причини відчаю" та агрожурналіст Ерік де ля Шене окрім економічних причин самогубств, таких як заборгованість, згадує зменшення значущості праці фермера.
+Мовляв, у супермаркетах достатньо їжі, нікому не загрожує голод і фермерство вже не є професією, від якої залежить життя багатьох людей, як це було ще 100 років тому.
+"Ми харчуємося надмірно, відсуваючи на задній план, звідки береться їжа і що потрібно для її виробництва: фізична праця, тяжка праця, піт у спеку та холод, стрес через неможливість зібрати врожай в достатній кількості. Оскільки ми більше не визнаємо моральну і матеріальну цінність праці фермерів, вони відчувають себе розгубленими і втраченими", - пояснює пан де ля Шене.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Коли фермери невдоволені, вони перекривають автошляхи
+Він також зазначає, що проблемам фермерів не приділяють достатньо уваги і в суспільстві, і в ЗМІ.
+"Як і їхні тварини, селяни помирають у тиші. Самогубства на пошті чи в Orange ( кілька десятків самогубств співробітників французької телекомунікаційної компанії у 2008-2011 роках через очікування скорочень та стрес. - Ред.) справедливо струшують суспільство. А фермери - забуті, викреслені".
+Як приклад Ерік де ля Шене цитує фермера з Нормандії, який зізнався йому, що змога поспілкуватися з агрожурналістом під час репортажу стала для нього свого роду терапією, оскільки він планував вчинити самогубство, якщо його борг досягне 150 тисяч євро.
+"Цей чоловік мав глибоке почуття честі і почуття провини за свою ферму, яку передав йому батько. Для нього було нестерпно зазнати невдачі там, де досягли успіху його предки", - розповідає він.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Фермер Мішель Шампей позує з коровами та бугаями салерської породи. Тваринництво у Франції є досить ризикованим бізнесом
+Тож чи варто Україні запозичувати французький досвід?
+На думку Жерара де Ля Салля, Україні варто запозичити французький досвід захисту прав орендарів, але потрібна більш гнучка система, яка уможливлює більший розмір ферм ніж у Франції, але менший, ніж той, який пропонує український закон.
+Ще до ухвалення остаточних правок до українського закону про ринок землі, французький бізнесмен називав тривожною норму законопроєкту про можливість купувати до 10 тисяч гектарів землі.
+"Ви обмежуєте ділянку землі, яку можна купити, 10-ма тисячами гектарів. А хіба потрібно стільки землі, щоб її використовувати в господарстві? Ні. Просто деякі люди знають, що ціна на землю зросте, і буде після відкриття ринку дуже доброю - 1500-2000 доларів за га. Вони знають, що добре зароблять в короткостроковій перспективі", - наголошував Жерар де Ля Салль.
+Згідно з остаточною версією українського закону про ринок землі, в перші три роки можна буде купувати не більше 100 гектарів в одні руки і зможуть це робити фізичні особи. І лише з 2024 року і фізичні особи, і юридичні (компанії) зможуть купувати до 10 тис. гектарів.
+Копирайт изображения
+GERARD DE LA SALLE
+Image caption
+Французький бізнесмен Жерар де Ля Салль, який працює на ринку сільгосптехніки в Україні вже 15 років, підтримує заборону продавати землі іноземцям на першому етапі після відкриття ринку землі
+Також Жерар де Ля Салль підтримує закриття українського ринку землі для іноземців на першому етапі.
+"Моя думка може шокувати іноземців. Україні потрібен час, аби організувати ринок і через деякий час зробити землю доступною для всіх. Спочатку українці матимуть першочергове право купівлі землі, а коли ринку знадобляться гроші та кредити, треба його відкрити, з механізмом контролю", - підсумовує французький бізнесмен.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Тетяна Мельничук</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>"Від психозу будуть інші хвороби". Як Лукашенко підкорив коронавірус в Білорусі</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+TATSIANA YANUTSEVICH/BBC
+Image caption
+Карантин в Білорусі оголошувати не стали
+Коронавірус в Білорусі, якщо вірити офіційним звітам, діє, як і підлеглі Лукашенку чиновники, у суворо окреслених рамках.
+У Білорусі закінчується другий тур місцевого футбольного чемпіонату й хокейний турнір за "Приз президента", трибуни на іграх досить повні.
+Як це у Швеції: "ліберальний (не) карантин" - чому він працює
+Починається "Тиждень лісу" - щорічна акція з оновлення лісового фонду. Минулого року в ній взяли участь понад 52 тис. фахівців і волонтерів, очікуваний масштаб заходу і цьогоріч не менший.
+На планові навчання відправлять три тисячі військовослужбовців, канікули у школярів розпочнуться теж за планом - з 30 березня. Дистанційне навчання у вишах - на розсуд ректорів, але міністерство освіти не радить розпускати студентів по містах і селах, щоб не рознесли заразу.
+Чому в одних країнах носять маски, а в інших – ні
+Загального карантину в Білорусі немає. Кордони країна не закрила - втім, їх закрили країни-сусіди.
+За останніми даними, зараження коронавірусом виявили у 94 осіб; 32 пацієнти одужали - виписані або готуються до виписки з лікарень. Смертельних випадків немає. Хвороба загалом протікає безсимптомно або у легкій формі, стверджує МОЗ. У країні провели близько 24 тис. тестів на коронавірус.
+Від часу передостаннього повідомлення МОЗ - за два дні - кількість хворих збільшилася на вісім людей; тих, що одужали - на три.
+"Гормони радості"
+МОЗ Білорусі не робить щоденних звітів. У останніх повідомленнях відсутня інформація, скільки людей відправили на карантин і де вони розміщені.
+"Спочатку ми пробували давати більш точну інформацію. Але це призвело до того, що багато ЗМІ і представники блогосфери починали активно втручатися в особисте життя громадян, намагалися з'ясовувати, як працюють їхні підприємства, що відбувається у місті. Таким чином, вони більше сіяли панічні настрої.
+Крім того, люди стали менш охоче розповідати про свої контакти, стали пізніше звертатися до медиків", - пояснив 25 березня міністр охорони здоров'я Володимир Каранік.
+Міністр і відповідальні чиновники 25 березня провели онлайн-трансляцію "Твоє питання МОЗ і Міносвіти про ситуацію з Covid-19 у Білорусі", до якої долучилися понад 10 тис. користувачів.
+Настя, студентка одного з мінських вишів, каже, що листівки про правила підключення до міністерського стриму роздали прямо на парах, незадовго до трансляції, наказали підключитися і порадили не соромитися у питаннях.
+Кохання під час коронавірусу. Фільм ВВС з Уханя
+Спілкування з чиновниками вийшло заспокійливим і невимушеним - судячи з опублікованих і продемонстрованим пізніше по ТБ фрагментах. Студентам пояснили, чому в Білорусі не вводять карантин (наразі недоцільно); розповіли про достатнє оснащення медустанов і порадили не уникати побачень - "гормони радості підвищують імунний статус" - але дотримуватися дистанції.
+Дозована інформація
+Новинні програми білоруського телебачення не починаються з повідомлень про Covid-19. Після репортажів про роботу президента і весняну оранку-посівну телеглядачам пропонують "закордонний трилер" - короткий огляд про те, як складно з коронавірусом у світі.
+Білоруси ж, як розповідає ТБ, зайняті волонтерською турботою про людей похилого віку (яким рекомендовано залишитися вдома) і виконують вказівку президента за тиждень освоїти масове виробництво респіраторів - марлевих пов'язок нашили вдосталь.
+Єдина соціальна ТБ-реклама, яка з'явилася днями, розповідає, як уберегтися від усіляких вірусів, і лише один раз мимохідь згадує про "корону".
+"Робимо це, виходячи з життя, - пояснював 24 березня президент Олександр Лукашенко. - Усяке в житті буває, але головне - не панікувати. Тому що я найбільше боюся, що люди захворіють на психоз, навіть від того, що відбувається в засобах масової інформації. Від психозу будуть інші хвороби".
+Поради Лукашенко берегтися від коронавірусу чаркою, лазнею та роботою на тракторі стали мемами, водночас білоруський президент демонструє електорату власну безстрашність. Практично щодня він проводить наради з різних проблем господарської діяльності, відвідує підприємства і регіони - ані сам Лукашенко, ані люди, які його супроводжують, при цьому не використовують жодних захисних засобів.
+"Маски і респіратори президент не приміряв, - повідомила "Радіо Свобода" речниця Лукашенка Наталія Ейсмонт. - Так, усі гості Палацу Незалежності знають, що руки треба мити. Миють і перед зустріччю з президентом. Ми, зрозуміло, також це робимо - набагато частіше, ніж раніше. Миє руки і президент. Проводити інші спеціальні медичні заходи у Палаці Незалежності керівник держави категорично заборонив".
+Тиждень тому Лукашенко наказав КДБ розібратися із джерелами інформації, які "сіють паніку".
+"Уже досить на це дивитися. Треба гарненько пройтися по цих сайтах, каналах, - заявив Лукашенко. - Необхідно розібратися з негідниками, які вкидають ці фейки. Навіщо вони людей труять?"
+Без паніки
+Найбільшу кількість заражених коронавірусом виявили у Мінську й обласному Вітебську.
+У білоруській столиці і великих містах, за розповідями медиків і пацієнтів, у лікарнях різного профілю звільнили місця для ізоляції та лікування пацієнтів з Covid-19. У поліклініках обладнані окремі входи для людей з підвищеною температурою; рекомендовано викликати швидку при перших ознаках небезпечного нездужання.
+До мінчанина Володимира Костянтиновича швидка приїхала сама - після того, як 83-річний чоловік, змучений кашлем і нездужанням, сходив до поліклініки за місцем проживання. І дільничний лікар, і бригада швидкої вирішили пенсіонера госпіталізувати. Але до ночі, після обстеження і рентгена, Володимира Костянтиновича з лікарні виписали. Тест на коронавірус не робити - або не зрозумів пенсіонер, що це за маніпуляція. Встиг додому на останньому метро.
+"Сказали, гострий бронхіт, лікуватися вдома. Чи то місць для людей похилого віку шкодують, чи то бояться, що зіпсує статистику, якщо, не дай бог, що", - схвильована донька Світлана.
+Старшокласниця Поліна, яка хворіла півтора місяця (лікарі лікували то ангіну, то ГРВІ), принесла до школи довідку і побачила у класі напередодні канікул лише третину учнів.
+"Батьки пишуть заяви, щоб відпустили дітей за сімейними обставинами. Вчителі усе розуміють, але їм наказано навчати", - говорить дівчина. Молодшу сестру Поліни батьки відправили в село, від вірусу подалі. Самі їздять на роботу - щоправда, час початку робочого дня посунули. Уряд розпорядився розділити пасажиропотоки, щоб студенти й школярі не потрапляли до громадського транспорту разом з робітниками і службовцями.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+У країні працюють торгові центри, ринки, ресторани, кафе... Завзяті театрали виявили, правда, що квиток у зазвичай заповнені зали популярних мінських театрів зараз можна купити без проблем, навіть перед початком вистави.
+На вулицях білоруської столиці подекуди трапляються люди в медичних масках.
+Кожна країна обирає свою стратегію боротьби з Covid-19, пояснив міністр охорони здоров'я Володимир Каранік. "Зараз основне завдання усіх - не допустити перевантаження системи охорони здоров'я, щоб кількість пацієнтів не перевищила її можливості надавати допомогу", - сказав міністр.
+Уряд пообіцяв виділити на боротьбу з коронавірусом близько мільйона доларів.
+Лікарі й пацієнти
+"Дай бог нам розтягнути терміни, щоб пік захворювання не був різким. За вказівкою МОЗ ми зарезервували місця, але апаратів ШВЛ (штучної вентиляції легенів) у нас лише два", - на умовах анонімності повідомляє фахівець однієї з багатоповерхових мінських лікарень.
+Медикам у Білорусі й раніше забороняли безпосередньо спілкуватися з журналістами, це можна робити лише з дозволу МОЗ. Зараз одкровень уникають навіть у телефонних розмовах.
+"Сусіди аплодують мені з балкона і пропонують борщ". Історія лікарки з Чернівців
+Марія С., лікарка з Бреста, каже, що у цьому прикордонному місті в інфекційну лікарню поки що поклали тільки одного пацієнта-іноземця з підозрою на коронавірус, він в'їхав із Польщі. "У нашій лікарні відділення реанімації на понад десяток ліжок, є кілька апаратів ШВЛ, але якщо піде потік таких вірусних хворих, ми не впораємося", - зізнається Марія.
+Міністр Каранік 25 березня заявив, однак, що по дихальних апаратах Білорусь попереду всієї планети: якщо у США на 100 тисяч населення припадає 12,9 апарата ШВЛ, в Італії - 8,8, то в Білорусі - 25 (і 38 - з урахуванням усього наркозно-дихального обладнання).
+"Ми намагаємося не доводити ситуацію до того, щоб нам масово знадобилися апарати ШВЛ", - пояснив міністр.
+За відсутності офіційного карантину білоруські медики через соцмережі закликають людей до самоізоляції.
+"Я буду на роботі. Будьте, будь ласка, вдома", - першим написав у білоруському сегменті інтернету Максим Очеретний, головлікар 3-ї дитячої клінічної лікарні Мінська. Почин підхопили колеги. Деякі перефразовували: "Ми працюємо для вас, будьте вдома заради нас".
+Інструкція МОЗ дозволяє не виплачувати лікарям лікарняний, якщо ті йдуть на самоізоляцію додому.
+Копирайт изображения
+НАША НИВА/NN.BY
+За деякими повідомленнями, лікарям сказали, що з 25 березня не стануть госпіталізувати медпрацівників, які контактували із зараженими коронавірусом пацієнтами. Їм будуть робити тести і вимірювати температуру, але вони повинні залишатися на роботі. Офіційного підтвердження від МОЗ такої інформації немає, лікарі кажуть, що це "внутрішня інструкція".
+Пацієнти, що перебувають в ізоляції, як правило, не скаржаться і постять у соцмережах лікарняні обіди. Обурюються хіба що тим, що підозрюваних у зараженні розміщують не поодинці, і є ризик заразитися від сусіда.
+Блогерка Настя Захаревич, госпіталізована з підозрою на Covid-19 у мінському шкірно-венерологічному диспансері (під госпіталізацію віддали лікарні різного профілю), через соцмережі попросила принести пацієнтам медичні маски. Їй на добу видали тільки одну марлеву пов'язку, хоча, за правилами, маски потрібно міняти кожні дві години. До того ж, стверджує Настя, медики загубили її тест, який зробили в аеропорту після повернення з-за кордону, і виявили цю втрату лише за 9 днів.
+Тест на коронавірус пацієнтам з підозрою на інфекцію роблять тричі. За офіційною інформацією, частину тест-систем поставляє білоруський РНПЦ епідеміології та мікробіології, де оперативно налагодили власне виробництво; є системи російського "Вектора" і ВООЗ. Тест-діагностику роблять тільки тим, хто входить до групи ризику.
+"Бережіться - епідемії не буде"
+Білоруська влада повернула додому всіх (хто захотів) співвітчизників, які опинилися в охопленому Covid-19 закордонні; продовжили безвіз понад 300 іноземців, які "застрягли" у Білорусі. Проблеми з найпростішими масками і антисептиками немає, полиці продовольчих магазинів заповнені...
+Критики, однак, заявляють, що ударна робота по збереженню спокою в країні зумовлена прагненням Лукашенка переобратися на черговий термін (президентські вибори мають відбутися наприкінці літа) і що заради цього політичного завдання здоров'я і безпеку білорусів поставили під реальну загрозу.
+"Епідемії не буде. Ви про неї не почуєте", - попереджає письменник Віктор Мартинович.
+"Коли на столі репутація країни і вірність обраного шляху, нам має бути не до усіляких комашок, непомітних навіть у мікроскоп. [...] Подивіться, до коронавірусу системі запропоновано ставитися, як раніше до опозиції. Вірусу немає ані на ТБ, ані в газетах, як раніше там не було (лідерів опозиції) Статкевича або Северинця. Про вірус так само малюють якісь карикатурки; коронавірус - це анекдот. Підхід вірний і за багато років відпрацьований", - зазначає пан Мартинович.
+"Це як із виборами - цифри можуть бути будь-якими. [...] Навіть якщо хворих на пневмонію виявиться дуже багато. Це ж усе пневмонія, чорт її бери. Хто сказав коронавірус?", - письменник впевнений, що з інформацією і заходами проти нової напасті влада може повестися так само, як з радіацією після аварії в Чорнобилі.
+"Нашестя Covid-19 зміцнює ґрунт для авторитаризму, посилення ролі держави навіть у світовому масштабі. Ну, а у нас тим паче", - відзначає аналітик "Білоруських новин" Олександр Класьковський. У передвиборчий період електорату демонструють сильну руку, залізний порядок, рішучу налаштованість на перемогу навіть над усемогутнім вірусом, на підступи якого можна списати економічні проблеми.
+У офіційного Мінська в усьому - особливий шлях.
+І що з того, що, як каже пан Класьковський, "Олександр Лукашенко нагадує того прапорщика, у якого вся рота - тобто лідери більшості інших країн з їх надзвичайним станом - йде не в ногу, і тільки він сам - в ногу"
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Коронавірус: як покращити швидкість інтернету під час карантину</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Мікрохвильовка та інші побутові прилади можуть перешкоджати роботі Wi-Fi, повідомляє британський медіа-регулятор Ofcom.
+Не ставте роутер поруч з ними, а також не користуйтеся одночасно мікрохвильовкою та інтернетом. Це допоможе мінімізувати негативний вплив на якість і швидкість з'єднання.
+Pornhub дає безкоштовну преміум-підписку всім. На час карантину
+Коронавірус у США: люди купують зброю і туалетний папір
+Через коронавірус мільйони людей працюють дистанційно і користуються стрімінговими сервісами для роботи. Глобальний інтернет-трафік виріс у рази.
+Що ж ми можемо зробити, щоб не втратити безперебійний зв'язок?
+Поради Ofcom варіюються від, здавалося б, очевидних, як відмова від перегляду фільмів онлайн, коли хтось інший, можливо, намагається зробити відеодзвінок, до менш очікуваних.
+Ось ще кілька настанов:
+розмістіть інтернет-роутер якомога далі від інших пристроїв, які можуть перешкоджати сигналу, наприклад, на столі чи полиці, а не на підлозі
+тримайте роутер увімкненим
+під час відеодзвінка або відеоконференції краще перейти в режим аудіотрансляції - так витрачається менше трафіку
+спробуйте дзвонити у менш звичний час, а також робіть це якомога рідше
+щоб забезпечити максимальний широкосмуговий доступ до мережі, під'єднайте комп'ютер безпосередньо до маршрутизатора, а не через Wi-Fi
+намагайтесь не користуватись телефонним подовжувачем, оскільки це може знизити швидкість інтернету
+Мікрохвильовка - не єдиний домашній пристрій, що може перешкоджати роботі роутера.
+Це також можуть робити бездротові телефони, радіоняні, галогенні лампи, димери, стереосистеми та комп'ютерні колонки, телевізори та монітори.
+Ofcom також радить користуватися стаціонарними телефонами, коли це можливо, щоб зменшити навантаження на мобільні мережі.
+"Якщо без мобільного не обійтися, відмовтесь від Wi-Fi-дзвінків, - кажуть в Ofcom. - Голосові дзвінки можна здійснювати через такі додатки, як Facetime, Skype або WhatsApp".
+Регулятор також пропонує вимкнути пристрої, які не використовуються.
+"Чим більше пристроїв під'єднані до вашого Wi-Fi, тим нижчу швидкість ви отримуєте, - пояснюють фахівці Ofcom. - Планшети і смартфони часто працюють у фоновому режимі, тому спробуйте вимкнути Wi-Fi, коли ви ним не користуєтесь".
+Копирайт изображения
+GETTY IMAGES
+Ofcom - не єдина організація, яка намагається покращити швидкість інтернету під час глобального карантину.
+Стрімінгові платформи, зокрема Facebook, Netflix, Disney + і YouTube, вже знизили якість відео, щоб зменшити навантаження на інтернет-провайдерів. Але ті не здаються і кажуть, що можуть впоратися з тиском.
+Приміром, британська компанія Openreach, що обслуговує телефонні кабелі і шафи по всій країні, які використовують більшість провайдерів широкосмугового доступу до мережі, каже, що, попри стрибок, навантаження поки що менше, ніж під час вечірнього піка інтернет-трафіку.
+"Ми не бачимо жодних істотних проблем у роботі нашої широкосмугової або телефонної мережі, - сказав представник Openreach. - Навантаження збільшилось на 20% в денний час, але ми це очікували. Це не перевищує навантаження у звичайні вечірні часи-пік".
+Відповіді на головні питання про коронавірус
+Коронавірус: що він робить з організмом
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Джонатан Амос</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Наука</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Кольори, як у Ван Гога: павуки-павичі демонструють яскраве забарвлення</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+JOSEPH SCHUBERT
+Image caption
+Maratus azureus: павукам-самцям властиво махати третьою парою лапок під час танку-залицяння
+Гаразд, багато людей не люблять павукоподібних. Але годі, ці крихітні створіння просто приголомшливі.
+У журналі Zootaxa нещодавно описали сім нових видів павуків-павичів.
+І так само, як і їхні двоюрідні брати з роду Maratus, всі вони живуть в Австралії, і всі вони мають ті дивовижні райдужні кольори, якими самці будуть хизуватися під час залицяння до самиць.
+Людина, яка зробила ці описи, - Джозеф Шуберт з австралійської організації Музеї Вікторії, 22-річний фахівець з павуків-павичів.
+Узбережжя Греції огорнула гігантська павутина: фото
+Чоловік у Каліфорнії через павука спалив квартиру
+Вчені навчили павука стрибати на вимогу
+Зараз він описав 12 із 85 відомих видів цієї групи. Він часто надсилає екземпляри для ідентифікації, але також проводить польові роботи.
+Image caption
+У самців виду Maratus constellatus "візерунки на черевці виглядають як "Зоряна ніч" від Ван Гога"
+Назви нових видів - Maratus azureus, Maratus constellatus, Maratus laurenae, Maratus noggerup, Maratus suae, Maratus volpei та Maratus inaquosus. Більшість з них мешкають у Західній Австралії.
+"Моїм улюбленим видом може бути Maratus constellatus", - сказав він.
+"Візерунки на черевці мені так само нагадують "Зоряну ніч" Ван Гога, звідси назва constellatus, що латиною означає зоряний", - зазначає вчений.
+"Кількох павуків з цього дослідження назвали на честь людей, які їх відкрили. Багато видів насправді виявили дослідники-аматори, які задокументували дані місцевості та сфотографували павуків та надіслали мені зображення", - каже Джозеф Шуберт.
+"Щодо того, скільки видів павуків-павичів виявили за останні кілька років, я, безумовно, думаю, що їх там (у Західній Австралії. - Ред.) можна знайти ще більше", - вважає дослідник.
+Image caption
+Вид Maratus laurenae. Павуки-павичі крихітні. В довжину лише кілька міліметрів
+Як правило, павуки-павичі дуже маленькі, розміром із зерна рису. Самці мають шикарне забарвлення; самиці мають більш строкатий вигляд, в їхньому забарвлені переважають коричневий, чорний та бежевий кольори.
+Самці розмахують черевцем та лапками під час танку-залицяння. Деякі навіть мають своєрідні вирости-щитки на тілі, які використовують немов віяла - звідси й асоціація з павичами.
+Культогляд: спадок Ван Гога та розкішний фільм Земекіса
+Ранній пейзаж Ван Гога продали за €7 млн
+Останніми роками відкриття нових видів, і, враховуючи популярність павуків-павичів, можливо, в майбутньому виявлять ще багато нерозпізнаних видів.
+Image caption
+Вид Maratus volpei. Загалом наразі описані 85 видів павуків-павичів
+Image caption
+Maratus suae: самці цього виду демонструють екзотичні кольори
+Image caption
+Maratus noggerup: такі павуки-павичі живуть в Австралії
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Мішель Робертс</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Новий аналіз крові може виявити 50 видів раку</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Простий аналіз крові може виявити понад 50 видів раку, часто до появи будь-яких симптомів, кажуть вчені.
+Експерти сподіваються, що це може допомогти діагностувати пухлини швидше, коли їх простіше лікувати - і, в ідеалі, повністю вилікувати.
+Команда стверджує, що понад 99% позитивних результатів є точними, але важливо перевірити, чи не пропускає аналіз наявний рак, даючи пацієнтам хибну надію.
+Штучний інтелект діагностує рак краще за лікарів
+Вчені розробляють універсальний тест на рак
+Як застуда може допомогти вилікувати рак
+Лікарі вже випробовують такий аналіз на пацієнтах, але потрібно провести більше досліджень, стверджують у Annals of Oncology.
+Попередні дані свідчать, що аналіз краще виявляє більш розвинені захворювання, ніж початкові стадії раку, що може обмежити потенційну користь від нього.
+Як це працює?
+Аналіз шукає хімічні зміни у частинах генетичного коду - безклітинної ДНК - які просочуються з пухлин у кров.
+Дослідники з Інституту раку Дана-Фарбера та Гарвардської медичної школи, що працюють разом із британськими колегами з Інституту Френсіса Крика та Університетського коледжу Лондона, перевірили понад 4000 зразків крові пацієнтів - з раком та без.
+У дослідженні було понад 50 видів раку, зокрема кишківника, легенів та яєчників.
+І у 96% зразків аналіз точно виявив тип раку.
+Що кажуть експерти?
+Дослідження фінансує компанія Grail, розробник аналізу крові.
+"Судячи з усього, цей аналіз крові має усі якості, необхідні для використання у світових масштабах, як скринінгового тесту на багато видів раку", - каже один з провідних дослідників, професор Джефф Окснард.
+За його словами, зараз тест успішно використовують у медичних дослідженнях - і лише після того, як результати таких досліджень проаналізують, можна буде говорити про його повноцінне використання у діагностиці.
+Чи може м'ясо спричиняти рак грудей?
+Рак простати забирає більше життів, ніж рак грудей
+"Ця сфера дуже швидко розвивається, і це дає нам надію, що виявлення раку за допомогою аналізу крові стане реальністю", - каже проф. Окснард.
+"Виявлення ракових захворювань на ранніх стадіях, коли вони менш агресивні і краще піддаються лікуванню, має величезний потенціал рятувати життя, і нам дуже потрібні технологічні інновації, які зможуть перетворити цей потенціал на реальність", - каже д-р Девід Кросбі, керівник відділу ракових досліджень у Cancer Research UK.
+За його словами, попередні результати випробування цього аналізу є обнадійливими.
+"І якщо тест можна буде удосконалити... він може стати інструментом раннього виявлення", - сподівається він.
+Та для цього, каже д-р Кросбі, необхідно провести ще багато додаткових досліджень.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Тамта Ґуґішвілі</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>"Усі думали, що жінка хворіє на грип": чому на Тернопільщині десятки лікарів з коронавірусом?</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Так має бути захищений лікар, який працює з підозрами на коронавірус
+Тернопільщина вже кілька днів - серед регіонів-лідерів за кількістю інфікованих коронавірусом людей.
+Станом на ранок понеділка, 30 березня, там зафіксовані 60 випадків, одна людина померла. При цьому майже три десятки хворих у цьому регіоні - лікарі.
+Коронавірус в Україні. Інтерактивна мапа
+Коронавірус в Україні: за добу 62 нових випадки, дві людини померли
+Як так сталося і чому так багато медиків інфікувалися коронавірусом на Тернопільщині, розбиралася ВВС News Україна.
+Монастириський епіцентр
+Тернопільщина - лідер за кількістю медичних працівників, хворих на Covid-19 в Україні. На ранок 30 березня в області підтвердили 27 випадків серед медиків, переважна більшість з них (24) - з одного району.
+При цьому всі ці випадки лабораторно підтвердили за останній тиждень, тоді як карантин в Україні триває вже понад два тижні.
+Минулого тижня вірус підтвердили у стоматолога з Тернополя, який приїхав з Австрії. Припускають, що саме за кордоном він і заразився. Ще двоє хворих медиків - з Заліщицького району, а решта, 24 людини, - з Монастириського. Це працівники районної лікарні та центру первинної медико-санітарної допомоги Монастириського району.
+Сам райцентр Монастириська розташований за майже 90 км від Тернополя, район межує з Івано-Франківською областю.
+У містечку мешкає трохи більше 5,5 тис. людей. У всьому районі - 27,6 тис. І саме цей район став епіцентром спалаху на Тернопільщині і не лише серед лікарів: з 60 підтверджених в області випадків зараження 47 - саме тут.
+Місцеву районну лікарню перетворили на госпіталь. Минулого тижня звідти виписали пацієнтів та припинили амбулаторний прийом, тут тепер лікують лише тих, у кого підтвердили коронавірус.
+"22 медпрацівників, - розповідає Стефанія Підгірна, в.о. директора лікарні, - перебувають на самоізоляції, ще двоє госпіталізовані - медсестра у важкому стані ушпиталена до нашої райлікарні, лікар у Тернопільській лікарні швидкої допомоги, стан - середньо важкий. Лікарям роблять швидкі тести, щоб виявити, хто ще міг заразитися. Вже перевірили 202 медпрацівників в районі, з них 186 - з нашої лікарні та 16 осіб з сімейної медицини".
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Вже третій тиждень вся Україна живе на карантині
+Все почалося з похорону?
+Чому ж так багато випадків серед місцевих медиків?
+Голова оперативного штабу з профілактики та протидії поширенню Covid19 при Монастириській райдержадміністрації Павло Дронь розповідає, що першою інфікованою медиком в цьому районі стала медпрацівниця з села Швейків.
+"Там 3 березня був похорон священника - і ця подія, ймовірно, об'єднує більшість перших виявлених випадків зараження. Тобто хронологія така: 12 березня вона захворіла, 17-го у неї лабораторно підтвердили грип А. На той час, коли виявляли грип, матеріалів на дослідження коронавірусу до Києва не відправляли. Коли їй стало гірше, зробили лабораторні аналізи на Covid-19, 26 березня підтвердили коронавірус. Працівники лікарні, які з нею контактували, могли й заразитися, адже усі думали, що жінка хворіє на грип", - розповідає пан Дронь.
+Ще одна версія: колег могла заразити медпрацівниця з іншого села - з Ковалівки, саме звідти перший чоловік, в якого на Тернопільщині виявили коронавірус і який помер від Covid-19, тож вона могла заразитися від нього (це поки єдиний летальний випадок в області). У медпрацівниці згодом справді підтвердили коронавірус.
+А от сімейна лікарка, яка виїжджала на прийом до цього ж першого хворого, здорова.
+"Сімейна лікарка нашого центру була в захисному костюмі і так оглянула хворого, викликали швидку і доправили пацієнта до Чортківської лікарні. На той час у нас вже кілька днів були захисні костюми для лікарів. Ми купили їх в Тернополі. Важливо, що за результатами аналізів в цієї лікарки не виявлено коронавірусної інфекції. Тому вона не могла бути джерелом зараження", - розповідає Андрій Мушинський, директор Монастирського центру первинної медико-санітарної допомоги.
+У нього самого також підтверджений коронавірус. Він припускає, що підхопив його від колеги з грипом з села Швейків:
+"Вона приходила в нашу амбулаторію на обстеження, їй стало погано, ми всі бігали до неї. На той час ми знали, що в неї грип А. Ще не було відомо, що в неї коронавірус".
+Тепер всі працівники амбулаторії - на самоізоляції. Працюють в телефонному режимі, а в самому закладі чергують медпрацівники інших амбулаторій.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+На Тернопільщині кажуть, що вже понад тиждень лікарі з пацієнтами працюють лише в захисних костюмах
+Гроші є, а купувати ніде
+Виконувач обов'язків директора Монастириської районної лікарні Стефанія Підгірна каже, що в захисних костюмах місцеві лікарі з дня, коли в області зафіксували перший випадок коронавірусу, - тобто з 20 березня.
+"Зараз є близько 10 спецкостюмів, це дуже мало. Масок та рукавиць маємо по 1 500, за попередніми підрахунками, їх вистачить на 2-3 дні, але будуть ще привозити нам. Респіраторів маємо вже лише 5, звісно, потрібно забезпечення. Щодо медобладнання, у нас є чотири концентратори кисню і два апарати штучної вентиляції легень, до яких можна підключити маску-СІПАП. Один власний, інший - надала лікарня із Заліщиків", - розповідає Стефанія Підгірна.
+Чому в одних країнах носять маски, а в інших – ні
+Але лікарні бракує ліків - антибіотиків широкого спектра дії, противірусних препаратів, жарознижувальних, і проблема - не в грошах.
+"З фінансуванням проблем немає - влада виділяє, всі допомагають. Немає, де купити", - скаржиться пані Підгірна.
+"Ми ледь купили у Тернополі 10 костюмів, це було за кілька днів до 22 березня. ... Зараз костюми до лікарні привозять благодійники, а лікарня дає нам по кілька, щоб сімейний лікар, який чергує, міг працювати. Але системного забезпечення нашого закладу поки що немає", - зізнається Андрій Мушинський і теж каже, що гроші на закупки є, але немає, де купувати необхідне.
+"Є потреба в ще одному реанімобілі саме для Монастириської районної лікарні, в апараті штучної вентиляції легень. Гроші на ШВЛ маємо, але немає, де купити, бо черга за таким устаткуванням", - каже Павло Дронь з обласного штабу.
+Чи вистачить лікарів?
+Всього до складу Монастирського центру первинної медико-санітарної допомоги входить 8 амбулаторій. Поки що інфіковані є лише серед Монастирської амбулаторії, тобто в самому райцентрі. Хворіють чотири медсестри і троє лікарів, серед яких і директор центру Андрій Мушинський.
+У Монастириському районі поки що прикривають хворих лікарів колеги з інших амбулаторій, самі хворі медики по можливості допомагають в телефонному режимі.
+Але з браком рук можуть зіткнутися не лише в Монастириськах чи в районі, про проблему говорять і медики з обласного центру. Зокрема, головний лікар Тернопільської лікарні швидкої допомоги Ярослав Чайківський:
+"Середній, молодший персонал працює на окладі 4 тисячі гривень, а лікарі - на окладі 6-7 тисяч грн. Тому немає в людей мотивації до роботи. В інфекційному відділенні нашої лікарні вже звільнилися 8 працівників. Замінити їх немає кому, бо люди не мають мотивації переходити з інших відділень".
+Як коронавірус шириться планетою. Мапа
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Коронавірус: що треба знати
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Коронавірус: Олімпіаду в Токіо перенесуть через пандемію</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Організатори Олімпійських ігор-2020, які влітку мали пройти в Токіо, досягли згоди про перенесення змагань на наступний рік.
+За словами прем'єр-міністра Японії Сіндзо Абе, рішення вже затвердив Міжнародний олімпійський комітет.
+"Я запропонував відкласти змагання на рік і президент МОК Томас Бах відповів 100-відсотковою згодою", - розповів пан Абе.
+Євро-2020 з футболу скасували через пандемію коронавірусу. Коли відбудеться
+Раніше аналогічне рішення схвалили і щодо проведення Чемпіонату Європи з футболу, який так само перенесли на 2021 рік.
+Він мав розпочався 12 червня цього року, а завершитись 12 липня.
+До цього через спалах коронавірусу на невизначений термін призупинили спортивні першості у багатьох країнах.
+Серед них - національні футбольні чемпіонати Європи і американська НБА.
+Так само УЄФА на невизначений термін відклала проведення матчів Ліги чемпіонів та Ліги Європи.
+Станом на 24 березня коронавірусом у світі заразилися вже понад 390 тисяч людей, понад 17 тисяч померли.
+Лідери за кількістю захворювань - Китай (81 тисяча), Італія (63 тисячі) та США (46 тисяч).
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>17/03/2020</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Євро-2020 з футболу скасували через пандемію коронавірусу. Коли відбудеться</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+Європейська футбольна асоціація скасувала проведення у червні цього року чемпіонату Європи з футболу.
+Проведення турніру перенесли на літо 2021 року.
+17 березня відбулось позачергове засідання представників усіх національних футбольних федерацій Європи через відеозв'язок. У ньому брали участь представники 55 національних асоціацій.
+Головне питання, яке обговорювали, - майбутнє проведення Євро-2020 та інших турнірів через спалах коронавірусу у Європі.
+Як повідомляє кореспондент ВВС з питань спорту Саймон Стоун, УЄФА намагалась тримати у таємниці ухвалене під час відеоконференції рішення до остаточного схвалення виконкомом.
+Проте норвезька асоціація опублікувала домовленість.
+УЄФА скасувала матчі Ліги чемпіонів і Ліги Європи
+Метро, залізниця і ресторани: що саме вирішив закрити уряд
+Штрафи за порушення карантину: Рада ввела надзвичайні заходи через коронавірус
+Багато країн вже призупинили свої футбольні першості, а низка країн Європи, зокрема, Україна, Італія та Франція - запровадили повний карантин і заборону на пересування.
+Раніше УЄФА вже відклала на невизначений термін проведення матчів Ліги чемпіонів та Ліги Європи.
+Копирайт изображения
+GETTY IMAGES
+У багатьох країнах Європи цілі клуби пішли на карантин через виявлення коронавірусу у гравців чи тренерів.
+Клуби навіть почали скасовувати тренування.
+Євросоюз також розглядає можливість тимчасово обмежити вїзд до Шенгенської зони.
+Україна як і багато інших країн Європи вже заборонили будь-яке авіаційне сполучення.
+Коли відбудеться
+Чемпіонат Європи з футболу мав розпочатись 12 червня цього року, а завершитись 12 липня.
+Змагання мали відбутись одразу у 12 містах різних країн Європи: Амстердамі, Баку, Більбао, Бухаресті, Будапешті, Копенгагені, Дубліні, Глазго, Лондоні, Мюнхені, Римі та Санкт-Петербурзі.
+Збірна України з футболу мала грати у Амстердамі та Бухаресті.
+Зараз відомо, що Євро-2021 відбудеться 11 червня - 11 липня.
+Наразі ще не відомо, чи ігри відбудуться у тих самих містах.
+Також УЄФА ще не оголосила про те, що буде з квитками, купленими на Євро-2020.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>13/03/2020</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>УЄФА скасувала матчі Ліги чемпіонів і Ліги Європи</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Усі матчі Ліги чемпіонів і Ліги Європи, які мали відбутися наступного тижня, відкладені на невизначений термін через ситуацію з коронавірусом. Таке рішення схвалили в УЄФА.
+Найближчим часом не відбудуться матчі ⅛ фіналу Ліги чемпіонів, заплановані на 17 і 18 березня, і поєдинки ⅛ фіналу Ліги Європи, що мали відбутися 19 березня.
+Серед них - матч "Шахтаря" і "Вольфсбурга".
+Так само УЄФА скасувала й жеребкування наступних етапів обох турнірів.
+Хроніка коронавірусу: Еверест на карантині, хворий тренер і серенади
+Євро-2020: УЄФА розгляне перенесення турніру через коронавірус
+Чи перенесуть Євро-2020?
+Наступного тижня УЄФА також збере позачергове засідання, де представники національних футбольних асоціацій та ліг обговорюватимуть шляхи реагування на розповсюдження коронавірусу.
+Очікується, що учасники вирішать, зокрема, чи варто переносити Чемпіонат Європи.
+Окрім того, принаймні до 3 квітня вже призупинені чемпіонати низки країн - зокрема Англії, Іспанії та Італії.
+В Україні поєдинки Прем'єр-ліги поки що не скасували, але вони відбуватимуться за "зачиненими дверима".
+Тим часом гравці мадридського "Реалу" перебувають на карантині, у двох гравців італійських клубів - Даніеле Ругані з "Ювентуса" і Маноло Габбіадіні з "Сампдорії" - виявили коронавірус.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Не тільки футбол
+Спалах коронавірусу зачепив не лише футбольні змагання.
+Так, у США призупинили НБА - коронавірус виявили в гравця "Юта Джаз" Руді Гобера та Емануеля Мудіая.
+Так само на невизначений термін відклали поєдинки баскетбольної Євроліги і тенісних турнірів ATP та WTA.
+У Норвегії також скасували заключний етап Кубка світу з біатлону, який мав проходити наприкінці березня, а в Австралії - Гран-прі "Формули-1".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>12/03/2020</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Євро-2020: УЄФА розгляне перенесення турніру через коронавірус</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+УЄФА призначила на вівторок, 17 березня, позачергове засідання, на якому буде прийматися рішення про те, чи варто переносити Чемпіонат Європи з футболу. Євро-2020, за планами, має пройти влітку, з 12 червня по 12 липня.
+Водночас із цим в Європейській футбольній асоціації також обговорюватимуть шляхи подальшого реагування на розповсюдження коронавірусу.
+До обговорення вже запросили представників 55 футбольних асоціацій і керівництво європейських футбольних ліг.
+Коронавірус: в Україні два нових випадки
+"Чорний четвер": фондові ринки падають через пандемію коронавірусу
+Навіщо переносити
+Коронавірус сильно вдарив по спортивній індустрії, зокрема футбольних змаганнях.
+Іспанську футбольну першість вирішили призупинити щонайменше на два тури, а гравців мадридського "Реалу" відправили на карантин.
+Також відкладені два поєдинки Ліги чемпіонів між "Реалом" та "Манчестер Сіті" і "Ювентусом" та "Ліоном", які мали відбутися найближчого вівторка.
+В Італії ігри Серії А відкладені до 3 квітня. У двох гравців італійських клубів - Даніеле Ругані з "Ювентуса" і Маноло Габбіадіні з "Сампдорії" - виявили коронавірус.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+УЄФА також перенесла два поєдинки ⅛ фіналу Ліги Європи за участю італійських команд, які мали відбутися 12 березня.
+Ще кілька матчів, зокрема гра між донецьким "Шахтарем" та німецьким "Вольфсбургом", пройдуть без глядачів.
+У деяких країнах - зокрема у Франції та Україні - матчі футбольних чемпіонатів так само проводитимуться за зачиненими дверима.
+Не виключено, що найближчим часом УЄФА також відкладе інші заплановані поєдинки Ліги Чемпіонів та Ліги Європи.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>12/03/2020</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Гравців "Реалу" відправили на карантин, чемпіонат Іспанії призупинили</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Іспанську футбольну першість вирішили призупинити щонайменше на два тури. Все через карантин, на який довелося відправити гравців "Реалу".
+Футболістів мадридської команди відправили на карантин, оскільки у гравця баскетбольної команди "Реалу" виявили коронавірус.
+І баскетбольна, і футбольна команди входять до однієї клубної структури, і їхні гравці могли перетинатися на території спільного тренувального комплексу.
+У керівництві іспанської ліги побоюються, що коронавірус може поширитись на інші команди.
+Том Хенкс з дружиною підхопили коронавірусу
+Карантин по всій Україні ввели на три тижні. Що це означає?
+Скільки в Україні хворих на коронавірус?
+Водночас на найближчий вівторок запланований матч Ліги Чемпіонів між "Реалом" і "Манчестер Сіті".
+Матчі "Ліги чемпіонів" через коронавірус поки що не скасовували, проте, за повідомленнями, УЄФА розглядає таку можливість.
+Окрім того, очікується, що так само може бути схвалене рішення про перенесення матчів Ліги Європи.
+Не тільки Іспанія, не лише футбол
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Раніше коронавірус виявили у захисника "Ювентуса" Даніеле Ругані
+Коронавірус вже серйозно вдарив по спортивних змаганнях в різних країнах. Подекуди, зокрема в Україні, матчі футбольної прем'єр-ліги проводитимуть без глядачів, а в Італії вирішили повністю призупинити чемпіонат щонайменше до 3 квітня.
+Напередодні стало відомо, що коронавірус виявили у захисника "Ювентуса" Даніеле Ругані, всю команду, за деякими повідомленнями, відправили на двотижневий карантин.
+УЄФА також вирішила перенести два поєдинки ⅛ фіналу Ліги Європи за участю італійських команд, які мали відбутися 12 березня. Ще кілька матчів, зокрема гра між донецьким "Шахтарем" та німецьким "Вольфсбургом", пройдуть без глядачів.
+Спалах коронавірусу у світі позначився й на інших видах спорту.
+Так, у США призупинили проведення баскетбольної першості - коронавірус виявили в гравця "Юта Джаз" Руді Гобера.
+У Норвегії також скасували заключний етап Кубка світу з біатлону, який мав проходити наприкінці березня.
+Влада Австралії розглядає можливість скасувати Гран-прі "Формули-1", запланованого на 15 березня.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>23/02/2020</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Люк Редді</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Сенсаційна перемога. Тайсон Ф'юрі взяв реванш і поклав край царюванню Вайлдера на рингу</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Британець Тайсон Ф'юрі провів найбільш скажений поєдинок у своїй боксерській кар'єрі. В семи захоплюючих раундах повторного поєдинку він поклав край п'ятирічному царюванню на рингу чемпіона світу у важкій вазі американця Деонтея Вайлдера і завоював титул чемпіона за версією Всесвітньої боксерської ради (WBC).
+Мало хто очікував, що 31-річний британський важковаговик настільки впевнено переможе супротивника, особливо після їхньої нічиєї у грудні 2018 року.
+Ф'юрі поклав 34-річного американського боксера в нокдаун у третьому і п'ятому раундах, постійно тримаючи під контролем цього найнебезпечнішого панчера у цій ваговій категорії. Він зробив це так, як не вдавалося нікому раніше.
+Тайсон Ф'юрі відмовився від двох чемпіонських поясів
+Перший українець у Залі боксерської слави. Хто може піти за Кличком
+Джеб і прямий правий - це комбінація, за допомогою якої Вайлдер постійно виносив супротивників з рингу. І саме вона призвела до його нокдауну у третьому раунді. Це вразило всіх присутніх на великій арені MGM в Лас-Вегасі.
+Вайлдер, проводячи свій 11-й захист титулу, не втримався і знову впав, ще до закінчення раунду. Глядачі помітили, що він вже не витримує тиску суперника - ще до того, як прямий правий і бічний лівий звалили 34-річного американця в нокдаун у п'ятому раунді.
+Копирайт изображения
+GETTY IMAGES
+Ф'юрі показав все, що обіцяв, перейшовши від своєї звичайної тактики "удар-відхід" до потужного та наступального стилю щодо супротивника, який ніколи не зазнавав поразок. Британський боксер продовжував до того моменту, коли у сьомому раунді суддя кинув на підлогу рушник, припиняючи бій.
+З боку Ф'юрі це більше, ніж просто перемога за звання чемпіона світу, це був реванш за все минуле - за роки важкої депресії, за неконтрольований набір ваги, за відчай, який коштував йому його чемпіонського пояса в 2015 році.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Ф'юрі прийшов на поєдинок у королівській мантії та з короною на голові
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>12/02/2020</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Семен Новіков сенсаційно став чемпіоном Європи з греко-римської боротьби</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+BORBA.COM.UA/FEDERACIYA
+Харків'янин Семен Новіков отримав золото на чемпіонаті Європи з греко-римської боротьби, що проходив в Італії.
+У півфіналі він переміг росіянина Олександра Комарова з рахунком 6:3, а в фіналі здолав угорця Віктора Льорінца.
+Українець виступав у ваговій категорії до 87 кг.
+"Я стала одержимою". Коли спорт стає залежністю
+7 "фактів" про фітнес, які виявилися фейками
+Це перша "доросла" нагорода спортсмена. До цього 23-річний українець вже двічі отримував титул чемпіона світу серед молоді.
+Семену Новікову доводиться рахуватися із "внутрішньою конкуренцією" - чемпіоном світу та Європи Жаном Беленюком. Проте депутат і спортсмен цього разу не брав участь у змаганнях в Римі, оскільки готується до Олімпіади.
+Тепер Семен Новіков каже, що хоче позмагатися і за олімпійський титул.
+"Він (Жан Беленюк - Ред.) найсильніший суперник у моїй країні. Я хотів би перемогти його, бо це конкурентний спорт", - наводить слова Семена Новікова сайт United World Wrestling.
+"Бронзу" на чемпіонаті у Римі також здобули українці Ленур Теміров та Микола Кучмій.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>31/01/2020</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Англійську прем'єр-лігу знищать брекзит і ліміти - Daily Mail</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Image caption
+Кращі клуби англійської Прем'єр-ліги, такі як "Ліверпуль" та "Манчестер Сіті", багато в чому залежать від легіонерів. Однак Федерація футболу Англії планує зменшити ліміти для іноземців в англійських командах одразу після брекзиту
+Футбольна Прем'єр-ліга Англії може втратити свій статус найкращого та найбагатшого чемпіонату світу після брекзиту та введення нових лімітів на іноземних гравців, пише Daily Mail.
+Новий ліміт на іноземців планує ввести Футбольна асоціація Англії одразу після брекзиту.
+Україна запровадила безвіз для Британії й чекає взаємності
+Головні бізнес-події 2019: Boeing та Huawei
+Зокрема, асоціація хоче, щоб з 25 гравців основного складу в кожному клубі Прем'єр-ліги було не більше 13 іноземних гравців - замість нинішнього ліміту у 17 іноземців.
+Якщо так станеться, то англійські клуби муситимуть мати у своїй заявці більше половини місцевих гравців, пише видання.
+За його даними, Футбольна асоціація Англії хоче таким чином скористатися брекзитом та зміною норм щодо іноземців, щоб дати шанс розвиватися англійським гравцям, а відповідно - і підвищити рівень національної збірної Англії.
+Збірна Англії на останніх чемпіонатах світу та Європи справді далека від статусу фаворитів й вилітає на досить ранніх етапах.
+Однак у Прем'єр-лізі Англії, за даними англійських медіа, такі плани називають "радикальними".
+Клуби ліги вважають, що через новий ліміт вони вже не можуть залучати найкращих гравців, що знизить їхній рівень та конкурентність у єврокубках. А багаті європейські гранди, на зразок "Реала" чи "ПСЖ", зможуть переманити до себе лідерів англійських команд.
+Клуби також стверджують, що насправді немає прямого зв'язку з лімітом на іноземців та невдачами національної збірної.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Збірна Англії вже давно не вважається головним фаворитом на міжнародних змаганнях, хоча її чемпіонат - найсильніший і найцікавіший у світі. У Федерації футболу Англії вважають - все через надто велику кількість іноземців у клубах, які не дають можливість пробитися молодим місцевим гравцям
+Як пише Daily Mail, у Прем'єр-лізі кажуть, що проблема існує з молодими англійськими гравцями віком 18-21 рік, які не мають достатньо ігрової практики.
+Тому клуби пропонують запровадити спеціальні змагання для команд-дублерів, які матимуть достатньо високий статус і даватимуть молодим гравцям більше ігрової практики, ніж нинішній чемпіонат команд віком до 21 року.
+Водночас англійські медіа з посиланням на свої джерела пишуть, що Футбольна асоціація запропонувала всім клубам Прем'єр-ліги ще одну опцію - зменшити ліміт на іноземців до 12, але при цьому "винагороджувати" додатковими місцями для іноземних гравців ті клуби, які даватимуть розвиватися молодим англійським гравцям.
+Зокрема, мова нібито йде про випадки, коли у командах Прем'єр-ліги дебютуватимуть і матимуть ігрову практику місцеві гравці віком до 19 років.
+Англійські клуби ж відповіли, що планують розглянути різні юридичні варіанти того, як реагувати на спроби Футбольної асоціації ввести нові ліміти для них.
+А в англійському уряді заявили, що очікують вирішення суперечки між Футбольною асоціацією та Прем'єр-лігою до квітня.
+Офіційно ж Британія виходить з ЄС у ніч на 1 лютого.
+Що з українськими гравцями?
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Введення лімітів на іноземців може ще погіршити перспективи Андрія Ярмоленка в англійському чемпіонаті
+Зменшення лімітів на іноземців може серйозно вплинути на кар'єри українських гравців в англійських клубах: Андрія Ярмоленка, що грає за "Вест Хем", та Олександра Зінченка, який виступає за чемпіона "Ман Сіті".
+Шанси залишитися в Англії вищі у Зінченка, однак і він кілька разів випадав з основи свого клубу в останні місяці.
+Андрій Ярмоленко, який втратив місце в команді через травму, зараз рідко потрапляє навіть в заявку на матч.
+Тож від його послуг "Вест Хем Юнайтед" цілком може відмовитися заради додаткового місця для інших легіонерів.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>27/01/2020</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Кобі Браянт загинув в авіакатастрофі. Яким ми його запам'ятаємо</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Легендарний гравець "Лос-Анджелес Лейкерс" Кобі Браянт загинув у неділю в результаті падіння гелікоптера. Йому був 41 рік. Разом з ним загинула його 13-річна донька Джанна і ще семеро людей.
+Копирайт изображения
+AFP/GETTY
+Люди приносять квіти, баскетбольні м'ячі та свічки до Стейплс-центру в Лос-Анджелесі - домашньої арени "Лейкерс".
+Копирайт изображения
+REUTERS
+У складі національної збірної США Браянт двічі вигравав золото Олімпійських ігор, в Пекіні і Лондоні (на фото).
+Копирайт изображения
+REUTERS
+Окрім численних спортивних нагород, Кобі Браянт отримав премію "Оскар" у 2018 році за кращий короткометражний анімаційний фільм "Дорогий баскетбол".
+Короткометражка режисера Глена Кіна базувалася на вірші, в якому Браянт оголосив про завершення спортивної кар'єри. Закадровий текст в мультфільмі читав сам баскетболіст.
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+Коли Кобі Браянт завершив спортивну кар'єру, майки з його номерами 8 і 24 вивели з обігу. Він став першим гравцем в історії клубу, відразу два ігрових номери якого припинили використовувати.
+Копирайт изображения
+REUTERS
+Image caption
+Кобі Браянт з донькою Наталею на тренуванні в Г'юстоні, Техас, 2013 рік
+Копирайт изображения
+AFP/GETTY
+Кобі Браянт востаннє зіграв за "Лейкерс" 13 квітня 2016 року. Після цього в онлайн-магазинах стали продавати повітря з цього матчу, ціна досягала кількох тисяч доларів.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Кобі Браянт з донькою Джанною на баскетбольному матчі між "Лос-Анджелес Лейкерс" та "Атланта Хокс" 17 листопада 2019 року
+***
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>24/01/2020</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Затяті футбольні фани ризикують отримати інфаркт - вчені</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+CHRIS BRUNSKILL LTD/GETTY IMAGES
+Image caption
+Сльози й розпач - деякі фанати дуже емоційно реагують на програш улюбленої команди
+Затяті футбольні фанати, що гостро реагують на гру улюбленої команди, ризикують отримати інфаркт.
+Про це свідчать дані Оксфордського центру дослідження згуртованості суспільства.
+Британські вчені: футбол може призвести до слабоумства
+Науковці вивчили слину фанатів збірної Бразилії під час її історичної поразки у матчі з Німеччиною на ЧС-2014.
+У півфіналі світової першості бразильці (п'ятиразові чемпіони світу) розгромно програли суперникам з рахунком 1: 7.
+Під час цієї гри рівень кортизолу у фанатів просто зашкалив. Як зазначають медики, таке перевищення норми підвищує кров'яний тиск і тягне за собою ризик інфаркту.
+Різниці між рівнем стресу серед чоловіків та жінок, які люблять футбол, дослідники не виявили. І розвіяли міф про те, що чоловіки - більш віддані фанати, ніж жінки.
+Безнадія
+"Фанати, які почуваються єдиним цілим зі своєю командою, отримують шалений психологічний стрес під час гри", - пояснює одна з авторів дослідження Марта Ньюсон.
+Якщо підвищений рівень кортизолу зберігається тривалий час, це призводить до:
+звуження кровоносних судин,
+підвищення тиску,
+загострення хвороб серця.
+Підвищення цього гормону також створює у людини відчуття приреченості - ніби вона перебуває у небезпеці, а її життя під загрозою.
+Попередні дослідження виявили, що кількість серцевих нападів серед уболівальників збільшується під час великих футбольних турнірів.
+У молодих гравців в американський футбол "змінюється мозок"
+Спортогляд: гра головою небезпечна?
+Несамовитий матч
+Вчені Оксфордського університету відстежили рівень кортизолу в слині 40 уболівальників до, під час та після трьох матчів Кубка світу.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Деякі фанати так хвилюються, що не можуть дивитися гру
+Найбільш стресовим для вболівальників виявився півфінал Чемпіонату світу з футболу 2014 року, коли збірна Німеччини розгромила команду Бразилії.
+"Це був несамовитий матч - у деяких бразильських фанатів під час гри не витримували нерви", - розповіла доктор Ньюсон BBC News.
+Тому вона рекомендує вмикати після матчів спокійну музику і приглушати яскраве світло на стадіонах.
+"Крім того, клуби можуть робити експрес-обстеження для своїх найвідданіших фанатів, які перебувають у групі ризику", - каже Марта Ньюсон.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>20/01/2020</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>"Чорнобиль забрав у мене ноги, але не зламав мене". Історія паралімпійської чемпіонки</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Оксана Мастерс стояла на п'єдесталі пошани зимової Паралімпіади-2014 у російському Сочі. Звучав гімн, і її серце сповнила гордістю. Це була не перша медаль спортсменки, але вона була особливою.
+Тоді Оксана здобула "срібло" з лижних перегонів, а "золото" виграла українка Людмила Павленко.
+Серіал "Чорнобиль": спогади реального дайвера
+Автор серіалу HBO про Чорнобиль: відчуваю відповідальність перед українцями
+Мастерс родом з України. Вона народилася у 1989 році, за три роки після чорнобильської ядерної катастрофи. Через вплив радіації дівчинка має серйозні фізичні вади.
+У Сочі Оксана виступала за США, де виросла. Її вдочерила і виховала одинока мати. Тому приїзд до країни, що межувала з її батьківщиною, став особливим стимулом.
+"Було відчуття, що я повернулася до своїх джерел, - розповідає дівчина. - Ніби я отримала не срібну, а золоту медаль".
+Однак "золото" Оксани було попереду. Чотири роки по тому дві з п'яти медалей, які вона здобула в Пхьончхані, були золотими. А цього року вона їде до Токіо на свої п'яті Паралімпійські ігри.
+Оксана Мастерс розповіла ВВС неймовірну історію свого життя. Все почалося в українському дитячому будинку, де дівчинка жила до семи років.
+Копирайт изображения
+OKSANA MASTERS
+Image caption
+Маленька Оксана Мастерс та її названа матір
+Мої спогади - різні. Теплі й не дуже. Пам'ятаю соняшникові поля. Може, я тоді була дуже маленькою, але вони здавалися величезними. А ще було сливове дерево. Ми недоїдали, тому крали сливи й збирали насіння з соняшників.
+Щоразу, як бачу соняхи, пробуджуються спогади. Те, що пишуть про східноєвропейські дитячі будинки, - загалом правда. Добре пам'ятаю різкий біль у животі від постійного голоду.
+Від мене відмовилися відразу після народження. Я народилася із шістьма пальцями на ногах. Усі п'ять пальців на руках зрослися, а великого не було взагалі. Ще була колінна гемімелія: суглоб гнувся і не тримав ногу.
+"Навіщо ти його народила": як змінити ставлення до особливих дітей?
+На межі трагедії й тріумфу: історія паралімпійця Тараса Радя
+На правій руці немає біцепса, відсутні деякі органи. У мене одна нирка, а на зубах немає емалі. Коли я приїхала до Америки, то з'ясувала, що єдине, що може зруйнувати зубну емаль до народження, - це радіація.
+Лікарі пов'язували це з вибухом на Чорнобильській АЕС. Я й справді була неподалік від місця аварії, а рівень радіації перевищував допустимі норми впродовж років після вибуху.
+У селі, де ми жили, також була електростанція, яка часто виходила з ладу. Щоразу, коли радіоактивний фон підвищувався, приїздив поліцейський і наказував зачиняти вікна, двері та не виходити на вулицю.
+На візку через всю планету: подорож Миколи Подрезана
+Модель на візку - це реально. Історія Оксани Кононець
+Я нещодавно подивилась серіал "Чорнобиль". Дещо мені вже було відомо. Я знала, що влада намагалася приховати справжні масштаби лиха. Все це дуже сумно - численні смерті, зруйновані домівки, покалічені долі. Ця частина країни вже ніколи не буде такою, як раніше.
+Однак мені не хочеться називати себе результатом того, що сталося, чогось жахливого. Немає сенсу зациклюватись на цьому. Треба намагатись бачити потенціал і можливості навіть у найгіршому.
+Копирайт изображения
+OKSANA MASTERS
+Image caption
+Українська дівчинка, від якої відмовились батьки, довела, що опустити руки - це найгірший вибір у житті
+Коли мені було п'ять, директор дитбудинку викликав мене до свого кабінету і сказав: "Я хочу показати тобі одне фото. Це твоя майбутня мама". Я глянула на знімок. Звідти мені посміхалась жінка - у неї були найтепліші очі й посмішка.
+Вона мене ніколи не бачила, їй сподобалось моє фото. І вона вирішила мене вдочерити. Відтоді щодня, доки вона не приїхала до дитбудинку, я постійно просила директора: "Можна мені подивитись на маму?"
+Іноді, коли я погано поводилась (а я була складною дитиною), директор казав: "Фото мами сьогодні не побачиш. Ти - погана дівчинка, не слухаєшся. Тому вона не приїде до тебе". Удочеріння тривало два роки, тож я почала в це вірити. Але її знімок не давав мені спокою.
+Чому іранці порівнюють свої протести з Чорнобилем
+Вона боролася за мене два роки. А потім приїхала і побачила, як я живу. Була зима, у приміщенні замерзли батареї, і працівники дитбудинку зчищали кригу з підлоги у передпокої.
+Названа мати Оксани Мастерс викладала в університеті у Буффало, штат Нью-Йорк. Вона знала, що ліву ногу її доньки доведеться ампутувати. Незабаром після переїзду до США дівчинці зробили операцію. У 2001 році жінка отримала нову посаду, і родина переїхала з Буффало до Луїсвілля, штат Кентуккі. Рік по тому Оксані ампутували другу ногу вище коліна.
+Копирайт изображения
+ОКСАНА МАСТЕРС
+Image caption
+"Мамо, немає слів, що можуть передати мою любов до тебе. Ти - неймовірна. А твоя посмішка - це все, що мені потрібно, щоб почуватися повноцінною і коханою", - так Оксана підписала в Instagram їхнє спільне з мамою фото
+Я не розуміла, що відрізняюсь від інших, доки не приїхала до Америки.
+У мене діагностували затримку росту через недоїдання. У вісім років мій зріст був 86 см, а вага - 16 кг. Середні показники для трирічної дитини у США.
+Тепер, коли я сама вже доросла людина, я розумію, як важко було моїй мамі. Самотній жінці було практично неможливо когось усиновити або удочерити. Їй довелося пройти через неймовірну кількість психологічних тестів. Відповідати на безліч незручних запитань. Чому ти одна? Що з тобою не так? Де твій чоловік?
+Я не усвідомлювала, з чим їй довелося зіткнутися, перш ніж зустрітися зі мною. Це доказ того, що вона - сильна людина з чистим серцем. Той, хто приймає в сім'ю чужих дітей, - це подарунок неба. Але те, що зробила моя мама, це ще вищий рівень.
+Мама знала, що мою ліву ногу доведеться ампутувати - вона була на 15-17 см коротша, ніж права. Це було важко. Але коли мені виповнилося 13, лікарі сказали, що не зможуть врятувати й праву ногу. Тож з нею також довелося попрощатися.
+Я дуже довго не могла з цим змиритися. Але біль у правій нозі став нестерпним, і я сказала: "Добре, я готова, але за однієї умови - ви залишите коліно".
+Вони не заперечували, але вже на операційному столі повідомили: "Ми будемо ампутувати вище коліна". Я була під дією наркозу і майже нічого не усвідомлювала. Але ніколи не забуду своє відчуття, коли прокинулася в лікарні. Я спробувала підвестися, але опори в ногах більше не було, і я впала на спину. Це було справді важко.
+Я розумію, що лікарі хотіли кращого. Але, якщо чесно, гнів і розчарування досі не відпускають мене.
+Оксана також перенесла кілька операцій на обох руках. 2002 року дівчинка почала займатися веслуванням. А 2012-го в парі з Робом Джонсом виграла "бронзу" Паралімпійських ігор. У 2014 році в Сочі вона виступала в лижних перегонах.
+Першою людиною, яка запропонувала взяти участь в Паралімпіаді й міжнародних змаганнях, став Ренді Міллс, директор клубу з академічної греблі для людей з обмеженими можливостями в Луїсвіллі. Я не люблю програвати, і він це помітив. Мені лише потрібно було отримати необхідну спортивну підготовку, щоб вийти на відповідний рівень.
+Копирайт изображения
+ОКСАНА МАСТЕРС
+У 2008 році я почитала про Паралімпіаду, і подумала: "Боже, це чудово!" Мені було складно уявити, щоб безнога людина (така як я) представляла США на змаганнях такого рівня.
+У 2012 році на Іграх в Лондоні я зрозуміла: моє місце тут. Відтоді я повністю присвятила себе цьому.
+Перед цим Оксана Мастерс позувала в стилі "ню" для журналу ESPN.
+У дитинстві у мене була занижена самооцінка. Здавалося справжньою катастрофою, коли щось було не так із зачіскою, або на обличчі з'являвся прищик саме того дня, коли до школи приходив фотограф. Не кажучи вже про те, що прикрити протези ніг і рук було непросто.
+Та й суспільство навішує на тебе ярлик, хоч ти і не вважаєш себе інвалідом.
+Мені не хотілося б, щоб наступне покоління хлопчиків і дівчаток росло без кумира, який став би для них прикладом для наслідування. У кожного школяра на стіні висіла фотографія баскетболіста Майкла Джордана.
+Чому не вважають нормою прикрашати стіни кимось, хто отримав травми в аварії або народився з обмеженими можливостями?
+Але мені не подобається так говорити, тому що це не обмежені можливості. Це лише термін, яким суспільство "нагороджує" тих, хто виглядає не так, як інші.
+Гадаю, краще один раз побачити, ніж сто разів почути. Чим більше ви дивитесь виступи параатлетів, тим швидше до цього звикаєте. Приємно спостерігати за тим, як росте паралімпійський рух.
+Оксана Мастерс завоювала срібну й бронзову медалі на Іграх в Сочі в 2014 році - обидві у лижних перегонах. Чотири роки по тому в Пхьончхані вона вперше виборола "золото". На тих Іграх на двох зі своїм партнером Аароном Пайком вони отримали чотири золоті медалі. Тепер Мастерс готується до участі у велогонці на Іграх у Токіо. У 2016 році в Ріо-де-Жанейро завоювати медалі їй не вдалося.
+Аарон дуже терпляча людина. Я не знаю нікого, хто б міг впоратися з моїм безладом. Ми проводимо багато часу разом, можемо підбадьорювати одне одного на тренуваннях.
+Він обганяє мене на спусках, але на підйомах я залишаю його позаду і кричу: "Ха-ха, до зустрічі!" Ми не можемо знищити в собі дух суперництва. Якщо ми з вами сядемо грати в "Монополію", і ви будете вигравати, я вам не заздрю!
+Але добре, що в дні тренувань поруч є така людина як Аарон, особливо коли намагаєшся знайти будь-яку причину, щоб не тренуватися. У ньому я знайшла найкращого друга, партнера і колегу по команді. Він не просто чудовий бойфренд. Він дійсно хоче, щоб інші люди досягали успіху, і цим він ділиться з командою.
+У Токіо моя головна мета - виграти обидва змагання, в яких я беру участь (перегони на шосе та перегони з роздільним стартом). У мене було недостатньо часу, щоб підготуватися до Ігор в Ріо, оскільки я ще закінчувала лижний сезон, і на перехід було лише кілька місяців.
+Попереду - Токіо, тож мені точно є до чого прагнути.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>20/12/2020</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Фани серіалу "Чорнобиль" руйнують зону відчуження. Огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SKY UK/HBO
+Image caption
+Кадр з серіалу - вибух на ЧАЕС
+У п'ятницю, 20 грудня, західна преса пише про "нацистський скандал" з українським футболістом, фанатів серіалу "Чорнобиль", що руйнують зону відчуження, та руйнівний святковий алкоголь.
+Токсичні фанати серіалу "Чорнобиль"
+Після виходу серіалу "Чорнобиль" кількість туристів у зоні відчуження значно зросла, пише Guardian.
+Якщо в жовтні минулого року тут за місяць приїхало близько 9 тисяч туристів, то в жовтні цього року їх було вже 17 тисяч.
+"Ситуація жахлива", - цитує видання Сергія Іванчука, власника туристичної компанії "Соло Іст", що багато років возить відвідувачів до зони відчуження. Він відмовляється змінювати свої тури відповідно до телеверсії і обурений планами президента Зеленського зробити із Чорнобильської зони "туристичний рай".
+"Чорнобиль" і туристичний бум: автор серіалу просить не робити недоречні селфі
+Де знімали серіал "Чорнобиль": реальні та віртуальні локації України
+Моторошна правда і вигадки серіалу "Чорнобиль" - розповідь очевидця
+Результат масового туризму - зростання вандалізму, пише видання.
+У багатьох місцях можна побачити графіті у вигляді пеніса, на радіолокаційну антену "Дуга" вішають "замки кохання", а туркомпанії в гонитві за заробітком наробили позбавлених смаку сувенірів - від магнітиків до футболок.
+"Ніхто б не додумався робити магнітики з газовими камерами і продавати їх на в'їзді в Освенцим", - каже Іванчук.
+Обурені напливом туристів і сталкери, які нелегально ходять до зони відчуження. Між ними та туристичними гідами, які возять в зону любителів селфі, виник конфлікт, пише Guardian.
+Найгірше за все - це неповага до місця катастрофи, вважає видання.
+Зозуля про скандал
+"Я - патріот і це не злочин", - заявив український футболіст Роман Зозуля під час пресконференції 19 грудня, коментуючи інцидент на матчі "Райо Вальєкано" та "Альбасете", пише іспанське спортивне видання Marca.
+15 грудня гру команд перервали через те, що вболівальники "Райо Вальєкано" обзивали Зозулю нацистом.
+"Все, що про мене кажуть, - неправда. Я - лише футболіст і патріот своєї країни. Я - лише футболіст і не маю політичних поглядів", - сказав Зозуля.
+"Зозуля - клятий нацист": в Іспанії футбольний матч перервали через образи українця
+"Ми з тобою! Тисну руку": Зеленський підтримав Зозулю
+Через звинувачення у "нацизмі" Зозуля не зіграє до кінця сезону
+Коментуючи закиди на свою адресу щодо допомоги військовим, футболіст пояснив: "В Україні йде війна, і серед нас багато тих, хто долучається до гуманітарних акцій: платить за роботу карет швидкої допомоги, їжу та одяг, допомагає в лікарнях; ми з моєю футбольною командою кілька разів відвідували передову, щоб показати нашу підтримку".
+"Ми займаємося порятунком життів як члени громадянського руху, жодного разу не купували зброю. Я - патріот і це не злочин", - додав він.
+Копирайт изображения
+QUALITY SPORT IMAGES
+Коментуючи свої фото з портретом Степани Бандери у соцмережах, Зозуля сказав, що зробив їх тому, що дійсно схожий на лідера українського націоналістичного руху ХХ століття. Футболіст додав, що вважає Іспанію своєю другою батьківщиною.
+Свята vs зуби
+Свята можуть погано відбитися на ваших зубах. Британський стоматолог Крістофер Орр розповів виданню Daily Mail, які напої для цього найгірші.
+Найбільше руйнують зуби коктейлі, в яких поєднується солодке та кисле. У списку "ворогів" також шампанське, просекко та білі вина, на кшталт рислінгу та шаблі, які мають високу кислотність. Кислота пом'якшує зубну емаль, пояснює стоматолог.
+Копирайт изображения
+GETTY IMAGES
+Червоні вина, як от піно нуар, також можуть мати високу кислотність, зазначає лікар. Він додає, що шкідливі для зубів і солодкі вина, адже містять багато цукру.
+І тут зрада: вчені спростували користь червоного вина
+Що не можна давати собакам та котам на Новий рік: поради ветеринарів
+Як не посваритись із близькими в новорічні свята. 10 способів
+"Суміші для коктейлів зі смаком лимону та газовані напої на кшталт звичайної або дієтичної коли спричиняють ерозію зубів через кислоту", - також застерігає лікар.
+Він радить вживати напої через соломинку, аби зменшити контакт кислоти з зубами, та час від часу промивати рота водою, аби допомогти слині зменшити в ньому кислотність.
+Огляд підготували Тетяна Кирилюк та Ганна Чорноус, Служба моніторингу BBC
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>14/12/2020</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Нікола Келлі</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>"Я стала одержимою". Коли спорт стає залежністю</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Коли здорові і правильні звички - наприклад, тренування - стають нездоровою одержимістю? І чи можуть мобільні додатки погіршити ситуацію?
+Опале листя шурхотить під ногами Валері Стефан, яка спокійно та зосереджено маневрує між деревами на своїй ранковій пробіжці.
+"Коли я бігаю, я відчуваю, що чогось досягаю, - каже спортсменка-аматорка. - Я стаю швидшою, сильнішою. Це - наче серія невеличких перемог".
+7 "фактів" про фітнес, які виявилися фейками
+Фітнес-трекери обманюють: насправді, ви пробігаєте менше?
+Валері почала бігати десять років тому, щоб поліпшити свою фізичну форму. Спочатку вона зареєструвалася на 5-кілометровий забіг, потім - на 10 км, а потім пробігла марафон. Але незабаром вона почала вставати рано щоранку, щоб тренуватися - і спорт вийшов на перше місце серед її пріоритетів.
+"Я почала розуміти, що не я контролюю тренування, а вони контролюють мене. Цей контроль швидко перетворився на одержимість", - каже вона.
+"Вона мала великий вплив на мою роботу, мою сім'ю - кожен аспект мого життя. З часом, фізичні вправи стали нездоровими".
+Залежність ставала усе сильнішою, і Валері почала віддалятися від близьких людей.
+"Це завдало шкоди моїм стосункам, - розповідає вона. - Деякі люди просто не розуміли моєї потреби у тренуваннях. Вони сприймали мене як трохи божевільну".
+Науковці знайшли межу людської витривалості
+Вона пстала запізнюватися на зустрічі, переносити їх та скасовувати - і це стало для неї нормою. Валері зустрічалася з друзями лише за умови, що вони гратимуть у сквош чи плаватимуть - і розслаблялася лише тоді, коли виконувала свій денний тренувальний норматив.
+"Вони думали, що я не хочу їх бачити, - каже Валері. - Я хотіла, але мені доводилося багато тренуватися заздалегідь, бо інакше я відчувала велику провину. Це був наче постійний компроміс".
+"Я ніколи не могла відпочивати. Я завжди тікала. Мені ніколи не хотілося проводити час вдома", - каже вона.
+"Все, чого мені хотілося - це показати, що я надлюдина, яка повністю усе контролює - я не могла показати, наскільки мені емоційно важко".
+Після багатьох років намагань вижати максимум зі свого тіла та розуму, у Валері почалося вигорання та депресія. Щоб відновитись, їй довелось на чотири місяці покинути роботу.
+Психологи кажуть, що залежність від фізичних вправ - різновид поведінкової залежності, під час якої поведінка людини стає нав'язливою, компульсивною або ж порушує її щоденне життя.
+Як додатки для відстеження менструації допомагають жінкам у спорті
+Вважається, що на неї страждає близько 3% людей - і цей показник зростає до 10% серед бігунів, які демонструють високі результати.
+Як правило, найвразливішими є спортсмени-аматори, такі як Валері, які намагаються таким чином втекти від своїх внутрішніх проблем, каже психологиня доктор Четна Канг з The Priory Hospital на півночі Лондона.
+"Часто люди приходять у клініку з проблемами у стосунках, тривожністю, депресією ... але, коли ви починаєте з усім цим розбиратися, ви розумієте, що винуватцем є тренування", - каже д-р Канг.
+"Це ситуації не надто поширені, але їх стає усе більше", - додає психологиня.
+Що таке залежність від фізичних вправ?
+Д-р Каз Нахман - дитяча та підліткова психіатриня, яка спеціалізується на харчових розладах. Серед її пацієнтів надмірні фізичні вправи - поширене явище.
+Важко точно визначити, що таке залежність від фізичних вправ - це недостатньо досліджена область, і люди використовують різні терміни: залежність від фізичних вправ, компульсивні фізичні вправи та обов'язкові фізичні вправи
+Тренування, як правило, корисні для психічного здоров'я - це прекрасний спосіб боротьби з легкою депресією або сильною тривожністю, - але перенапруження може мати негативний вплив
+Фітнес-трекери можуть сприяти залежності від фізичних вправ та одержимості, особливо якщо для вас важливі досягнення та перфекціонізм - обмін даними в соціальних мережах означає, що тренування стають публічними та конкурентними, що може спричинити проблеми у вразливих осіб
+Симптомами надмірних тренувань можуть стресові переломи, тендиніт та зниження імунітету.
+Жінки ризикують отримати так звану "тріаду спортсменок" - припинення менструації, остеопороз та харчові розлади. У чоловіків інтенсивні тренування можуть знижувати лібідо.
+Мартін Тернер, спортивний психолог з університету Manchester Metropolitan, працював зі спортсменами та досліджував їх протягом 10 років. Він регулярно стикається з людьми, які повністю залежать від своїх спортивних успіхів.
+"У них формується думка про те, що їхній успіх як спортсмена відображає їхню цінність як людини. "Я успішний спортсмен - значить, я маю цінність. Я спортсмен-невдаха - значить, я нікчемний", - розповідає він.
+Дослідження пана Тернера показують, що подібні "нелогічні переконання" пов'язані з більшою залежністю від фізичних вправ, депресією, гнівом, тривожністю та вигоранням.
+За його словами, нелогічними такі переконання є з трьох причин:
+вони перешкоджають гарному самопочуттю, а не сприяють йому;
+вони відображають короткочасну мотивацію, що базується на почутті провини - люди біжать, щоб уникнути провини, а не заради бігу як такого;
+вони не відповідають дійсності - вам необхідно дихати, їсти, пити і спати; біг не входить до переліку базових потреб.
+Симптоми відмови
+Відмовитися від припливу адреналіну та ендорфінів, що виділяються під час занять спортом, може бути дуже важко.
+Чи допомагає музика займатися спортом?
+Для Валері спроби зменшити інтенсивність тренувань мали сильний вплив на її самопочуття, часто змушуючи її почуватися більш неугавною. Це, за її словами, тримає її у замкненому колі.
+"Я відчуваю тривожність, коли не можу тренуватися, - каже вона. - Я не можу спати, у мене починається головний біль. День без тренувань здається мені днем, проведеним у в'язниці".
+Зменшення кількості фізичних вправ може бути складним завданням, коли вас оточують мобільні додатки та фітнес-трекери на кшталт Strava, Garmin, FitBit та інших.
+"Я люблю додатки. Я щодня заглядаю у них, слідкую за темпом, кількістю тренувань, своїм прогресом", - каже Валері.
+Вона зізнається, що відчуває тиск, коли бачить, що її друзі тренуються більше за неї.
+Чи допоможуть мобільні додатки схуднути назавжди?
+Такий відкритий доступ до даних, каже пан Тернер, може посилити одержимість і перешкоджати відновленню.
+Він каже, що додатки змушують вас постійно конкурувати - як з іншими, так і з власними попередніми досягненнями. Це може мати особливо згубний вплив на людей, чия самооцінка залежить від їхніх досягнень.
+Image caption
+Тренерка з триатлону Одрі Лівінгстон вважає, що мобільні додатки можуть провокувати нездорове ставлення до тренувань
+Британська тренерка з тріатлону Одрі Лівінгстон каже, що додатки та трекери призводять до нездорового ставлення до тренувань у спортсменів, яких вона тренує.
+"Деякі з них не отримують задоволення від того, що вони роблять - уся їхня увага зосереджена на тому, що роблять інші", - каже вона.
+Натомість тренерка радить їм зосереджуватися на власних результатах - але такі поради необхідно давати дуже обережно.
+"Я скорочую кількість тренувань, даю їм тиждень на відновлення. Їм це не подобається, вони починають ставити це під сумнів, і деяким це дуже важко дається, - говорить пані Лівінгстон. - Вони просто не розуміють, чому іноді потрібно відпочивати".
+Шлях до одужання
+Як і у випадку будь-якої залежності, шлях до одужання може бути тривалим і складним. Пан Тернер вважає, що перший крок - визнати проблему.
+"Одна з речей, яку мають зробити спортсмени - визнати свої думки, мотиви та переконання та кинути їм виклик", - говорить він.
+Він радить сказати собі: "Якщо я не тренуватимусь сьогодні, це погано, але це, звичайно, не найгірше у світі", а також усвідомити, що рішення зробити перерву у тренуваннях не робить вас невдахою та нікчемою.
+Для Валері повернення до здорового балансу фізичних вправ та відпочинку є постійним викликом. Тепер, із підтримкою близьких людей, вона вважає, що йде шляхом до одужання.
+"Розуміння того, що це стало залежністю, займає багато часу, - каже вона. - Річ у тім, щоб відпустити, не бути одержимим, навчитися не контролювати все і сказати собі, що зовсім не потрібно бути ідеальним".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>12/12/2020</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>"Динамо" вилетіло з Ліги Європи</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+В останньому матчі групового етапу Ліги Європи київське "Динамо" зіграло унічию 1:1 зі швейцарським "Лугано" й припинило участь в турнірі.
+Для виходу у плей-офф турніру "Динамо", яке займало третє місце у групі, потрібна була тільки перемога, а також сприятливий результат у матчі конкурентів у групі В "Копенгаген" і "Мальме".
+Проте виграти вдома у швейцарців динамівці не змогли.
+Як купити квитки на Євро-2020. Інструкція
+"Шахтар" програв "Аталанті" і вилетів з Ліги Чемпіонів
+"Динамо" вибило "Шахтар" з Кубку України
+Хоча у першому таймі підопічні Олексія Михайличенка створили більше моментів за суперників і кілька разів могли забити гол, рахунок відкрили гості. Під завісу першого тайму Араторе головою замкнув навіс і пробив ворота Бущана.
+А наприкінці другого тайму Циганков зрівняв рахунок, але не більше.
+Напередодні домашнього матчу і Лізі Європи динамівці на домашньому стадіоні програло "Зорі" з рахунком 1:2. У першості України динамівці наразі займають аж четверту сходинку.
+Напередодні донецький "Шахтар" програв домашній матч "Аталанті" та вилетів з Ліги чемпіонів. Проте гірники зайняли третє місце у групі, тож продовжать навесні виступи у плей-офф в Лізі Європи.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>"Шахтар" програв "Аталанті" і вилетів з Ліги Чемпіонів</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SHAKHTAR
+Ввечері у середу донецький "Шахтар" не зміг оформити вихід у плей-оф Ліги чемпіонів, програвши італійській "Аталанті" з рахунком 3:0.
+Для виходу до наступного раунду турніру "гірнякам" у домашньому поєдинку на стадіоні "Металіст" у Харкові достатньо було зіграти внічию, проте зробити цього не вдалося.
+Перший гол у ворота "Шахтаря" "Аталанта" забила на 66-й хвилині: у ворота поцілив Тімоті Кастань. Взяття воріт зарахували тільки після застосування системи VAR.
+Вже за 15 хвилин італійський клуб зміг подвоїти перевагу: після подачі українця Руслана Малиновського голом відзначився Маріо Пашаліч.
+Третій м'яч у ворта "гірників" вже у доданий арбітром час забив Робін Госенс.
+"Динамо" вибило "Шахтар" з Кубку України
+За результатом шести поєдинків на рахунку "гірників" - 6 очок, які забезпечують їм третє місце в групі C і путівку до Ліги Європи.
+На першій і другій сходинках - "Манчестер Сіті" та "Аталанта".
+Три з п'яти попередніх поєдинків у ЛЧ "Шахтар" завершив унічию (2:2 і 3:3 проти загребського "Динамо", 1:1 у гостьовому поєдинку з "Манчестер Сіті"), в одному здобув перемогу (2:1 проти "Аталанти"), у ще одному зазнав поразки (3:0 від Манчестер Сіті").
+Суперник "Шахтаря" у плей-оф Ліги Європи стане відомий після жеребкування, яке пройде 16 грудня.
+Поєдинки 1/16 фіналу Ліги Європи пройдуть 20 і 27 лютого.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>9/12/2020</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Росію відсторонили від міжнародних змагань на чотири роки</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Всесвітнє антидопінговове агентство визнало Російське антидопінгове агентство таким, що не відповідає міжнародному кодексу.
+Відповідно до стандартів ВАДА, якщо національне агентство втрачає статус, країна фактично позбавляється права проводити будь-які міжнародні змагання.
+Тому у наступні чотири роки Росія не зможе брати участь в Олімпіадах і на чемпіонатах світу.
+Також РФ не може приймати великі міжнародні турніри.
+Це означає, що російський прапор та гімн не будуть дозволені на таких змаганнях, як Олімпіада в Токіо у 2020 році та Чемпіонат світу з футболу в 2022 у Катарі.
+Однак російські спортсмени, які зможуть довести свою непричетність до допінгових скандалів, зможуть виступити під нейтральним прапором.
+Попри нинішню заборону, російська футбольна збірна має право грати на Євро-2020, де одне з міст проведення матчів - Санкт-Петербург. Це пов'язане з тим, що УЄФА не вважається ВАДА "організатором найголовніших заходів".
+Олімпіада без Росії? МОК підтримує найжорсткіші санкції
+Мутко: інформатор ВАДА Родченков писав свій щоденник у США
+Тепер у Росії є 21 день, щоб подати апеляцію.
+У чому звинувачують Росію
+Копирайт изображения
+GETTY IMAGES
+Рекомендації комітету Всесвітнього антидопінгового агентства ґрунтуються на даних перевірки, що розкрила маніпуляції з даними Московської антидопінгової лабораторії.
+"Дані лабораторії не є ані повними, ані повністю достовірними", - кажуть в комітеті.
+Росію звинувачують у знищенні доказів того, що співробітник лабораторії міг допомагати приховувати дані, які підтверджують вживання допінгу російськими спортсменами у 2014-2015 роках.
+На цей період, наприклад, припадають Олімпійські зимові ігри в Сочі у 2014 році, коли росіяни виграли 33 медалі, 13 з яких були золотими.
+Комітет рекомендує не допускати Росію на Олімпійські та Паралімпійські ігри, а також чемпіонати світу, які організовуються стороною, що підписала антидопінговий кодекс.
+До великих спортивних змагань пропонується допускати лише тих російських спортсменів, яких не підозрювали у вживанні допінгу.
+Що каже російська влада?
+Копирайт изображения
+PA
+В останні тижні Володимир Путін тему допінгу не коментував. Хоча у Кремлі заявили, що російський лідер стежить за тим, що відбувається.
+Прем'єр Дмитро Медведєв в інтерв'ю російським каналам порівняв те, що трапилося, "з нескінченним російським серіалом".
+Міністр закордонних справ РФ Сергій Лавров, коментуючи розслідування ВАДА, заявив, що Росію намагаються поставити "у ситуацію обвинуваченої".
+Представниця російського МЗС Марія Захарова назвала те, що відбувається, грою без правил: "Мова йде про політизацію цього [допінгового] питання для видавлювання Росії. Є такий термін - недобросовісна конкуренція. І тут вже йде боротьба без правил, а може бути вже навіть війна".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>26/11/2020</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Олімпіада без Росії? МОК підтримує найжорсткіші санкції</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Міжнародний олімпійський комітет заявив, що підтримає найжорсткіші санкції за маніпуляції з російськими даними по допінгу.
+Напередодні комітет Всесвітнього антидопінгового агентства (ВАДА) рекомендував виконкому цієї організації відлучити Росію від участі в міжнародних змаганнях на 4 роки, оскільки дійшов висновку, що Росія регулярно порушує вимоги Всесвітнього антидопінгового кодексу.
+У МОК подякували ВАДА за проведене розслідування і закликали Москву надати міжнародним експертам дані по всім епізодам, про які йдеться в розслідуванні агентства і які стали приводом для пропозиції про відлучення Росії.
+Росію знову відсторонили від чемпіонату світу з легкої атлетики. Можуть - і від Олімпіади
+У своїй заяві МОК підкреслює, що ВАДА у своїх рекомендаціях покладає відповідальність за порушення безпосередньо на російську владу, а не на російський олімпійський рух.
+Саме тому, кажуть в МОК, вони підтримують ідею ВАДА допускати до змагань тих російських спортсменів, які зможуть довести свою непричетність до порушень.
+У чому ВАДА звинувачує Росію
+Рекомендації комітету Всесвітнього антидопінгового агентства ґрунтуються на даних перевірки, що розкрила маніпуляції з даними Московської антидопінгової лабораторії.
+"Дані лабораторії не є ані повними, ані повністю достовірними", - кажуть в комітеті.
+Зокрема Росію звинувачують у видаленні доказів того, що неназваний співробітник лабораторії міг допомагати приховувати дані, які підтверджують вживання допінгу російськими спортсменами у 2014-2015 роках.
+Рішення про відсторонення Росії поки що не схвалено: засідання виконкому ВАДА заплановане на 9 грудня.
+Комітет Всесвітнього антидопінгового агентства рекомендує не допускати Росію на Олімпійські та Паралімпійські ігри, а також чемпіонати світу, які організовуються стороною, що підписала антидопінговий кодекс.
+Під це обмеження з-поміж іншого може потрапити чемпіонат світу з футболу, оскільки ФІФА є підписантом кодексу.
+До великих спортивних змагань пропонується допускати лише тих російських спортсменів, які не підозрювали у вживанні допінгу.
+Росіянам, яких допустять до змагань, дозволять виступати під нейтральним прапором.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>17/11/2020</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Україна зіграла з Сербією внічию</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Артем Бєсєдін врятував українців від поразки на останній хвилині
+Збірна України з футболу рахунком 2:2 у матчі зі збірною Сербії завершила останній матч у відбірковому циклі Євро-2020, який проходив в Белграді.
+Україна ще в минулому турі пройшла на чемпіонат, тому результат матчу на участь в ньому не впливає.
+Як купити квитки на Євро-2020. Інструкція
+Україна в меншості перемогла Португалію і вийшла на Євро-2020
+"Не плач, куплю я твій шампунь". Соцмережі про перемогу України над збірною Роналду
+Матч почався для українських футболістів невдало. На 8-й хвилині сербський футболіст Душан Тадич влучив у руку Миколі Матвієнку. Український футболіст отримав гірчичника, а серби - право на пенальті, яке успішно реалізував Тадич: 1:0 вже на 9-й хвилині.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Матч розпочався невдало для українців - з реалізованого пенальті Тадича
+Українська збірна пробувала змінити рахунок. На 23-й хвилині сербів врятувала штанга, а вже на 31-й хвилині Роман Яремчук зрівняв рахунок головою з подачі Віктора Циганкова.
+Наприкінці першого тайму Яремчук та Ярмоленко намагалися атакувати сербські ворота, але без успіху.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Митрович забиває з подачі Тадича на 56-й хвилині
+Другий тайм почався з атак сербів. П'ятов не дозволив забити Адему Ляїчу, але вже на 56-й хвилині Олександр Митрович забив м'яча в дальній кут воріт з подачі Тадича.
+Від поразки українців врятував на останній доданій хвилині Артем Бєсєдін, пробивши у нижній кут воріт: 2:2.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Українська збірна на Євро-2020 потрапила ще у жовтні
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>17/11/2020</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Віталій Червоненко</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Євро-2020: як купити квитки. Інструкція</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+Матч між збірними Сербії та України, який відбудеться 17 листопада, є останнім у відбірковому циклі на Євро-2020. Україна ще в минулому турі пробилась на турнір, тож саме час задуматись, як можна купити квиток і підтримати синьо-жовтих влітку наступного року.
+Коли українці дізнаються, де ж гратиме збірна, та як можна буде купити квитки, щоб підтримати синьо-жовтих - розбиралась ВВС News Україна.
+Формат наступної футбольної європейської першості незвичний - матчі відбуватимуться у 12 містах 11 кран Європи: Амстердам, Баку, Більбао, Бухарест, Будапешт, Копенгаген, Дублін, Глазго, Лондон, Мюнхен, Рим та Санкт-Петербург.
+Для поїздок в усі ці міста, окрім Дубліна, Глазго та Лондона, українцям не потрібні візи.
+"Не плач, куплю я твій шампунь". Соцмережі про перемогу України над збірною Роналду
+До Європи за 500 гривень: як дешево полетіти з України у подорож
+Україна в меншості перемогла Португалію і вийшла на Євро-2020
+У Євро-2020 братимуть участь 24 команди, які поділять на шість груп.
+Тому питання перельотів, житла та усієї логістики для вболівальників буде надзвичайно актуальним.
+Збірні-господарі змагань частину матчів групового етапу точно гратимуть вдома.
+Україна пробилась на Євро-2020 з першого місця відбіркової групи, але досі не відомо, в яких містах Європи вона гратиме. Точно знаємо, що Україна не потрапить у групу з Росією, а також не гратиме у Санкт-Петербурзі.
+Всесильна лотерея
+Копирайт изображения
+UNIAN
+Image caption
+Українські вболівальники матимуть змогу взяти участь у розіграші квитків на матчі збірної України на Євро-2020
+Жеребкування груп Євро-2020 року відбудеться 30 листопада цього року.
+А вже наступного дня вболівальники зможуть спробувати купити квитки на матчі як власної збірної, так і будь-якої іншої.
+Продаж квитків на Євро-2020 суворо контролюється УЄФА і відбувається тільки на офіційному сайті.
+Для того, щоб брати участь у купівлі квитків на Євро, треба обов'язково зареєструвати свій профіль.
+Щоб усі вболівальники були у рівних умовах, УЄФА розподіляє квитки через систему спеціальних лотерей.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Матчі Євро-2020 проходитимуть по всій Європі
+Перший етап продажу квитків відбувся ще влітку цього року - з 12 червня до 12 липня.
+Тоді кожен охочий міг через свій профіль подати заявку на купівлю квитків на необмежену кількість матчів у всіх містах Євро-2020.
+Для цього треба було залишати заявку на матчі, які не перетинаються в часі. На кожну гру у заявці можна було просити не більше чотирьох квитків. Але кількість ігор у заявці не обмежували.
+Вартість квитків - фіксована й ділиться на три цінові категорії - від найдорожчих до найдешевших.
+У частині міст - Баку, Бухаресті та Будапешті - ціна стартує від 30 євро, в інших містах Європи - від 50.
+Наприкінці літа відбулось жеребкування й розіграш частини квитків. Всім учасникам повідомили, які їхні заявки стали переможними й які квитки вони після цього можуть викупити.
+Це було чисте везіння, багато вболівальників подавались на всі можливі варіанти, часто отримували можливість викупити квитки у ненайзручніших містах. Також тоді мало хто розумів, чи вийде його країна до фінальної частини і де саме гратиме.
+Частина учасників лотереї свої квитки тоді не викупили. Загалом на першому етапі розіграли півтора мільйона квитків.
+Усі квитки не підлягають перепродажу, окрім як через сайт УЄФА.
+Другий етап продажу
+Квитки, які не розіграли влітку, продовжать розігрувати з 1 грудня 2019 року на тому ж порталі УЄФА.
+Після жеребкування вже будуть відомі більшість учасників чемпіонату, їхні групи та міста ігор.
+Для вболівальників конкретних збірних створена спеціальна можливість взяти участь у лотереї "Їду за своєю збірною". Для купівлі квитків на всі три матчі України створений спеціальний підрозділ, де з'явиться можливість подати заявку на купівлю квитків (знову ж таки потрібен власний профіль у системі купівлі квитків УЄФА).
+Стежити за цією сторінкою варто одразу з 1 грудня, швидко подавати власні заявки й у разі успіху викупити квитки.
+На цьому етапі мають розіграти ще близько мільйона квитків.
+Ще одна опція для вболівальників купити квитки на ігри збірної України в грудні цього року - спробувати свої сили у додатковій лотереї для "нейтральних вболівальників" у спеціальному розділі сайту.
+Копирайт изображения
+АСОЦІАЦІЯ ФУТБОЛУ УКРАЇНИ
+Там можна зареєструватись на лотерею на будь-який матч чемпіонату.
+У вболівальників, яким не пощастить під час грудневого розіграшу, або які не встигнуть подати заявки, буде ще один шанс купити квитки вже у 2020 році.
+З початку 2020 року сайт УЄФА запустить спеціальну платформу "Перепродажу квитків".
+На цій платформі вболівальники, які купили квитки на матчі ще під час лотереї червня-липня, зможуть офіційно продати свої квитки за номіналом.
+Очікують, що тут продаватимуть квитки люди, чиї збірні не пройшли до фінальної частини турніру. Можна буде випробувати щастя і вхопити квиток на один потрібний матч.
+УЄФА попереджає, що куплені поза межами їхньої системи квитки є недійсними.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
 </t>
         </is>
       </c>
